--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1669,42 +1669,44 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.03515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="123"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="5" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1712,10 +1714,13 @@
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1723,10 +1728,13 @@
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1734,10 +1742,13 @@
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1745,10 +1756,13 @@
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1756,10 +1770,13 @@
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1767,10 +1784,13 @@
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1778,10 +1798,13 @@
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1789,10 +1812,13 @@
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1800,10 +1826,13 @@
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1811,10 +1840,13 @@
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1822,10 +1854,13 @@
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1833,10 +1868,13 @@
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1844,10 +1882,13 @@
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1855,10 +1896,13 @@
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1866,5330 +1910,5814 @@
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="8"/>
-      <c r="C42" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="8"/>
+      <c r="D42" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="6"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6"/>
+      <c r="C44" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6"/>
+      <c r="C45" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6"/>
+      <c r="C46" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6"/>
+      <c r="C47" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D47" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6"/>
+      <c r="C48" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D48" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6"/>
+      <c r="C49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6"/>
+      <c r="C50" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6"/>
+      <c r="C51" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D51" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6"/>
+      <c r="C52" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D52" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6"/>
+      <c r="C53" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D53" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="5"/>
-    </row>
-    <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="6"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6"/>
+      <c r="C56" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D56" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6"/>
+      <c r="C57" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D57" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6"/>
+      <c r="C58" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D58" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="6"/>
+      <c r="C59" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D59" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6"/>
+      <c r="C60" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D60" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6"/>
+      <c r="C61" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D61" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6"/>
+      <c r="C62" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D62" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="6"/>
+      <c r="C63" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D63" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6"/>
+      <c r="C64" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D64" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6"/>
+      <c r="C65" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D65" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6"/>
+      <c r="C66" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D66" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6"/>
+      <c r="C67" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D67" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6"/>
+      <c r="C68" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D68" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6"/>
+      <c r="C69" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D69" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6"/>
+      <c r="C70" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D70" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6"/>
+      <c r="C71" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D71" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6"/>
+      <c r="C72" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D72" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6"/>
+      <c r="C73" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D73" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6"/>
+      <c r="C74" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D74" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6"/>
+      <c r="C75" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D75" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6"/>
+      <c r="C76" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D76" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6"/>
+      <c r="C77" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D77" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6"/>
+      <c r="C78" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D78" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="6"/>
+      <c r="C79" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D79" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="6"/>
+      <c r="C80" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D80" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="6"/>
+      <c r="C81" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D81" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="6"/>
+      <c r="C82" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D82" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="6"/>
+      <c r="C83" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D83" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="6"/>
+      <c r="C84" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D84" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="6"/>
+      <c r="C85" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D85" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="6"/>
+      <c r="C86" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D86" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="6"/>
+      <c r="C87" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D87" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="6"/>
+      <c r="C88" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D88" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="6"/>
+      <c r="C89" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D89" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="6"/>
+      <c r="C90" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D90" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="6"/>
+      <c r="C91" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D91" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="6"/>
+      <c r="C92" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D92" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="6"/>
+      <c r="C93" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D93" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="6"/>
+      <c r="C94" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D94" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="6"/>
+      <c r="C95" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D95" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="6"/>
+      <c r="C96" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D96" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="6"/>
+      <c r="C97" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D97" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="6"/>
+      <c r="C98" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D98" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="5"/>
-    </row>
-    <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="6"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="5"/>
+    </row>
+    <row r="101" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="6"/>
+      <c r="C101" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D101" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="6"/>
+      <c r="C102" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D102" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="6"/>
+      <c r="C103" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D103" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="6"/>
+      <c r="C104" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D104" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="6"/>
+      <c r="C105" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C105" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D105" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="6"/>
+      <c r="C106" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C106" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D106" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="6"/>
+      <c r="C107" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D107" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="6"/>
+      <c r="C108" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D108" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="6"/>
+      <c r="C109" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D109" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="6"/>
+      <c r="C110" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D110" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="6"/>
+      <c r="C111" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D111" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="6"/>
+      <c r="C112" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D112" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="6"/>
+      <c r="C113" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D113" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="6"/>
+      <c r="C114" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C114" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D114" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="6"/>
+      <c r="C115" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D115" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="6"/>
+      <c r="C116" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C116" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D116" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="6"/>
+      <c r="C117" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D117" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="6"/>
+      <c r="C118" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C118" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D118" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="6"/>
+      <c r="C119" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C119" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D119" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="6"/>
+      <c r="C120" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C120" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D120" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="6"/>
+      <c r="C121" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D121" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="6"/>
+      <c r="C122" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C122" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D122" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="6"/>
+      <c r="C123" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D123" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="6"/>
+      <c r="C124" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C124" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D124" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="6"/>
+      <c r="C125" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C125" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D125" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="6"/>
+      <c r="C126" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C126" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D126" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="6"/>
+      <c r="C127" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C127" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D127" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="6"/>
+      <c r="C128" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C128" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D128" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="6"/>
+      <c r="C129" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C129" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D129" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="6"/>
+      <c r="C130" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C130" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D130" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="6"/>
+      <c r="C131" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C131" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D131" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="6"/>
+      <c r="C132" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C132" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D132" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="6"/>
+      <c r="C133" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C133" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D133" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="6"/>
+      <c r="C134" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C134" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D134" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="6"/>
+      <c r="C135" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C135" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D135" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="6"/>
+      <c r="C136" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C136" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="8"/>
-      <c r="C138" s="5"/>
-    </row>
-    <row r="139" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D136" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C138" s="8"/>
+      <c r="D138" s="5"/>
+    </row>
+    <row r="139" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="6"/>
+      <c r="C139" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C139" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D139" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="6"/>
+      <c r="C140" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C140" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D140" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="6"/>
+      <c r="C141" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C141" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D141" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="6"/>
+      <c r="C142" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C142" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D142" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="6"/>
+      <c r="C143" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C143" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D143" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="6"/>
+      <c r="C144" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D144" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="6"/>
+      <c r="C145" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C145" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D145" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="6"/>
+      <c r="C146" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C146" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D146" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="6"/>
+      <c r="C147" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C147" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D147" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="6"/>
+      <c r="C148" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C148" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D148" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="6"/>
+      <c r="C149" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C149" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D149" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B150" s="6"/>
+      <c r="C150" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C150" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D150" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B151" s="6"/>
+      <c r="C151" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C151" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D151" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="6"/>
+      <c r="C152" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C152" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D152" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="6"/>
+      <c r="C153" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C153" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D153" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B154" s="6"/>
+      <c r="C154" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C154" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D154" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="6"/>
+      <c r="C155" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D155" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B156" s="6"/>
+      <c r="C156" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C156" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D156" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="6"/>
+      <c r="C157" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C157" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D157" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B158" s="6"/>
+      <c r="C158" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C158" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D158" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B159" s="6"/>
+      <c r="C159" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C159" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D159" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B160" s="6"/>
+      <c r="C160" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C160" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D160" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B161" s="6"/>
+      <c r="C161" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C161" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D161" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B162" s="6"/>
+      <c r="C162" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C162" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D162" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="B163" s="6"/>
+      <c r="C163" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C163" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D163" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="6"/>
+      <c r="C164" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C164" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D164" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B165" s="6"/>
+      <c r="C165" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C165" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D165" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B166" s="6"/>
+      <c r="C166" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C166" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D166" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="B167" s="6"/>
+      <c r="C167" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C167" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D167" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B168" s="6"/>
+      <c r="C168" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C168" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D168" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B169" s="7" t="s">
+      <c r="B169" s="6"/>
+      <c r="C169" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C169" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D169" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B170" s="7" t="s">
+      <c r="B170" s="6"/>
+      <c r="C170" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C170" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D170" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B171" s="6"/>
+      <c r="C171" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C171" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D171" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B172" s="7" t="s">
+      <c r="B172" s="6"/>
+      <c r="C172" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C172" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D172" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B173" s="6"/>
+      <c r="C173" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C173" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D173" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B174" s="7" t="s">
+      <c r="B174" s="6"/>
+      <c r="C174" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C174" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="8"/>
-      <c r="C176" s="5"/>
-    </row>
-    <row r="177" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D174" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C176" s="8"/>
+      <c r="D176" s="5"/>
+    </row>
+    <row r="177" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B177" s="6"/>
+      <c r="C177" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="D177" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B178" s="6"/>
+      <c r="C178" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="D178" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B179" s="6"/>
+      <c r="C179" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="D179" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B180" s="7" t="s">
+      <c r="B180" s="6"/>
+      <c r="C180" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C180" s="5" t="s">
+      <c r="D180" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="B181" s="6"/>
+      <c r="C181" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C181" s="5" t="s">
+      <c r="D181" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B182" s="7" t="s">
+      <c r="B182" s="6"/>
+      <c r="C182" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C182" s="5" t="s">
+      <c r="D182" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B183" s="6"/>
+      <c r="C183" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C183" s="5" t="s">
+      <c r="D183" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B184" s="6"/>
+      <c r="C184" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C184" s="5" t="s">
+      <c r="D184" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B185" s="6"/>
+      <c r="C185" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C185" s="5" t="s">
+      <c r="D185" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B186" s="6"/>
+      <c r="C186" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C186" s="5" t="s">
+      <c r="D186" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B187" s="7" t="s">
+      <c r="B187" s="6"/>
+      <c r="C187" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C187" s="5" t="s">
+      <c r="D187" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B188" s="7" t="s">
+      <c r="B188" s="6"/>
+      <c r="C188" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C188" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D188" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B189" s="7" t="s">
+      <c r="B189" s="6"/>
+      <c r="C189" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C189" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D189" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B190" s="7" t="s">
+      <c r="B190" s="6"/>
+      <c r="C190" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C190" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D190" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B191" s="7" t="s">
+      <c r="B191" s="6"/>
+      <c r="C191" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C191" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D191" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B192" s="7" t="s">
+      <c r="B192" s="6"/>
+      <c r="C192" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C192" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D192" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B193" s="7" t="s">
+      <c r="B193" s="6"/>
+      <c r="C193" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C193" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D193" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B194" s="7" t="s">
+      <c r="B194" s="6"/>
+      <c r="C194" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C194" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D194" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B195" s="6"/>
+      <c r="C195" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C195" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D195" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B196" s="7" t="s">
+      <c r="B196" s="6"/>
+      <c r="C196" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C196" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D196" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B197" s="7" t="s">
+      <c r="B197" s="6"/>
+      <c r="C197" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C197" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D197" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B198" s="7" t="s">
+      <c r="B198" s="6"/>
+      <c r="C198" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C198" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D198" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="B199" s="6"/>
+      <c r="C199" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C199" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D199" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B200" s="7" t="s">
+      <c r="B200" s="6"/>
+      <c r="C200" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C200" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D200" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B201" s="6"/>
+      <c r="C201" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C201" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D201" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B202" s="7" t="s">
+      <c r="B202" s="6"/>
+      <c r="C202" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C202" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D202" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="B203" s="6"/>
+      <c r="C203" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C203" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D203" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B204" s="7" t="s">
+      <c r="B204" s="6"/>
+      <c r="C204" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C204" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D204" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B205" s="7" t="s">
+      <c r="B205" s="6"/>
+      <c r="C205" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C205" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D205" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B206" s="7" t="s">
+      <c r="B206" s="6"/>
+      <c r="C206" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C206" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D206" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B207" s="7" t="s">
+      <c r="B207" s="6"/>
+      <c r="C207" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C207" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D207" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="B208" s="6"/>
+      <c r="C208" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C208" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D208" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B209" s="7" t="s">
+      <c r="B209" s="6"/>
+      <c r="C209" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C209" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D209" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B210" s="7" t="s">
+      <c r="B210" s="6"/>
+      <c r="C210" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C210" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D210" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B211" s="7" t="s">
+      <c r="B211" s="6"/>
+      <c r="C211" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C211" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D211" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6"/>
-      <c r="B212" s="8"/>
-      <c r="C212" s="5"/>
-    </row>
-    <row r="213" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B212" s="6"/>
+      <c r="C212" s="8"/>
+      <c r="D212" s="5"/>
+    </row>
+    <row r="213" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6"/>
-      <c r="B213" s="8"/>
-      <c r="C213" s="5"/>
-    </row>
-    <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B213" s="6"/>
+      <c r="C213" s="8"/>
+      <c r="D213" s="5"/>
+    </row>
+    <row r="214" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B214" s="7" t="s">
+      <c r="B214" s="6"/>
+      <c r="C214" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C214" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D214" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B215" s="7" t="s">
+      <c r="B215" s="6"/>
+      <c r="C215" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C215" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D215" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B216" s="7" t="s">
+      <c r="B216" s="6"/>
+      <c r="C216" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C216" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D216" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B217" s="7" t="s">
+      <c r="B217" s="6"/>
+      <c r="C217" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C217" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D217" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B218" s="7" t="s">
+      <c r="B218" s="6"/>
+      <c r="C218" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C218" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D218" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B219" s="7" t="s">
+      <c r="B219" s="6"/>
+      <c r="C219" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C219" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D219" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B220" s="9" t="s">
+      <c r="B220" s="6"/>
+      <c r="C220" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C220" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D220" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B221" s="7" t="s">
+      <c r="B221" s="6"/>
+      <c r="C221" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C221" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D221" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B222" s="7" t="s">
+      <c r="B222" s="6"/>
+      <c r="C222" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C222" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D222" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B223" s="7" t="s">
+      <c r="B223" s="6"/>
+      <c r="C223" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C223" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D223" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B224" s="7" t="s">
+      <c r="B224" s="6"/>
+      <c r="C224" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C224" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D224" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B225" s="7" t="s">
+      <c r="B225" s="6"/>
+      <c r="C225" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C225" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D225" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B226" s="7" t="s">
+      <c r="B226" s="6"/>
+      <c r="C226" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C226" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D226" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B227" s="7" t="s">
+      <c r="B227" s="6"/>
+      <c r="C227" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C227" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D227" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B228" s="7" t="s">
+      <c r="B228" s="6"/>
+      <c r="C228" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C228" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D228" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B229" s="7" t="s">
+      <c r="B229" s="6"/>
+      <c r="C229" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C229" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D229" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B230" s="7" t="s">
+      <c r="B230" s="6"/>
+      <c r="C230" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C230" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D230" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B231" s="7" t="s">
+      <c r="B231" s="6"/>
+      <c r="C231" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C231" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D231" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B232" s="7" t="s">
+      <c r="B232" s="6"/>
+      <c r="C232" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C232" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D232" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B233" s="7" t="s">
+      <c r="B233" s="6"/>
+      <c r="C233" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C233" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D233" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B234" s="7" t="s">
+      <c r="B234" s="6"/>
+      <c r="C234" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C234" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D234" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B235" s="7" t="s">
+      <c r="B235" s="6"/>
+      <c r="C235" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C235" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B236" s="8"/>
-      <c r="C236" s="5"/>
-    </row>
-    <row r="237" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B237" s="8"/>
-      <c r="C237" s="5"/>
-    </row>
-    <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D235" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C236" s="8"/>
+      <c r="D236" s="5"/>
+    </row>
+    <row r="237" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C237" s="8"/>
+      <c r="D237" s="5"/>
+    </row>
+    <row r="238" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B238" s="7" t="s">
+      <c r="B238" s="6"/>
+      <c r="C238" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C238" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D238" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B239" s="7" t="s">
+      <c r="B239" s="6"/>
+      <c r="C239" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C239" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D239" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B240" s="7" t="s">
+      <c r="B240" s="6"/>
+      <c r="C240" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C240" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D240" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B241" s="7" t="s">
+      <c r="B241" s="6"/>
+      <c r="C241" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C241" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D241" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B242" s="7" t="s">
+      <c r="B242" s="6"/>
+      <c r="C242" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C242" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D242" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B243" s="7" t="s">
+      <c r="B243" s="6"/>
+      <c r="C243" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C243" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D243" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B244" s="7" t="s">
+      <c r="B244" s="6"/>
+      <c r="C244" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C244" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D244" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B245" s="7" t="s">
+      <c r="B245" s="6"/>
+      <c r="C245" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C245" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D245" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B246" s="7" t="s">
+      <c r="B246" s="6"/>
+      <c r="C246" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C246" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D246" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B247" s="7" t="s">
+      <c r="B247" s="6"/>
+      <c r="C247" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C247" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D247" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B248" s="7" t="s">
+      <c r="B248" s="6"/>
+      <c r="C248" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C248" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D248" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B249" s="7" t="s">
+      <c r="B249" s="6"/>
+      <c r="C249" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C249" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D249" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B250" s="7" t="s">
+      <c r="B250" s="6"/>
+      <c r="C250" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C250" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D250" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B251" s="7" t="s">
+      <c r="B251" s="6"/>
+      <c r="C251" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C251" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D251" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B252" s="7" t="s">
+      <c r="B252" s="6"/>
+      <c r="C252" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C252" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D252" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B253" s="7" t="s">
+      <c r="B253" s="6"/>
+      <c r="C253" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C253" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D253" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B254" s="7" t="s">
+      <c r="B254" s="6"/>
+      <c r="C254" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C254" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D254" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B255" s="7" t="s">
+      <c r="B255" s="6"/>
+      <c r="C255" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C255" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D255" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B256" s="7" t="s">
+      <c r="B256" s="6"/>
+      <c r="C256" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C256" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D256" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B257" s="7" t="s">
+      <c r="B257" s="6"/>
+      <c r="C257" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C257" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D257" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B258" s="7" t="s">
+      <c r="B258" s="6"/>
+      <c r="C258" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C258" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D258" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B259" s="7" t="s">
+      <c r="B259" s="6"/>
+      <c r="C259" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C259" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D259" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B260" s="7" t="s">
+      <c r="B260" s="6"/>
+      <c r="C260" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C260" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D260" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B261" s="7" t="s">
+      <c r="B261" s="6"/>
+      <c r="C261" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C261" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D261" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B262" s="7" t="s">
+      <c r="B262" s="6"/>
+      <c r="C262" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C262" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D262" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B263" s="7" t="s">
+      <c r="B263" s="6"/>
+      <c r="C263" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="C263" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D263" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B264" s="7" t="s">
+      <c r="B264" s="6"/>
+      <c r="C264" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C264" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D264" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B265" s="7" t="s">
+      <c r="B265" s="6"/>
+      <c r="C265" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C265" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D265" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B266" s="7" t="s">
+      <c r="B266" s="6"/>
+      <c r="C266" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C266" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D266" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B267" s="7" t="s">
+      <c r="B267" s="6"/>
+      <c r="C267" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="C267" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D267" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B268" s="7" t="s">
+      <c r="B268" s="6"/>
+      <c r="C268" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C268" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D268" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B269" s="7" t="s">
+      <c r="B269" s="6"/>
+      <c r="C269" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C269" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D269" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B270" s="7" t="s">
+      <c r="B270" s="6"/>
+      <c r="C270" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C270" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D270" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B271" s="7" t="s">
+      <c r="B271" s="6"/>
+      <c r="C271" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C271" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D271" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B272" s="7" t="s">
+      <c r="B272" s="6"/>
+      <c r="C272" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C272" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B273" s="8"/>
-      <c r="C273" s="5"/>
-    </row>
-    <row r="274" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B274" s="8"/>
-      <c r="C274" s="5"/>
-    </row>
-    <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D272" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C273" s="8"/>
+      <c r="D273" s="5"/>
+    </row>
+    <row r="274" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C274" s="8"/>
+      <c r="D274" s="5"/>
+    </row>
+    <row r="275" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B275" s="7" t="s">
+      <c r="B275" s="6"/>
+      <c r="C275" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C275" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D275" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B276" s="7" t="s">
+      <c r="B276" s="6"/>
+      <c r="C276" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C276" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D276" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B277" s="7" t="s">
+      <c r="B277" s="6"/>
+      <c r="C277" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C277" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D277" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B278" s="7" t="s">
+      <c r="B278" s="6"/>
+      <c r="C278" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C278" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D278" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B279" s="7" t="s">
+      <c r="B279" s="6"/>
+      <c r="C279" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C279" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D279" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B280" s="7" t="s">
+      <c r="B280" s="6"/>
+      <c r="C280" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C280" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D280" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B281" s="7" t="s">
+      <c r="B281" s="6"/>
+      <c r="C281" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C281" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D281" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B282" s="7" t="s">
+      <c r="B282" s="6"/>
+      <c r="C282" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C282" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D282" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B283" s="7" t="s">
+      <c r="B283" s="6"/>
+      <c r="C283" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C283" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D283" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B284" s="7" t="s">
+      <c r="B284" s="6"/>
+      <c r="C284" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C284" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D284" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B285" s="7" t="s">
+      <c r="B285" s="6"/>
+      <c r="C285" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C285" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D285" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B286" s="7" t="s">
+      <c r="B286" s="6"/>
+      <c r="C286" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C286" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D286" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B287" s="7" t="s">
+      <c r="B287" s="6"/>
+      <c r="C287" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C287" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D287" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B288" s="7" t="s">
+      <c r="B288" s="6"/>
+      <c r="C288" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C288" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D288" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B289" s="7" t="s">
+      <c r="B289" s="6"/>
+      <c r="C289" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C289" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D289" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B290" s="7" t="s">
+      <c r="B290" s="6"/>
+      <c r="C290" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="C290" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D290" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B291" s="7" t="s">
+      <c r="B291" s="6"/>
+      <c r="C291" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C291" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D291" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B292" s="7" t="s">
+      <c r="B292" s="6"/>
+      <c r="C292" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C292" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D292" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B293" s="7" t="s">
+      <c r="B293" s="6"/>
+      <c r="C293" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C293" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B294" s="8"/>
-      <c r="C294" s="5"/>
-    </row>
-    <row r="295" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B295" s="8"/>
-      <c r="C295" s="5"/>
-    </row>
-    <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D293" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C294" s="8"/>
+      <c r="D294" s="5"/>
+    </row>
+    <row r="295" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C295" s="8"/>
+      <c r="D295" s="5"/>
+    </row>
+    <row r="296" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B296" s="7" t="s">
+      <c r="B296" s="6"/>
+      <c r="C296" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C296" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D296" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B297" s="7" t="s">
+      <c r="B297" s="6"/>
+      <c r="C297" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C297" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D297" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B298" s="7" t="s">
+      <c r="B298" s="6"/>
+      <c r="C298" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C298" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D298" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B299" s="7" t="s">
+      <c r="B299" s="6"/>
+      <c r="C299" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="C299" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D299" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B300" s="7" t="s">
+      <c r="B300" s="6"/>
+      <c r="C300" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C300" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D300" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B301" s="7" t="s">
+      <c r="B301" s="6"/>
+      <c r="C301" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C301" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D301" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B302" s="7" t="s">
+      <c r="B302" s="6"/>
+      <c r="C302" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C302" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D302" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B303" s="7" t="s">
+      <c r="B303" s="6"/>
+      <c r="C303" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C303" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D303" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B304" s="7" t="s">
+      <c r="B304" s="6"/>
+      <c r="C304" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="C304" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D304" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B305" s="7" t="s">
+      <c r="B305" s="6"/>
+      <c r="C305" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C305" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D305" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B306" s="7" t="s">
+      <c r="B306" s="6"/>
+      <c r="C306" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C306" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D306" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B307" s="7" t="s">
+      <c r="B307" s="6"/>
+      <c r="C307" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C307" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D307" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B308" s="7" t="s">
+      <c r="B308" s="6"/>
+      <c r="C308" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C308" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D308" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B309" s="9" t="s">
+      <c r="B309" s="6"/>
+      <c r="C309" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="C309" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D309" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B310" s="7" t="s">
+      <c r="B310" s="6"/>
+      <c r="C310" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="C310" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D310" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B311" s="7" t="s">
+      <c r="B311" s="6"/>
+      <c r="C311" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="C311" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D311" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B312" s="7" t="s">
+      <c r="B312" s="6"/>
+      <c r="C312" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C312" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D312" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B313" s="7" t="s">
+      <c r="B313" s="6"/>
+      <c r="C313" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="C313" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D313" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B314" s="7" t="s">
+      <c r="B314" s="6"/>
+      <c r="C314" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C314" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D314" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B315" s="7" t="s">
+      <c r="B315" s="6"/>
+      <c r="C315" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="C315" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D315" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B316" s="7" t="s">
+      <c r="B316" s="6"/>
+      <c r="C316" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="C316" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D316" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B317" s="7" t="s">
+      <c r="B317" s="6"/>
+      <c r="C317" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="C317" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D317" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B318" s="7" t="s">
+      <c r="B318" s="6"/>
+      <c r="C318" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C318" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D318" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B319" s="7" t="s">
+      <c r="B319" s="6"/>
+      <c r="C319" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C319" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D319" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B320" s="7" t="s">
+      <c r="B320" s="6"/>
+      <c r="C320" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="C320" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D320" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B321" s="7" t="s">
+      <c r="B321" s="6"/>
+      <c r="C321" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C321" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D321" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B322" s="7" t="s">
+      <c r="B322" s="6"/>
+      <c r="C322" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C322" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D322" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B323" s="7" t="s">
+      <c r="B323" s="6"/>
+      <c r="C323" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C323" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D323" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B324" s="7" t="s">
+      <c r="B324" s="6"/>
+      <c r="C324" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="C324" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D324" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B325" s="7" t="s">
+      <c r="B325" s="6"/>
+      <c r="C325" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C325" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D325" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B326" s="7" t="s">
+      <c r="B326" s="6"/>
+      <c r="C326" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="C326" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D326" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B327" s="7" t="s">
+      <c r="B327" s="6"/>
+      <c r="C327" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="C327" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D327" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B328" s="7" t="s">
+      <c r="B328" s="6"/>
+      <c r="C328" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="C328" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D328" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B329" s="7" t="s">
+      <c r="B329" s="6"/>
+      <c r="C329" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C329" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D329" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B330" s="7" t="s">
+      <c r="B330" s="6"/>
+      <c r="C330" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="C330" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D330" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B331" s="7" t="s">
+      <c r="B331" s="6"/>
+      <c r="C331" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="C331" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D331" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B332" s="7" t="s">
+      <c r="B332" s="6"/>
+      <c r="C332" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="C332" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D332" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B333" s="7" t="s">
+      <c r="B333" s="6"/>
+      <c r="C333" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="C333" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B334" s="8"/>
-      <c r="C334" s="5"/>
-    </row>
-    <row r="335" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B335" s="8"/>
-      <c r="C335" s="5"/>
-    </row>
-    <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D333" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C334" s="8"/>
+      <c r="D334" s="5"/>
+    </row>
+    <row r="335" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C335" s="8"/>
+      <c r="D335" s="5"/>
+    </row>
+    <row r="336" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B336" s="7" t="s">
+      <c r="B336" s="6"/>
+      <c r="C336" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C336" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D336" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B337" s="7" t="s">
+      <c r="B337" s="6"/>
+      <c r="C337" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="C337" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D337" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B338" s="7" t="s">
+      <c r="B338" s="6"/>
+      <c r="C338" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="C338" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D338" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B339" s="7" t="s">
+      <c r="B339" s="6"/>
+      <c r="C339" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="C339" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D339" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B340" s="7" t="s">
+      <c r="B340" s="6"/>
+      <c r="C340" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C340" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D340" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B341" s="7" t="s">
+      <c r="B341" s="6"/>
+      <c r="C341" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="C341" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D341" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B342" s="7" t="s">
+      <c r="B342" s="6"/>
+      <c r="C342" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="C342" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D342" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B343" s="7" t="s">
+      <c r="B343" s="6"/>
+      <c r="C343" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C343" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D343" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B344" s="9" t="s">
+      <c r="B344" s="6"/>
+      <c r="C344" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="C344" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D344" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B345" s="7" t="s">
+      <c r="B345" s="6"/>
+      <c r="C345" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="C345" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D345" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B346" s="7" t="s">
+      <c r="B346" s="6"/>
+      <c r="C346" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C346" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D346" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B347" s="7" t="s">
+      <c r="B347" s="6"/>
+      <c r="C347" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="C347" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D347" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B348" s="7" t="s">
+      <c r="B348" s="6"/>
+      <c r="C348" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="C348" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D348" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B349" s="7" t="s">
+      <c r="B349" s="6"/>
+      <c r="C349" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="C349" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D349" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B350" s="7" t="s">
+      <c r="B350" s="6"/>
+      <c r="C350" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="C350" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D350" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B351" s="7" t="s">
+      <c r="B351" s="6"/>
+      <c r="C351" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="C351" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D351" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B352" s="7" t="s">
+      <c r="B352" s="6"/>
+      <c r="C352" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="C352" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D352" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B353" s="7" t="s">
+      <c r="B353" s="6"/>
+      <c r="C353" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="C353" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B354" s="8"/>
-      <c r="C354" s="5"/>
-    </row>
-    <row r="355" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B355" s="8"/>
-      <c r="C355" s="5"/>
-    </row>
-    <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D353" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C354" s="8"/>
+      <c r="D354" s="5"/>
+    </row>
+    <row r="355" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C355" s="8"/>
+      <c r="D355" s="5"/>
+    </row>
+    <row r="356" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B356" s="7" t="s">
+      <c r="B356" s="6"/>
+      <c r="C356" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="C356" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D356" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B357" s="7" t="s">
+      <c r="B357" s="6"/>
+      <c r="C357" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="C357" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D357" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B358" s="7" t="s">
+      <c r="B358" s="6"/>
+      <c r="C358" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="C358" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D358" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B359" s="7" t="s">
+      <c r="B359" s="6"/>
+      <c r="C359" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="C359" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D359" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B360" s="7" t="s">
+      <c r="B360" s="6"/>
+      <c r="C360" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C360" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D360" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B361" s="7" t="s">
+      <c r="B361" s="6"/>
+      <c r="C361" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="C361" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D361" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B362" s="7" t="s">
+      <c r="B362" s="6"/>
+      <c r="C362" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="C362" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D362" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B363" s="7" t="s">
+      <c r="B363" s="6"/>
+      <c r="C363" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="C363" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D363" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B364" s="7" t="s">
+      <c r="B364" s="6"/>
+      <c r="C364" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="C364" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D364" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B365" s="7" t="s">
+      <c r="B365" s="6"/>
+      <c r="C365" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="C365" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D365" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B366" s="7" t="s">
+      <c r="B366" s="6"/>
+      <c r="C366" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="C366" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D366" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B367" s="7" t="s">
+      <c r="B367" s="6"/>
+      <c r="C367" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C367" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D367" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B368" s="7" t="s">
+      <c r="B368" s="6"/>
+      <c r="C368" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="C368" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D368" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B369" s="7" t="s">
+      <c r="B369" s="6"/>
+      <c r="C369" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="C369" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D369" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B370" s="7" t="s">
+      <c r="B370" s="6"/>
+      <c r="C370" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="C370" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D370" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B371" s="7" t="s">
+      <c r="B371" s="6"/>
+      <c r="C371" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="C371" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D371" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B372" s="7" t="s">
+      <c r="B372" s="6"/>
+      <c r="C372" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C372" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D372" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B373" s="7" t="s">
+      <c r="B373" s="6"/>
+      <c r="C373" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="C373" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D373" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B374" s="7" t="s">
+      <c r="B374" s="6"/>
+      <c r="C374" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="C374" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D374" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B375" s="7" t="s">
+      <c r="B375" s="6"/>
+      <c r="C375" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="C375" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D375" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B376" s="7" t="s">
+      <c r="B376" s="6"/>
+      <c r="C376" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="C376" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D376" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B377" s="7" t="s">
+      <c r="B377" s="6"/>
+      <c r="C377" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="C377" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D377" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B378" s="7" t="s">
+      <c r="B378" s="6"/>
+      <c r="C378" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="C378" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D378" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B379" s="7" t="s">
+      <c r="B379" s="6"/>
+      <c r="C379" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C379" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D379" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B380" s="7" t="s">
+      <c r="B380" s="6"/>
+      <c r="C380" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C380" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D380" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B381" s="7" t="s">
+      <c r="B381" s="6"/>
+      <c r="C381" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C381" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D381" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B382" s="7" t="s">
+      <c r="B382" s="6"/>
+      <c r="C382" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="C382" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D382" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B383" s="7" t="s">
+      <c r="B383" s="6"/>
+      <c r="C383" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="C383" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D383" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B384" s="7" t="s">
+      <c r="B384" s="6"/>
+      <c r="C384" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="C384" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D384" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B385" s="7" t="s">
+      <c r="B385" s="6"/>
+      <c r="C385" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C385" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D385" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B386" s="7" t="s">
+      <c r="B386" s="6"/>
+      <c r="C386" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="C386" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D386" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B387" s="7" t="s">
+      <c r="B387" s="6"/>
+      <c r="C387" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="C387" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D387" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B388" s="7" t="s">
+      <c r="B388" s="6"/>
+      <c r="C388" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C388" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D388" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B389" s="7" t="s">
+      <c r="B389" s="6"/>
+      <c r="C389" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="C389" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D389" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B390" s="7" t="s">
+      <c r="B390" s="6"/>
+      <c r="C390" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="C390" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D390" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B391" s="7" t="s">
+      <c r="B391" s="6"/>
+      <c r="C391" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="C391" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D391" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B392" s="7" t="s">
+      <c r="B392" s="6"/>
+      <c r="C392" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="C392" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D392" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B393" s="7" t="s">
+      <c r="B393" s="6"/>
+      <c r="C393" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="C393" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D393" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B394" s="7" t="s">
+      <c r="B394" s="6"/>
+      <c r="C394" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="C394" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D394" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B395" s="7" t="s">
+      <c r="B395" s="6"/>
+      <c r="C395" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="C395" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D395" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B396" s="7" t="s">
+      <c r="B396" s="6"/>
+      <c r="C396" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="C396" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D396" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B397" s="7" t="s">
+      <c r="B397" s="6"/>
+      <c r="C397" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C397" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D397" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B398" s="7" t="s">
+      <c r="B398" s="6"/>
+      <c r="C398" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C398" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D398" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B399" s="7" t="s">
+      <c r="B399" s="6"/>
+      <c r="C399" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="C399" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="400" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B400" s="8"/>
-      <c r="C400" s="5"/>
-    </row>
-    <row r="401" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B401" s="8"/>
-      <c r="C401" s="5"/>
-    </row>
-    <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D399" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C400" s="8"/>
+      <c r="D400" s="5"/>
+    </row>
+    <row r="401" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C401" s="8"/>
+      <c r="D401" s="5"/>
+    </row>
+    <row r="402" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B402" s="7" t="s">
+      <c r="B402" s="6"/>
+      <c r="C402" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="C402" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D402" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B403" s="7" t="s">
+      <c r="B403" s="6"/>
+      <c r="C403" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="C403" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D403" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B404" s="7" t="s">
+      <c r="B404" s="6"/>
+      <c r="C404" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="C404" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D404" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B405" s="7" t="s">
+      <c r="B405" s="6"/>
+      <c r="C405" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C405" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D405" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B406" s="7" t="s">
+      <c r="B406" s="6"/>
+      <c r="C406" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="C406" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D406" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B407" s="7" t="s">
+      <c r="B407" s="6"/>
+      <c r="C407" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="C407" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="408" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B408" s="8"/>
-      <c r="C408" s="5"/>
-    </row>
-    <row r="409" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B409" s="8"/>
-      <c r="C409" s="5"/>
-    </row>
-    <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D407" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C408" s="8"/>
+      <c r="D408" s="5"/>
+    </row>
+    <row r="409" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C409" s="8"/>
+      <c r="D409" s="5"/>
+    </row>
+    <row r="410" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B410" s="7" t="s">
+      <c r="B410" s="6"/>
+      <c r="C410" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="C410" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D410" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B411" s="7" t="s">
+      <c r="B411" s="6"/>
+      <c r="C411" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="C411" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D411" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B412" s="7" t="s">
+      <c r="B412" s="6"/>
+      <c r="C412" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="C412" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D412" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B413" s="7" t="s">
+      <c r="B413" s="6"/>
+      <c r="C413" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="C413" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D413" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B414" s="7" t="s">
+      <c r="B414" s="6"/>
+      <c r="C414" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C414" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D414" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B415" s="7" t="s">
+      <c r="B415" s="6"/>
+      <c r="C415" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="C415" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D415" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B416" s="7" t="s">
+      <c r="B416" s="6"/>
+      <c r="C416" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="C416" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D416" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B417" s="7" t="s">
+      <c r="B417" s="6"/>
+      <c r="C417" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C417" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D417" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B418" s="7" t="s">
+      <c r="B418" s="6"/>
+      <c r="C418" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="C418" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D418" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B419" s="7" t="s">
+      <c r="B419" s="6"/>
+      <c r="C419" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="C419" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D419" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B420" s="7" t="s">
+      <c r="B420" s="6"/>
+      <c r="C420" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="C420" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D420" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B421" s="7" t="s">
+      <c r="B421" s="6"/>
+      <c r="C421" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C421" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D421" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B422" s="7" t="s">
+      <c r="B422" s="6"/>
+      <c r="C422" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="C422" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D422" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B423" s="7" t="s">
+      <c r="B423" s="6"/>
+      <c r="C423" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="C423" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D423" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B424" s="7" t="s">
+      <c r="B424" s="6"/>
+      <c r="C424" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="C424" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D424" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B425" s="7" t="s">
+      <c r="B425" s="6"/>
+      <c r="C425" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="C425" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D425" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B426" s="7" t="s">
+      <c r="B426" s="6"/>
+      <c r="C426" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="C426" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D426" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B427" s="7" t="s">
+      <c r="B427" s="6"/>
+      <c r="C427" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="C427" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D427" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B428" s="7" t="s">
+      <c r="B428" s="6"/>
+      <c r="C428" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="C428" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D428" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B429" s="7" t="s">
+      <c r="B429" s="6"/>
+      <c r="C429" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="C429" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D429" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B430" s="7" t="s">
+      <c r="B430" s="6"/>
+      <c r="C430" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="C430" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D430" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B431" s="7" t="s">
+      <c r="B431" s="6"/>
+      <c r="C431" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="C431" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D431" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B432" s="7" t="s">
+      <c r="B432" s="6"/>
+      <c r="C432" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="C432" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D432" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B433" s="7" t="s">
+      <c r="B433" s="6"/>
+      <c r="C433" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="C433" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D433" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B434" s="7" t="s">
+      <c r="B434" s="6"/>
+      <c r="C434" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="C434" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D434" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B435" s="7" t="s">
+      <c r="B435" s="6"/>
+      <c r="C435" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="C435" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D435" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B436" s="7" t="s">
+      <c r="B436" s="6"/>
+      <c r="C436" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="C436" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D436" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B437" s="7" t="s">
+      <c r="B437" s="6"/>
+      <c r="C437" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="C437" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D437" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B438" s="7" t="s">
+      <c r="B438" s="6"/>
+      <c r="C438" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="C438" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D438" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B439" s="7" t="s">
+      <c r="B439" s="6"/>
+      <c r="C439" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="C439" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D439" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B440" s="7" t="s">
+      <c r="B440" s="6"/>
+      <c r="C440" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="C440" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D440" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B441" s="7" t="s">
+      <c r="B441" s="6"/>
+      <c r="C441" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="C441" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D441" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B442" s="7" t="s">
+      <c r="B442" s="6"/>
+      <c r="C442" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="C442" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D442" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B443" s="7" t="s">
+      <c r="B443" s="6"/>
+      <c r="C443" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="C443" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D443" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B444" s="7" t="s">
+      <c r="B444" s="6"/>
+      <c r="C444" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="C444" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D444" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B445" s="7" t="s">
+      <c r="B445" s="6"/>
+      <c r="C445" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="C445" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D445" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B446" s="7" t="s">
+      <c r="B446" s="6"/>
+      <c r="C446" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="C446" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D446" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B447" s="7" t="s">
+      <c r="B447" s="6"/>
+      <c r="C447" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="C447" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D447" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B448" s="7" t="s">
+      <c r="B448" s="6"/>
+      <c r="C448" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="C448" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D448" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B449" s="7" t="s">
+      <c r="B449" s="6"/>
+      <c r="C449" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="C449" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D449" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B450" s="7" t="s">
+      <c r="B450" s="6"/>
+      <c r="C450" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="C450" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D450" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B451" s="7" t="s">
+      <c r="B451" s="6"/>
+      <c r="C451" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="C451" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D451" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B452" s="7" t="s">
+      <c r="B452" s="6"/>
+      <c r="C452" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C452" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D452" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B453" s="7" t="s">
+      <c r="B453" s="6"/>
+      <c r="C453" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="C453" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D453" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B454" s="7" t="s">
+      <c r="B454" s="6"/>
+      <c r="C454" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="C454" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D454" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B455" s="7" t="s">
+      <c r="B455" s="6"/>
+      <c r="C455" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="C455" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D455" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B456" s="7" t="s">
+      <c r="B456" s="6"/>
+      <c r="C456" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="C456" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D456" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B457" s="7" t="s">
+      <c r="B457" s="6"/>
+      <c r="C457" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="C457" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D457" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B458" s="7" t="s">
+      <c r="B458" s="6"/>
+      <c r="C458" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="C458" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D458" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B459" s="7" t="s">
+      <c r="B459" s="6"/>
+      <c r="C459" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="C459" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D459" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B460" s="7" t="s">
+      <c r="B460" s="6"/>
+      <c r="C460" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="C460" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D460" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B461" s="7" t="s">
+      <c r="B461" s="6"/>
+      <c r="C461" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="C461" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D461" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B462" s="7" t="s">
+      <c r="B462" s="6"/>
+      <c r="C462" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="C462" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D462" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B463" s="7" t="s">
+      <c r="B463" s="6"/>
+      <c r="C463" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="C463" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D463" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B464" s="7" t="s">
+      <c r="B464" s="6"/>
+      <c r="C464" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="C464" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D464" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B465" s="7" t="s">
+      <c r="B465" s="6"/>
+      <c r="C465" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="C465" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D465" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B466" s="7" t="s">
+      <c r="B466" s="6"/>
+      <c r="C466" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="C466" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D466" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B467" s="7" t="s">
+      <c r="B467" s="6"/>
+      <c r="C467" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="C467" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D467" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B468" s="7" t="s">
+      <c r="B468" s="6"/>
+      <c r="C468" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="C468" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D468" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B469" s="7" t="s">
+      <c r="B469" s="6"/>
+      <c r="C469" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="C469" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="470" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B470" s="8"/>
-      <c r="C470" s="5"/>
-    </row>
-    <row r="471" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D469" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C470" s="8"/>
+      <c r="D470" s="5"/>
+    </row>
+    <row r="471" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="6"/>
-      <c r="B471" s="8"/>
-      <c r="C471" s="5"/>
-    </row>
-    <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B471" s="6"/>
+      <c r="C471" s="8"/>
+      <c r="D471" s="5"/>
+    </row>
+    <row r="472" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B472" s="7" t="s">
+      <c r="B472" s="6"/>
+      <c r="C472" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="C472" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D472" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B473" s="7" t="s">
+      <c r="B473" s="6"/>
+      <c r="C473" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="C473" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D473" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B474" s="7" t="s">
+      <c r="B474" s="6"/>
+      <c r="C474" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="C474" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D474" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B475" s="7" t="s">
+      <c r="B475" s="6"/>
+      <c r="C475" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="C475" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D475" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B476" s="7" t="s">
+      <c r="B476" s="6"/>
+      <c r="C476" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="C476" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D476" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B477" s="7" t="s">
+      <c r="B477" s="6"/>
+      <c r="C477" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="C477" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D477" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B478" s="7" t="s">
+      <c r="B478" s="6"/>
+      <c r="C478" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="C478" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D478" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B479" s="7" t="s">
+      <c r="B479" s="6"/>
+      <c r="C479" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="C479" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D479" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B480" s="7" t="s">
+      <c r="B480" s="6"/>
+      <c r="C480" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="C480" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D480" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B481" s="7" t="s">
+      <c r="B481" s="6"/>
+      <c r="C481" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="C481" s="5" t="s">
+      <c r="D481" s="5" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
-    <hyperlink ref="B6" r:id="rId2" display="Reverse the array"/>
-    <hyperlink ref="B7" r:id="rId3" display="Find the maximum and minimum element in an array"/>
-    <hyperlink ref="B8" r:id="rId4" display="Find the &quot;Kth&quot; max and min element of an array "/>
-    <hyperlink ref="B9" r:id="rId5" display="Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo"/>
-    <hyperlink ref="B10" r:id="rId6" display="Move all the negative elements to one side of the array "/>
-    <hyperlink ref="B11" r:id="rId7" display="Find the Union and Intersection of the two sorted arrays."/>
-    <hyperlink ref="B12" r:id="rId8" display="Write a program to cyclically rotate an array by one."/>
-    <hyperlink ref="B13" r:id="rId9" display="find Largest sum contiguous Subarray [V. IMP]"/>
-    <hyperlink ref="B14" r:id="rId10" display="Minimise the maximum difference between heights [V.IMP]"/>
-    <hyperlink ref="B15" r:id="rId11" display="Minimum no. of Jumps to reach end of an array"/>
-    <hyperlink ref="B16" r:id="rId12" display="find duplicate in an array of N+1 Integers"/>
-    <hyperlink ref="B17" r:id="rId13" display="Merge 2 sorted arrays without using Extra space."/>
-    <hyperlink ref="B18" r:id="rId14" display="Kadane's Algo [V.V.V.V.V IMP]"/>
-    <hyperlink ref="B19" r:id="rId15" display="Merge Intervals"/>
-    <hyperlink ref="B20" r:id="rId16" display="Next Permutation"/>
-    <hyperlink ref="B21" r:id="rId17" display="Count Inversion"/>
-    <hyperlink ref="B22" r:id="rId18" display="Best time to buy and Sell stock"/>
-    <hyperlink ref="B23" r:id="rId19" display="find all pairs on integer array whose sum is equal to given number"/>
-    <hyperlink ref="B24" r:id="rId20" display="find common elements In 3 sorted arrays"/>
-    <hyperlink ref="B25" r:id="rId21" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
-    <hyperlink ref="B26" r:id="rId22" display="Find if there is any subarray with sum equal to 0"/>
-    <hyperlink ref="B27" r:id="rId23" display="Find factorial of a large number"/>
-    <hyperlink ref="B28" r:id="rId24" display="find maximum product subarray "/>
-    <hyperlink ref="B29" r:id="rId25" display="Find longest coinsecutive subsequence"/>
-    <hyperlink ref="B30" r:id="rId26" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
-    <hyperlink ref="B31" r:id="rId27" display="Maximum profit by buying and selling a share atmost twice"/>
-    <hyperlink ref="B32" r:id="rId28" display="Find whether an array is a subset of another array"/>
-    <hyperlink ref="B33" r:id="rId29" display="Find the triplet that sum to a given value"/>
-    <hyperlink ref="B34" r:id="rId30" display="Trapping Rain water problem"/>
-    <hyperlink ref="B35" r:id="rId31" display="Chocolate Distribution problem"/>
-    <hyperlink ref="B36" r:id="rId32" display="Smallest Subarray with sum greater than a given value"/>
-    <hyperlink ref="B37" r:id="rId33" display="Three way partitioning of an array around a given value"/>
-    <hyperlink ref="B38" r:id="rId34" display="Minimum swaps required bring elements less equal K together"/>
-    <hyperlink ref="B39" r:id="rId35" display="Minimum no. of operations required to make an array palindrome"/>
-    <hyperlink ref="B40" r:id="rId36" display="Median of 2 sorted arrays of equal size"/>
-    <hyperlink ref="B41" r:id="rId37" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="B44" r:id="rId38" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="B45" r:id="rId39" display="Search an element in a matriix"/>
-    <hyperlink ref="B46" r:id="rId40" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="B47" r:id="rId41" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="B48" r:id="rId42" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="B49" r:id="rId43" display="Maximum size rectangle"/>
-    <hyperlink ref="B50" r:id="rId44" display="Find a specific pair in matrix"/>
-    <hyperlink ref="B51" r:id="rId45" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="B52" r:id="rId46" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="B53" r:id="rId47" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="B56" r:id="rId48" display="Reverse a String"/>
-    <hyperlink ref="B57" r:id="rId49" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="B58" r:id="rId50" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="B60" r:id="rId51" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="B61" r:id="rId52" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="B62" r:id="rId53" display="Count and Say problem"/>
-    <hyperlink ref="B63" r:id="rId54" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
-    <hyperlink ref="B64" r:id="rId55" display="Find Longest Recurring Subsequence in String"/>
-    <hyperlink ref="B65" r:id="rId56" display="Print all Subsequences of a string."/>
-    <hyperlink ref="B66" r:id="rId57" display="Print all the permutations of the given string"/>
-    <hyperlink ref="B67" r:id="rId58" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="B68" r:id="rId59" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="B69" r:id="rId60" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="B70" r:id="rId61" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="B71" r:id="rId62" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="B72" r:id="rId63" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="B73" r:id="rId64" display="Rabin Karp Algo"/>
-    <hyperlink ref="B74" r:id="rId65" display="KMP Algo"/>
-    <hyperlink ref="B75" r:id="rId66" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="B76" r:id="rId67" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="B77" r:id="rId68" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="B78" r:id="rId69" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="B79" r:id="rId70" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="B80" r:id="rId71" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="B81" r:id="rId72" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="B82" r:id="rId73" display="Longest Common Prefix"/>
-    <hyperlink ref="B83" r:id="rId74" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="B84" r:id="rId75" display="Find the first repeated word in string."/>
-    <hyperlink ref="B85" r:id="rId76" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="B86" r:id="rId77" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="B87" r:id="rId78" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="B88" r:id="rId79" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="B89" r:id="rId80" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B90" r:id="rId81" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="B91" r:id="rId82" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B92" r:id="rId83" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="B93" r:id="rId84" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="B94" r:id="rId85" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="B95" r:id="rId86" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="B96" r:id="rId87" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="B97" r:id="rId88" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="B98" r:id="rId89" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="B101" r:id="rId90" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="B102" r:id="rId91" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="B103" r:id="rId92" display="Search in a rotated sorted array"/>
-    <hyperlink ref="B104" r:id="rId93" display="square root of an integer"/>
-    <hyperlink ref="B105" r:id="rId94" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="B107" r:id="rId96" display="Find the repeating and the missing"/>
-    <hyperlink ref="B108" r:id="rId97" display="find majority element"/>
-    <hyperlink ref="B109" r:id="rId98" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="B110" r:id="rId99" display="find a pair with a given difference"/>
-    <hyperlink ref="B111" r:id="rId100" display="find four elements that sum to a given value"/>
-    <hyperlink ref="B112" r:id="rId101" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="B113" r:id="rId102" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="B114" r:id="rId103" display="merge 2 sorted arrays"/>
-    <hyperlink ref="B115" r:id="rId104" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="B116" r:id="rId105" display="Product array Puzzle"/>
-    <hyperlink ref="B117" r:id="rId106" display="Sort array according to count of set bits"/>
-    <hyperlink ref="B118" r:id="rId107" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="B119" r:id="rId108" display="Bishu and Soldiers"/>
-    <hyperlink ref="B120" r:id="rId109" display="Rasta and Kheshtak"/>
-    <hyperlink ref="B121" r:id="rId110" display="Kth smallest number again"/>
-    <hyperlink ref="B122" r:id="rId111" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="B123" r:id="rId112" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="B124" r:id="rId113" display="Aggressive cows"/>
-    <hyperlink ref="B125" r:id="rId114" display="Book Allocation Problem"/>
-    <hyperlink ref="B126" r:id="rId115" display="EKOSPOJ:"/>
-    <hyperlink ref="B127" r:id="rId116" display="Job Scheduling Algo"/>
-    <hyperlink ref="B128" r:id="rId117" display="Missing Number in AP"/>
-    <hyperlink ref="B129" r:id="rId118" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="B130" r:id="rId119" display="Painters Partition Problem:"/>
-    <hyperlink ref="B131" r:id="rId120" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="B132" r:id="rId121" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="B133" r:id="rId122" display="Subset Sums"/>
-    <hyperlink ref="B134" r:id="rId123" display="Findthe inversion count"/>
-    <hyperlink ref="B135" r:id="rId124" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="B136" r:id="rId125" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="B139" r:id="rId126" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="B140" r:id="rId127" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="B141" r:id="rId128" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="B142" r:id="rId129" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="B143" r:id="rId130" display="Find the starting point of the loop. "/>
-    <hyperlink ref="B144" r:id="rId131" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="B145" r:id="rId132" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="B146" r:id="rId133" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="B147" r:id="rId134" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="B148" r:id="rId135" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="B149" r:id="rId136" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="B150" r:id="rId137" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="B151" r:id="rId138" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="B152" r:id="rId139" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="B153" r:id="rId140" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="B154" r:id="rId141" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="B155" r:id="rId142" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="B156" r:id="rId143" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="B157" r:id="rId144" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="B158" r:id="rId145" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="B159" r:id="rId146" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="B160" r:id="rId147" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="B161" r:id="rId148" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="B162" r:id="rId149" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="B163" r:id="rId150" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="B166" r:id="rId151" display="Flatten a Linked List"/>
-    <hyperlink ref="B167" r:id="rId152" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="B168" r:id="rId153" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B169" r:id="rId154" display="Merge K sorted Linked list"/>
-    <hyperlink ref="B170" r:id="rId155" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="B171" r:id="rId156" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="B172" r:id="rId157" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="B173" r:id="rId158" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="B174" r:id="rId159" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="B177" r:id="rId160" display="level order traversal"/>
-    <hyperlink ref="B178" r:id="rId161" display="Reverse Level Order traversal"/>
-    <hyperlink ref="B179" r:id="rId162" display="Height of a tree"/>
-    <hyperlink ref="B180" r:id="rId163" display="Diameter of a tree"/>
-    <hyperlink ref="B181" r:id="rId164" display="Mirror of a tree"/>
-    <hyperlink ref="B182" r:id="rId165" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B183" r:id="rId166" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B184" r:id="rId167" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B185" r:id="rId168" display="Left View of a tree"/>
-    <hyperlink ref="B186" r:id="rId169" display="Right View of Tree"/>
-    <hyperlink ref="B187" r:id="rId170" display="Top View of a tree"/>
-    <hyperlink ref="B188" r:id="rId171" display="Bottom View of a tree"/>
-    <hyperlink ref="B189" r:id="rId172" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="B190" r:id="rId173" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="B191" r:id="rId174" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="B192" r:id="rId175" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B193" r:id="rId176" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="B194" r:id="rId177" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="B195" r:id="rId178" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="B196" r:id="rId179" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="B198" r:id="rId181" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="B199" r:id="rId182" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="B200" r:id="rId183" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="B201" r:id="rId184" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="B202" r:id="rId185" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="B204" r:id="rId187" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="B205" r:id="rId188" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="B206" r:id="rId189" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="B207" r:id="rId190" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B208" r:id="rId191" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="B209" r:id="rId192" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="B210" r:id="rId193" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="B211" r:id="rId194" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="B214" r:id="rId195" display="Fina a value in a BST"/>
-    <hyperlink ref="B215" r:id="rId196" display="Deletion of a node in a BST"/>
-    <hyperlink ref="B216" r:id="rId197" display="Find min and max value in a BST"/>
-    <hyperlink ref="B217" r:id="rId198" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="B218" r:id="rId199" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="B219" r:id="rId200" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="B220" r:id="rId201" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="B221" r:id="rId202" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="B222" r:id="rId203" display="Convert Binary tree into BST"/>
-    <hyperlink ref="B223" r:id="rId204" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="B224" r:id="rId205" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B225" r:id="rId206" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="B226" r:id="rId207" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="B227" r:id="rId208" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="B228" r:id="rId209" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="B229" r:id="rId210" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="B230" r:id="rId211" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="B231" r:id="rId212" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="B232" r:id="rId213" display="Check preorder is valid or not"/>
-    <hyperlink ref="B233" r:id="rId214" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="B234" r:id="rId215" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="B235" r:id="rId216" display="Flatten BST to sorted list"/>
-    <hyperlink ref="B238" r:id="rId217" display="Activity Selection Problem"/>
-    <hyperlink ref="B239" r:id="rId218" display="Job SequencingProblem"/>
-    <hyperlink ref="B240" r:id="rId219" display="Huffman Coding"/>
-    <hyperlink ref="B241" r:id="rId220" display="Water Connection Problem"/>
-    <hyperlink ref="B242" r:id="rId221" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="B243" r:id="rId222" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="B244" r:id="rId223" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="B245" r:id="rId224" display="Minimum Platforms Problem"/>
-    <hyperlink ref="B246" r:id="rId225" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="B247" r:id="rId226" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="B248" r:id="rId227" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B249" r:id="rId228" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="B250" r:id="rId229" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="B251" r:id="rId230" display="Find maximum meetings in one room"/>
-    <hyperlink ref="B252" r:id="rId231" display="Maximum product subset of an array"/>
-    <hyperlink ref="B253" r:id="rId232" display="Maximize array sum after K negations"/>
-    <hyperlink ref="B254" r:id="rId233" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="B255" r:id="rId234" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="B256" r:id="rId235" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="B258" r:id="rId237" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="B259" r:id="rId238" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="B260" r:id="rId239" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="B261" r:id="rId240" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="B262" r:id="rId241" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="B263" r:id="rId242" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="B264" r:id="rId243" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="B265" r:id="rId244" display="Picking Up Chicks"/>
-    <hyperlink ref="B266" r:id="rId245" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="B267" r:id="rId246" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="B268" r:id="rId247" display="K Centers Problem"/>
-    <hyperlink ref="B269" r:id="rId248" display="Minimum Cost of ropes"/>
-    <hyperlink ref="B270" r:id="rId249" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="B271" r:id="rId250" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B272" r:id="rId251" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="B275" r:id="rId252" display="Rat in a maze Problem"/>
-    <hyperlink ref="B276" r:id="rId253" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="B277" r:id="rId254" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="B278" r:id="rId255" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="B279" r:id="rId256" display="Sudoku Solver"/>
-    <hyperlink ref="B280" r:id="rId257" display="m Coloring Problem"/>
-    <hyperlink ref="B281" r:id="rId258" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="B282" r:id="rId259" display="Subset Sum Problem"/>
-    <hyperlink ref="B283" r:id="rId260" display="The Knight’s tour problem"/>
-    <hyperlink ref="B284" r:id="rId261" display="Tug of War"/>
-    <hyperlink ref="B285" r:id="rId262" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="B286" r:id="rId263" display="Combinational Sum"/>
-    <hyperlink ref="B287" r:id="rId264" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="B288" r:id="rId265" display="Print all permutations of a string "/>
-    <hyperlink ref="B289" r:id="rId266" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="B290" r:id="rId267" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="B291" r:id="rId268" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="B292" r:id="rId269" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="B293" r:id="rId270" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="B296" r:id="rId271" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="B297" r:id="rId272" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="B298" r:id="rId273" display="Implement 2 stack in an array"/>
-    <hyperlink ref="B299" r:id="rId274" display="find the middle element of a stack"/>
-    <hyperlink ref="B300" r:id="rId275" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="B301" r:id="rId276" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="B302" r:id="rId277" display="Reverse a String using Stack"/>
-    <hyperlink ref="B303" r:id="rId278" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="B304" r:id="rId279" display="Find the next Greater element"/>
-    <hyperlink ref="B305" r:id="rId280" display="The celebrity Problem"/>
-    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="B307" r:id="rId282" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="B308" r:id="rId283" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="B309" r:id="rId284" display="Reverse a stack using recursion"/>
-    <hyperlink ref="B310" r:id="rId285" display="Sort a Stack using recursion"/>
-    <hyperlink ref="B311" r:id="rId286" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="B312" r:id="rId287" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="B313" r:id="rId288" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="B314" r:id="rId289" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="B315" r:id="rId290" display="Implement Stack using Queue"/>
-    <hyperlink ref="B316" r:id="rId291" display="Implement Stack using Deque"/>
-    <hyperlink ref="B317" r:id="rId292" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="B318" r:id="rId293" display="Implement Queue using Stack  "/>
-    <hyperlink ref="B319" r:id="rId294" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="B320" r:id="rId295" display="Implement a Circular queue"/>
-    <hyperlink ref="B321" r:id="rId296" display="LRU Cache Implementationa"/>
-    <hyperlink ref="B322" r:id="rId297" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="B323" r:id="rId298" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="B324" r:id="rId299" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="B325" r:id="rId300" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="B326" r:id="rId301" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="B327" r:id="rId302" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="B328" r:id="rId303" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="B329" r:id="rId304" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="B330" r:id="rId305" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="B331" r:id="rId306" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="B332" r:id="rId307" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="B333" r:id="rId308" display="Next Smaller Element"/>
-    <hyperlink ref="B336" r:id="rId309" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="B337" r:id="rId310" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="B338" r:id="rId311" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="B339" r:id="rId312" display="“k” largest element in an array"/>
-    <hyperlink ref="B340" r:id="rId313" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="B341" r:id="rId314" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="B342" r:id="rId315" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="B343" r:id="rId316" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="B344" r:id="rId317" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="B345" r:id="rId318" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B346" r:id="rId319" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="B347" r:id="rId320" display="Median in a stream of Integers"/>
-    <hyperlink ref="B348" r:id="rId321" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="B349" r:id="rId322" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="B350" r:id="rId323" display="Convert BST to Min Heap"/>
-    <hyperlink ref="B351" r:id="rId324" display="Convert min heap to max heap"/>
-    <hyperlink ref="B352" r:id="rId325" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="B353" r:id="rId326" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="B356" r:id="rId327" display="Create a Graph, print it"/>
-    <hyperlink ref="B357" r:id="rId328" display="Implement BFS algorithm "/>
-    <hyperlink ref="B358" r:id="rId329" display="Implement DFS Algo "/>
-    <hyperlink ref="B359" r:id="rId330" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B360" r:id="rId331" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B361" r:id="rId332" display="Search in a Maze"/>
-    <hyperlink ref="B362" r:id="rId333" display="Minimum Step by Knight"/>
-    <hyperlink ref="B363" r:id="rId334" display="flood fill algo"/>
-    <hyperlink ref="B364" r:id="rId335" display="Clone a graph"/>
-    <hyperlink ref="B365" r:id="rId336" display="Making wired Connections"/>
-    <hyperlink ref="B366" r:id="rId337" display="word Ladder "/>
-    <hyperlink ref="B367" r:id="rId338" display="Dijkstra algo"/>
-    <hyperlink ref="B368" r:id="rId339" display="Implement Topological Sort "/>
-    <hyperlink ref="B369" r:id="rId340" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="B370" r:id="rId341" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="B371" r:id="rId342" display="Find the no. of Isalnds"/>
-    <hyperlink ref="B372" r:id="rId343" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="B373" r:id="rId344" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="B374" r:id="rId345" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="B375" r:id="rId346" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="B376" r:id="rId347" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="B377" r:id="rId348" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="B378" r:id="rId349" display="Travelling Salesman Problem"/>
-    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
-    <hyperlink ref="B380" r:id="rId351" display="Snake and Ladders Problem"/>
-    <hyperlink ref="B381" r:id="rId352" display="Find bridge in a graph"/>
-    <hyperlink ref="B382" r:id="rId353" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="B383" r:id="rId354" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="B384" r:id="rId355" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="B385" r:id="rId356" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="B386" r:id="rId357" display="Journey to the Moon"/>
-    <hyperlink ref="B387" r:id="rId358" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="B388" r:id="rId359" display="Oliver and the Game"/>
-    <hyperlink ref="B389" r:id="rId360" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B390" r:id="rId361" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B391" r:id="rId362" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="B392" r:id="rId363" display="M-ColouringProblem"/>
-    <hyperlink ref="B393" r:id="rId364" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="B394" r:id="rId365" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="B395" r:id="rId366" display="Vertex Cover Problem"/>
-    <hyperlink ref="B396" r:id="rId367" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="B397" r:id="rId368" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="B398" r:id="rId369" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B399" r:id="rId370" display="Two Clique Problem"/>
-    <hyperlink ref="B402" r:id="rId371" display="Construct a trie from scratch"/>
-    <hyperlink ref="B403" r:id="rId372" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="B404" r:id="rId373" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="B405" r:id="rId374" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B406" r:id="rId375" display="Implement a Phone Directory"/>
-    <hyperlink ref="B407" r:id="rId376" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="B410" r:id="rId377" display="Coin ChangeProblem"/>
-    <hyperlink ref="B411" r:id="rId378" display="Knapsack Problem"/>
-    <hyperlink ref="B412" r:id="rId379" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="B413" r:id="rId380" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="B414" r:id="rId381" display="Program for nth Catalan Number"/>
-    <hyperlink ref="B415" r:id="rId382" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="B416" r:id="rId383" display="Edit Distance"/>
-    <hyperlink ref="B417" r:id="rId384" display="Subset Sum Problem"/>
-    <hyperlink ref="B418" r:id="rId385" display="Friends Pairing Problem"/>
-    <hyperlink ref="B419" r:id="rId386" display="Gold Mine Problem"/>
-    <hyperlink ref="B420" r:id="rId387" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="B421" r:id="rId388" display="Painting the Fenceproblem"/>
-    <hyperlink ref="B422" r:id="rId389" display="Maximize The Cut Segments"/>
-    <hyperlink ref="B423" r:id="rId390" display="Longest Common Subsequence"/>
-    <hyperlink ref="B424" r:id="rId391" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="B425" r:id="rId392" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B426" r:id="rId393" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="B427" r:id="rId394" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="B428" r:id="rId395" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="B429" r:id="rId396" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId397" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId398" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B432" r:id="rId399" display="Egg Dropping Problem"/>
-    <hyperlink ref="B433" r:id="rId400" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="B434" r:id="rId401" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="B435" r:id="rId402" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B436" r:id="rId403" display="Min Cost PathProblem"/>
-    <hyperlink ref="B437" r:id="rId404" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="B438" r:id="rId405" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="B439" r:id="rId406" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="B440" r:id="rId407" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="B441" r:id="rId408" display="Longest Common Substring"/>
-    <hyperlink ref="B442" r:id="rId409" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="B443" r:id="rId410" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="B444" r:id="rId411" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="B445" r:id="rId412" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="B446" r:id="rId413" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="B447" r:id="rId414" display="Word Break Problem"/>
-    <hyperlink ref="B448" r:id="rId415" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B449" r:id="rId416" display="Partition problem"/>
-    <hyperlink ref="B450" r:id="rId417" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="B451" r:id="rId418" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="B452" r:id="rId419" display="Longest Palindromic Substring"/>
-    <hyperlink ref="B453" r:id="rId420" display="Longest alternating subsequence"/>
-    <hyperlink ref="B454" r:id="rId421" display="Weighted Job Scheduling"/>
-    <hyperlink ref="B455" r:id="rId422" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="B456" r:id="rId423" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="B457" r:id="rId424" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="B458" r:id="rId425" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="B459" r:id="rId426" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="B460" r:id="rId427" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="B461" r:id="rId428" display="Word Wrap Problem"/>
-    <hyperlink ref="B462" r:id="rId429" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="B463" r:id="rId430" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="B464" r:id="rId431" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="B465" r:id="rId432" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="B466" r:id="rId433" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="B467" r:id="rId434" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="B468" r:id="rId435" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="B469" r:id="rId436" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="B472" r:id="rId437" display="Count set bits in an integer"/>
-    <hyperlink ref="B473" r:id="rId438" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="B474" r:id="rId439" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="B475" r:id="rId440" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="B476" r:id="rId441" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="B477" r:id="rId442" display="Find position of the only set bit"/>
-    <hyperlink ref="B478" r:id="rId443" display="Copy set bits in a range"/>
-    <hyperlink ref="B479" r:id="rId444" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="B481" r:id="rId446" display="Power Set"/>
+    <hyperlink ref="C2" r:id="rId1" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
+    <hyperlink ref="C6" r:id="rId2" display="Reverse the array"/>
+    <hyperlink ref="C7" r:id="rId3" display="Find the maximum and minimum element in an array"/>
+    <hyperlink ref="C8" r:id="rId4" display="Find the &quot;Kth&quot; max and min element of an array "/>
+    <hyperlink ref="C9" r:id="rId5" display="Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo"/>
+    <hyperlink ref="C10" r:id="rId6" display="Move all the negative elements to one side of the array "/>
+    <hyperlink ref="C11" r:id="rId7" display="Find the Union and Intersection of the two sorted arrays."/>
+    <hyperlink ref="C12" r:id="rId8" display="Write a program to cyclically rotate an array by one."/>
+    <hyperlink ref="C13" r:id="rId9" display="find Largest sum contiguous Subarray [V. IMP]"/>
+    <hyperlink ref="C14" r:id="rId10" display="Minimise the maximum difference between heights [V.IMP]"/>
+    <hyperlink ref="C15" r:id="rId11" display="Minimum no. of Jumps to reach end of an array"/>
+    <hyperlink ref="C16" r:id="rId12" display="find duplicate in an array of N+1 Integers"/>
+    <hyperlink ref="C17" r:id="rId13" display="Merge 2 sorted arrays without using Extra space."/>
+    <hyperlink ref="C18" r:id="rId14" display="Kadane's Algo [V.V.V.V.V IMP]"/>
+    <hyperlink ref="C19" r:id="rId15" display="Merge Intervals"/>
+    <hyperlink ref="C20" r:id="rId16" display="Next Permutation"/>
+    <hyperlink ref="C21" r:id="rId17" display="Count Inversion"/>
+    <hyperlink ref="C22" r:id="rId18" display="Best time to buy and Sell stock"/>
+    <hyperlink ref="C23" r:id="rId19" display="find all pairs on integer array whose sum is equal to given number"/>
+    <hyperlink ref="C24" r:id="rId20" display="find common elements In 3 sorted arrays"/>
+    <hyperlink ref="C25" r:id="rId21" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
+    <hyperlink ref="C26" r:id="rId22" display="Find if there is any subarray with sum equal to 0"/>
+    <hyperlink ref="C27" r:id="rId23" display="Find factorial of a large number"/>
+    <hyperlink ref="C28" r:id="rId24" display="find maximum product subarray "/>
+    <hyperlink ref="C29" r:id="rId25" display="Find longest coinsecutive subsequence"/>
+    <hyperlink ref="C30" r:id="rId26" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
+    <hyperlink ref="C31" r:id="rId27" display="Maximum profit by buying and selling a share atmost twice"/>
+    <hyperlink ref="C32" r:id="rId28" display="Find whether an array is a subset of another array"/>
+    <hyperlink ref="C33" r:id="rId29" display="Find the triplet that sum to a given value"/>
+    <hyperlink ref="C34" r:id="rId30" display="Trapping Rain water problem"/>
+    <hyperlink ref="C35" r:id="rId31" display="Chocolate Distribution problem"/>
+    <hyperlink ref="C36" r:id="rId32" display="Smallest Subarray with sum greater than a given value"/>
+    <hyperlink ref="C37" r:id="rId33" display="Three way partitioning of an array around a given value"/>
+    <hyperlink ref="C38" r:id="rId34" display="Minimum swaps required bring elements less equal K together"/>
+    <hyperlink ref="C39" r:id="rId35" display="Minimum no. of operations required to make an array palindrome"/>
+    <hyperlink ref="C40" r:id="rId36" display="Median of 2 sorted arrays of equal size"/>
+    <hyperlink ref="C41" r:id="rId37" display="Median of 2 sorted arrays of different size"/>
+    <hyperlink ref="C44" r:id="rId38" display="Spiral traversal on a Matrix"/>
+    <hyperlink ref="C45" r:id="rId39" display="Search an element in a matriix"/>
+    <hyperlink ref="C46" r:id="rId40" display="Find median in a row wise sorted matrix"/>
+    <hyperlink ref="C47" r:id="rId41" display="Find row with maximum no. of 1's"/>
+    <hyperlink ref="C48" r:id="rId42" display="Print elements in sorted order using row-column wise sorted matrix"/>
+    <hyperlink ref="C49" r:id="rId43" display="Maximum size rectangle"/>
+    <hyperlink ref="C50" r:id="rId44" display="Find a specific pair in matrix"/>
+    <hyperlink ref="C51" r:id="rId45" display="Rotate matrix by 90 degrees"/>
+    <hyperlink ref="C52" r:id="rId46" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
+    <hyperlink ref="C53" r:id="rId47" display="Common elements in all rows of a given matrix"/>
+    <hyperlink ref="C56" r:id="rId48" display="Reverse a String"/>
+    <hyperlink ref="C57" r:id="rId49" display="Check whether a String is Palindrome or not"/>
+    <hyperlink ref="C58" r:id="rId50" display="Find Duplicate characters in a string"/>
+    <hyperlink ref="C60" r:id="rId51" display="Write a Code to check whether one string is a rotation of another"/>
+    <hyperlink ref="C61" r:id="rId52" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
+    <hyperlink ref="C62" r:id="rId53" display="Count and Say problem"/>
+    <hyperlink ref="C63" r:id="rId54" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
+    <hyperlink ref="C64" r:id="rId55" display="Find Longest Recurring Subsequence in String"/>
+    <hyperlink ref="C65" r:id="rId56" display="Print all Subsequences of a string."/>
+    <hyperlink ref="C66" r:id="rId57" display="Print all the permutations of the given string"/>
+    <hyperlink ref="C67" r:id="rId58" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
+    <hyperlink ref="C68" r:id="rId59" display="Word Wrap Problem [VERY IMP]."/>
+    <hyperlink ref="C69" r:id="rId60" display="EDIT Distance [Very Imp]"/>
+    <hyperlink ref="C70" r:id="rId61" display="Find next greater number with same set of digits. [Very Very IMP]"/>
+    <hyperlink ref="C71" r:id="rId62" display="Balanced Parenthesis problem.[Imp]"/>
+    <hyperlink ref="C72" r:id="rId63" display="Word break Problem[ Very Imp]"/>
+    <hyperlink ref="C73" r:id="rId64" display="Rabin Karp Algo"/>
+    <hyperlink ref="C74" r:id="rId65" display="KMP Algo"/>
+    <hyperlink ref="C75" r:id="rId66" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="C76" r:id="rId67" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="C77" r:id="rId68" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="C78" r:id="rId69" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="C79" r:id="rId70" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="C80" r:id="rId71" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="C81" r:id="rId72" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="C82" r:id="rId73" display="Longest Common Prefix"/>
+    <hyperlink ref="C83" r:id="rId74" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="C84" r:id="rId75" display="Find the first repeated word in string."/>
+    <hyperlink ref="C85" r:id="rId76" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="C86" r:id="rId77" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="C87" r:id="rId78" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="C88" r:id="rId79" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="C89" r:id="rId80" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="C90" r:id="rId81" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="C91" r:id="rId82" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="C92" r:id="rId83" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="C93" r:id="rId84" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="C94" r:id="rId85" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="C95" r:id="rId86" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="C96" r:id="rId87" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="C97" r:id="rId88" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="C98" r:id="rId89" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="C101" r:id="rId90" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="C102" r:id="rId91" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="C103" r:id="rId92" display="Search in a rotated sorted array"/>
+    <hyperlink ref="C104" r:id="rId93" display="square root of an integer"/>
+    <hyperlink ref="C105" r:id="rId94" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="C106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="C107" r:id="rId96" display="Find the repeating and the missing"/>
+    <hyperlink ref="C108" r:id="rId97" display="find majority element"/>
+    <hyperlink ref="C109" r:id="rId98" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="C110" r:id="rId99" display="find a pair with a given difference"/>
+    <hyperlink ref="C111" r:id="rId100" display="find four elements that sum to a given value"/>
+    <hyperlink ref="C112" r:id="rId101" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="C113" r:id="rId102" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="C114" r:id="rId103" display="merge 2 sorted arrays"/>
+    <hyperlink ref="C115" r:id="rId104" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="C116" r:id="rId105" display="Product array Puzzle"/>
+    <hyperlink ref="C117" r:id="rId106" display="Sort array according to count of set bits"/>
+    <hyperlink ref="C118" r:id="rId107" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="C119" r:id="rId108" display="Bishu and Soldiers"/>
+    <hyperlink ref="C120" r:id="rId109" display="Rasta and Kheshtak"/>
+    <hyperlink ref="C121" r:id="rId110" display="Kth smallest number again"/>
+    <hyperlink ref="C122" r:id="rId111" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="C123" r:id="rId112" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="C124" r:id="rId113" display="Aggressive cows"/>
+    <hyperlink ref="C125" r:id="rId114" display="Book Allocation Problem"/>
+    <hyperlink ref="C126" r:id="rId115" display="EKOSPOJ:"/>
+    <hyperlink ref="C127" r:id="rId116" display="Job Scheduling Algo"/>
+    <hyperlink ref="C128" r:id="rId117" display="Missing Number in AP"/>
+    <hyperlink ref="C129" r:id="rId118" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="C130" r:id="rId119" display="Painters Partition Problem:"/>
+    <hyperlink ref="C131" r:id="rId120" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="C132" r:id="rId121" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="C133" r:id="rId122" display="Subset Sums"/>
+    <hyperlink ref="C134" r:id="rId123" display="Findthe inversion count"/>
+    <hyperlink ref="C135" r:id="rId124" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="C136" r:id="rId125" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="C139" r:id="rId126" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="C140" r:id="rId127" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="C141" r:id="rId128" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="C142" r:id="rId129" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="C143" r:id="rId130" display="Find the starting point of the loop. "/>
+    <hyperlink ref="C144" r:id="rId131" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="C145" r:id="rId132" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="C146" r:id="rId133" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="C147" r:id="rId134" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="C148" r:id="rId135" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="C149" r:id="rId136" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="C150" r:id="rId137" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="C151" r:id="rId138" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="C152" r:id="rId139" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="C153" r:id="rId140" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="C154" r:id="rId141" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="C155" r:id="rId142" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="C156" r:id="rId143" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="C157" r:id="rId144" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="C158" r:id="rId145" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="C159" r:id="rId146" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="C160" r:id="rId147" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="C161" r:id="rId148" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="C162" r:id="rId149" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="C163" r:id="rId150" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="C166" r:id="rId151" display="Flatten a Linked List"/>
+    <hyperlink ref="C167" r:id="rId152" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="C168" r:id="rId153" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="C169" r:id="rId154" display="Merge K sorted Linked list"/>
+    <hyperlink ref="C170" r:id="rId155" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="C171" r:id="rId156" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="C172" r:id="rId157" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="C173" r:id="rId158" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="C174" r:id="rId159" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="C177" r:id="rId160" display="level order traversal"/>
+    <hyperlink ref="C178" r:id="rId161" display="Reverse Level Order traversal"/>
+    <hyperlink ref="C179" r:id="rId162" display="Height of a tree"/>
+    <hyperlink ref="C180" r:id="rId163" display="Diameter of a tree"/>
+    <hyperlink ref="C181" r:id="rId164" display="Mirror of a tree"/>
+    <hyperlink ref="C182" r:id="rId165" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C183" r:id="rId166" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C184" r:id="rId167" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C185" r:id="rId168" display="Left View of a tree"/>
+    <hyperlink ref="C186" r:id="rId169" display="Right View of Tree"/>
+    <hyperlink ref="C187" r:id="rId170" display="Top View of a tree"/>
+    <hyperlink ref="C188" r:id="rId171" display="Bottom View of a tree"/>
+    <hyperlink ref="C189" r:id="rId172" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="C190" r:id="rId173" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="C191" r:id="rId174" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="C192" r:id="rId175" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="C193" r:id="rId176" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="C194" r:id="rId177" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="C195" r:id="rId178" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="C196" r:id="rId179" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="C197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="C198" r:id="rId181" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="C199" r:id="rId182" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="C200" r:id="rId183" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="C201" r:id="rId184" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="C202" r:id="rId185" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="C203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="C204" r:id="rId187" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="C205" r:id="rId188" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="C206" r:id="rId189" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="C207" r:id="rId190" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="C208" r:id="rId191" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="C209" r:id="rId192" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="C210" r:id="rId193" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="C211" r:id="rId194" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="C214" r:id="rId195" display="Fina a value in a BST"/>
+    <hyperlink ref="C215" r:id="rId196" display="Deletion of a node in a BST"/>
+    <hyperlink ref="C216" r:id="rId197" display="Find min and max value in a BST"/>
+    <hyperlink ref="C217" r:id="rId198" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="C218" r:id="rId199" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="C219" r:id="rId200" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="C220" r:id="rId201" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="C221" r:id="rId202" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="C222" r:id="rId203" display="Convert Binary tree into BST"/>
+    <hyperlink ref="C223" r:id="rId204" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="C224" r:id="rId205" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="C225" r:id="rId206" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="C226" r:id="rId207" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="C227" r:id="rId208" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="C228" r:id="rId209" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="C229" r:id="rId210" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="C230" r:id="rId211" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="C231" r:id="rId212" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="C232" r:id="rId213" display="Check preorder is valid or not"/>
+    <hyperlink ref="C233" r:id="rId214" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="C234" r:id="rId215" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="C235" r:id="rId216" display="Flatten BST to sorted list"/>
+    <hyperlink ref="C238" r:id="rId217" display="Activity Selection Problem"/>
+    <hyperlink ref="C239" r:id="rId218" display="Job SequencingProblem"/>
+    <hyperlink ref="C240" r:id="rId219" display="Huffman Coding"/>
+    <hyperlink ref="C241" r:id="rId220" display="Water Connection Problem"/>
+    <hyperlink ref="C242" r:id="rId221" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="C243" r:id="rId222" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="C244" r:id="rId223" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="C245" r:id="rId224" display="Minimum Platforms Problem"/>
+    <hyperlink ref="C246" r:id="rId225" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="C247" r:id="rId226" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="C248" r:id="rId227" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="C249" r:id="rId228" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="C250" r:id="rId229" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="C251" r:id="rId230" display="Find maximum meetings in one room"/>
+    <hyperlink ref="C252" r:id="rId231" display="Maximum product subset of an array"/>
+    <hyperlink ref="C253" r:id="rId232" display="Maximize array sum after K negations"/>
+    <hyperlink ref="C254" r:id="rId233" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="C255" r:id="rId234" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="C256" r:id="rId235" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="C257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="C258" r:id="rId237" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="C259" r:id="rId238" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="C260" r:id="rId239" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="C261" r:id="rId240" display="Chocolate Distribution Problem"/>
+    <hyperlink ref="C262" r:id="rId241" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="C263" r:id="rId242" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="C264" r:id="rId243" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="C265" r:id="rId244" display="Picking Up Chicks"/>
+    <hyperlink ref="C266" r:id="rId245" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="C267" r:id="rId246" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="C268" r:id="rId247" display="K Centers Problem"/>
+    <hyperlink ref="C269" r:id="rId248" display="Minimum Cost of ropes"/>
+    <hyperlink ref="C270" r:id="rId249" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="C271" r:id="rId250" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="C272" r:id="rId251" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="C275" r:id="rId252" display="Rat in a maze Problem"/>
+    <hyperlink ref="C276" r:id="rId253" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="C277" r:id="rId254" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="C278" r:id="rId255" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="C279" r:id="rId256" display="Sudoku Solver"/>
+    <hyperlink ref="C280" r:id="rId257" display="m Coloring Problem"/>
+    <hyperlink ref="C281" r:id="rId258" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="C282" r:id="rId259" display="Subset Sum Problem"/>
+    <hyperlink ref="C283" r:id="rId260" display="The Knight’s tour problem"/>
+    <hyperlink ref="C284" r:id="rId261" display="Tug of War"/>
+    <hyperlink ref="C285" r:id="rId262" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="C286" r:id="rId263" display="Combinational Sum"/>
+    <hyperlink ref="C287" r:id="rId264" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="C288" r:id="rId265" display="Print all permutations of a string "/>
+    <hyperlink ref="C289" r:id="rId266" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="C290" r:id="rId267" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="C291" r:id="rId268" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="C292" r:id="rId269" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="C293" r:id="rId270" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="C296" r:id="rId271" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="C297" r:id="rId272" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="C298" r:id="rId273" display="Implement 2 stack in an array"/>
+    <hyperlink ref="C299" r:id="rId274" display="find the middle element of a stack"/>
+    <hyperlink ref="C300" r:id="rId275" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="C301" r:id="rId276" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="C302" r:id="rId277" display="Reverse a String using Stack"/>
+    <hyperlink ref="C303" r:id="rId278" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="C304" r:id="rId279" display="Find the next Greater element"/>
+    <hyperlink ref="C305" r:id="rId280" display="The celebrity Problem"/>
+    <hyperlink ref="C306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="C307" r:id="rId282" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="C308" r:id="rId283" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="C309" r:id="rId284" display="Reverse a stack using recursion"/>
+    <hyperlink ref="C310" r:id="rId285" display="Sort a Stack using recursion"/>
+    <hyperlink ref="C311" r:id="rId286" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="C312" r:id="rId287" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="C313" r:id="rId288" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="C314" r:id="rId289" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="C315" r:id="rId290" display="Implement Stack using Queue"/>
+    <hyperlink ref="C316" r:id="rId291" display="Implement Stack using Deque"/>
+    <hyperlink ref="C317" r:id="rId292" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="C318" r:id="rId293" display="Implement Queue using Stack  "/>
+    <hyperlink ref="C319" r:id="rId294" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="C320" r:id="rId295" display="Implement a Circular queue"/>
+    <hyperlink ref="C321" r:id="rId296" display="LRU Cache Implementationa"/>
+    <hyperlink ref="C322" r:id="rId297" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="C323" r:id="rId298" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="C324" r:id="rId299" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="C325" r:id="rId300" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="C326" r:id="rId301" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="C327" r:id="rId302" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="C328" r:id="rId303" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="C329" r:id="rId304" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="C330" r:id="rId305" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="C331" r:id="rId306" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="C332" r:id="rId307" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="C333" r:id="rId308" display="Next Smaller Element"/>
+    <hyperlink ref="C336" r:id="rId309" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="C337" r:id="rId310" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="C338" r:id="rId311" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="C339" r:id="rId312" display="“k” largest element in an array"/>
+    <hyperlink ref="C340" r:id="rId313" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="C341" r:id="rId314" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="C342" r:id="rId315" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="C343" r:id="rId316" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="C344" r:id="rId317" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="C345" r:id="rId318" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="C346" r:id="rId319" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="C347" r:id="rId320" display="Median in a stream of Integers"/>
+    <hyperlink ref="C348" r:id="rId321" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="C349" r:id="rId322" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="C350" r:id="rId323" display="Convert BST to Min Heap"/>
+    <hyperlink ref="C351" r:id="rId324" display="Convert min heap to max heap"/>
+    <hyperlink ref="C352" r:id="rId325" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="C353" r:id="rId326" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="C356" r:id="rId327" display="Create a Graph, print it"/>
+    <hyperlink ref="C357" r:id="rId328" display="Implement BFS algorithm "/>
+    <hyperlink ref="C358" r:id="rId329" display="Implement DFS Algo "/>
+    <hyperlink ref="C359" r:id="rId330" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="C360" r:id="rId331" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="C361" r:id="rId332" display="Search in a Maze"/>
+    <hyperlink ref="C362" r:id="rId333" display="Minimum Step by Knight"/>
+    <hyperlink ref="C363" r:id="rId334" display="flood fill algo"/>
+    <hyperlink ref="C364" r:id="rId335" display="Clone a graph"/>
+    <hyperlink ref="C365" r:id="rId336" display="Making wired Connections"/>
+    <hyperlink ref="C366" r:id="rId337" display="word Ladder "/>
+    <hyperlink ref="C367" r:id="rId338" display="Dijkstra algo"/>
+    <hyperlink ref="C368" r:id="rId339" display="Implement Topological Sort "/>
+    <hyperlink ref="C369" r:id="rId340" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="C370" r:id="rId341" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="C371" r:id="rId342" display="Find the no. of Isalnds"/>
+    <hyperlink ref="C372" r:id="rId343" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="C373" r:id="rId344" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="C374" r:id="rId345" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="C375" r:id="rId346" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="C376" r:id="rId347" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="C377" r:id="rId348" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="C378" r:id="rId349" display="Travelling Salesman Problem"/>
+    <hyperlink ref="C379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
+    <hyperlink ref="C380" r:id="rId351" display="Snake and Ladders Problem"/>
+    <hyperlink ref="C381" r:id="rId352" display="Find bridge in a graph"/>
+    <hyperlink ref="C382" r:id="rId353" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="C383" r:id="rId354" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="C384" r:id="rId355" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="C385" r:id="rId356" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="C386" r:id="rId357" display="Journey to the Moon"/>
+    <hyperlink ref="C387" r:id="rId358" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="C388" r:id="rId359" display="Oliver and the Game"/>
+    <hyperlink ref="C389" r:id="rId360" display="Water Jug problem using BFS"/>
+    <hyperlink ref="C390" r:id="rId361" display="Water Jug problem using BFS"/>
+    <hyperlink ref="C391" r:id="rId362" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="C392" r:id="rId363" display="M-ColouringProblem"/>
+    <hyperlink ref="C393" r:id="rId364" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="C394" r:id="rId365" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="C395" r:id="rId366" display="Vertex Cover Problem"/>
+    <hyperlink ref="C396" r:id="rId367" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="C397" r:id="rId368" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="C398" r:id="rId369" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="C399" r:id="rId370" display="Two Clique Problem"/>
+    <hyperlink ref="C402" r:id="rId371" display="Construct a trie from scratch"/>
+    <hyperlink ref="C403" r:id="rId372" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="C404" r:id="rId373" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="C405" r:id="rId374" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="C406" r:id="rId375" display="Implement a Phone Directory"/>
+    <hyperlink ref="C407" r:id="rId376" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="C410" r:id="rId377" display="Coin ChangeProblem"/>
+    <hyperlink ref="C411" r:id="rId378" display="Knapsack Problem"/>
+    <hyperlink ref="C412" r:id="rId379" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="C413" r:id="rId380" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="C414" r:id="rId381" display="Program for nth Catalan Number"/>
+    <hyperlink ref="C415" r:id="rId382" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="C416" r:id="rId383" display="Edit Distance"/>
+    <hyperlink ref="C417" r:id="rId384" display="Subset Sum Problem"/>
+    <hyperlink ref="C418" r:id="rId385" display="Friends Pairing Problem"/>
+    <hyperlink ref="C419" r:id="rId386" display="Gold Mine Problem"/>
+    <hyperlink ref="C420" r:id="rId387" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="C421" r:id="rId388" display="Painting the Fenceproblem"/>
+    <hyperlink ref="C422" r:id="rId389" display="Maximize The Cut Segments"/>
+    <hyperlink ref="C423" r:id="rId390" display="Longest Common Subsequence"/>
+    <hyperlink ref="C424" r:id="rId391" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="C425" r:id="rId392" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="C426" r:id="rId393" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="C427" r:id="rId394" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="C428" r:id="rId395" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="C429" r:id="rId396" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="C430" r:id="rId397" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="C431" r:id="rId398" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="C432" r:id="rId399" display="Egg Dropping Problem"/>
+    <hyperlink ref="C433" r:id="rId400" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="C434" r:id="rId401" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="C435" r:id="rId402" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="C436" r:id="rId403" display="Min Cost PathProblem"/>
+    <hyperlink ref="C437" r:id="rId404" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="C438" r:id="rId405" display="Minimum number of jumps to reach end"/>
+    <hyperlink ref="C439" r:id="rId406" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="C440" r:id="rId407" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="C441" r:id="rId408" display="Longest Common Substring"/>
+    <hyperlink ref="C442" r:id="rId409" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="C443" r:id="rId410" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="C444" r:id="rId411" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
+    <hyperlink ref="C445" r:id="rId412" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="C446" r:id="rId413" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="C447" r:id="rId414" display="Word Break Problem"/>
+    <hyperlink ref="C448" r:id="rId415" display="Largest Independent Set Problem"/>
+    <hyperlink ref="C449" r:id="rId416" display="Partition problem"/>
+    <hyperlink ref="C450" r:id="rId417" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="C451" r:id="rId418" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="C452" r:id="rId419" display="Longest Palindromic Substring"/>
+    <hyperlink ref="C453" r:id="rId420" display="Longest alternating subsequence"/>
+    <hyperlink ref="C454" r:id="rId421" display="Weighted Job Scheduling"/>
+    <hyperlink ref="C455" r:id="rId422" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="C456" r:id="rId423" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="C457" r:id="rId424" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="C458" r:id="rId425" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="C459" r:id="rId426" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="C460" r:id="rId427" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="C461" r:id="rId428" display="Word Wrap Problem"/>
+    <hyperlink ref="C462" r:id="rId429" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="C463" r:id="rId430" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="C464" r:id="rId431" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="C465" r:id="rId432" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="C466" r:id="rId433" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="C467" r:id="rId434" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="C468" r:id="rId435" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="C469" r:id="rId436" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="C472" r:id="rId437" display="Count set bits in an integer"/>
+    <hyperlink ref="C473" r:id="rId438" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="C474" r:id="rId439" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="C475" r:id="rId440" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="C476" r:id="rId441" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="C477" r:id="rId442" display="Find position of the only set bit"/>
+    <hyperlink ref="C478" r:id="rId443" display="Copy set bits in a range"/>
+    <hyperlink ref="C479" r:id="rId444" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="C480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="C481" r:id="rId446" display="Power Set"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1672,7 +1672,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1791,7 +1791,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1672,10 +1672,10 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.34"/>
@@ -1805,7 +1805,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1672,10 +1672,10 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.34"/>
@@ -1819,7 +1819,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="472">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -58,6 +58,9 @@
     <t xml:space="preserve">Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
   </si>
   <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Move all the negative elements to one side of the array </t>
   </si>
   <si>
@@ -76,9 +79,15 @@
     <t xml:space="preserve">Minimise the maximum difference between heights [V.IMP]</t>
   </si>
   <si>
+    <t xml:space="preserve">Pending</t>
+  </si>
+  <si>
     <t xml:space="preserve">Minimum no. of Jumps to reach end of an array</t>
   </si>
   <si>
+    <t xml:space="preserve">Doubt</t>
+  </si>
+  <si>
     <t xml:space="preserve">find duplicate in an array of N+1 Integers</t>
   </si>
   <si>
@@ -95,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">Count Inversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">Best time to buy and Sell stock</t>
@@ -1671,11 +1683,11 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.34"/>
@@ -1763,7 +1775,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1774,10 +1786,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1788,7 +1800,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>10</v>
@@ -1802,7 +1814,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>10</v>
@@ -1816,7 +1828,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>10</v>
@@ -1830,10 +1842,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1844,10 +1856,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1858,10 +1870,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1872,10 +1884,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1886,10 +1898,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1900,10 +1912,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1914,10 +1926,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1928,10 +1940,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1942,10 +1954,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1956,10 +1968,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1970,7 +1982,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>5</v>
@@ -1984,7 +1996,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>5</v>
@@ -1998,7 +2010,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>5</v>
@@ -2012,7 +2024,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>5</v>
@@ -2026,7 +2038,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>5</v>
@@ -2040,7 +2052,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>5</v>
@@ -2054,7 +2066,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>5</v>
@@ -2068,7 +2080,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>5</v>
@@ -2082,7 +2094,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>5</v>
@@ -2096,7 +2108,7 @@
         <v>28</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>5</v>
@@ -2110,7 +2122,7 @@
         <v>29</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>5</v>
@@ -2124,7 +2136,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>5</v>
@@ -2138,7 +2150,7 @@
         <v>31</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>5</v>
@@ -2152,7 +2164,7 @@
         <v>32</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>5</v>
@@ -2166,7 +2178,7 @@
         <v>33</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>5</v>
@@ -2180,7 +2192,7 @@
         <v>34</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>5</v>
@@ -2194,7 +2206,7 @@
         <v>35</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>5</v>
@@ -2208,7 +2220,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>5</v>
@@ -2230,11 +2242,11 @@
     </row>
     <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>5</v>
@@ -2242,11 +2254,11 @@
     </row>
     <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>5</v>
@@ -2254,11 +2266,11 @@
     </row>
     <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>5</v>
@@ -2266,11 +2278,11 @@
     </row>
     <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>5</v>
@@ -2278,11 +2290,11 @@
     </row>
     <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>5</v>
@@ -2290,11 +2302,11 @@
     </row>
     <row r="49" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>5</v>
@@ -2302,11 +2314,11 @@
     </row>
     <row r="50" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>5</v>
@@ -2314,11 +2326,11 @@
     </row>
     <row r="51" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>5</v>
@@ -2326,11 +2338,11 @@
     </row>
     <row r="52" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>5</v>
@@ -2338,11 +2350,11 @@
     </row>
     <row r="53" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>5</v>
@@ -2356,11 +2368,11 @@
     </row>
     <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>5</v>
@@ -2368,11 +2380,11 @@
     </row>
     <row r="57" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>5</v>
@@ -2380,11 +2392,11 @@
     </row>
     <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>5</v>
@@ -2392,11 +2404,11 @@
     </row>
     <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>5</v>
@@ -2404,11 +2416,11 @@
     </row>
     <row r="60" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>5</v>
@@ -2416,11 +2428,11 @@
     </row>
     <row r="61" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>5</v>
@@ -2428,11 +2440,11 @@
     </row>
     <row r="62" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>5</v>
@@ -2440,11 +2452,11 @@
     </row>
     <row r="63" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>5</v>
@@ -2452,11 +2464,11 @@
     </row>
     <row r="64" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>5</v>
@@ -2464,11 +2476,11 @@
     </row>
     <row r="65" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>5</v>
@@ -2476,11 +2488,11 @@
     </row>
     <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>5</v>
@@ -2488,11 +2500,11 @@
     </row>
     <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>5</v>
@@ -2500,11 +2512,11 @@
     </row>
     <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>5</v>
@@ -2512,11 +2524,11 @@
     </row>
     <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>5</v>
@@ -2524,11 +2536,11 @@
     </row>
     <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>5</v>
@@ -2536,11 +2548,11 @@
     </row>
     <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>5</v>
@@ -2548,11 +2560,11 @@
     </row>
     <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>5</v>
@@ -2560,11 +2572,11 @@
     </row>
     <row r="73" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>5</v>
@@ -2572,11 +2584,11 @@
     </row>
     <row r="74" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>5</v>
@@ -2584,11 +2596,11 @@
     </row>
     <row r="75" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>5</v>
@@ -2596,11 +2608,11 @@
     </row>
     <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>5</v>
@@ -2608,11 +2620,11 @@
     </row>
     <row r="77" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>5</v>
@@ -2620,11 +2632,11 @@
     </row>
     <row r="78" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>5</v>
@@ -2632,11 +2644,11 @@
     </row>
     <row r="79" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>5</v>
@@ -2644,11 +2656,11 @@
     </row>
     <row r="80" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>5</v>
@@ -2656,11 +2668,11 @@
     </row>
     <row r="81" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>5</v>
@@ -2668,11 +2680,11 @@
     </row>
     <row r="82" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>5</v>
@@ -2680,11 +2692,11 @@
     </row>
     <row r="83" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>5</v>
@@ -2692,11 +2704,11 @@
     </row>
     <row r="84" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>5</v>
@@ -2704,11 +2716,11 @@
     </row>
     <row r="85" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>5</v>
@@ -2716,11 +2728,11 @@
     </row>
     <row r="86" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>5</v>
@@ -2728,11 +2740,11 @@
     </row>
     <row r="87" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>5</v>
@@ -2740,11 +2752,11 @@
     </row>
     <row r="88" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>5</v>
@@ -2752,11 +2764,11 @@
     </row>
     <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>5</v>
@@ -2764,11 +2776,11 @@
     </row>
     <row r="90" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>5</v>
@@ -2776,11 +2788,11 @@
     </row>
     <row r="91" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>5</v>
@@ -2788,11 +2800,11 @@
     </row>
     <row r="92" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>5</v>
@@ -2800,11 +2812,11 @@
     </row>
     <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>5</v>
@@ -2812,11 +2824,11 @@
     </row>
     <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>5</v>
@@ -2824,11 +2836,11 @@
     </row>
     <row r="95" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>5</v>
@@ -2836,11 +2848,11 @@
     </row>
     <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>5</v>
@@ -2848,11 +2860,11 @@
     </row>
     <row r="97" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>5</v>
@@ -2860,11 +2872,11 @@
     </row>
     <row r="98" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>5</v>
@@ -2878,11 +2890,11 @@
     </row>
     <row r="101" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>5</v>
@@ -2890,11 +2902,11 @@
     </row>
     <row r="102" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>5</v>
@@ -2902,11 +2914,11 @@
     </row>
     <row r="103" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>5</v>
@@ -2914,11 +2926,11 @@
     </row>
     <row r="104" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B104" s="6"/>
       <c r="C104" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>5</v>
@@ -2926,11 +2938,11 @@
     </row>
     <row r="105" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>5</v>
@@ -2938,11 +2950,11 @@
     </row>
     <row r="106" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>5</v>
@@ -2950,11 +2962,11 @@
     </row>
     <row r="107" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B107" s="6"/>
       <c r="C107" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>5</v>
@@ -2962,11 +2974,11 @@
     </row>
     <row r="108" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B108" s="6"/>
       <c r="C108" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>5</v>
@@ -2974,11 +2986,11 @@
     </row>
     <row r="109" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B109" s="6"/>
       <c r="C109" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>5</v>
@@ -2986,11 +2998,11 @@
     </row>
     <row r="110" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B110" s="6"/>
       <c r="C110" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>5</v>
@@ -2998,11 +3010,11 @@
     </row>
     <row r="111" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B111" s="6"/>
       <c r="C111" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>5</v>
@@ -3010,11 +3022,11 @@
     </row>
     <row r="112" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B112" s="6"/>
       <c r="C112" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>5</v>
@@ -3022,11 +3034,11 @@
     </row>
     <row r="113" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B113" s="6"/>
       <c r="C113" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>5</v>
@@ -3034,11 +3046,11 @@
     </row>
     <row r="114" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B114" s="6"/>
       <c r="C114" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>5</v>
@@ -3046,11 +3058,11 @@
     </row>
     <row r="115" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B115" s="6"/>
       <c r="C115" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>5</v>
@@ -3058,11 +3070,11 @@
     </row>
     <row r="116" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B116" s="6"/>
       <c r="C116" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>5</v>
@@ -3070,11 +3082,11 @@
     </row>
     <row r="117" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B117" s="6"/>
       <c r="C117" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>5</v>
@@ -3082,11 +3094,11 @@
     </row>
     <row r="118" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B118" s="6"/>
       <c r="C118" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>5</v>
@@ -3094,11 +3106,11 @@
     </row>
     <row r="119" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B119" s="6"/>
       <c r="C119" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>5</v>
@@ -3106,11 +3118,11 @@
     </row>
     <row r="120" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B120" s="6"/>
       <c r="C120" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>5</v>
@@ -3118,11 +3130,11 @@
     </row>
     <row r="121" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>5</v>
@@ -3130,11 +3142,11 @@
     </row>
     <row r="122" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B122" s="6"/>
       <c r="C122" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>5</v>
@@ -3142,11 +3154,11 @@
     </row>
     <row r="123" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B123" s="6"/>
       <c r="C123" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>5</v>
@@ -3154,11 +3166,11 @@
     </row>
     <row r="124" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B124" s="6"/>
       <c r="C124" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>5</v>
@@ -3166,11 +3178,11 @@
     </row>
     <row r="125" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B125" s="6"/>
       <c r="C125" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>5</v>
@@ -3178,11 +3190,11 @@
     </row>
     <row r="126" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B126" s="6"/>
       <c r="C126" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>5</v>
@@ -3190,11 +3202,11 @@
     </row>
     <row r="127" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B127" s="6"/>
       <c r="C127" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>5</v>
@@ -3202,11 +3214,11 @@
     </row>
     <row r="128" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B128" s="6"/>
       <c r="C128" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>5</v>
@@ -3214,11 +3226,11 @@
     </row>
     <row r="129" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B129" s="6"/>
       <c r="C129" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>5</v>
@@ -3226,11 +3238,11 @@
     </row>
     <row r="130" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B130" s="6"/>
       <c r="C130" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>5</v>
@@ -3238,11 +3250,11 @@
     </row>
     <row r="131" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B131" s="6"/>
       <c r="C131" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>5</v>
@@ -3250,11 +3262,11 @@
     </row>
     <row r="132" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B132" s="6"/>
       <c r="C132" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>5</v>
@@ -3262,11 +3274,11 @@
     </row>
     <row r="133" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B133" s="6"/>
       <c r="C133" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>5</v>
@@ -3274,11 +3286,11 @@
     </row>
     <row r="134" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B134" s="6"/>
       <c r="C134" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>5</v>
@@ -3286,11 +3298,11 @@
     </row>
     <row r="135" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B135" s="6"/>
       <c r="C135" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>5</v>
@@ -3298,11 +3310,11 @@
     </row>
     <row r="136" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B136" s="6"/>
       <c r="C136" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>5</v>
@@ -3314,11 +3326,11 @@
     </row>
     <row r="139" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B139" s="6"/>
       <c r="C139" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>5</v>
@@ -3326,11 +3338,11 @@
     </row>
     <row r="140" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B140" s="6"/>
       <c r="C140" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>5</v>
@@ -3338,11 +3350,11 @@
     </row>
     <row r="141" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B141" s="6"/>
       <c r="C141" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>5</v>
@@ -3350,11 +3362,11 @@
     </row>
     <row r="142" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B142" s="6"/>
       <c r="C142" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>5</v>
@@ -3362,11 +3374,11 @@
     </row>
     <row r="143" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B143" s="6"/>
       <c r="C143" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>5</v>
@@ -3374,11 +3386,11 @@
     </row>
     <row r="144" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B144" s="6"/>
       <c r="C144" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>5</v>
@@ -3386,11 +3398,11 @@
     </row>
     <row r="145" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B145" s="6"/>
       <c r="C145" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>5</v>
@@ -3398,11 +3410,11 @@
     </row>
     <row r="146" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B146" s="6"/>
       <c r="C146" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>5</v>
@@ -3410,11 +3422,11 @@
     </row>
     <row r="147" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B147" s="6"/>
       <c r="C147" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>5</v>
@@ -3422,11 +3434,11 @@
     </row>
     <row r="148" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B148" s="6"/>
       <c r="C148" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>5</v>
@@ -3434,11 +3446,11 @@
     </row>
     <row r="149" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B149" s="6"/>
       <c r="C149" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>5</v>
@@ -3446,11 +3458,11 @@
     </row>
     <row r="150" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B150" s="6"/>
       <c r="C150" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>5</v>
@@ -3458,11 +3470,11 @@
     </row>
     <row r="151" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B151" s="6"/>
       <c r="C151" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>5</v>
@@ -3470,11 +3482,11 @@
     </row>
     <row r="152" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B152" s="6"/>
       <c r="C152" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>5</v>
@@ -3482,11 +3494,11 @@
     </row>
     <row r="153" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B153" s="6"/>
       <c r="C153" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>5</v>
@@ -3494,11 +3506,11 @@
     </row>
     <row r="154" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B154" s="6"/>
       <c r="C154" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>5</v>
@@ -3506,11 +3518,11 @@
     </row>
     <row r="155" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B155" s="6"/>
       <c r="C155" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>5</v>
@@ -3518,11 +3530,11 @@
     </row>
     <row r="156" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B156" s="6"/>
       <c r="C156" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>5</v>
@@ -3530,11 +3542,11 @@
     </row>
     <row r="157" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B157" s="6"/>
       <c r="C157" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>5</v>
@@ -3542,11 +3554,11 @@
     </row>
     <row r="158" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B158" s="6"/>
       <c r="C158" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>5</v>
@@ -3554,11 +3566,11 @@
     </row>
     <row r="159" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B159" s="6"/>
       <c r="C159" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>5</v>
@@ -3566,11 +3578,11 @@
     </row>
     <row r="160" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B160" s="6"/>
       <c r="C160" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>5</v>
@@ -3578,11 +3590,11 @@
     </row>
     <row r="161" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B161" s="6"/>
       <c r="C161" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>5</v>
@@ -3590,11 +3602,11 @@
     </row>
     <row r="162" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B162" s="6"/>
       <c r="C162" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>5</v>
@@ -3602,11 +3614,11 @@
     </row>
     <row r="163" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B163" s="6"/>
       <c r="C163" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>5</v>
@@ -3614,11 +3626,11 @@
     </row>
     <row r="164" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B164" s="6"/>
       <c r="C164" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>5</v>
@@ -3626,11 +3638,11 @@
     </row>
     <row r="165" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B165" s="6"/>
       <c r="C165" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>5</v>
@@ -3638,11 +3650,11 @@
     </row>
     <row r="166" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B166" s="6"/>
       <c r="C166" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>5</v>
@@ -3650,11 +3662,11 @@
     </row>
     <row r="167" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B167" s="6"/>
       <c r="C167" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>5</v>
@@ -3662,11 +3674,11 @@
     </row>
     <row r="168" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B168" s="6"/>
       <c r="C168" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>5</v>
@@ -3674,11 +3686,11 @@
     </row>
     <row r="169" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B169" s="6"/>
       <c r="C169" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>5</v>
@@ -3686,11 +3698,11 @@
     </row>
     <row r="170" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B170" s="6"/>
       <c r="C170" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>5</v>
@@ -3698,11 +3710,11 @@
     </row>
     <row r="171" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B171" s="6"/>
       <c r="C171" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>5</v>
@@ -3710,11 +3722,11 @@
     </row>
     <row r="172" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B172" s="6"/>
       <c r="C172" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>5</v>
@@ -3722,11 +3734,11 @@
     </row>
     <row r="173" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B173" s="6"/>
       <c r="C173" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>5</v>
@@ -3734,11 +3746,11 @@
     </row>
     <row r="174" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B174" s="6"/>
       <c r="C174" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>5</v>
@@ -3750,119 +3762,119 @@
     </row>
     <row r="177" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B177" s="6"/>
       <c r="C177" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B178" s="6"/>
       <c r="C178" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B179" s="6"/>
       <c r="C179" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B180" s="6"/>
       <c r="C180" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B181" s="6"/>
       <c r="C181" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B182" s="6"/>
       <c r="C182" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B183" s="6"/>
       <c r="C183" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B184" s="6"/>
       <c r="C184" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B185" s="6"/>
       <c r="C185" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B186" s="6"/>
       <c r="C186" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>10</v>
@@ -3870,23 +3882,23 @@
     </row>
     <row r="187" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B187" s="6"/>
       <c r="C187" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B188" s="6"/>
       <c r="C188" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>5</v>
@@ -3894,11 +3906,11 @@
     </row>
     <row r="189" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B189" s="6"/>
       <c r="C189" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>5</v>
@@ -3906,11 +3918,11 @@
     </row>
     <row r="190" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B190" s="6"/>
       <c r="C190" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>5</v>
@@ -3918,11 +3930,11 @@
     </row>
     <row r="191" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B191" s="6"/>
       <c r="C191" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>5</v>
@@ -3930,11 +3942,11 @@
     </row>
     <row r="192" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B192" s="6"/>
       <c r="C192" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>5</v>
@@ -3942,11 +3954,11 @@
     </row>
     <row r="193" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B193" s="6"/>
       <c r="C193" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>5</v>
@@ -3954,11 +3966,11 @@
     </row>
     <row r="194" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B194" s="6"/>
       <c r="C194" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>5</v>
@@ -3966,11 +3978,11 @@
     </row>
     <row r="195" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B195" s="6"/>
       <c r="C195" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>5</v>
@@ -3978,11 +3990,11 @@
     </row>
     <row r="196" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B196" s="6"/>
       <c r="C196" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>5</v>
@@ -3990,11 +4002,11 @@
     </row>
     <row r="197" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B197" s="6"/>
       <c r="C197" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D197" s="5" t="s">
         <v>5</v>
@@ -4002,11 +4014,11 @@
     </row>
     <row r="198" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B198" s="6"/>
       <c r="C198" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>5</v>
@@ -4014,11 +4026,11 @@
     </row>
     <row r="199" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B199" s="6"/>
       <c r="C199" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D199" s="5" t="s">
         <v>5</v>
@@ -4026,11 +4038,11 @@
     </row>
     <row r="200" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B200" s="6"/>
       <c r="C200" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D200" s="5" t="s">
         <v>5</v>
@@ -4038,11 +4050,11 @@
     </row>
     <row r="201" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B201" s="6"/>
       <c r="C201" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>5</v>
@@ -4050,11 +4062,11 @@
     </row>
     <row r="202" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B202" s="6"/>
       <c r="C202" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>5</v>
@@ -4062,11 +4074,11 @@
     </row>
     <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B203" s="6"/>
       <c r="C203" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>5</v>
@@ -4074,11 +4086,11 @@
     </row>
     <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B204" s="6"/>
       <c r="C204" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D204" s="5" t="s">
         <v>5</v>
@@ -4086,11 +4098,11 @@
     </row>
     <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B205" s="6"/>
       <c r="C205" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D205" s="5" t="s">
         <v>5</v>
@@ -4098,11 +4110,11 @@
     </row>
     <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B206" s="6"/>
       <c r="C206" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D206" s="5" t="s">
         <v>5</v>
@@ -4110,11 +4122,11 @@
     </row>
     <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B207" s="6"/>
       <c r="C207" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>5</v>
@@ -4122,11 +4134,11 @@
     </row>
     <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B208" s="6"/>
       <c r="C208" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D208" s="5" t="s">
         <v>5</v>
@@ -4134,11 +4146,11 @@
     </row>
     <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B209" s="6"/>
       <c r="C209" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D209" s="5" t="s">
         <v>5</v>
@@ -4146,11 +4158,11 @@
     </row>
     <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B210" s="6"/>
       <c r="C210" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D210" s="5" t="s">
         <v>5</v>
@@ -4158,11 +4170,11 @@
     </row>
     <row r="211" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B211" s="6"/>
       <c r="C211" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D211" s="5" t="s">
         <v>5</v>
@@ -4182,11 +4194,11 @@
     </row>
     <row r="214" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B214" s="6"/>
       <c r="C214" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>5</v>
@@ -4194,11 +4206,11 @@
     </row>
     <row r="215" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B215" s="6"/>
       <c r="C215" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>5</v>
@@ -4206,11 +4218,11 @@
     </row>
     <row r="216" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B216" s="6"/>
       <c r="C216" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D216" s="5" t="s">
         <v>5</v>
@@ -4218,11 +4230,11 @@
     </row>
     <row r="217" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B217" s="6"/>
       <c r="C217" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D217" s="5" t="s">
         <v>5</v>
@@ -4230,11 +4242,11 @@
     </row>
     <row r="218" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B218" s="6"/>
       <c r="C218" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D218" s="5" t="s">
         <v>5</v>
@@ -4242,11 +4254,11 @@
     </row>
     <row r="219" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B219" s="6"/>
       <c r="C219" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D219" s="5" t="s">
         <v>5</v>
@@ -4254,11 +4266,11 @@
     </row>
     <row r="220" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B220" s="6"/>
       <c r="C220" s="9" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D220" s="5" t="s">
         <v>5</v>
@@ -4266,11 +4278,11 @@
     </row>
     <row r="221" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B221" s="6"/>
       <c r="C221" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D221" s="5" t="s">
         <v>5</v>
@@ -4278,11 +4290,11 @@
     </row>
     <row r="222" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B222" s="6"/>
       <c r="C222" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D222" s="5" t="s">
         <v>5</v>
@@ -4290,11 +4302,11 @@
     </row>
     <row r="223" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B223" s="6"/>
       <c r="C223" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>5</v>
@@ -4302,11 +4314,11 @@
     </row>
     <row r="224" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B224" s="6"/>
       <c r="C224" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D224" s="5" t="s">
         <v>5</v>
@@ -4314,11 +4326,11 @@
     </row>
     <row r="225" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B225" s="6"/>
       <c r="C225" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D225" s="5" t="s">
         <v>5</v>
@@ -4326,11 +4338,11 @@
     </row>
     <row r="226" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B226" s="6"/>
       <c r="C226" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D226" s="5" t="s">
         <v>5</v>
@@ -4338,11 +4350,11 @@
     </row>
     <row r="227" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B227" s="6"/>
       <c r="C227" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D227" s="5" t="s">
         <v>5</v>
@@ -4350,11 +4362,11 @@
     </row>
     <row r="228" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B228" s="6"/>
       <c r="C228" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D228" s="5" t="s">
         <v>5</v>
@@ -4362,11 +4374,11 @@
     </row>
     <row r="229" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B229" s="6"/>
       <c r="C229" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>5</v>
@@ -4374,11 +4386,11 @@
     </row>
     <row r="230" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B230" s="6"/>
       <c r="C230" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D230" s="5" t="s">
         <v>5</v>
@@ -4386,11 +4398,11 @@
     </row>
     <row r="231" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B231" s="6"/>
       <c r="C231" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D231" s="5" t="s">
         <v>5</v>
@@ -4398,11 +4410,11 @@
     </row>
     <row r="232" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B232" s="6"/>
       <c r="C232" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>5</v>
@@ -4410,11 +4422,11 @@
     </row>
     <row r="233" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B233" s="6"/>
       <c r="C233" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D233" s="5" t="s">
         <v>5</v>
@@ -4422,11 +4434,11 @@
     </row>
     <row r="234" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B234" s="6"/>
       <c r="C234" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D234" s="5" t="s">
         <v>5</v>
@@ -4434,11 +4446,11 @@
     </row>
     <row r="235" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B235" s="6"/>
       <c r="C235" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D235" s="5" t="s">
         <v>5</v>
@@ -4454,11 +4466,11 @@
     </row>
     <row r="238" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B238" s="6"/>
       <c r="C238" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D238" s="5" t="s">
         <v>5</v>
@@ -4466,11 +4478,11 @@
     </row>
     <row r="239" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B239" s="6"/>
       <c r="C239" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D239" s="5" t="s">
         <v>5</v>
@@ -4478,11 +4490,11 @@
     </row>
     <row r="240" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B240" s="6"/>
       <c r="C240" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D240" s="5" t="s">
         <v>5</v>
@@ -4490,11 +4502,11 @@
     </row>
     <row r="241" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B241" s="6"/>
       <c r="C241" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D241" s="5" t="s">
         <v>5</v>
@@ -4502,11 +4514,11 @@
     </row>
     <row r="242" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B242" s="6"/>
       <c r="C242" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D242" s="5" t="s">
         <v>5</v>
@@ -4514,11 +4526,11 @@
     </row>
     <row r="243" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B243" s="6"/>
       <c r="C243" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D243" s="5" t="s">
         <v>5</v>
@@ -4526,11 +4538,11 @@
     </row>
     <row r="244" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B244" s="6"/>
       <c r="C244" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D244" s="5" t="s">
         <v>5</v>
@@ -4538,11 +4550,11 @@
     </row>
     <row r="245" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B245" s="6"/>
       <c r="C245" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D245" s="5" t="s">
         <v>5</v>
@@ -4550,11 +4562,11 @@
     </row>
     <row r="246" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B246" s="6"/>
       <c r="C246" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D246" s="5" t="s">
         <v>5</v>
@@ -4562,11 +4574,11 @@
     </row>
     <row r="247" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B247" s="6"/>
       <c r="C247" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D247" s="5" t="s">
         <v>5</v>
@@ -4574,11 +4586,11 @@
     </row>
     <row r="248" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B248" s="6"/>
       <c r="C248" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D248" s="5" t="s">
         <v>5</v>
@@ -4586,11 +4598,11 @@
     </row>
     <row r="249" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B249" s="6"/>
       <c r="C249" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D249" s="5" t="s">
         <v>5</v>
@@ -4598,11 +4610,11 @@
     </row>
     <row r="250" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B250" s="6"/>
       <c r="C250" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D250" s="5" t="s">
         <v>5</v>
@@ -4610,11 +4622,11 @@
     </row>
     <row r="251" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B251" s="6"/>
       <c r="C251" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D251" s="5" t="s">
         <v>5</v>
@@ -4622,11 +4634,11 @@
     </row>
     <row r="252" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B252" s="6"/>
       <c r="C252" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D252" s="5" t="s">
         <v>5</v>
@@ -4634,11 +4646,11 @@
     </row>
     <row r="253" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B253" s="6"/>
       <c r="C253" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D253" s="5" t="s">
         <v>5</v>
@@ -4646,11 +4658,11 @@
     </row>
     <row r="254" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B254" s="6"/>
       <c r="C254" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D254" s="5" t="s">
         <v>5</v>
@@ -4658,11 +4670,11 @@
     </row>
     <row r="255" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B255" s="6"/>
       <c r="C255" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D255" s="5" t="s">
         <v>5</v>
@@ -4670,11 +4682,11 @@
     </row>
     <row r="256" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B256" s="6"/>
       <c r="C256" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D256" s="5" t="s">
         <v>5</v>
@@ -4682,11 +4694,11 @@
     </row>
     <row r="257" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B257" s="6"/>
       <c r="C257" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D257" s="5" t="s">
         <v>5</v>
@@ -4694,11 +4706,11 @@
     </row>
     <row r="258" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B258" s="6"/>
       <c r="C258" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D258" s="5" t="s">
         <v>5</v>
@@ -4706,11 +4718,11 @@
     </row>
     <row r="259" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B259" s="6"/>
       <c r="C259" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D259" s="5" t="s">
         <v>5</v>
@@ -4718,11 +4730,11 @@
     </row>
     <row r="260" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B260" s="6"/>
       <c r="C260" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D260" s="5" t="s">
         <v>5</v>
@@ -4730,11 +4742,11 @@
     </row>
     <row r="261" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B261" s="6"/>
       <c r="C261" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D261" s="5" t="s">
         <v>5</v>
@@ -4742,11 +4754,11 @@
     </row>
     <row r="262" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B262" s="6"/>
       <c r="C262" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D262" s="5" t="s">
         <v>5</v>
@@ -4754,11 +4766,11 @@
     </row>
     <row r="263" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B263" s="6"/>
       <c r="C263" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D263" s="5" t="s">
         <v>5</v>
@@ -4766,11 +4778,11 @@
     </row>
     <row r="264" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B264" s="6"/>
       <c r="C264" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D264" s="5" t="s">
         <v>5</v>
@@ -4778,11 +4790,11 @@
     </row>
     <row r="265" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B265" s="6"/>
       <c r="C265" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D265" s="5" t="s">
         <v>5</v>
@@ -4790,11 +4802,11 @@
     </row>
     <row r="266" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B266" s="6"/>
       <c r="C266" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D266" s="5" t="s">
         <v>5</v>
@@ -4802,11 +4814,11 @@
     </row>
     <row r="267" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B267" s="6"/>
       <c r="C267" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D267" s="5" t="s">
         <v>5</v>
@@ -4814,11 +4826,11 @@
     </row>
     <row r="268" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B268" s="6"/>
       <c r="C268" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D268" s="5" t="s">
         <v>5</v>
@@ -4826,11 +4838,11 @@
     </row>
     <row r="269" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B269" s="6"/>
       <c r="C269" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D269" s="5" t="s">
         <v>5</v>
@@ -4838,11 +4850,11 @@
     </row>
     <row r="270" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B270" s="6"/>
       <c r="C270" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D270" s="5" t="s">
         <v>5</v>
@@ -4850,11 +4862,11 @@
     </row>
     <row r="271" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B271" s="6"/>
       <c r="C271" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D271" s="5" t="s">
         <v>5</v>
@@ -4862,11 +4874,11 @@
     </row>
     <row r="272" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B272" s="6"/>
       <c r="C272" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D272" s="5" t="s">
         <v>5</v>
@@ -4882,11 +4894,11 @@
     </row>
     <row r="275" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B275" s="6"/>
       <c r="C275" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D275" s="5" t="s">
         <v>5</v>
@@ -4894,11 +4906,11 @@
     </row>
     <row r="276" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B276" s="6"/>
       <c r="C276" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D276" s="5" t="s">
         <v>5</v>
@@ -4906,11 +4918,11 @@
     </row>
     <row r="277" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B277" s="6"/>
       <c r="C277" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D277" s="5" t="s">
         <v>5</v>
@@ -4918,11 +4930,11 @@
     </row>
     <row r="278" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B278" s="6"/>
       <c r="C278" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D278" s="5" t="s">
         <v>5</v>
@@ -4930,11 +4942,11 @@
     </row>
     <row r="279" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B279" s="6"/>
       <c r="C279" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D279" s="5" t="s">
         <v>5</v>
@@ -4942,11 +4954,11 @@
     </row>
     <row r="280" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B280" s="6"/>
       <c r="C280" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D280" s="5" t="s">
         <v>5</v>
@@ -4954,11 +4966,11 @@
     </row>
     <row r="281" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B281" s="6"/>
       <c r="C281" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D281" s="5" t="s">
         <v>5</v>
@@ -4966,11 +4978,11 @@
     </row>
     <row r="282" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B282" s="6"/>
       <c r="C282" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D282" s="5" t="s">
         <v>5</v>
@@ -4978,11 +4990,11 @@
     </row>
     <row r="283" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B283" s="6"/>
       <c r="C283" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D283" s="5" t="s">
         <v>5</v>
@@ -4990,11 +5002,11 @@
     </row>
     <row r="284" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B284" s="6"/>
       <c r="C284" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D284" s="5" t="s">
         <v>5</v>
@@ -5002,11 +5014,11 @@
     </row>
     <row r="285" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B285" s="6"/>
       <c r="C285" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D285" s="5" t="s">
         <v>5</v>
@@ -5014,11 +5026,11 @@
     </row>
     <row r="286" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B286" s="6"/>
       <c r="C286" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D286" s="5" t="s">
         <v>5</v>
@@ -5026,11 +5038,11 @@
     </row>
     <row r="287" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B287" s="6"/>
       <c r="C287" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D287" s="5" t="s">
         <v>5</v>
@@ -5038,11 +5050,11 @@
     </row>
     <row r="288" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B288" s="6"/>
       <c r="C288" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D288" s="5" t="s">
         <v>5</v>
@@ -5050,11 +5062,11 @@
     </row>
     <row r="289" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B289" s="6"/>
       <c r="C289" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D289" s="5" t="s">
         <v>5</v>
@@ -5062,11 +5074,11 @@
     </row>
     <row r="290" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B290" s="6"/>
       <c r="C290" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D290" s="5" t="s">
         <v>5</v>
@@ -5074,11 +5086,11 @@
     </row>
     <row r="291" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B291" s="6"/>
       <c r="C291" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D291" s="5" t="s">
         <v>5</v>
@@ -5086,11 +5098,11 @@
     </row>
     <row r="292" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B292" s="6"/>
       <c r="C292" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D292" s="5" t="s">
         <v>5</v>
@@ -5098,11 +5110,11 @@
     </row>
     <row r="293" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B293" s="6"/>
       <c r="C293" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D293" s="5" t="s">
         <v>5</v>
@@ -5118,11 +5130,11 @@
     </row>
     <row r="296" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B296" s="6"/>
       <c r="C296" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D296" s="5" t="s">
         <v>5</v>
@@ -5130,11 +5142,11 @@
     </row>
     <row r="297" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B297" s="6"/>
       <c r="C297" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D297" s="5" t="s">
         <v>5</v>
@@ -5142,11 +5154,11 @@
     </row>
     <row r="298" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B298" s="6"/>
       <c r="C298" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D298" s="5" t="s">
         <v>5</v>
@@ -5154,11 +5166,11 @@
     </row>
     <row r="299" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B299" s="6"/>
       <c r="C299" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D299" s="5" t="s">
         <v>5</v>
@@ -5166,11 +5178,11 @@
     </row>
     <row r="300" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B300" s="6"/>
       <c r="C300" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D300" s="5" t="s">
         <v>5</v>
@@ -5178,11 +5190,11 @@
     </row>
     <row r="301" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B301" s="6"/>
       <c r="C301" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D301" s="5" t="s">
         <v>5</v>
@@ -5190,11 +5202,11 @@
     </row>
     <row r="302" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B302" s="6"/>
       <c r="C302" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D302" s="5" t="s">
         <v>5</v>
@@ -5202,11 +5214,11 @@
     </row>
     <row r="303" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B303" s="6"/>
       <c r="C303" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D303" s="5" t="s">
         <v>5</v>
@@ -5214,11 +5226,11 @@
     </row>
     <row r="304" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B304" s="6"/>
       <c r="C304" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D304" s="5" t="s">
         <v>5</v>
@@ -5226,11 +5238,11 @@
     </row>
     <row r="305" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B305" s="6"/>
       <c r="C305" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D305" s="5" t="s">
         <v>5</v>
@@ -5238,11 +5250,11 @@
     </row>
     <row r="306" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B306" s="6"/>
       <c r="C306" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D306" s="5" t="s">
         <v>5</v>
@@ -5250,11 +5262,11 @@
     </row>
     <row r="307" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B307" s="6"/>
       <c r="C307" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D307" s="5" t="s">
         <v>5</v>
@@ -5262,11 +5274,11 @@
     </row>
     <row r="308" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B308" s="6"/>
       <c r="C308" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D308" s="5" t="s">
         <v>5</v>
@@ -5274,11 +5286,11 @@
     </row>
     <row r="309" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B309" s="6"/>
       <c r="C309" s="9" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D309" s="5" t="s">
         <v>5</v>
@@ -5286,11 +5298,11 @@
     </row>
     <row r="310" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B310" s="6"/>
       <c r="C310" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D310" s="5" t="s">
         <v>5</v>
@@ -5298,11 +5310,11 @@
     </row>
     <row r="311" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B311" s="6"/>
       <c r="C311" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D311" s="5" t="s">
         <v>5</v>
@@ -5310,11 +5322,11 @@
     </row>
     <row r="312" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B312" s="6"/>
       <c r="C312" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D312" s="5" t="s">
         <v>5</v>
@@ -5322,11 +5334,11 @@
     </row>
     <row r="313" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B313" s="6"/>
       <c r="C313" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D313" s="5" t="s">
         <v>5</v>
@@ -5334,11 +5346,11 @@
     </row>
     <row r="314" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B314" s="6"/>
       <c r="C314" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D314" s="5" t="s">
         <v>5</v>
@@ -5346,11 +5358,11 @@
     </row>
     <row r="315" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B315" s="6"/>
       <c r="C315" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D315" s="5" t="s">
         <v>5</v>
@@ -5358,11 +5370,11 @@
     </row>
     <row r="316" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B316" s="6"/>
       <c r="C316" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D316" s="5" t="s">
         <v>5</v>
@@ -5370,11 +5382,11 @@
     </row>
     <row r="317" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B317" s="6"/>
       <c r="C317" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D317" s="5" t="s">
         <v>5</v>
@@ -5382,11 +5394,11 @@
     </row>
     <row r="318" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B318" s="6"/>
       <c r="C318" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D318" s="5" t="s">
         <v>5</v>
@@ -5394,11 +5406,11 @@
     </row>
     <row r="319" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B319" s="6"/>
       <c r="C319" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D319" s="5" t="s">
         <v>5</v>
@@ -5406,11 +5418,11 @@
     </row>
     <row r="320" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B320" s="6"/>
       <c r="C320" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D320" s="5" t="s">
         <v>5</v>
@@ -5418,11 +5430,11 @@
     </row>
     <row r="321" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B321" s="6"/>
       <c r="C321" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D321" s="5" t="s">
         <v>5</v>
@@ -5430,11 +5442,11 @@
     </row>
     <row r="322" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B322" s="6"/>
       <c r="C322" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D322" s="5" t="s">
         <v>5</v>
@@ -5442,11 +5454,11 @@
     </row>
     <row r="323" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B323" s="6"/>
       <c r="C323" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D323" s="5" t="s">
         <v>5</v>
@@ -5454,11 +5466,11 @@
     </row>
     <row r="324" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B324" s="6"/>
       <c r="C324" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D324" s="5" t="s">
         <v>5</v>
@@ -5466,11 +5478,11 @@
     </row>
     <row r="325" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B325" s="6"/>
       <c r="C325" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D325" s="5" t="s">
         <v>5</v>
@@ -5478,11 +5490,11 @@
     </row>
     <row r="326" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B326" s="6"/>
       <c r="C326" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D326" s="5" t="s">
         <v>5</v>
@@ -5490,11 +5502,11 @@
     </row>
     <row r="327" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B327" s="6"/>
       <c r="C327" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D327" s="5" t="s">
         <v>5</v>
@@ -5502,11 +5514,11 @@
     </row>
     <row r="328" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B328" s="6"/>
       <c r="C328" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D328" s="5" t="s">
         <v>5</v>
@@ -5514,11 +5526,11 @@
     </row>
     <row r="329" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B329" s="6"/>
       <c r="C329" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D329" s="5" t="s">
         <v>5</v>
@@ -5526,11 +5538,11 @@
     </row>
     <row r="330" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B330" s="6"/>
       <c r="C330" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D330" s="5" t="s">
         <v>5</v>
@@ -5538,11 +5550,11 @@
     </row>
     <row r="331" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B331" s="6"/>
       <c r="C331" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D331" s="5" t="s">
         <v>5</v>
@@ -5550,11 +5562,11 @@
     </row>
     <row r="332" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B332" s="6"/>
       <c r="C332" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D332" s="5" t="s">
         <v>5</v>
@@ -5562,11 +5574,11 @@
     </row>
     <row r="333" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B333" s="6"/>
       <c r="C333" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D333" s="5" t="s">
         <v>5</v>
@@ -5582,11 +5594,11 @@
     </row>
     <row r="336" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B336" s="6"/>
       <c r="C336" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D336" s="5" t="s">
         <v>5</v>
@@ -5594,11 +5606,11 @@
     </row>
     <row r="337" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B337" s="6"/>
       <c r="C337" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D337" s="5" t="s">
         <v>5</v>
@@ -5606,11 +5618,11 @@
     </row>
     <row r="338" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B338" s="6"/>
       <c r="C338" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D338" s="5" t="s">
         <v>5</v>
@@ -5618,11 +5630,11 @@
     </row>
     <row r="339" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B339" s="6"/>
       <c r="C339" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D339" s="5" t="s">
         <v>5</v>
@@ -5630,11 +5642,11 @@
     </row>
     <row r="340" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B340" s="6"/>
       <c r="C340" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D340" s="5" t="s">
         <v>5</v>
@@ -5642,11 +5654,11 @@
     </row>
     <row r="341" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B341" s="6"/>
       <c r="C341" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D341" s="5" t="s">
         <v>5</v>
@@ -5654,11 +5666,11 @@
     </row>
     <row r="342" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B342" s="6"/>
       <c r="C342" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D342" s="5" t="s">
         <v>5</v>
@@ -5666,11 +5678,11 @@
     </row>
     <row r="343" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B343" s="6"/>
       <c r="C343" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D343" s="5" t="s">
         <v>5</v>
@@ -5678,11 +5690,11 @@
     </row>
     <row r="344" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B344" s="6"/>
       <c r="C344" s="9" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D344" s="5" t="s">
         <v>5</v>
@@ -5690,11 +5702,11 @@
     </row>
     <row r="345" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B345" s="6"/>
       <c r="C345" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D345" s="5" t="s">
         <v>5</v>
@@ -5702,11 +5714,11 @@
     </row>
     <row r="346" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B346" s="6"/>
       <c r="C346" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D346" s="5" t="s">
         <v>5</v>
@@ -5714,11 +5726,11 @@
     </row>
     <row r="347" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B347" s="6"/>
       <c r="C347" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D347" s="5" t="s">
         <v>5</v>
@@ -5726,11 +5738,11 @@
     </row>
     <row r="348" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B348" s="6"/>
       <c r="C348" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D348" s="5" t="s">
         <v>5</v>
@@ -5738,11 +5750,11 @@
     </row>
     <row r="349" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B349" s="6"/>
       <c r="C349" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D349" s="5" t="s">
         <v>5</v>
@@ -5750,11 +5762,11 @@
     </row>
     <row r="350" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B350" s="6"/>
       <c r="C350" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D350" s="5" t="s">
         <v>5</v>
@@ -5762,11 +5774,11 @@
     </row>
     <row r="351" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B351" s="6"/>
       <c r="C351" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D351" s="5" t="s">
         <v>5</v>
@@ -5774,11 +5786,11 @@
     </row>
     <row r="352" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B352" s="6"/>
       <c r="C352" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D352" s="5" t="s">
         <v>5</v>
@@ -5786,11 +5798,11 @@
     </row>
     <row r="353" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B353" s="6"/>
       <c r="C353" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D353" s="5" t="s">
         <v>5</v>
@@ -5806,11 +5818,11 @@
     </row>
     <row r="356" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B356" s="6"/>
       <c r="C356" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D356" s="5" t="s">
         <v>5</v>
@@ -5818,11 +5830,11 @@
     </row>
     <row r="357" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B357" s="6"/>
       <c r="C357" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D357" s="5" t="s">
         <v>5</v>
@@ -5830,11 +5842,11 @@
     </row>
     <row r="358" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B358" s="6"/>
       <c r="C358" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D358" s="5" t="s">
         <v>5</v>
@@ -5842,11 +5854,11 @@
     </row>
     <row r="359" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B359" s="6"/>
       <c r="C359" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D359" s="5" t="s">
         <v>5</v>
@@ -5854,11 +5866,11 @@
     </row>
     <row r="360" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B360" s="6"/>
       <c r="C360" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D360" s="5" t="s">
         <v>5</v>
@@ -5866,11 +5878,11 @@
     </row>
     <row r="361" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B361" s="6"/>
       <c r="C361" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D361" s="5" t="s">
         <v>5</v>
@@ -5878,11 +5890,11 @@
     </row>
     <row r="362" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B362" s="6"/>
       <c r="C362" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D362" s="5" t="s">
         <v>5</v>
@@ -5890,11 +5902,11 @@
     </row>
     <row r="363" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B363" s="6"/>
       <c r="C363" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D363" s="5" t="s">
         <v>5</v>
@@ -5902,11 +5914,11 @@
     </row>
     <row r="364" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B364" s="6"/>
       <c r="C364" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D364" s="5" t="s">
         <v>5</v>
@@ -5914,11 +5926,11 @@
     </row>
     <row r="365" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B365" s="6"/>
       <c r="C365" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D365" s="5" t="s">
         <v>5</v>
@@ -5926,11 +5938,11 @@
     </row>
     <row r="366" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B366" s="6"/>
       <c r="C366" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D366" s="5" t="s">
         <v>5</v>
@@ -5938,11 +5950,11 @@
     </row>
     <row r="367" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B367" s="6"/>
       <c r="C367" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D367" s="5" t="s">
         <v>5</v>
@@ -5950,11 +5962,11 @@
     </row>
     <row r="368" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B368" s="6"/>
       <c r="C368" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D368" s="5" t="s">
         <v>5</v>
@@ -5962,11 +5974,11 @@
     </row>
     <row r="369" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B369" s="6"/>
       <c r="C369" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D369" s="5" t="s">
         <v>5</v>
@@ -5974,11 +5986,11 @@
     </row>
     <row r="370" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B370" s="6"/>
       <c r="C370" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D370" s="5" t="s">
         <v>5</v>
@@ -5986,11 +5998,11 @@
     </row>
     <row r="371" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B371" s="6"/>
       <c r="C371" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D371" s="5" t="s">
         <v>5</v>
@@ -5998,11 +6010,11 @@
     </row>
     <row r="372" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B372" s="6"/>
       <c r="C372" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D372" s="5" t="s">
         <v>5</v>
@@ -6010,11 +6022,11 @@
     </row>
     <row r="373" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B373" s="6"/>
       <c r="C373" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D373" s="5" t="s">
         <v>5</v>
@@ -6022,11 +6034,11 @@
     </row>
     <row r="374" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B374" s="6"/>
       <c r="C374" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D374" s="5" t="s">
         <v>5</v>
@@ -6034,11 +6046,11 @@
     </row>
     <row r="375" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B375" s="6"/>
       <c r="C375" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D375" s="5" t="s">
         <v>5</v>
@@ -6046,11 +6058,11 @@
     </row>
     <row r="376" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B376" s="6"/>
       <c r="C376" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D376" s="5" t="s">
         <v>5</v>
@@ -6058,11 +6070,11 @@
     </row>
     <row r="377" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B377" s="6"/>
       <c r="C377" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D377" s="5" t="s">
         <v>5</v>
@@ -6070,11 +6082,11 @@
     </row>
     <row r="378" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B378" s="6"/>
       <c r="C378" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D378" s="5" t="s">
         <v>5</v>
@@ -6082,11 +6094,11 @@
     </row>
     <row r="379" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B379" s="6"/>
       <c r="C379" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D379" s="5" t="s">
         <v>5</v>
@@ -6094,11 +6106,11 @@
     </row>
     <row r="380" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B380" s="6"/>
       <c r="C380" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D380" s="5" t="s">
         <v>5</v>
@@ -6106,11 +6118,11 @@
     </row>
     <row r="381" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B381" s="6"/>
       <c r="C381" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D381" s="5" t="s">
         <v>5</v>
@@ -6118,11 +6130,11 @@
     </row>
     <row r="382" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B382" s="6"/>
       <c r="C382" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D382" s="5" t="s">
         <v>5</v>
@@ -6130,11 +6142,11 @@
     </row>
     <row r="383" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B383" s="6"/>
       <c r="C383" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D383" s="5" t="s">
         <v>5</v>
@@ -6142,11 +6154,11 @@
     </row>
     <row r="384" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B384" s="6"/>
       <c r="C384" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D384" s="5" t="s">
         <v>5</v>
@@ -6154,11 +6166,11 @@
     </row>
     <row r="385" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B385" s="6"/>
       <c r="C385" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D385" s="5" t="s">
         <v>5</v>
@@ -6166,11 +6178,11 @@
     </row>
     <row r="386" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B386" s="6"/>
       <c r="C386" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D386" s="5" t="s">
         <v>5</v>
@@ -6178,11 +6190,11 @@
     </row>
     <row r="387" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B387" s="6"/>
       <c r="C387" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D387" s="5" t="s">
         <v>5</v>
@@ -6190,11 +6202,11 @@
     </row>
     <row r="388" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B388" s="6"/>
       <c r="C388" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D388" s="5" t="s">
         <v>5</v>
@@ -6202,11 +6214,11 @@
     </row>
     <row r="389" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B389" s="6"/>
       <c r="C389" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D389" s="5" t="s">
         <v>5</v>
@@ -6214,11 +6226,11 @@
     </row>
     <row r="390" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B390" s="6"/>
       <c r="C390" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D390" s="5" t="s">
         <v>5</v>
@@ -6226,11 +6238,11 @@
     </row>
     <row r="391" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B391" s="6"/>
       <c r="C391" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D391" s="5" t="s">
         <v>5</v>
@@ -6238,11 +6250,11 @@
     </row>
     <row r="392" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B392" s="6"/>
       <c r="C392" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D392" s="5" t="s">
         <v>5</v>
@@ -6250,11 +6262,11 @@
     </row>
     <row r="393" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B393" s="6"/>
       <c r="C393" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D393" s="5" t="s">
         <v>5</v>
@@ -6262,11 +6274,11 @@
     </row>
     <row r="394" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B394" s="6"/>
       <c r="C394" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D394" s="5" t="s">
         <v>5</v>
@@ -6274,11 +6286,11 @@
     </row>
     <row r="395" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B395" s="6"/>
       <c r="C395" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D395" s="5" t="s">
         <v>5</v>
@@ -6286,11 +6298,11 @@
     </row>
     <row r="396" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B396" s="6"/>
       <c r="C396" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D396" s="5" t="s">
         <v>5</v>
@@ -6298,11 +6310,11 @@
     </row>
     <row r="397" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B397" s="6"/>
       <c r="C397" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D397" s="5" t="s">
         <v>5</v>
@@ -6310,11 +6322,11 @@
     </row>
     <row r="398" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B398" s="6"/>
       <c r="C398" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D398" s="5" t="s">
         <v>5</v>
@@ -6322,11 +6334,11 @@
     </row>
     <row r="399" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B399" s="6"/>
       <c r="C399" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D399" s="5" t="s">
         <v>5</v>
@@ -6342,11 +6354,11 @@
     </row>
     <row r="402" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B402" s="6"/>
       <c r="C402" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D402" s="5" t="s">
         <v>5</v>
@@ -6354,11 +6366,11 @@
     </row>
     <row r="403" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="6" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B403" s="6"/>
       <c r="C403" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D403" s="5" t="s">
         <v>5</v>
@@ -6366,11 +6378,11 @@
     </row>
     <row r="404" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="6" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B404" s="6"/>
       <c r="C404" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D404" s="5" t="s">
         <v>5</v>
@@ -6378,11 +6390,11 @@
     </row>
     <row r="405" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="6" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B405" s="6"/>
       <c r="C405" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D405" s="5" t="s">
         <v>5</v>
@@ -6390,11 +6402,11 @@
     </row>
     <row r="406" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="6" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B406" s="6"/>
       <c r="C406" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D406" s="5" t="s">
         <v>5</v>
@@ -6402,11 +6414,11 @@
     </row>
     <row r="407" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="6" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B407" s="6"/>
       <c r="C407" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D407" s="5" t="s">
         <v>5</v>
@@ -6422,11 +6434,11 @@
     </row>
     <row r="410" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B410" s="6"/>
       <c r="C410" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D410" s="5" t="s">
         <v>5</v>
@@ -6434,11 +6446,11 @@
     </row>
     <row r="411" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B411" s="6"/>
       <c r="C411" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D411" s="5" t="s">
         <v>5</v>
@@ -6446,11 +6458,11 @@
     </row>
     <row r="412" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B412" s="6"/>
       <c r="C412" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D412" s="5" t="s">
         <v>5</v>
@@ -6458,11 +6470,11 @@
     </row>
     <row r="413" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B413" s="6"/>
       <c r="C413" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D413" s="5" t="s">
         <v>5</v>
@@ -6470,11 +6482,11 @@
     </row>
     <row r="414" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B414" s="6"/>
       <c r="C414" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D414" s="5" t="s">
         <v>5</v>
@@ -6482,11 +6494,11 @@
     </row>
     <row r="415" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B415" s="6"/>
       <c r="C415" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D415" s="5" t="s">
         <v>5</v>
@@ -6494,11 +6506,11 @@
     </row>
     <row r="416" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B416" s="6"/>
       <c r="C416" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D416" s="5" t="s">
         <v>5</v>
@@ -6506,11 +6518,11 @@
     </row>
     <row r="417" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B417" s="6"/>
       <c r="C417" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D417" s="5" t="s">
         <v>5</v>
@@ -6518,11 +6530,11 @@
     </row>
     <row r="418" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B418" s="6"/>
       <c r="C418" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D418" s="5" t="s">
         <v>5</v>
@@ -6530,11 +6542,11 @@
     </row>
     <row r="419" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B419" s="6"/>
       <c r="C419" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D419" s="5" t="s">
         <v>5</v>
@@ -6542,11 +6554,11 @@
     </row>
     <row r="420" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B420" s="6"/>
       <c r="C420" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D420" s="5" t="s">
         <v>5</v>
@@ -6554,11 +6566,11 @@
     </row>
     <row r="421" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B421" s="6"/>
       <c r="C421" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D421" s="5" t="s">
         <v>5</v>
@@ -6566,11 +6578,11 @@
     </row>
     <row r="422" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B422" s="6"/>
       <c r="C422" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D422" s="5" t="s">
         <v>5</v>
@@ -6578,11 +6590,11 @@
     </row>
     <row r="423" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B423" s="6"/>
       <c r="C423" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D423" s="5" t="s">
         <v>5</v>
@@ -6590,11 +6602,11 @@
     </row>
     <row r="424" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B424" s="6"/>
       <c r="C424" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D424" s="5" t="s">
         <v>5</v>
@@ -6602,11 +6614,11 @@
     </row>
     <row r="425" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B425" s="6"/>
       <c r="C425" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D425" s="5" t="s">
         <v>5</v>
@@ -6614,11 +6626,11 @@
     </row>
     <row r="426" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B426" s="6"/>
       <c r="C426" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D426" s="5" t="s">
         <v>5</v>
@@ -6626,11 +6638,11 @@
     </row>
     <row r="427" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B427" s="6"/>
       <c r="C427" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D427" s="5" t="s">
         <v>5</v>
@@ -6638,11 +6650,11 @@
     </row>
     <row r="428" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B428" s="6"/>
       <c r="C428" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D428" s="5" t="s">
         <v>5</v>
@@ -6650,11 +6662,11 @@
     </row>
     <row r="429" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B429" s="6"/>
       <c r="C429" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D429" s="5" t="s">
         <v>5</v>
@@ -6662,11 +6674,11 @@
     </row>
     <row r="430" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B430" s="6"/>
       <c r="C430" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D430" s="5" t="s">
         <v>5</v>
@@ -6674,11 +6686,11 @@
     </row>
     <row r="431" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B431" s="6"/>
       <c r="C431" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D431" s="5" t="s">
         <v>5</v>
@@ -6686,11 +6698,11 @@
     </row>
     <row r="432" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B432" s="6"/>
       <c r="C432" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D432" s="5" t="s">
         <v>5</v>
@@ -6698,11 +6710,11 @@
     </row>
     <row r="433" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B433" s="6"/>
       <c r="C433" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D433" s="5" t="s">
         <v>5</v>
@@ -6710,11 +6722,11 @@
     </row>
     <row r="434" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B434" s="6"/>
       <c r="C434" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D434" s="5" t="s">
         <v>5</v>
@@ -6722,11 +6734,11 @@
     </row>
     <row r="435" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B435" s="6"/>
       <c r="C435" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D435" s="5" t="s">
         <v>5</v>
@@ -6734,11 +6746,11 @@
     </row>
     <row r="436" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B436" s="6"/>
       <c r="C436" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D436" s="5" t="s">
         <v>5</v>
@@ -6746,11 +6758,11 @@
     </row>
     <row r="437" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B437" s="6"/>
       <c r="C437" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D437" s="5" t="s">
         <v>5</v>
@@ -6758,11 +6770,11 @@
     </row>
     <row r="438" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B438" s="6"/>
       <c r="C438" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D438" s="5" t="s">
         <v>5</v>
@@ -6770,11 +6782,11 @@
     </row>
     <row r="439" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B439" s="6"/>
       <c r="C439" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D439" s="5" t="s">
         <v>5</v>
@@ -6782,11 +6794,11 @@
     </row>
     <row r="440" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B440" s="6"/>
       <c r="C440" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D440" s="5" t="s">
         <v>5</v>
@@ -6794,11 +6806,11 @@
     </row>
     <row r="441" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B441" s="6"/>
       <c r="C441" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D441" s="5" t="s">
         <v>5</v>
@@ -6806,11 +6818,11 @@
     </row>
     <row r="442" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B442" s="6"/>
       <c r="C442" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D442" s="5" t="s">
         <v>5</v>
@@ -6818,11 +6830,11 @@
     </row>
     <row r="443" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B443" s="6"/>
       <c r="C443" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D443" s="5" t="s">
         <v>5</v>
@@ -6830,11 +6842,11 @@
     </row>
     <row r="444" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B444" s="6"/>
       <c r="C444" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D444" s="5" t="s">
         <v>5</v>
@@ -6842,11 +6854,11 @@
     </row>
     <row r="445" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B445" s="6"/>
       <c r="C445" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D445" s="5" t="s">
         <v>5</v>
@@ -6854,11 +6866,11 @@
     </row>
     <row r="446" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B446" s="6"/>
       <c r="C446" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D446" s="5" t="s">
         <v>5</v>
@@ -6866,11 +6878,11 @@
     </row>
     <row r="447" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B447" s="6"/>
       <c r="C447" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D447" s="5" t="s">
         <v>5</v>
@@ -6878,11 +6890,11 @@
     </row>
     <row r="448" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B448" s="6"/>
       <c r="C448" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D448" s="5" t="s">
         <v>5</v>
@@ -6890,11 +6902,11 @@
     </row>
     <row r="449" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B449" s="6"/>
       <c r="C449" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D449" s="5" t="s">
         <v>5</v>
@@ -6902,11 +6914,11 @@
     </row>
     <row r="450" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B450" s="6"/>
       <c r="C450" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D450" s="5" t="s">
         <v>5</v>
@@ -6914,11 +6926,11 @@
     </row>
     <row r="451" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B451" s="6"/>
       <c r="C451" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D451" s="5" t="s">
         <v>5</v>
@@ -6926,11 +6938,11 @@
     </row>
     <row r="452" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B452" s="6"/>
       <c r="C452" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D452" s="5" t="s">
         <v>5</v>
@@ -6938,11 +6950,11 @@
     </row>
     <row r="453" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B453" s="6"/>
       <c r="C453" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D453" s="5" t="s">
         <v>5</v>
@@ -6950,11 +6962,11 @@
     </row>
     <row r="454" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B454" s="6"/>
       <c r="C454" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D454" s="5" t="s">
         <v>5</v>
@@ -6962,11 +6974,11 @@
     </row>
     <row r="455" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B455" s="6"/>
       <c r="C455" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D455" s="5" t="s">
         <v>5</v>
@@ -6974,11 +6986,11 @@
     </row>
     <row r="456" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B456" s="6"/>
       <c r="C456" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D456" s="5" t="s">
         <v>5</v>
@@ -6986,11 +6998,11 @@
     </row>
     <row r="457" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B457" s="6"/>
       <c r="C457" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D457" s="5" t="s">
         <v>5</v>
@@ -6998,11 +7010,11 @@
     </row>
     <row r="458" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B458" s="6"/>
       <c r="C458" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D458" s="5" t="s">
         <v>5</v>
@@ -7010,11 +7022,11 @@
     </row>
     <row r="459" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B459" s="6"/>
       <c r="C459" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D459" s="5" t="s">
         <v>5</v>
@@ -7022,11 +7034,11 @@
     </row>
     <row r="460" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B460" s="6"/>
       <c r="C460" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D460" s="5" t="s">
         <v>5</v>
@@ -7034,11 +7046,11 @@
     </row>
     <row r="461" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B461" s="6"/>
       <c r="C461" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D461" s="5" t="s">
         <v>5</v>
@@ -7046,11 +7058,11 @@
     </row>
     <row r="462" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B462" s="6"/>
       <c r="C462" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D462" s="5" t="s">
         <v>5</v>
@@ -7058,11 +7070,11 @@
     </row>
     <row r="463" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B463" s="6"/>
       <c r="C463" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D463" s="5" t="s">
         <v>5</v>
@@ -7070,11 +7082,11 @@
     </row>
     <row r="464" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B464" s="6"/>
       <c r="C464" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D464" s="5" t="s">
         <v>5</v>
@@ -7082,11 +7094,11 @@
     </row>
     <row r="465" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B465" s="6"/>
       <c r="C465" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D465" s="5" t="s">
         <v>5</v>
@@ -7094,11 +7106,11 @@
     </row>
     <row r="466" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B466" s="6"/>
       <c r="C466" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D466" s="5" t="s">
         <v>5</v>
@@ -7106,11 +7118,11 @@
     </row>
     <row r="467" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B467" s="6"/>
       <c r="C467" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D467" s="5" t="s">
         <v>5</v>
@@ -7118,11 +7130,11 @@
     </row>
     <row r="468" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B468" s="6"/>
       <c r="C468" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D468" s="5" t="s">
         <v>5</v>
@@ -7130,11 +7142,11 @@
     </row>
     <row r="469" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B469" s="6"/>
       <c r="C469" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D469" s="5" t="s">
         <v>5</v>
@@ -7152,11 +7164,11 @@
     </row>
     <row r="472" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B472" s="6"/>
       <c r="C472" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D472" s="5" t="s">
         <v>5</v>
@@ -7164,11 +7176,11 @@
     </row>
     <row r="473" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="6" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B473" s="6"/>
       <c r="C473" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D473" s="5" t="s">
         <v>5</v>
@@ -7176,11 +7188,11 @@
     </row>
     <row r="474" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="6" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B474" s="6"/>
       <c r="C474" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D474" s="5" t="s">
         <v>5</v>
@@ -7188,11 +7200,11 @@
     </row>
     <row r="475" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="6" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B475" s="6"/>
       <c r="C475" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D475" s="5" t="s">
         <v>5</v>
@@ -7200,11 +7212,11 @@
     </row>
     <row r="476" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="6" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B476" s="6"/>
       <c r="C476" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D476" s="5" t="s">
         <v>5</v>
@@ -7212,11 +7224,11 @@
     </row>
     <row r="477" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="6" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B477" s="6"/>
       <c r="C477" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D477" s="5" t="s">
         <v>5</v>
@@ -7224,11 +7236,11 @@
     </row>
     <row r="478" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="6" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B478" s="6"/>
       <c r="C478" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D478" s="5" t="s">
         <v>5</v>
@@ -7236,11 +7248,11 @@
     </row>
     <row r="479" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="6" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B479" s="6"/>
       <c r="C479" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D479" s="5" t="s">
         <v>5</v>
@@ -7248,11 +7260,11 @@
     </row>
     <row r="480" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="6" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B480" s="6"/>
       <c r="C480" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D480" s="5" t="s">
         <v>5</v>
@@ -7260,11 +7272,11 @@
     </row>
     <row r="481" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="6" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B481" s="6"/>
       <c r="C481" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D481" s="5" t="s">
         <v>5</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1687,7 +1687,7 @@
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.34"/>
@@ -1985,7 +1985,7 @@
         <v>31</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1684,7 +1684,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1999,7 +1999,7 @@
         <v>32</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1684,7 +1684,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2013,7 +2013,7 @@
         <v>33</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1684,7 +1684,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2027,7 +2027,7 @@
         <v>34</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1684,10 +1684,10 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.34"/>
@@ -2041,7 +2041,7 @@
         <v>35</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2055,7 +2055,7 @@
         <v>36</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1684,10 +1684,10 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.34"/>
@@ -2069,7 +2069,7 @@
         <v>37</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,7 +2097,7 @@
         <v>39</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="472">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -1683,8 +1683,8 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B20" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2111,7 +2111,7 @@
         <v>40</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2138,9 +2138,7 @@
       <c r="C35" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="471">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t xml:space="preserve">Count Inversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">Best time to buy and Sell stock</t>
@@ -1683,8 +1680,8 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B20" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B23" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1943,7 +1940,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1954,7 +1951,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>14</v>
@@ -1968,7 +1965,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>10</v>
@@ -1982,7 +1979,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>10</v>
@@ -1996,7 +1993,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>14</v>
@@ -2010,7 +2007,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>14</v>
@@ -2024,7 +2021,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>14</v>
@@ -2038,7 +2035,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>14</v>
@@ -2052,7 +2049,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>14</v>
@@ -2066,7 +2063,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>14</v>
@@ -2080,7 +2077,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>5</v>
@@ -2094,7 +2091,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>14</v>
@@ -2108,7 +2105,7 @@
         <v>28</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>14</v>
@@ -2122,10 +2119,10 @@
         <v>29</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2136,7 +2133,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" s="5"/>
     </row>
@@ -2148,7 +2145,7 @@
         <v>31</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>5</v>
@@ -2162,7 +2159,7 @@
         <v>32</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>5</v>
@@ -2176,7 +2173,7 @@
         <v>33</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>5</v>
@@ -2190,7 +2187,7 @@
         <v>34</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>5</v>
@@ -2204,7 +2201,7 @@
         <v>35</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>5</v>
@@ -2218,7 +2215,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>5</v>
@@ -2240,11 +2237,11 @@
     </row>
     <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>5</v>
@@ -2252,11 +2249,11 @@
     </row>
     <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>5</v>
@@ -2264,11 +2261,11 @@
     </row>
     <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>5</v>
@@ -2276,11 +2273,11 @@
     </row>
     <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>5</v>
@@ -2288,11 +2285,11 @@
     </row>
     <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>5</v>
@@ -2300,11 +2297,11 @@
     </row>
     <row r="49" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>5</v>
@@ -2312,11 +2309,11 @@
     </row>
     <row r="50" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>5</v>
@@ -2324,11 +2321,11 @@
     </row>
     <row r="51" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>5</v>
@@ -2336,11 +2333,11 @@
     </row>
     <row r="52" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>5</v>
@@ -2348,11 +2345,11 @@
     </row>
     <row r="53" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>5</v>
@@ -2366,11 +2363,11 @@
     </row>
     <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>5</v>
@@ -2378,11 +2375,11 @@
     </row>
     <row r="57" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>5</v>
@@ -2390,11 +2387,11 @@
     </row>
     <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>5</v>
@@ -2402,11 +2399,11 @@
     </row>
     <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>5</v>
@@ -2414,11 +2411,11 @@
     </row>
     <row r="60" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>5</v>
@@ -2426,11 +2423,11 @@
     </row>
     <row r="61" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>5</v>
@@ -2438,11 +2435,11 @@
     </row>
     <row r="62" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>5</v>
@@ -2450,11 +2447,11 @@
     </row>
     <row r="63" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>5</v>
@@ -2462,11 +2459,11 @@
     </row>
     <row r="64" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>5</v>
@@ -2474,11 +2471,11 @@
     </row>
     <row r="65" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>5</v>
@@ -2486,11 +2483,11 @@
     </row>
     <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>5</v>
@@ -2498,11 +2495,11 @@
     </row>
     <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>5</v>
@@ -2510,11 +2507,11 @@
     </row>
     <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>5</v>
@@ -2522,11 +2519,11 @@
     </row>
     <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>5</v>
@@ -2534,11 +2531,11 @@
     </row>
     <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>5</v>
@@ -2546,11 +2543,11 @@
     </row>
     <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>5</v>
@@ -2558,11 +2555,11 @@
     </row>
     <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>5</v>
@@ -2570,11 +2567,11 @@
     </row>
     <row r="73" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>5</v>
@@ -2582,11 +2579,11 @@
     </row>
     <row r="74" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>5</v>
@@ -2594,11 +2591,11 @@
     </row>
     <row r="75" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>5</v>
@@ -2606,11 +2603,11 @@
     </row>
     <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>5</v>
@@ -2618,11 +2615,11 @@
     </row>
     <row r="77" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>5</v>
@@ -2630,11 +2627,11 @@
     </row>
     <row r="78" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>5</v>
@@ -2642,11 +2639,11 @@
     </row>
     <row r="79" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>5</v>
@@ -2654,11 +2651,11 @@
     </row>
     <row r="80" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>5</v>
@@ -2666,11 +2663,11 @@
     </row>
     <row r="81" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>5</v>
@@ -2678,11 +2675,11 @@
     </row>
     <row r="82" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>5</v>
@@ -2690,11 +2687,11 @@
     </row>
     <row r="83" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>5</v>
@@ -2702,11 +2699,11 @@
     </row>
     <row r="84" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>5</v>
@@ -2714,11 +2711,11 @@
     </row>
     <row r="85" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>5</v>
@@ -2726,11 +2723,11 @@
     </row>
     <row r="86" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>5</v>
@@ -2738,11 +2735,11 @@
     </row>
     <row r="87" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>5</v>
@@ -2750,11 +2747,11 @@
     </row>
     <row r="88" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>5</v>
@@ -2762,11 +2759,11 @@
     </row>
     <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>5</v>
@@ -2774,11 +2771,11 @@
     </row>
     <row r="90" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>5</v>
@@ -2786,11 +2783,11 @@
     </row>
     <row r="91" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>5</v>
@@ -2798,11 +2795,11 @@
     </row>
     <row r="92" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>5</v>
@@ -2810,11 +2807,11 @@
     </row>
     <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>5</v>
@@ -2822,11 +2819,11 @@
     </row>
     <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>5</v>
@@ -2834,11 +2831,11 @@
     </row>
     <row r="95" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>5</v>
@@ -2846,11 +2843,11 @@
     </row>
     <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>5</v>
@@ -2858,11 +2855,11 @@
     </row>
     <row r="97" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>5</v>
@@ -2870,11 +2867,11 @@
     </row>
     <row r="98" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>5</v>
@@ -2888,11 +2885,11 @@
     </row>
     <row r="101" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>5</v>
@@ -2900,11 +2897,11 @@
     </row>
     <row r="102" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>5</v>
@@ -2912,11 +2909,11 @@
     </row>
     <row r="103" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>5</v>
@@ -2924,11 +2921,11 @@
     </row>
     <row r="104" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104" s="6"/>
       <c r="C104" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>5</v>
@@ -2936,11 +2933,11 @@
     </row>
     <row r="105" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>5</v>
@@ -2948,11 +2945,11 @@
     </row>
     <row r="106" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>5</v>
@@ -2960,11 +2957,11 @@
     </row>
     <row r="107" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B107" s="6"/>
       <c r="C107" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>5</v>
@@ -2972,11 +2969,11 @@
     </row>
     <row r="108" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B108" s="6"/>
       <c r="C108" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>5</v>
@@ -2984,11 +2981,11 @@
     </row>
     <row r="109" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B109" s="6"/>
       <c r="C109" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>5</v>
@@ -2996,11 +2993,11 @@
     </row>
     <row r="110" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B110" s="6"/>
       <c r="C110" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>5</v>
@@ -3008,11 +3005,11 @@
     </row>
     <row r="111" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B111" s="6"/>
       <c r="C111" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>5</v>
@@ -3020,11 +3017,11 @@
     </row>
     <row r="112" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B112" s="6"/>
       <c r="C112" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>5</v>
@@ -3032,11 +3029,11 @@
     </row>
     <row r="113" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B113" s="6"/>
       <c r="C113" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>5</v>
@@ -3044,11 +3041,11 @@
     </row>
     <row r="114" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B114" s="6"/>
       <c r="C114" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>5</v>
@@ -3056,11 +3053,11 @@
     </row>
     <row r="115" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B115" s="6"/>
       <c r="C115" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>5</v>
@@ -3068,11 +3065,11 @@
     </row>
     <row r="116" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B116" s="6"/>
       <c r="C116" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>5</v>
@@ -3080,11 +3077,11 @@
     </row>
     <row r="117" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B117" s="6"/>
       <c r="C117" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>5</v>
@@ -3092,11 +3089,11 @@
     </row>
     <row r="118" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B118" s="6"/>
       <c r="C118" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>5</v>
@@ -3104,11 +3101,11 @@
     </row>
     <row r="119" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B119" s="6"/>
       <c r="C119" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>5</v>
@@ -3116,11 +3113,11 @@
     </row>
     <row r="120" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B120" s="6"/>
       <c r="C120" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>5</v>
@@ -3128,11 +3125,11 @@
     </row>
     <row r="121" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>5</v>
@@ -3140,11 +3137,11 @@
     </row>
     <row r="122" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B122" s="6"/>
       <c r="C122" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>5</v>
@@ -3152,11 +3149,11 @@
     </row>
     <row r="123" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B123" s="6"/>
       <c r="C123" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>5</v>
@@ -3164,11 +3161,11 @@
     </row>
     <row r="124" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B124" s="6"/>
       <c r="C124" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>5</v>
@@ -3176,11 +3173,11 @@
     </row>
     <row r="125" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B125" s="6"/>
       <c r="C125" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>5</v>
@@ -3188,11 +3185,11 @@
     </row>
     <row r="126" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B126" s="6"/>
       <c r="C126" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>5</v>
@@ -3200,11 +3197,11 @@
     </row>
     <row r="127" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B127" s="6"/>
       <c r="C127" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>5</v>
@@ -3212,11 +3209,11 @@
     </row>
     <row r="128" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B128" s="6"/>
       <c r="C128" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>5</v>
@@ -3224,11 +3221,11 @@
     </row>
     <row r="129" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B129" s="6"/>
       <c r="C129" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>5</v>
@@ -3236,11 +3233,11 @@
     </row>
     <row r="130" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B130" s="6"/>
       <c r="C130" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>5</v>
@@ -3248,11 +3245,11 @@
     </row>
     <row r="131" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B131" s="6"/>
       <c r="C131" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>5</v>
@@ -3260,11 +3257,11 @@
     </row>
     <row r="132" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B132" s="6"/>
       <c r="C132" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>5</v>
@@ -3272,11 +3269,11 @@
     </row>
     <row r="133" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B133" s="6"/>
       <c r="C133" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>5</v>
@@ -3284,11 +3281,11 @@
     </row>
     <row r="134" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B134" s="6"/>
       <c r="C134" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>5</v>
@@ -3296,11 +3293,11 @@
     </row>
     <row r="135" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B135" s="6"/>
       <c r="C135" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>5</v>
@@ -3308,11 +3305,11 @@
     </row>
     <row r="136" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B136" s="6"/>
       <c r="C136" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>5</v>
@@ -3324,11 +3321,11 @@
     </row>
     <row r="139" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B139" s="6"/>
       <c r="C139" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>5</v>
@@ -3336,11 +3333,11 @@
     </row>
     <row r="140" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B140" s="6"/>
       <c r="C140" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>5</v>
@@ -3348,11 +3345,11 @@
     </row>
     <row r="141" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141" s="6"/>
       <c r="C141" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>5</v>
@@ -3360,11 +3357,11 @@
     </row>
     <row r="142" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="6"/>
       <c r="C142" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>5</v>
@@ -3372,11 +3369,11 @@
     </row>
     <row r="143" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B143" s="6"/>
       <c r="C143" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>5</v>
@@ -3384,11 +3381,11 @@
     </row>
     <row r="144" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B144" s="6"/>
       <c r="C144" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>5</v>
@@ -3396,11 +3393,11 @@
     </row>
     <row r="145" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B145" s="6"/>
       <c r="C145" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>5</v>
@@ -3408,11 +3405,11 @@
     </row>
     <row r="146" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B146" s="6"/>
       <c r="C146" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>5</v>
@@ -3420,11 +3417,11 @@
     </row>
     <row r="147" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B147" s="6"/>
       <c r="C147" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>5</v>
@@ -3432,11 +3429,11 @@
     </row>
     <row r="148" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B148" s="6"/>
       <c r="C148" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>5</v>
@@ -3444,11 +3441,11 @@
     </row>
     <row r="149" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B149" s="6"/>
       <c r="C149" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>5</v>
@@ -3456,11 +3453,11 @@
     </row>
     <row r="150" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B150" s="6"/>
       <c r="C150" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>5</v>
@@ -3468,11 +3465,11 @@
     </row>
     <row r="151" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B151" s="6"/>
       <c r="C151" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>5</v>
@@ -3480,11 +3477,11 @@
     </row>
     <row r="152" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B152" s="6"/>
       <c r="C152" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>5</v>
@@ -3492,11 +3489,11 @@
     </row>
     <row r="153" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B153" s="6"/>
       <c r="C153" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>5</v>
@@ -3504,11 +3501,11 @@
     </row>
     <row r="154" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B154" s="6"/>
       <c r="C154" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>5</v>
@@ -3516,11 +3513,11 @@
     </row>
     <row r="155" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B155" s="6"/>
       <c r="C155" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>5</v>
@@ -3528,11 +3525,11 @@
     </row>
     <row r="156" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B156" s="6"/>
       <c r="C156" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>5</v>
@@ -3540,11 +3537,11 @@
     </row>
     <row r="157" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B157" s="6"/>
       <c r="C157" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>5</v>
@@ -3552,11 +3549,11 @@
     </row>
     <row r="158" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B158" s="6"/>
       <c r="C158" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>5</v>
@@ -3564,11 +3561,11 @@
     </row>
     <row r="159" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B159" s="6"/>
       <c r="C159" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>5</v>
@@ -3576,11 +3573,11 @@
     </row>
     <row r="160" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B160" s="6"/>
       <c r="C160" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>5</v>
@@ -3588,11 +3585,11 @@
     </row>
     <row r="161" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B161" s="6"/>
       <c r="C161" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>5</v>
@@ -3600,11 +3597,11 @@
     </row>
     <row r="162" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B162" s="6"/>
       <c r="C162" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>5</v>
@@ -3612,11 +3609,11 @@
     </row>
     <row r="163" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B163" s="6"/>
       <c r="C163" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>5</v>
@@ -3624,11 +3621,11 @@
     </row>
     <row r="164" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B164" s="6"/>
       <c r="C164" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>5</v>
@@ -3636,11 +3633,11 @@
     </row>
     <row r="165" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B165" s="6"/>
       <c r="C165" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>5</v>
@@ -3648,11 +3645,11 @@
     </row>
     <row r="166" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B166" s="6"/>
       <c r="C166" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>5</v>
@@ -3660,11 +3657,11 @@
     </row>
     <row r="167" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B167" s="6"/>
       <c r="C167" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>5</v>
@@ -3672,11 +3669,11 @@
     </row>
     <row r="168" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B168" s="6"/>
       <c r="C168" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>5</v>
@@ -3684,11 +3681,11 @@
     </row>
     <row r="169" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B169" s="6"/>
       <c r="C169" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>5</v>
@@ -3696,11 +3693,11 @@
     </row>
     <row r="170" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B170" s="6"/>
       <c r="C170" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>5</v>
@@ -3708,11 +3705,11 @@
     </row>
     <row r="171" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B171" s="6"/>
       <c r="C171" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>5</v>
@@ -3720,11 +3717,11 @@
     </row>
     <row r="172" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B172" s="6"/>
       <c r="C172" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>5</v>
@@ -3732,11 +3729,11 @@
     </row>
     <row r="173" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B173" s="6"/>
       <c r="C173" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>5</v>
@@ -3744,11 +3741,11 @@
     </row>
     <row r="174" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B174" s="6"/>
       <c r="C174" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>5</v>
@@ -3760,11 +3757,11 @@
     </row>
     <row r="177" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B177" s="6"/>
       <c r="C177" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>14</v>
@@ -3772,11 +3769,11 @@
     </row>
     <row r="178" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B178" s="6"/>
       <c r="C178" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>14</v>
@@ -3784,11 +3781,11 @@
     </row>
     <row r="179" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="6"/>
       <c r="C179" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>14</v>
@@ -3796,23 +3793,23 @@
     </row>
     <row r="180" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B180" s="6"/>
       <c r="C180" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D180" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="D180" s="5" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B181" s="6"/>
       <c r="C181" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>14</v>
@@ -3820,11 +3817,11 @@
     </row>
     <row r="182" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B182" s="6"/>
       <c r="C182" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>14</v>
@@ -3832,11 +3829,11 @@
     </row>
     <row r="183" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B183" s="6"/>
       <c r="C183" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>14</v>
@@ -3844,11 +3841,11 @@
     </row>
     <row r="184" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B184" s="6"/>
       <c r="C184" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D184" s="5" t="s">
         <v>14</v>
@@ -3856,11 +3853,11 @@
     </row>
     <row r="185" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B185" s="6"/>
       <c r="C185" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D185" s="5" t="s">
         <v>14</v>
@@ -3868,11 +3865,11 @@
     </row>
     <row r="186" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B186" s="6"/>
       <c r="C186" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>10</v>
@@ -3880,11 +3877,11 @@
     </row>
     <row r="187" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B187" s="6"/>
       <c r="C187" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>14</v>
@@ -3892,11 +3889,11 @@
     </row>
     <row r="188" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B188" s="6"/>
       <c r="C188" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>5</v>
@@ -3904,11 +3901,11 @@
     </row>
     <row r="189" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B189" s="6"/>
       <c r="C189" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>5</v>
@@ -3916,11 +3913,11 @@
     </row>
     <row r="190" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B190" s="6"/>
       <c r="C190" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>5</v>
@@ -3928,11 +3925,11 @@
     </row>
     <row r="191" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B191" s="6"/>
       <c r="C191" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>5</v>
@@ -3940,11 +3937,11 @@
     </row>
     <row r="192" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B192" s="6"/>
       <c r="C192" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>5</v>
@@ -3952,11 +3949,11 @@
     </row>
     <row r="193" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B193" s="6"/>
       <c r="C193" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>5</v>
@@ -3964,11 +3961,11 @@
     </row>
     <row r="194" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B194" s="6"/>
       <c r="C194" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>5</v>
@@ -3976,11 +3973,11 @@
     </row>
     <row r="195" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B195" s="6"/>
       <c r="C195" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>5</v>
@@ -3988,11 +3985,11 @@
     </row>
     <row r="196" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B196" s="6"/>
       <c r="C196" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>5</v>
@@ -4000,11 +3997,11 @@
     </row>
     <row r="197" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B197" s="6"/>
       <c r="C197" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D197" s="5" t="s">
         <v>5</v>
@@ -4012,11 +4009,11 @@
     </row>
     <row r="198" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B198" s="6"/>
       <c r="C198" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>5</v>
@@ -4024,11 +4021,11 @@
     </row>
     <row r="199" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B199" s="6"/>
       <c r="C199" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D199" s="5" t="s">
         <v>5</v>
@@ -4036,11 +4033,11 @@
     </row>
     <row r="200" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B200" s="6"/>
       <c r="C200" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D200" s="5" t="s">
         <v>5</v>
@@ -4048,11 +4045,11 @@
     </row>
     <row r="201" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B201" s="6"/>
       <c r="C201" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>5</v>
@@ -4060,11 +4057,11 @@
     </row>
     <row r="202" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B202" s="6"/>
       <c r="C202" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>5</v>
@@ -4072,11 +4069,11 @@
     </row>
     <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B203" s="6"/>
       <c r="C203" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>5</v>
@@ -4084,11 +4081,11 @@
     </row>
     <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B204" s="6"/>
       <c r="C204" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D204" s="5" t="s">
         <v>5</v>
@@ -4096,11 +4093,11 @@
     </row>
     <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B205" s="6"/>
       <c r="C205" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D205" s="5" t="s">
         <v>5</v>
@@ -4108,11 +4105,11 @@
     </row>
     <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B206" s="6"/>
       <c r="C206" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D206" s="5" t="s">
         <v>5</v>
@@ -4120,11 +4117,11 @@
     </row>
     <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B207" s="6"/>
       <c r="C207" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>5</v>
@@ -4132,11 +4129,11 @@
     </row>
     <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B208" s="6"/>
       <c r="C208" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D208" s="5" t="s">
         <v>5</v>
@@ -4144,11 +4141,11 @@
     </row>
     <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B209" s="6"/>
       <c r="C209" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D209" s="5" t="s">
         <v>5</v>
@@ -4156,11 +4153,11 @@
     </row>
     <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B210" s="6"/>
       <c r="C210" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D210" s="5" t="s">
         <v>5</v>
@@ -4168,11 +4165,11 @@
     </row>
     <row r="211" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B211" s="6"/>
       <c r="C211" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D211" s="5" t="s">
         <v>5</v>
@@ -4192,11 +4189,11 @@
     </row>
     <row r="214" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B214" s="6"/>
       <c r="C214" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>5</v>
@@ -4204,11 +4201,11 @@
     </row>
     <row r="215" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B215" s="6"/>
       <c r="C215" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>5</v>
@@ -4216,11 +4213,11 @@
     </row>
     <row r="216" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" s="6"/>
       <c r="C216" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D216" s="5" t="s">
         <v>5</v>
@@ -4228,11 +4225,11 @@
     </row>
     <row r="217" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B217" s="6"/>
       <c r="C217" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D217" s="5" t="s">
         <v>5</v>
@@ -4240,11 +4237,11 @@
     </row>
     <row r="218" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B218" s="6"/>
       <c r="C218" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D218" s="5" t="s">
         <v>5</v>
@@ -4252,11 +4249,11 @@
     </row>
     <row r="219" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B219" s="6"/>
       <c r="C219" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D219" s="5" t="s">
         <v>5</v>
@@ -4264,11 +4261,11 @@
     </row>
     <row r="220" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B220" s="6"/>
       <c r="C220" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D220" s="5" t="s">
         <v>5</v>
@@ -4276,11 +4273,11 @@
     </row>
     <row r="221" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B221" s="6"/>
       <c r="C221" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D221" s="5" t="s">
         <v>5</v>
@@ -4288,11 +4285,11 @@
     </row>
     <row r="222" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B222" s="6"/>
       <c r="C222" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D222" s="5" t="s">
         <v>5</v>
@@ -4300,11 +4297,11 @@
     </row>
     <row r="223" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B223" s="6"/>
       <c r="C223" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>5</v>
@@ -4312,11 +4309,11 @@
     </row>
     <row r="224" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B224" s="6"/>
       <c r="C224" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D224" s="5" t="s">
         <v>5</v>
@@ -4324,11 +4321,11 @@
     </row>
     <row r="225" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B225" s="6"/>
       <c r="C225" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D225" s="5" t="s">
         <v>5</v>
@@ -4336,11 +4333,11 @@
     </row>
     <row r="226" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B226" s="6"/>
       <c r="C226" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D226" s="5" t="s">
         <v>5</v>
@@ -4348,11 +4345,11 @@
     </row>
     <row r="227" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B227" s="6"/>
       <c r="C227" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D227" s="5" t="s">
         <v>5</v>
@@ -4360,11 +4357,11 @@
     </row>
     <row r="228" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B228" s="6"/>
       <c r="C228" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D228" s="5" t="s">
         <v>5</v>
@@ -4372,11 +4369,11 @@
     </row>
     <row r="229" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B229" s="6"/>
       <c r="C229" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>5</v>
@@ -4384,11 +4381,11 @@
     </row>
     <row r="230" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B230" s="6"/>
       <c r="C230" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D230" s="5" t="s">
         <v>5</v>
@@ -4396,11 +4393,11 @@
     </row>
     <row r="231" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B231" s="6"/>
       <c r="C231" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D231" s="5" t="s">
         <v>5</v>
@@ -4408,11 +4405,11 @@
     </row>
     <row r="232" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B232" s="6"/>
       <c r="C232" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>5</v>
@@ -4420,11 +4417,11 @@
     </row>
     <row r="233" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B233" s="6"/>
       <c r="C233" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D233" s="5" t="s">
         <v>5</v>
@@ -4432,11 +4429,11 @@
     </row>
     <row r="234" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B234" s="6"/>
       <c r="C234" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D234" s="5" t="s">
         <v>5</v>
@@ -4444,11 +4441,11 @@
     </row>
     <row r="235" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B235" s="6"/>
       <c r="C235" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D235" s="5" t="s">
         <v>5</v>
@@ -4464,11 +4461,11 @@
     </row>
     <row r="238" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B238" s="6"/>
       <c r="C238" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D238" s="5" t="s">
         <v>5</v>
@@ -4476,11 +4473,11 @@
     </row>
     <row r="239" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" s="6"/>
       <c r="C239" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D239" s="5" t="s">
         <v>5</v>
@@ -4488,11 +4485,11 @@
     </row>
     <row r="240" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B240" s="6"/>
       <c r="C240" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D240" s="5" t="s">
         <v>5</v>
@@ -4500,11 +4497,11 @@
     </row>
     <row r="241" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B241" s="6"/>
       <c r="C241" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D241" s="5" t="s">
         <v>5</v>
@@ -4512,11 +4509,11 @@
     </row>
     <row r="242" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B242" s="6"/>
       <c r="C242" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D242" s="5" t="s">
         <v>5</v>
@@ -4524,11 +4521,11 @@
     </row>
     <row r="243" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B243" s="6"/>
       <c r="C243" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D243" s="5" t="s">
         <v>5</v>
@@ -4536,11 +4533,11 @@
     </row>
     <row r="244" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B244" s="6"/>
       <c r="C244" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D244" s="5" t="s">
         <v>5</v>
@@ -4548,11 +4545,11 @@
     </row>
     <row r="245" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B245" s="6"/>
       <c r="C245" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D245" s="5" t="s">
         <v>5</v>
@@ -4560,11 +4557,11 @@
     </row>
     <row r="246" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B246" s="6"/>
       <c r="C246" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D246" s="5" t="s">
         <v>5</v>
@@ -4572,11 +4569,11 @@
     </row>
     <row r="247" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B247" s="6"/>
       <c r="C247" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D247" s="5" t="s">
         <v>5</v>
@@ -4584,11 +4581,11 @@
     </row>
     <row r="248" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B248" s="6"/>
       <c r="C248" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D248" s="5" t="s">
         <v>5</v>
@@ -4596,11 +4593,11 @@
     </row>
     <row r="249" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B249" s="6"/>
       <c r="C249" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D249" s="5" t="s">
         <v>5</v>
@@ -4608,11 +4605,11 @@
     </row>
     <row r="250" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B250" s="6"/>
       <c r="C250" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D250" s="5" t="s">
         <v>5</v>
@@ -4620,11 +4617,11 @@
     </row>
     <row r="251" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B251" s="6"/>
       <c r="C251" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D251" s="5" t="s">
         <v>5</v>
@@ -4632,11 +4629,11 @@
     </row>
     <row r="252" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B252" s="6"/>
       <c r="C252" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D252" s="5" t="s">
         <v>5</v>
@@ -4644,11 +4641,11 @@
     </row>
     <row r="253" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B253" s="6"/>
       <c r="C253" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D253" s="5" t="s">
         <v>5</v>
@@ -4656,11 +4653,11 @@
     </row>
     <row r="254" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B254" s="6"/>
       <c r="C254" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D254" s="5" t="s">
         <v>5</v>
@@ -4668,11 +4665,11 @@
     </row>
     <row r="255" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B255" s="6"/>
       <c r="C255" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D255" s="5" t="s">
         <v>5</v>
@@ -4680,11 +4677,11 @@
     </row>
     <row r="256" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B256" s="6"/>
       <c r="C256" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D256" s="5" t="s">
         <v>5</v>
@@ -4692,11 +4689,11 @@
     </row>
     <row r="257" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B257" s="6"/>
       <c r="C257" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D257" s="5" t="s">
         <v>5</v>
@@ -4704,11 +4701,11 @@
     </row>
     <row r="258" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B258" s="6"/>
       <c r="C258" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D258" s="5" t="s">
         <v>5</v>
@@ -4716,11 +4713,11 @@
     </row>
     <row r="259" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B259" s="6"/>
       <c r="C259" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D259" s="5" t="s">
         <v>5</v>
@@ -4728,11 +4725,11 @@
     </row>
     <row r="260" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B260" s="6"/>
       <c r="C260" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D260" s="5" t="s">
         <v>5</v>
@@ -4740,11 +4737,11 @@
     </row>
     <row r="261" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B261" s="6"/>
       <c r="C261" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D261" s="5" t="s">
         <v>5</v>
@@ -4752,11 +4749,11 @@
     </row>
     <row r="262" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B262" s="6"/>
       <c r="C262" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D262" s="5" t="s">
         <v>5</v>
@@ -4764,11 +4761,11 @@
     </row>
     <row r="263" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B263" s="6"/>
       <c r="C263" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D263" s="5" t="s">
         <v>5</v>
@@ -4776,11 +4773,11 @@
     </row>
     <row r="264" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B264" s="6"/>
       <c r="C264" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D264" s="5" t="s">
         <v>5</v>
@@ -4788,11 +4785,11 @@
     </row>
     <row r="265" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B265" s="6"/>
       <c r="C265" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D265" s="5" t="s">
         <v>5</v>
@@ -4800,11 +4797,11 @@
     </row>
     <row r="266" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B266" s="6"/>
       <c r="C266" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D266" s="5" t="s">
         <v>5</v>
@@ -4812,11 +4809,11 @@
     </row>
     <row r="267" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B267" s="6"/>
       <c r="C267" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D267" s="5" t="s">
         <v>5</v>
@@ -4824,11 +4821,11 @@
     </row>
     <row r="268" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B268" s="6"/>
       <c r="C268" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D268" s="5" t="s">
         <v>5</v>
@@ -4836,11 +4833,11 @@
     </row>
     <row r="269" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B269" s="6"/>
       <c r="C269" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D269" s="5" t="s">
         <v>5</v>
@@ -4848,11 +4845,11 @@
     </row>
     <row r="270" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B270" s="6"/>
       <c r="C270" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D270" s="5" t="s">
         <v>5</v>
@@ -4860,11 +4857,11 @@
     </row>
     <row r="271" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B271" s="6"/>
       <c r="C271" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D271" s="5" t="s">
         <v>5</v>
@@ -4872,11 +4869,11 @@
     </row>
     <row r="272" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B272" s="6"/>
       <c r="C272" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D272" s="5" t="s">
         <v>5</v>
@@ -4892,11 +4889,11 @@
     </row>
     <row r="275" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B275" s="6"/>
       <c r="C275" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D275" s="5" t="s">
         <v>5</v>
@@ -4904,11 +4901,11 @@
     </row>
     <row r="276" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B276" s="6"/>
       <c r="C276" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D276" s="5" t="s">
         <v>5</v>
@@ -4916,11 +4913,11 @@
     </row>
     <row r="277" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B277" s="6"/>
       <c r="C277" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D277" s="5" t="s">
         <v>5</v>
@@ -4928,11 +4925,11 @@
     </row>
     <row r="278" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B278" s="6"/>
       <c r="C278" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D278" s="5" t="s">
         <v>5</v>
@@ -4940,11 +4937,11 @@
     </row>
     <row r="279" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B279" s="6"/>
       <c r="C279" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D279" s="5" t="s">
         <v>5</v>
@@ -4952,11 +4949,11 @@
     </row>
     <row r="280" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B280" s="6"/>
       <c r="C280" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D280" s="5" t="s">
         <v>5</v>
@@ -4964,11 +4961,11 @@
     </row>
     <row r="281" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B281" s="6"/>
       <c r="C281" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D281" s="5" t="s">
         <v>5</v>
@@ -4976,11 +4973,11 @@
     </row>
     <row r="282" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B282" s="6"/>
       <c r="C282" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D282" s="5" t="s">
         <v>5</v>
@@ -4988,11 +4985,11 @@
     </row>
     <row r="283" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B283" s="6"/>
       <c r="C283" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D283" s="5" t="s">
         <v>5</v>
@@ -5000,11 +4997,11 @@
     </row>
     <row r="284" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B284" s="6"/>
       <c r="C284" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D284" s="5" t="s">
         <v>5</v>
@@ -5012,11 +5009,11 @@
     </row>
     <row r="285" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B285" s="6"/>
       <c r="C285" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D285" s="5" t="s">
         <v>5</v>
@@ -5024,11 +5021,11 @@
     </row>
     <row r="286" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B286" s="6"/>
       <c r="C286" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D286" s="5" t="s">
         <v>5</v>
@@ -5036,11 +5033,11 @@
     </row>
     <row r="287" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B287" s="6"/>
       <c r="C287" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D287" s="5" t="s">
         <v>5</v>
@@ -5048,11 +5045,11 @@
     </row>
     <row r="288" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B288" s="6"/>
       <c r="C288" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D288" s="5" t="s">
         <v>5</v>
@@ -5060,11 +5057,11 @@
     </row>
     <row r="289" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B289" s="6"/>
       <c r="C289" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D289" s="5" t="s">
         <v>5</v>
@@ -5072,11 +5069,11 @@
     </row>
     <row r="290" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B290" s="6"/>
       <c r="C290" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D290" s="5" t="s">
         <v>5</v>
@@ -5084,11 +5081,11 @@
     </row>
     <row r="291" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B291" s="6"/>
       <c r="C291" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D291" s="5" t="s">
         <v>5</v>
@@ -5096,11 +5093,11 @@
     </row>
     <row r="292" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B292" s="6"/>
       <c r="C292" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D292" s="5" t="s">
         <v>5</v>
@@ -5108,11 +5105,11 @@
     </row>
     <row r="293" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B293" s="6"/>
       <c r="C293" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D293" s="5" t="s">
         <v>5</v>
@@ -5128,11 +5125,11 @@
     </row>
     <row r="296" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B296" s="6"/>
       <c r="C296" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D296" s="5" t="s">
         <v>5</v>
@@ -5140,11 +5137,11 @@
     </row>
     <row r="297" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B297" s="6"/>
       <c r="C297" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D297" s="5" t="s">
         <v>5</v>
@@ -5152,11 +5149,11 @@
     </row>
     <row r="298" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B298" s="6"/>
       <c r="C298" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D298" s="5" t="s">
         <v>5</v>
@@ -5164,11 +5161,11 @@
     </row>
     <row r="299" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B299" s="6"/>
       <c r="C299" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D299" s="5" t="s">
         <v>5</v>
@@ -5176,11 +5173,11 @@
     </row>
     <row r="300" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B300" s="6"/>
       <c r="C300" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D300" s="5" t="s">
         <v>5</v>
@@ -5188,11 +5185,11 @@
     </row>
     <row r="301" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B301" s="6"/>
       <c r="C301" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D301" s="5" t="s">
         <v>5</v>
@@ -5200,11 +5197,11 @@
     </row>
     <row r="302" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B302" s="6"/>
       <c r="C302" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D302" s="5" t="s">
         <v>5</v>
@@ -5212,11 +5209,11 @@
     </row>
     <row r="303" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B303" s="6"/>
       <c r="C303" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D303" s="5" t="s">
         <v>5</v>
@@ -5224,11 +5221,11 @@
     </row>
     <row r="304" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B304" s="6"/>
       <c r="C304" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D304" s="5" t="s">
         <v>5</v>
@@ -5236,11 +5233,11 @@
     </row>
     <row r="305" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B305" s="6"/>
       <c r="C305" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D305" s="5" t="s">
         <v>5</v>
@@ -5248,11 +5245,11 @@
     </row>
     <row r="306" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B306" s="6"/>
       <c r="C306" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D306" s="5" t="s">
         <v>5</v>
@@ -5260,11 +5257,11 @@
     </row>
     <row r="307" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B307" s="6"/>
       <c r="C307" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D307" s="5" t="s">
         <v>5</v>
@@ -5272,11 +5269,11 @@
     </row>
     <row r="308" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B308" s="6"/>
       <c r="C308" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D308" s="5" t="s">
         <v>5</v>
@@ -5284,11 +5281,11 @@
     </row>
     <row r="309" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B309" s="6"/>
       <c r="C309" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D309" s="5" t="s">
         <v>5</v>
@@ -5296,11 +5293,11 @@
     </row>
     <row r="310" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B310" s="6"/>
       <c r="C310" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D310" s="5" t="s">
         <v>5</v>
@@ -5308,11 +5305,11 @@
     </row>
     <row r="311" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B311" s="6"/>
       <c r="C311" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D311" s="5" t="s">
         <v>5</v>
@@ -5320,11 +5317,11 @@
     </row>
     <row r="312" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B312" s="6"/>
       <c r="C312" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D312" s="5" t="s">
         <v>5</v>
@@ -5332,11 +5329,11 @@
     </row>
     <row r="313" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B313" s="6"/>
       <c r="C313" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D313" s="5" t="s">
         <v>5</v>
@@ -5344,11 +5341,11 @@
     </row>
     <row r="314" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B314" s="6"/>
       <c r="C314" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D314" s="5" t="s">
         <v>5</v>
@@ -5356,11 +5353,11 @@
     </row>
     <row r="315" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B315" s="6"/>
       <c r="C315" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D315" s="5" t="s">
         <v>5</v>
@@ -5368,11 +5365,11 @@
     </row>
     <row r="316" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B316" s="6"/>
       <c r="C316" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D316" s="5" t="s">
         <v>5</v>
@@ -5380,11 +5377,11 @@
     </row>
     <row r="317" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B317" s="6"/>
       <c r="C317" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D317" s="5" t="s">
         <v>5</v>
@@ -5392,11 +5389,11 @@
     </row>
     <row r="318" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B318" s="6"/>
       <c r="C318" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D318" s="5" t="s">
         <v>5</v>
@@ -5404,11 +5401,11 @@
     </row>
     <row r="319" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B319" s="6"/>
       <c r="C319" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D319" s="5" t="s">
         <v>5</v>
@@ -5416,11 +5413,11 @@
     </row>
     <row r="320" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B320" s="6"/>
       <c r="C320" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D320" s="5" t="s">
         <v>5</v>
@@ -5428,11 +5425,11 @@
     </row>
     <row r="321" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B321" s="6"/>
       <c r="C321" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D321" s="5" t="s">
         <v>5</v>
@@ -5440,11 +5437,11 @@
     </row>
     <row r="322" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B322" s="6"/>
       <c r="C322" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D322" s="5" t="s">
         <v>5</v>
@@ -5452,11 +5449,11 @@
     </row>
     <row r="323" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B323" s="6"/>
       <c r="C323" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D323" s="5" t="s">
         <v>5</v>
@@ -5464,11 +5461,11 @@
     </row>
     <row r="324" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B324" s="6"/>
       <c r="C324" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D324" s="5" t="s">
         <v>5</v>
@@ -5476,11 +5473,11 @@
     </row>
     <row r="325" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B325" s="6"/>
       <c r="C325" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D325" s="5" t="s">
         <v>5</v>
@@ -5488,11 +5485,11 @@
     </row>
     <row r="326" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B326" s="6"/>
       <c r="C326" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D326" s="5" t="s">
         <v>5</v>
@@ -5500,11 +5497,11 @@
     </row>
     <row r="327" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B327" s="6"/>
       <c r="C327" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D327" s="5" t="s">
         <v>5</v>
@@ -5512,11 +5509,11 @@
     </row>
     <row r="328" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B328" s="6"/>
       <c r="C328" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D328" s="5" t="s">
         <v>5</v>
@@ -5524,11 +5521,11 @@
     </row>
     <row r="329" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B329" s="6"/>
       <c r="C329" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D329" s="5" t="s">
         <v>5</v>
@@ -5536,11 +5533,11 @@
     </row>
     <row r="330" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B330" s="6"/>
       <c r="C330" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D330" s="5" t="s">
         <v>5</v>
@@ -5548,11 +5545,11 @@
     </row>
     <row r="331" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B331" s="6"/>
       <c r="C331" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D331" s="5" t="s">
         <v>5</v>
@@ -5560,11 +5557,11 @@
     </row>
     <row r="332" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B332" s="6"/>
       <c r="C332" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D332" s="5" t="s">
         <v>5</v>
@@ -5572,11 +5569,11 @@
     </row>
     <row r="333" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B333" s="6"/>
       <c r="C333" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D333" s="5" t="s">
         <v>5</v>
@@ -5592,11 +5589,11 @@
     </row>
     <row r="336" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B336" s="6"/>
       <c r="C336" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D336" s="5" t="s">
         <v>5</v>
@@ -5604,11 +5601,11 @@
     </row>
     <row r="337" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B337" s="6"/>
       <c r="C337" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D337" s="5" t="s">
         <v>5</v>
@@ -5616,11 +5613,11 @@
     </row>
     <row r="338" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B338" s="6"/>
       <c r="C338" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D338" s="5" t="s">
         <v>5</v>
@@ -5628,11 +5625,11 @@
     </row>
     <row r="339" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B339" s="6"/>
       <c r="C339" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D339" s="5" t="s">
         <v>5</v>
@@ -5640,11 +5637,11 @@
     </row>
     <row r="340" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B340" s="6"/>
       <c r="C340" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D340" s="5" t="s">
         <v>5</v>
@@ -5652,11 +5649,11 @@
     </row>
     <row r="341" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B341" s="6"/>
       <c r="C341" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D341" s="5" t="s">
         <v>5</v>
@@ -5664,11 +5661,11 @@
     </row>
     <row r="342" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B342" s="6"/>
       <c r="C342" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D342" s="5" t="s">
         <v>5</v>
@@ -5676,11 +5673,11 @@
     </row>
     <row r="343" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B343" s="6"/>
       <c r="C343" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D343" s="5" t="s">
         <v>5</v>
@@ -5688,11 +5685,11 @@
     </row>
     <row r="344" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B344" s="6"/>
       <c r="C344" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D344" s="5" t="s">
         <v>5</v>
@@ -5700,11 +5697,11 @@
     </row>
     <row r="345" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B345" s="6"/>
       <c r="C345" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D345" s="5" t="s">
         <v>5</v>
@@ -5712,11 +5709,11 @@
     </row>
     <row r="346" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B346" s="6"/>
       <c r="C346" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D346" s="5" t="s">
         <v>5</v>
@@ -5724,11 +5721,11 @@
     </row>
     <row r="347" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B347" s="6"/>
       <c r="C347" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D347" s="5" t="s">
         <v>5</v>
@@ -5736,11 +5733,11 @@
     </row>
     <row r="348" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B348" s="6"/>
       <c r="C348" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D348" s="5" t="s">
         <v>5</v>
@@ -5748,11 +5745,11 @@
     </row>
     <row r="349" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B349" s="6"/>
       <c r="C349" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D349" s="5" t="s">
         <v>5</v>
@@ -5760,11 +5757,11 @@
     </row>
     <row r="350" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B350" s="6"/>
       <c r="C350" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D350" s="5" t="s">
         <v>5</v>
@@ -5772,11 +5769,11 @@
     </row>
     <row r="351" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B351" s="6"/>
       <c r="C351" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D351" s="5" t="s">
         <v>5</v>
@@ -5784,11 +5781,11 @@
     </row>
     <row r="352" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B352" s="6"/>
       <c r="C352" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D352" s="5" t="s">
         <v>5</v>
@@ -5796,11 +5793,11 @@
     </row>
     <row r="353" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B353" s="6"/>
       <c r="C353" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D353" s="5" t="s">
         <v>5</v>
@@ -5816,11 +5813,11 @@
     </row>
     <row r="356" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B356" s="6"/>
       <c r="C356" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D356" s="5" t="s">
         <v>5</v>
@@ -5828,11 +5825,11 @@
     </row>
     <row r="357" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B357" s="6"/>
       <c r="C357" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D357" s="5" t="s">
         <v>5</v>
@@ -5840,11 +5837,11 @@
     </row>
     <row r="358" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B358" s="6"/>
       <c r="C358" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D358" s="5" t="s">
         <v>5</v>
@@ -5852,11 +5849,11 @@
     </row>
     <row r="359" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B359" s="6"/>
       <c r="C359" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D359" s="5" t="s">
         <v>5</v>
@@ -5864,11 +5861,11 @@
     </row>
     <row r="360" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B360" s="6"/>
       <c r="C360" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D360" s="5" t="s">
         <v>5</v>
@@ -5876,11 +5873,11 @@
     </row>
     <row r="361" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B361" s="6"/>
       <c r="C361" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D361" s="5" t="s">
         <v>5</v>
@@ -5888,11 +5885,11 @@
     </row>
     <row r="362" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B362" s="6"/>
       <c r="C362" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D362" s="5" t="s">
         <v>5</v>
@@ -5900,11 +5897,11 @@
     </row>
     <row r="363" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B363" s="6"/>
       <c r="C363" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D363" s="5" t="s">
         <v>5</v>
@@ -5912,11 +5909,11 @@
     </row>
     <row r="364" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B364" s="6"/>
       <c r="C364" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D364" s="5" t="s">
         <v>5</v>
@@ -5924,11 +5921,11 @@
     </row>
     <row r="365" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B365" s="6"/>
       <c r="C365" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D365" s="5" t="s">
         <v>5</v>
@@ -5936,11 +5933,11 @@
     </row>
     <row r="366" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B366" s="6"/>
       <c r="C366" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D366" s="5" t="s">
         <v>5</v>
@@ -5948,11 +5945,11 @@
     </row>
     <row r="367" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B367" s="6"/>
       <c r="C367" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D367" s="5" t="s">
         <v>5</v>
@@ -5960,11 +5957,11 @@
     </row>
     <row r="368" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B368" s="6"/>
       <c r="C368" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D368" s="5" t="s">
         <v>5</v>
@@ -5972,11 +5969,11 @@
     </row>
     <row r="369" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B369" s="6"/>
       <c r="C369" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D369" s="5" t="s">
         <v>5</v>
@@ -5984,11 +5981,11 @@
     </row>
     <row r="370" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B370" s="6"/>
       <c r="C370" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D370" s="5" t="s">
         <v>5</v>
@@ -5996,11 +5993,11 @@
     </row>
     <row r="371" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B371" s="6"/>
       <c r="C371" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D371" s="5" t="s">
         <v>5</v>
@@ -6008,11 +6005,11 @@
     </row>
     <row r="372" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B372" s="6"/>
       <c r="C372" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D372" s="5" t="s">
         <v>5</v>
@@ -6020,11 +6017,11 @@
     </row>
     <row r="373" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B373" s="6"/>
       <c r="C373" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D373" s="5" t="s">
         <v>5</v>
@@ -6032,11 +6029,11 @@
     </row>
     <row r="374" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B374" s="6"/>
       <c r="C374" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D374" s="5" t="s">
         <v>5</v>
@@ -6044,11 +6041,11 @@
     </row>
     <row r="375" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B375" s="6"/>
       <c r="C375" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D375" s="5" t="s">
         <v>5</v>
@@ -6056,11 +6053,11 @@
     </row>
     <row r="376" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B376" s="6"/>
       <c r="C376" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D376" s="5" t="s">
         <v>5</v>
@@ -6068,11 +6065,11 @@
     </row>
     <row r="377" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B377" s="6"/>
       <c r="C377" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D377" s="5" t="s">
         <v>5</v>
@@ -6080,11 +6077,11 @@
     </row>
     <row r="378" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B378" s="6"/>
       <c r="C378" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D378" s="5" t="s">
         <v>5</v>
@@ -6092,11 +6089,11 @@
     </row>
     <row r="379" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B379" s="6"/>
       <c r="C379" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D379" s="5" t="s">
         <v>5</v>
@@ -6104,11 +6101,11 @@
     </row>
     <row r="380" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B380" s="6"/>
       <c r="C380" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D380" s="5" t="s">
         <v>5</v>
@@ -6116,11 +6113,11 @@
     </row>
     <row r="381" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B381" s="6"/>
       <c r="C381" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D381" s="5" t="s">
         <v>5</v>
@@ -6128,11 +6125,11 @@
     </row>
     <row r="382" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B382" s="6"/>
       <c r="C382" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D382" s="5" t="s">
         <v>5</v>
@@ -6140,11 +6137,11 @@
     </row>
     <row r="383" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B383" s="6"/>
       <c r="C383" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D383" s="5" t="s">
         <v>5</v>
@@ -6152,11 +6149,11 @@
     </row>
     <row r="384" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B384" s="6"/>
       <c r="C384" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D384" s="5" t="s">
         <v>5</v>
@@ -6164,11 +6161,11 @@
     </row>
     <row r="385" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B385" s="6"/>
       <c r="C385" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D385" s="5" t="s">
         <v>5</v>
@@ -6176,11 +6173,11 @@
     </row>
     <row r="386" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B386" s="6"/>
       <c r="C386" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D386" s="5" t="s">
         <v>5</v>
@@ -6188,11 +6185,11 @@
     </row>
     <row r="387" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B387" s="6"/>
       <c r="C387" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D387" s="5" t="s">
         <v>5</v>
@@ -6200,11 +6197,11 @@
     </row>
     <row r="388" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B388" s="6"/>
       <c r="C388" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D388" s="5" t="s">
         <v>5</v>
@@ -6212,11 +6209,11 @@
     </row>
     <row r="389" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B389" s="6"/>
       <c r="C389" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D389" s="5" t="s">
         <v>5</v>
@@ -6224,11 +6221,11 @@
     </row>
     <row r="390" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B390" s="6"/>
       <c r="C390" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D390" s="5" t="s">
         <v>5</v>
@@ -6236,11 +6233,11 @@
     </row>
     <row r="391" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B391" s="6"/>
       <c r="C391" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D391" s="5" t="s">
         <v>5</v>
@@ -6248,11 +6245,11 @@
     </row>
     <row r="392" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B392" s="6"/>
       <c r="C392" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D392" s="5" t="s">
         <v>5</v>
@@ -6260,11 +6257,11 @@
     </row>
     <row r="393" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B393" s="6"/>
       <c r="C393" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D393" s="5" t="s">
         <v>5</v>
@@ -6272,11 +6269,11 @@
     </row>
     <row r="394" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B394" s="6"/>
       <c r="C394" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D394" s="5" t="s">
         <v>5</v>
@@ -6284,11 +6281,11 @@
     </row>
     <row r="395" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B395" s="6"/>
       <c r="C395" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D395" s="5" t="s">
         <v>5</v>
@@ -6296,11 +6293,11 @@
     </row>
     <row r="396" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B396" s="6"/>
       <c r="C396" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D396" s="5" t="s">
         <v>5</v>
@@ -6308,11 +6305,11 @@
     </row>
     <row r="397" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B397" s="6"/>
       <c r="C397" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D397" s="5" t="s">
         <v>5</v>
@@ -6320,11 +6317,11 @@
     </row>
     <row r="398" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B398" s="6"/>
       <c r="C398" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D398" s="5" t="s">
         <v>5</v>
@@ -6332,11 +6329,11 @@
     </row>
     <row r="399" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B399" s="6"/>
       <c r="C399" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D399" s="5" t="s">
         <v>5</v>
@@ -6352,11 +6349,11 @@
     </row>
     <row r="402" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B402" s="6"/>
       <c r="C402" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D402" s="5" t="s">
         <v>5</v>
@@ -6364,11 +6361,11 @@
     </row>
     <row r="403" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B403" s="6"/>
       <c r="C403" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D403" s="5" t="s">
         <v>5</v>
@@ -6376,11 +6373,11 @@
     </row>
     <row r="404" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B404" s="6"/>
       <c r="C404" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D404" s="5" t="s">
         <v>5</v>
@@ -6388,11 +6385,11 @@
     </row>
     <row r="405" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B405" s="6"/>
       <c r="C405" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D405" s="5" t="s">
         <v>5</v>
@@ -6400,11 +6397,11 @@
     </row>
     <row r="406" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B406" s="6"/>
       <c r="C406" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D406" s="5" t="s">
         <v>5</v>
@@ -6412,11 +6409,11 @@
     </row>
     <row r="407" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B407" s="6"/>
       <c r="C407" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D407" s="5" t="s">
         <v>5</v>
@@ -6432,11 +6429,11 @@
     </row>
     <row r="410" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B410" s="6"/>
       <c r="C410" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D410" s="5" t="s">
         <v>5</v>
@@ -6444,11 +6441,11 @@
     </row>
     <row r="411" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B411" s="6"/>
       <c r="C411" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D411" s="5" t="s">
         <v>5</v>
@@ -6456,11 +6453,11 @@
     </row>
     <row r="412" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B412" s="6"/>
       <c r="C412" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D412" s="5" t="s">
         <v>5</v>
@@ -6468,11 +6465,11 @@
     </row>
     <row r="413" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B413" s="6"/>
       <c r="C413" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D413" s="5" t="s">
         <v>5</v>
@@ -6480,11 +6477,11 @@
     </row>
     <row r="414" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B414" s="6"/>
       <c r="C414" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D414" s="5" t="s">
         <v>5</v>
@@ -6492,11 +6489,11 @@
     </row>
     <row r="415" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B415" s="6"/>
       <c r="C415" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D415" s="5" t="s">
         <v>5</v>
@@ -6504,11 +6501,11 @@
     </row>
     <row r="416" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B416" s="6"/>
       <c r="C416" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D416" s="5" t="s">
         <v>5</v>
@@ -6516,11 +6513,11 @@
     </row>
     <row r="417" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B417" s="6"/>
       <c r="C417" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D417" s="5" t="s">
         <v>5</v>
@@ -6528,11 +6525,11 @@
     </row>
     <row r="418" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B418" s="6"/>
       <c r="C418" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D418" s="5" t="s">
         <v>5</v>
@@ -6540,11 +6537,11 @@
     </row>
     <row r="419" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B419" s="6"/>
       <c r="C419" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D419" s="5" t="s">
         <v>5</v>
@@ -6552,11 +6549,11 @@
     </row>
     <row r="420" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B420" s="6"/>
       <c r="C420" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D420" s="5" t="s">
         <v>5</v>
@@ -6564,11 +6561,11 @@
     </row>
     <row r="421" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B421" s="6"/>
       <c r="C421" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D421" s="5" t="s">
         <v>5</v>
@@ -6576,11 +6573,11 @@
     </row>
     <row r="422" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B422" s="6"/>
       <c r="C422" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D422" s="5" t="s">
         <v>5</v>
@@ -6588,11 +6585,11 @@
     </row>
     <row r="423" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B423" s="6"/>
       <c r="C423" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D423" s="5" t="s">
         <v>5</v>
@@ -6600,11 +6597,11 @@
     </row>
     <row r="424" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B424" s="6"/>
       <c r="C424" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D424" s="5" t="s">
         <v>5</v>
@@ -6612,11 +6609,11 @@
     </row>
     <row r="425" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B425" s="6"/>
       <c r="C425" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D425" s="5" t="s">
         <v>5</v>
@@ -6624,11 +6621,11 @@
     </row>
     <row r="426" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B426" s="6"/>
       <c r="C426" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D426" s="5" t="s">
         <v>5</v>
@@ -6636,11 +6633,11 @@
     </row>
     <row r="427" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B427" s="6"/>
       <c r="C427" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D427" s="5" t="s">
         <v>5</v>
@@ -6648,11 +6645,11 @@
     </row>
     <row r="428" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B428" s="6"/>
       <c r="C428" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D428" s="5" t="s">
         <v>5</v>
@@ -6660,11 +6657,11 @@
     </row>
     <row r="429" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B429" s="6"/>
       <c r="C429" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D429" s="5" t="s">
         <v>5</v>
@@ -6672,11 +6669,11 @@
     </row>
     <row r="430" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B430" s="6"/>
       <c r="C430" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D430" s="5" t="s">
         <v>5</v>
@@ -6684,11 +6681,11 @@
     </row>
     <row r="431" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B431" s="6"/>
       <c r="C431" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D431" s="5" t="s">
         <v>5</v>
@@ -6696,11 +6693,11 @@
     </row>
     <row r="432" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B432" s="6"/>
       <c r="C432" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D432" s="5" t="s">
         <v>5</v>
@@ -6708,11 +6705,11 @@
     </row>
     <row r="433" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B433" s="6"/>
       <c r="C433" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D433" s="5" t="s">
         <v>5</v>
@@ -6720,11 +6717,11 @@
     </row>
     <row r="434" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B434" s="6"/>
       <c r="C434" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D434" s="5" t="s">
         <v>5</v>
@@ -6732,11 +6729,11 @@
     </row>
     <row r="435" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B435" s="6"/>
       <c r="C435" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D435" s="5" t="s">
         <v>5</v>
@@ -6744,11 +6741,11 @@
     </row>
     <row r="436" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B436" s="6"/>
       <c r="C436" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D436" s="5" t="s">
         <v>5</v>
@@ -6756,11 +6753,11 @@
     </row>
     <row r="437" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B437" s="6"/>
       <c r="C437" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D437" s="5" t="s">
         <v>5</v>
@@ -6768,11 +6765,11 @@
     </row>
     <row r="438" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B438" s="6"/>
       <c r="C438" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D438" s="5" t="s">
         <v>5</v>
@@ -6780,11 +6777,11 @@
     </row>
     <row r="439" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B439" s="6"/>
       <c r="C439" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D439" s="5" t="s">
         <v>5</v>
@@ -6792,11 +6789,11 @@
     </row>
     <row r="440" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B440" s="6"/>
       <c r="C440" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D440" s="5" t="s">
         <v>5</v>
@@ -6804,11 +6801,11 @@
     </row>
     <row r="441" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B441" s="6"/>
       <c r="C441" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D441" s="5" t="s">
         <v>5</v>
@@ -6816,11 +6813,11 @@
     </row>
     <row r="442" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B442" s="6"/>
       <c r="C442" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D442" s="5" t="s">
         <v>5</v>
@@ -6828,11 +6825,11 @@
     </row>
     <row r="443" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B443" s="6"/>
       <c r="C443" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D443" s="5" t="s">
         <v>5</v>
@@ -6840,11 +6837,11 @@
     </row>
     <row r="444" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B444" s="6"/>
       <c r="C444" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D444" s="5" t="s">
         <v>5</v>
@@ -6852,11 +6849,11 @@
     </row>
     <row r="445" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B445" s="6"/>
       <c r="C445" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D445" s="5" t="s">
         <v>5</v>
@@ -6864,11 +6861,11 @@
     </row>
     <row r="446" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B446" s="6"/>
       <c r="C446" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D446" s="5" t="s">
         <v>5</v>
@@ -6876,11 +6873,11 @@
     </row>
     <row r="447" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B447" s="6"/>
       <c r="C447" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D447" s="5" t="s">
         <v>5</v>
@@ -6888,11 +6885,11 @@
     </row>
     <row r="448" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B448" s="6"/>
       <c r="C448" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D448" s="5" t="s">
         <v>5</v>
@@ -6900,11 +6897,11 @@
     </row>
     <row r="449" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B449" s="6"/>
       <c r="C449" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D449" s="5" t="s">
         <v>5</v>
@@ -6912,11 +6909,11 @@
     </row>
     <row r="450" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B450" s="6"/>
       <c r="C450" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D450" s="5" t="s">
         <v>5</v>
@@ -6924,11 +6921,11 @@
     </row>
     <row r="451" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B451" s="6"/>
       <c r="C451" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D451" s="5" t="s">
         <v>5</v>
@@ -6936,11 +6933,11 @@
     </row>
     <row r="452" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B452" s="6"/>
       <c r="C452" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D452" s="5" t="s">
         <v>5</v>
@@ -6948,11 +6945,11 @@
     </row>
     <row r="453" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B453" s="6"/>
       <c r="C453" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D453" s="5" t="s">
         <v>5</v>
@@ -6960,11 +6957,11 @@
     </row>
     <row r="454" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B454" s="6"/>
       <c r="C454" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D454" s="5" t="s">
         <v>5</v>
@@ -6972,11 +6969,11 @@
     </row>
     <row r="455" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B455" s="6"/>
       <c r="C455" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D455" s="5" t="s">
         <v>5</v>
@@ -6984,11 +6981,11 @@
     </row>
     <row r="456" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B456" s="6"/>
       <c r="C456" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D456" s="5" t="s">
         <v>5</v>
@@ -6996,11 +6993,11 @@
     </row>
     <row r="457" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B457" s="6"/>
       <c r="C457" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D457" s="5" t="s">
         <v>5</v>
@@ -7008,11 +7005,11 @@
     </row>
     <row r="458" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B458" s="6"/>
       <c r="C458" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D458" s="5" t="s">
         <v>5</v>
@@ -7020,11 +7017,11 @@
     </row>
     <row r="459" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B459" s="6"/>
       <c r="C459" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D459" s="5" t="s">
         <v>5</v>
@@ -7032,11 +7029,11 @@
     </row>
     <row r="460" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B460" s="6"/>
       <c r="C460" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D460" s="5" t="s">
         <v>5</v>
@@ -7044,11 +7041,11 @@
     </row>
     <row r="461" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B461" s="6"/>
       <c r="C461" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D461" s="5" t="s">
         <v>5</v>
@@ -7056,11 +7053,11 @@
     </row>
     <row r="462" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B462" s="6"/>
       <c r="C462" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D462" s="5" t="s">
         <v>5</v>
@@ -7068,11 +7065,11 @@
     </row>
     <row r="463" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B463" s="6"/>
       <c r="C463" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D463" s="5" t="s">
         <v>5</v>
@@ -7080,11 +7077,11 @@
     </row>
     <row r="464" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B464" s="6"/>
       <c r="C464" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D464" s="5" t="s">
         <v>5</v>
@@ -7092,11 +7089,11 @@
     </row>
     <row r="465" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B465" s="6"/>
       <c r="C465" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D465" s="5" t="s">
         <v>5</v>
@@ -7104,11 +7101,11 @@
     </row>
     <row r="466" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B466" s="6"/>
       <c r="C466" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D466" s="5" t="s">
         <v>5</v>
@@ -7116,11 +7113,11 @@
     </row>
     <row r="467" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B467" s="6"/>
       <c r="C467" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D467" s="5" t="s">
         <v>5</v>
@@ -7128,11 +7125,11 @@
     </row>
     <row r="468" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B468" s="6"/>
       <c r="C468" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D468" s="5" t="s">
         <v>5</v>
@@ -7140,11 +7137,11 @@
     </row>
     <row r="469" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B469" s="6"/>
       <c r="C469" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D469" s="5" t="s">
         <v>5</v>
@@ -7162,11 +7159,11 @@
     </row>
     <row r="472" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B472" s="6"/>
       <c r="C472" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D472" s="5" t="s">
         <v>5</v>
@@ -7174,11 +7171,11 @@
     </row>
     <row r="473" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B473" s="6"/>
       <c r="C473" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D473" s="5" t="s">
         <v>5</v>
@@ -7186,11 +7183,11 @@
     </row>
     <row r="474" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B474" s="6"/>
       <c r="C474" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D474" s="5" t="s">
         <v>5</v>
@@ -7198,11 +7195,11 @@
     </row>
     <row r="475" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B475" s="6"/>
       <c r="C475" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D475" s="5" t="s">
         <v>5</v>
@@ -7210,11 +7207,11 @@
     </row>
     <row r="476" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B476" s="6"/>
       <c r="C476" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D476" s="5" t="s">
         <v>5</v>
@@ -7222,11 +7219,11 @@
     </row>
     <row r="477" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B477" s="6"/>
       <c r="C477" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D477" s="5" t="s">
         <v>5</v>
@@ -7234,11 +7231,11 @@
     </row>
     <row r="478" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B478" s="6"/>
       <c r="C478" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D478" s="5" t="s">
         <v>5</v>
@@ -7246,11 +7243,11 @@
     </row>
     <row r="479" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B479" s="6"/>
       <c r="C479" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D479" s="5" t="s">
         <v>5</v>
@@ -7258,11 +7255,11 @@
     </row>
     <row r="480" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B480" s="6"/>
       <c r="C480" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D480" s="5" t="s">
         <v>5</v>
@@ -7270,11 +7267,11 @@
     </row>
     <row r="481" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B481" s="6"/>
       <c r="C481" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D481" s="5" t="s">
         <v>5</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="471">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -1681,7 +1681,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B23" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2135,7 +2135,9 @@
       <c r="C35" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1681,7 +1681,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B23" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2150,7 +2150,7 @@
         <v>42</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\vineet\DSA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812A1FA5-788D-4BBF-AF87-579D0EBEC875}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,13 +27,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="471">
   <si>
-    <t xml:space="preserve">Questions by Love Babbar:</t>
+    <t>Questions by Love Babbar:</t>
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
   </si>
   <si>
-    <t xml:space="preserve">Topic:</t>
+    <t>Topic:</t>
   </si>
   <si>
     <t xml:space="preserve">Problem: </t>
@@ -37,868 +42,868 @@
     <t xml:space="preserve">Done [yes or no] </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;-&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse the array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the maximum and minimum element in an array</t>
+    <t>&lt;-&gt;</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Reverse the array</t>
+  </si>
+  <si>
+    <t>Find the maximum and minimum element in an array</t>
   </si>
   <si>
     <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
   </si>
   <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
   <si>
     <t xml:space="preserve">Move all the negative elements to one side of the array </t>
   </si>
   <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the Union and Intersection of the two sorted arrays.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to cyclically rotate an array by one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find Largest sum contiguous Subarray [V. IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimise the maximum difference between heights [V.IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum no. of Jumps to reach end of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doubt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find duplicate in an array of N+1 Integers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge 2 sorted arrays without using Extra space.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kadane's Algo [V.V.V.V.V IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next Permutation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Inversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best time to buy and Sell stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find all pairs on integer array whose sum is equal to given number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find common elements In 3 sorted arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rearrange the array in alternating positive and negative items with O(1) extra space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find if there is any subarray with sum equal to 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find factorial of a large number</t>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Find the Union and Intersection of the two sorted arrays.</t>
+  </si>
+  <si>
+    <t>Write a program to cyclically rotate an array by one.</t>
+  </si>
+  <si>
+    <t>find Largest sum contiguous Subarray [V. IMP]</t>
+  </si>
+  <si>
+    <t>Minimise the maximum difference between heights [V.IMP]</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Minimum no. of Jumps to reach end of an array</t>
+  </si>
+  <si>
+    <t>Doubt</t>
+  </si>
+  <si>
+    <t>find duplicate in an array of N+1 Integers</t>
+  </si>
+  <si>
+    <t>Merge 2 sorted arrays without using Extra space.</t>
+  </si>
+  <si>
+    <t>Kadane's Algo [V.V.V.V.V IMP]</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Count Inversion</t>
+  </si>
+  <si>
+    <t>Best time to buy and Sell stock</t>
+  </si>
+  <si>
+    <t>find all pairs on integer array whose sum is equal to given number</t>
+  </si>
+  <si>
+    <t>find common elements In 3 sorted arrays</t>
+  </si>
+  <si>
+    <t>Rearrange the array in alternating positive and negative items with O(1) extra space</t>
+  </si>
+  <si>
+    <t>Find if there is any subarray with sum equal to 0</t>
+  </si>
+  <si>
+    <t>Find factorial of a large number</t>
   </si>
   <si>
     <t xml:space="preserve">find maximum product subarray </t>
   </si>
   <si>
-    <t xml:space="preserve">Find longest coinsecutive subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum profit by buying and selling a share atmost twice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find whether an array is a subset of another array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the triplet that sum to a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trapping Rain water problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chocolate Distribution problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest Subarray with sum greater than a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Three way partitioning of an array around a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum swaps required bring elements less equal K together</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum no. of operations required to make an array palindrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median of 2 sorted arrays of equal size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median of 2 sorted arrays of different size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spiral traversal on a Matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search an element in a matriix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find median in a row wise sorted matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find row with maximum no. of 1's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print elements in sorted order using row-column wise sorted matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum size rectangle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a specific pair in matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotate matrix by 90 degrees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth smallest element in a row-cpumn wise sorted matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common elements in all rows of a given matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check whether a String is Palindrome or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Duplicate characters in a string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why strings are immutable in Java?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Code to check whether one string is a rotation of another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to check whether a string is a valid shuffle of two strings or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count and Say problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Longest Recurring Subsequence in String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all Subsequences of a string.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all the permutations of the given string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split the Binary string into two substring with equal 0’s and 1’s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Wrap Problem [VERY IMP].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDIT Distance [Very Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find next greater number with same set of digits. [Very Very IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balanced Parenthesis problem.[Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word break Problem[ Very Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rabin Karp Algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KMP Algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum number of bracket reversals needed to make an expression balanced.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count All Palindromic Subsequence in a given String.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of number of given string in 2D character array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search a Word in a 2D Grid of characters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boyer Moore Algorithm for Pattern Searching.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Converting Roman Numerals to Decimal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Common Prefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of flips to make binary string alternate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the first repeated word in string.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum number of swaps for bracket balancing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the longest common subsequence between two strings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program to generate all possible valid IP addresses from given  string.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program tofind the smallest window that contains all characters of string itself.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rearrange characters in a string such that no two adjacent are same</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum characters to be added at front to make string palindrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a sequence of words, print all anagrams together</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the smallest window in a string containing all characters of another string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursively remove all adjacent duplicates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String matching where one string contains wildcard characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Function to find Number of customers who could not get a computer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transform One String to Another using Minimum Number of Given Operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if two given strings are isomorphic to each other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursively print all sentences that can be formed from list of word lists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searching &amp; Sorting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find first and last positions of an element in a sorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a Fixed Point (Value equal to index) in a given array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search in a rotated sorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">square root of an integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum and minimum of an array using minimum number of comparisons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimum location of point to minimize total distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the repeating and the missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find majority element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searching in an array where adjacent differ by at most k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find a pair with a given difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find four elements that sum to a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maximum sum such that no 2 elements are adjacent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count triplet with sum smaller than a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge 2 sorted arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">print all subarrays with 0 sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product array Puzzle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort array according to count of set bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimum no. of swaps required to sort the array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bishu and Soldiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rasta and Kheshtak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth smallest number again</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find pivot element in a sorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K-th Element of Two Sorted Arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggressive cows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Book Allocation Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKOSPOJ:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Scheduling Algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing Number in AP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest number with atleastn trailing zeroes infactorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Painters Partition Problem:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROTI-Prata SPOJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DoubleHelix SPOJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subset Sums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Findthe inversion count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Merge-sort in-place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partitioning and Sorting Arrays with Many Repeated Entries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LinkedList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a Linked List in group of Given Size. [Very Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to Detect loop in a linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to Delete loop in a linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the starting point of the loop. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Duplicates in a sorted Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Duplicates in a Un-sorted Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to Move the last element to Front in a Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add “1” to a number represented as a Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add two numbers represented by linked lists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intersection of two Sorted Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intersection Point of two Linked Lists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Sort For Linked lists.[Very Important]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quicksort for Linked Lists.[Very Important]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the middle Element of a linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a linked list is a circular linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split a Circular linked list into two halves.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deletion from a Circular Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a Doubly Linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find pairs with a given sum in a DLL.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotate DoublyLinked list by N nodes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can we reverse a linked list in less than O(n) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flatten a Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort a LL of 0's, 1's and 2's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clone a linked list with next and random pointer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge K sorted Linked list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiply 2 no. represented by LL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete nodes which have a greater value on right side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segregate even and odd nodes in a Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for n’th node from the end of a Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the first non-repeating character from a stream of characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary Trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level order traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse Level Order traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Height of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Understood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirror of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Left View of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right View of Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top View of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bottom View of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zig-Zag traversal of a binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a tree is balanced or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagnol Traversal of a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boundary traversal of a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct Binary Tree from String with Bracket Representation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert Binary tree into Doubly Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert Binary tree into Sum tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct Binary tree from Inorder and preorder traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find minimum swaps required to convert a Binary tree into BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if Binary tree is Sum tree or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if all leaf nodes are at same level or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if 2 trees are mirror or not</t>
+    <t>Find longest coinsecutive subsequence</t>
+  </si>
+  <si>
+    <t>Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share atmost twice</t>
+  </si>
+  <si>
+    <t>Find whether an array is a subset of another array</t>
+  </si>
+  <si>
+    <t>Find the triplet that sum to a given value</t>
+  </si>
+  <si>
+    <t>Trapping Rain water problem</t>
+  </si>
+  <si>
+    <t>Chocolate Distribution problem</t>
+  </si>
+  <si>
+    <t>Smallest Subarray with sum greater than a given value</t>
+  </si>
+  <si>
+    <t>Three way partitioning of an array around a given value</t>
+  </si>
+  <si>
+    <t>Minimum swaps required bring elements less equal K together</t>
+  </si>
+  <si>
+    <t>Minimum no. of operations required to make an array palindrome</t>
+  </si>
+  <si>
+    <t>Median of 2 sorted arrays of equal size</t>
+  </si>
+  <si>
+    <t>Median of 2 sorted arrays of different size</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Spiral traversal on a Matrix</t>
+  </si>
+  <si>
+    <t>Search an element in a matriix</t>
+  </si>
+  <si>
+    <t>Find median in a row wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Find row with maximum no. of 1's</t>
+  </si>
+  <si>
+    <t>Print elements in sorted order using row-column wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Maximum size rectangle</t>
+  </si>
+  <si>
+    <t>Find a specific pair in matrix</t>
+  </si>
+  <si>
+    <t>Rotate matrix by 90 degrees</t>
+  </si>
+  <si>
+    <t>Kth smallest element in a row-cpumn wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Common elements in all rows of a given matrix</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Reverse a String</t>
+  </si>
+  <si>
+    <t>Check whether a String is Palindrome or not</t>
+  </si>
+  <si>
+    <t>Find Duplicate characters in a string</t>
+  </si>
+  <si>
+    <t>Why strings are immutable in Java?</t>
+  </si>
+  <si>
+    <t>Write a Code to check whether one string is a rotation of another</t>
+  </si>
+  <si>
+    <t>Write a Program to check whether a string is a valid shuffle of two strings or not</t>
+  </si>
+  <si>
+    <t>Count and Say problem</t>
+  </si>
+  <si>
+    <t>Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
+  </si>
+  <si>
+    <t>Find Longest Recurring Subsequence in String</t>
+  </si>
+  <si>
+    <t>Print all Subsequences of a string.</t>
+  </si>
+  <si>
+    <t>Print all the permutations of the given string</t>
+  </si>
+  <si>
+    <t>Split the Binary string into two substring with equal 0’s and 1’s</t>
+  </si>
+  <si>
+    <t>Word Wrap Problem [VERY IMP].</t>
+  </si>
+  <si>
+    <t>EDIT Distance [Very Imp]</t>
+  </si>
+  <si>
+    <t>Find next greater number with same set of digits. [Very Very IMP]</t>
+  </si>
+  <si>
+    <t>Balanced Parenthesis problem.[Imp]</t>
+  </si>
+  <si>
+    <t>Word break Problem[ Very Imp]</t>
+  </si>
+  <si>
+    <t>Rabin Karp Algo</t>
+  </si>
+  <si>
+    <t>KMP Algo</t>
+  </si>
+  <si>
+    <t>Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
+  </si>
+  <si>
+    <t>Minimum number of bracket reversals needed to make an expression balanced.</t>
+  </si>
+  <si>
+    <t>Count All Palindromic Subsequence in a given String.</t>
+  </si>
+  <si>
+    <t>Count of number of given string in 2D character array</t>
+  </si>
+  <si>
+    <t>Search a Word in a 2D Grid of characters.</t>
+  </si>
+  <si>
+    <t>Boyer Moore Algorithm for Pattern Searching.</t>
+  </si>
+  <si>
+    <t>Converting Roman Numerals to Decimal</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>Number of flips to make binary string alternate</t>
+  </si>
+  <si>
+    <t>Find the first repeated word in string.</t>
+  </si>
+  <si>
+    <t>Minimum number of swaps for bracket balancing.</t>
+  </si>
+  <si>
+    <t>Find the longest common subsequence between two strings.</t>
+  </si>
+  <si>
+    <t>Program to generate all possible valid IP addresses from given  string.</t>
+  </si>
+  <si>
+    <t>Write a program tofind the smallest window that contains all characters of string itself.</t>
+  </si>
+  <si>
+    <t>Rearrange characters in a string such that no two adjacent are same</t>
+  </si>
+  <si>
+    <t>Minimum characters to be added at front to make string palindrome</t>
+  </si>
+  <si>
+    <t>Given a sequence of words, print all anagrams together</t>
+  </si>
+  <si>
+    <t>Find the smallest window in a string containing all characters of another string</t>
+  </si>
+  <si>
+    <t>Recursively remove all adjacent duplicates</t>
+  </si>
+  <si>
+    <t>String matching where one string contains wildcard characters</t>
+  </si>
+  <si>
+    <t>Function to find Number of customers who could not get a computer</t>
+  </si>
+  <si>
+    <t>Transform One String to Another using Minimum Number of Given Operation</t>
+  </si>
+  <si>
+    <t>Check if two given strings are isomorphic to each other</t>
+  </si>
+  <si>
+    <t>Recursively print all sentences that can be formed from list of word lists</t>
+  </si>
+  <si>
+    <t>Searching &amp; Sorting</t>
+  </si>
+  <si>
+    <t>Find first and last positions of an element in a sorted array</t>
+  </si>
+  <si>
+    <t>Find a Fixed Point (Value equal to index) in a given array</t>
+  </si>
+  <si>
+    <t>Search in a rotated sorted array</t>
+  </si>
+  <si>
+    <t>square root of an integer</t>
+  </si>
+  <si>
+    <t>Maximum and minimum of an array using minimum number of comparisons</t>
+  </si>
+  <si>
+    <t>Optimum location of point to minimize total distance</t>
+  </si>
+  <si>
+    <t>Find the repeating and the missing</t>
+  </si>
+  <si>
+    <t>find majority element</t>
+  </si>
+  <si>
+    <t>Searching in an array where adjacent differ by at most k</t>
+  </si>
+  <si>
+    <t>find a pair with a given difference</t>
+  </si>
+  <si>
+    <t>find four elements that sum to a given value</t>
+  </si>
+  <si>
+    <t>maximum sum such that no 2 elements are adjacent</t>
+  </si>
+  <si>
+    <t>Count triplet with sum smaller than a given value</t>
+  </si>
+  <si>
+    <t>merge 2 sorted arrays</t>
+  </si>
+  <si>
+    <t>print all subarrays with 0 sum</t>
+  </si>
+  <si>
+    <t>Product array Puzzle</t>
+  </si>
+  <si>
+    <t>Sort array according to count of set bits</t>
+  </si>
+  <si>
+    <t>minimum no. of swaps required to sort the array</t>
+  </si>
+  <si>
+    <t>Bishu and Soldiers</t>
+  </si>
+  <si>
+    <t>Rasta and Kheshtak</t>
+  </si>
+  <si>
+    <t>Kth smallest number again</t>
+  </si>
+  <si>
+    <t>Find pivot element in a sorted array</t>
+  </si>
+  <si>
+    <t>K-th Element of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Aggressive cows</t>
+  </si>
+  <si>
+    <t>Book Allocation Problem</t>
+  </si>
+  <si>
+    <t>EKOSPOJ:</t>
+  </si>
+  <si>
+    <t>Job Scheduling Algo</t>
+  </si>
+  <si>
+    <t>Missing Number in AP</t>
+  </si>
+  <si>
+    <t>Smallest number with atleastn trailing zeroes infactorial</t>
+  </si>
+  <si>
+    <t>Painters Partition Problem:</t>
+  </si>
+  <si>
+    <t>ROTI-Prata SPOJ</t>
+  </si>
+  <si>
+    <t>DoubleHelix SPOJ</t>
+  </si>
+  <si>
+    <t>Subset Sums</t>
+  </si>
+  <si>
+    <t>Findthe inversion count</t>
+  </si>
+  <si>
+    <t>Implement Merge-sort in-place</t>
+  </si>
+  <si>
+    <t>Partitioning and Sorting Arrays with Many Repeated Entries</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
+  </si>
+  <si>
+    <t>Reverse a Linked List in group of Given Size. [Very Imp]</t>
+  </si>
+  <si>
+    <t>Write a program to Detect loop in a linked list.</t>
+  </si>
+  <si>
+    <t>Write a program to Delete loop in a linked list.</t>
+  </si>
+  <si>
+    <t>Find the starting point of the loop. </t>
+  </si>
+  <si>
+    <t>Remove Duplicates in a sorted Linked List.</t>
+  </si>
+  <si>
+    <t>Remove Duplicates in a Un-sorted Linked List.</t>
+  </si>
+  <si>
+    <t>Write a Program to Move the last element to Front in a Linked List.</t>
+  </si>
+  <si>
+    <t>Add “1” to a number represented as a Linked List.</t>
+  </si>
+  <si>
+    <t>Add two numbers represented by linked lists.</t>
+  </si>
+  <si>
+    <t>Intersection of two Sorted Linked List.</t>
+  </si>
+  <si>
+    <t>Intersection Point of two Linked Lists.</t>
+  </si>
+  <si>
+    <t>Merge Sort For Linked lists.[Very Important]</t>
+  </si>
+  <si>
+    <t>Quicksort for Linked Lists.[Very Important]</t>
+  </si>
+  <si>
+    <t>Find the middle Element of a linked list.</t>
+  </si>
+  <si>
+    <t>Check if a linked list is a circular linked list.</t>
+  </si>
+  <si>
+    <t>Split a Circular linked list into two halves.</t>
+  </si>
+  <si>
+    <t>Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
+  </si>
+  <si>
+    <t>Deletion from a Circular Linked List.</t>
+  </si>
+  <si>
+    <t>Reverse a Doubly Linked list.</t>
+  </si>
+  <si>
+    <t>Find pairs with a given sum in a DLL.</t>
+  </si>
+  <si>
+    <t>Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
+  </si>
+  <si>
+    <t>Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
+  </si>
+  <si>
+    <t>Rotate DoublyLinked list by N nodes.</t>
+  </si>
+  <si>
+    <t>Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
+  </si>
+  <si>
+    <t>Can we reverse a linked list in less than O(n) ?</t>
+  </si>
+  <si>
+    <t>Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
+  </si>
+  <si>
+    <t>Flatten a Linked List</t>
+  </si>
+  <si>
+    <t>Sort a LL of 0's, 1's and 2's</t>
+  </si>
+  <si>
+    <t>Clone a linked list with next and random pointer</t>
+  </si>
+  <si>
+    <t>Merge K sorted Linked list</t>
+  </si>
+  <si>
+    <t>Multiply 2 no. represented by LL</t>
+  </si>
+  <si>
+    <t>Delete nodes which have a greater value on right side</t>
+  </si>
+  <si>
+    <t>Segregate even and odd nodes in a Linked List</t>
+  </si>
+  <si>
+    <t>Program for n’th node from the end of a Linked List</t>
+  </si>
+  <si>
+    <t>Find the first non-repeating character from a stream of characters</t>
+  </si>
+  <si>
+    <t>Binary Trees</t>
+  </si>
+  <si>
+    <t>level order traversal</t>
+  </si>
+  <si>
+    <t>Reverse Level Order traversal</t>
+  </si>
+  <si>
+    <t>Height of a tree</t>
+  </si>
+  <si>
+    <t>Diameter of a tree</t>
+  </si>
+  <si>
+    <t>Understood</t>
+  </si>
+  <si>
+    <t>Mirror of a tree</t>
+  </si>
+  <si>
+    <t>Inorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t>Preorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t>Postorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t>Left View of a tree</t>
+  </si>
+  <si>
+    <t>Right View of Tree</t>
+  </si>
+  <si>
+    <t>Top View of a tree</t>
+  </si>
+  <si>
+    <t>Bottom View of a tree</t>
+  </si>
+  <si>
+    <t>Zig-Zag traversal of a binary tree</t>
+  </si>
+  <si>
+    <t>Check if a tree is balanced or not</t>
+  </si>
+  <si>
+    <t>Diagnol Traversal of a Binary tree</t>
+  </si>
+  <si>
+    <t>Boundary traversal of a Binary tree</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from String with Bracket Representation</t>
+  </si>
+  <si>
+    <t>Convert Binary tree into Doubly Linked List</t>
+  </si>
+  <si>
+    <t>Convert Binary tree into Sum tree</t>
+  </si>
+  <si>
+    <t>Construct Binary tree from Inorder and preorder traversal</t>
+  </si>
+  <si>
+    <t>Find minimum swaps required to convert a Binary tree into BST</t>
+  </si>
+  <si>
+    <t>Check if Binary tree is Sum tree or not</t>
+  </si>
+  <si>
+    <t>Check if all leaf nodes are at same level or not</t>
+  </si>
+  <si>
+    <t>Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
+  </si>
+  <si>
+    <t>Check if 2 trees are mirror or not</t>
   </si>
   <si>
     <t xml:space="preserve">Sum of Nodes on the Longest path from root to leaf node </t>
   </si>
   <si>
-    <t xml:space="preserve">Check if given graph is tree or not.  [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Largest subtree sum in a tree</t>
+    <t>Check if given graph is tree or not.  [ IMP ]</t>
+  </si>
+  <si>
+    <t>Find Largest subtree sum in a tree</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum Sum of nodes in Binary tree such that no two are adjacent </t>
   </si>
   <si>
-    <t xml:space="preserve">Print all "K" Sum paths in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find LCA in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find distance between 2 nodes in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth Ancestor of node in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find all Duplicate subtrees in a Binary tree [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tree Isomorphism Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary Search Trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fina a value in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deletion of a node in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find min and max value in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find inorder successor and inorder predecessor in a BST</t>
+    <t>Print all "K" Sum paths in a Binary tree</t>
+  </si>
+  <si>
+    <t>Find LCA in a Binary tree</t>
+  </si>
+  <si>
+    <t>Find distance between 2 nodes in a Binary tree</t>
+  </si>
+  <si>
+    <t>Kth Ancestor of node in a Binary tree</t>
+  </si>
+  <si>
+    <t>Find all Duplicate subtrees in a Binary tree [ IMP ]</t>
+  </si>
+  <si>
+    <t>Tree Isomorphism Problem</t>
+  </si>
+  <si>
+    <t>Binary Search Trees</t>
+  </si>
+  <si>
+    <t>Fina a value in a BST</t>
+  </si>
+  <si>
+    <t>Deletion of a node in a BST</t>
+  </si>
+  <si>
+    <t>Find min and max value in a BST</t>
+  </si>
+  <si>
+    <t>Find inorder successor and inorder predecessor in a BST</t>
   </si>
   <si>
     <t xml:space="preserve">Check if a tree is a BST or not </t>
   </si>
   <si>
-    <t xml:space="preserve">Populate Inorder successor of all nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find LCA  of 2 nodes in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct BST from preorder traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert Binary tree into BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert a normal BST into a Balanced BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge two BST [ V.V.V&gt;IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Kth largest element in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Kth smallest element in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count pairs from 2 BST whose sum is equal to given value "X"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the median of BST in O(n) time and O(1) space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count BST ndoes that lie in a given range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Replace every element with the least greater element on its right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given "n" appointments, find the conflicting appointments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check preorder is valid or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check whether BST contains Dead end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flatten BST to sorted list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greedy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity Selection Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job SequencingProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huffman Coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Connection Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fractional Knapsack Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greedy Algorithm to find Minimum number of Coins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum trains for which stoppage can be provided</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Platforms Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy Maximum Stocks if i stocks can be bought on i-th day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the minimum and maximum amount to buy all N candies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Cost to cut a board into squares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if it is possible to survive on Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find maximum meetings in one room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum product subset of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize array sum after K negations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize the sum of arr[i]*i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sum of absolute difference of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize sum of consecutive differences in a circular array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum sum of absolute difference of pairs of two arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for Shortest Job First (or SJF) CPU Scheduling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for Least Recently Used (LRU) Page Replacement algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest subset with sum greater than all other elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chocolate Distribution Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFKIN -Defense of a Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIEHARD -DIE HARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GERGOVIA -Wine trading in Gergovia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Picking Up Chicks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHOCOLA –Chocolate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARRANGE -Arranging Amplifiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K Centers Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Cost of ropes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find smallest number with given number of digits and sum of digits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find maximum sum possible equal sum of three stacks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackTracking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rat in a maze Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Printing all solutions in N-Queen Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Break Problem using Backtracking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Invalid Parentheses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudoku Solver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m Coloring Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all palindromic partitions of a string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subset Sum Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Knight’s tour problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tug of War</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find shortest safe route in a path with landmines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combinational Sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Maximum number possible by doing at-most K swaps</t>
+    <t>Populate Inorder successor of all nodes</t>
+  </si>
+  <si>
+    <t>Find LCA  of 2 nodes in a BST</t>
+  </si>
+  <si>
+    <t>Construct BST from preorder traversal</t>
+  </si>
+  <si>
+    <t>Convert Binary tree into BST</t>
+  </si>
+  <si>
+    <t>Convert a normal BST into a Balanced BST</t>
+  </si>
+  <si>
+    <t>Merge two BST [ V.V.V&gt;IMP ]</t>
+  </si>
+  <si>
+    <t>Find Kth largest element in a BST</t>
+  </si>
+  <si>
+    <t>Find Kth smallest element in a BST</t>
+  </si>
+  <si>
+    <t>Count pairs from 2 BST whose sum is equal to given value "X"</t>
+  </si>
+  <si>
+    <t>Find the median of BST in O(n) time and O(1) space</t>
+  </si>
+  <si>
+    <t>Count BST ndoes that lie in a given range</t>
+  </si>
+  <si>
+    <t>Replace every element with the least greater element on its right</t>
+  </si>
+  <si>
+    <t>Given "n" appointments, find the conflicting appointments</t>
+  </si>
+  <si>
+    <t>Check preorder is valid or not</t>
+  </si>
+  <si>
+    <t>Check whether BST contains Dead end</t>
+  </si>
+  <si>
+    <t>Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
+  </si>
+  <si>
+    <t>Flatten BST to sorted list</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>Activity Selection Problem</t>
+  </si>
+  <si>
+    <t>Job SequencingProblem</t>
+  </si>
+  <si>
+    <t>Huffman Coding</t>
+  </si>
+  <si>
+    <t>Water Connection Problem</t>
+  </si>
+  <si>
+    <t>Fractional Knapsack Problem</t>
+  </si>
+  <si>
+    <t>Greedy Algorithm to find Minimum number of Coins</t>
+  </si>
+  <si>
+    <t>Maximum trains for which stoppage can be provided</t>
+  </si>
+  <si>
+    <t>Minimum Platforms Problem</t>
+  </si>
+  <si>
+    <t>Buy Maximum Stocks if i stocks can be bought on i-th day</t>
+  </si>
+  <si>
+    <t>Find the minimum and maximum amount to buy all N candies</t>
+  </si>
+  <si>
+    <t>Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t>Minimum Cost to cut a board into squares</t>
+  </si>
+  <si>
+    <t>Check if it is possible to survive on Island</t>
+  </si>
+  <si>
+    <t>Find maximum meetings in one room</t>
+  </si>
+  <si>
+    <t>Maximum product subset of an array</t>
+  </si>
+  <si>
+    <t>Maximize array sum after K negations</t>
+  </si>
+  <si>
+    <t>Maximize the sum of arr[i]*i</t>
+  </si>
+  <si>
+    <t>Maximum sum of absolute difference of an array</t>
+  </si>
+  <si>
+    <t>Maximize sum of consecutive differences in a circular array</t>
+  </si>
+  <si>
+    <t>Minimum sum of absolute difference of pairs of two arrays</t>
+  </si>
+  <si>
+    <t>Program for Shortest Job First (or SJF) CPU Scheduling</t>
+  </si>
+  <si>
+    <t>Program for Least Recently Used (LRU) Page Replacement algorithm</t>
+  </si>
+  <si>
+    <t>Smallest subset with sum greater than all other elements</t>
+  </si>
+  <si>
+    <t>Chocolate Distribution Problem</t>
+  </si>
+  <si>
+    <t>DEFKIN -Defense of a Kingdom</t>
+  </si>
+  <si>
+    <t>DIEHARD -DIE HARD</t>
+  </si>
+  <si>
+    <t>GERGOVIA -Wine trading in Gergovia</t>
+  </si>
+  <si>
+    <t>Picking Up Chicks</t>
+  </si>
+  <si>
+    <t>CHOCOLA –Chocolate</t>
+  </si>
+  <si>
+    <t>ARRANGE -Arranging Amplifiers</t>
+  </si>
+  <si>
+    <t>K Centers Problem</t>
+  </si>
+  <si>
+    <t>Minimum Cost of ropes</t>
+  </si>
+  <si>
+    <t>Find smallest number with given number of digits and sum of digits</t>
+  </si>
+  <si>
+    <t>Find maximum sum possible equal sum of three stacks</t>
+  </si>
+  <si>
+    <t>BackTracking</t>
+  </si>
+  <si>
+    <t>Rat in a maze Problem</t>
+  </si>
+  <si>
+    <t>Printing all solutions in N-Queen Problem</t>
+  </si>
+  <si>
+    <t>Word Break Problem using Backtracking</t>
+  </si>
+  <si>
+    <t>Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t>Sudoku Solver</t>
+  </si>
+  <si>
+    <t>m Coloring Problem</t>
+  </si>
+  <si>
+    <t>Print all palindromic partitions of a string</t>
+  </si>
+  <si>
+    <t>Subset Sum Problem</t>
+  </si>
+  <si>
+    <t>The Knight’s tour problem</t>
+  </si>
+  <si>
+    <t>Tug of War</t>
+  </si>
+  <si>
+    <t>Find shortest safe route in a path with landmines</t>
+  </si>
+  <si>
+    <t>Combinational Sum</t>
+  </si>
+  <si>
+    <t>Find Maximum number possible by doing at-most K swaps</t>
   </si>
   <si>
     <t xml:space="preserve">Print all permutations of a string </t>
   </si>
   <si>
-    <t xml:space="preserve">Find if there is a path of more than k length from a source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Possible Route in a Matrix with Hurdles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all possible paths from top left to bottom right of a mXn matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partition of a set intoK subsets with equal sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the K-th Permutation Sequence of first N natural numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stacks &amp; Queues</t>
+    <t>Find if there is a path of more than k length from a source</t>
+  </si>
+  <si>
+    <t>Longest Possible Route in a Matrix with Hurdles</t>
+  </si>
+  <si>
+    <t>Print all possible paths from top left to bottom right of a mXn matrix</t>
+  </si>
+  <si>
+    <t>Partition of a set intoK subsets with equal sum</t>
+  </si>
+  <si>
+    <t>Find the K-th Permutation Sequence of first N natural numbers</t>
+  </si>
+  <si>
+    <t>Stacks &amp; Queues</t>
   </si>
   <si>
     <t xml:space="preserve"> Implement Stack from Scratch</t>
@@ -907,175 +912,175 @@
     <t xml:space="preserve"> Implement Queue from Scratch</t>
   </si>
   <si>
-    <t xml:space="preserve">Implement 2 stack in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find the middle element of a stack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement "N" stacks in an Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the expression has valid or Balanced parenthesis or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a String using Stack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the next Greater element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The celebrity Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arithmetic Expression evaluation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluation of Postfix expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a method to insert an element at its bottom without using any other data structure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a stack using recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort a Stack using recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Overlapping Intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest rectangular Area in Histogram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of the Longest Valid Substring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression contains redundant bracket or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Stack using Queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Stack using Deque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stack Permutations (Check if an array is stack permutation of other)</t>
+    <t>Implement 2 stack in an array</t>
+  </si>
+  <si>
+    <t>find the middle element of a stack</t>
+  </si>
+  <si>
+    <t>Implement "N" stacks in an Array</t>
+  </si>
+  <si>
+    <t>Check the expression has valid or Balanced parenthesis or not.</t>
+  </si>
+  <si>
+    <t>Reverse a String using Stack</t>
+  </si>
+  <si>
+    <t>Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
+  </si>
+  <si>
+    <t>Find the next Greater element</t>
+  </si>
+  <si>
+    <t>The celebrity Problem</t>
+  </si>
+  <si>
+    <t>Arithmetic Expression evaluation</t>
+  </si>
+  <si>
+    <t>Evaluation of Postfix expression</t>
+  </si>
+  <si>
+    <t>Implement a method to insert an element at its bottom without using any other data structure.</t>
+  </si>
+  <si>
+    <t>Reverse a stack using recursion</t>
+  </si>
+  <si>
+    <t>Sort a Stack using recursion</t>
+  </si>
+  <si>
+    <t>Merge Overlapping Intervals</t>
+  </si>
+  <si>
+    <t>Largest rectangular Area in Histogram</t>
+  </si>
+  <si>
+    <t>Length of the Longest Valid Substring</t>
+  </si>
+  <si>
+    <t>Expression contains redundant bracket or not</t>
+  </si>
+  <si>
+    <t>Implement Stack using Queue</t>
+  </si>
+  <si>
+    <t>Implement Stack using Deque</t>
+  </si>
+  <si>
+    <t>Stack Permutations (Check if an array is stack permutation of other)</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Queue using Stack  </t>
   </si>
   <si>
-    <t xml:space="preserve">Implement "n" queue in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a Circular queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LRU Cache Implementationa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a Queue using recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse the first “K” elements of a queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interleave the first half of the queue with second half</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the first circular tour that visits all Petrol Pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum time required to rot all oranges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distance of nearest cell having 1 in a binary matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First negative integer in every window of size “k”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if all levels of two trees are anagrams or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sum of minimum and maximum elements of all subarrays of size “k”.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queue based approach or first non-repeating character in a stream.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next Smaller Element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a Maxheap/MinHeap using arrays and recursion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort an Array using heap. (HeapSort)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum of all subarrays of size k.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“k” largest element in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth smallest and largest element in an unsorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge “K” sorted arrays. [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge 2 Binary Max Heaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth largest sum continuous subarrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leetcode- reorganize strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge “K” Sorted Linked Lists [V.IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest range in “K” Lists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median in a stream of Integers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a Binary Tree is Heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connect “n” ropes with minimum cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert BST to Min Heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert min heap to max heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rearrange characters in a string such that no two adjacent are same.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum sum of two numbers formed from digits of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a Graph, print it</t>
+    <t>Implement "n" queue in an array</t>
+  </si>
+  <si>
+    <t>Implement a Circular queue</t>
+  </si>
+  <si>
+    <t>LRU Cache Implementationa</t>
+  </si>
+  <si>
+    <t>Reverse a Queue using recursion</t>
+  </si>
+  <si>
+    <t>Reverse the first “K” elements of a queue</t>
+  </si>
+  <si>
+    <t>Interleave the first half of the queue with second half</t>
+  </si>
+  <si>
+    <t>Find the first circular tour that visits all Petrol Pumps</t>
+  </si>
+  <si>
+    <t>Minimum time required to rot all oranges</t>
+  </si>
+  <si>
+    <t>Distance of nearest cell having 1 in a binary matrix</t>
+  </si>
+  <si>
+    <t>First negative integer in every window of size “k”</t>
+  </si>
+  <si>
+    <t>Check if all levels of two trees are anagrams or not.</t>
+  </si>
+  <si>
+    <t>Sum of minimum and maximum elements of all subarrays of size “k”.</t>
+  </si>
+  <si>
+    <t>Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
+  </si>
+  <si>
+    <t>Queue based approach or first non-repeating character in a stream.</t>
+  </si>
+  <si>
+    <t>Next Smaller Element</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Implement a Maxheap/MinHeap using arrays and recursion.</t>
+  </si>
+  <si>
+    <t>Sort an Array using heap. (HeapSort)</t>
+  </si>
+  <si>
+    <t>Maximum of all subarrays of size k.</t>
+  </si>
+  <si>
+    <t>“k” largest element in an array</t>
+  </si>
+  <si>
+    <t>Kth smallest and largest element in an unsorted array</t>
+  </si>
+  <si>
+    <t>Merge “K” sorted arrays. [ IMP ]</t>
+  </si>
+  <si>
+    <t>Merge 2 Binary Max Heaps</t>
+  </si>
+  <si>
+    <t>Kth largest sum continuous subarrays</t>
+  </si>
+  <si>
+    <t>Leetcode- reorganize strings</t>
+  </si>
+  <si>
+    <t>Merge “K” Sorted Linked Lists [V.IMP]</t>
+  </si>
+  <si>
+    <t>Smallest range in “K” Lists</t>
+  </si>
+  <si>
+    <t>Median in a stream of Integers</t>
+  </si>
+  <si>
+    <t>Check if a Binary Tree is Heap</t>
+  </si>
+  <si>
+    <t>Connect “n” ropes with minimum cost</t>
+  </si>
+  <si>
+    <t>Convert BST to Min Heap</t>
+  </si>
+  <si>
+    <t>Convert min heap to max heap</t>
+  </si>
+  <si>
+    <t>Rearrange characters in a string such that no two adjacent are same.</t>
+  </si>
+  <si>
+    <t>Minimum sum of two numbers formed from digits of an array</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Create a Graph, print it</t>
   </si>
   <si>
     <t xml:space="preserve">Implement BFS algorithm </t>
@@ -1090,359 +1095,356 @@
     <t xml:space="preserve">Detect Cycle in UnDirected Graph using BFS/DFS Algo </t>
   </si>
   <si>
-    <t xml:space="preserve">Search in a Maze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Step by Knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flood fill algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clone a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Making wired Connections</t>
+    <t>Search in a Maze</t>
+  </si>
+  <si>
+    <t>Minimum Step by Knight</t>
+  </si>
+  <si>
+    <t>flood fill algo</t>
+  </si>
+  <si>
+    <t>Clone a graph</t>
+  </si>
+  <si>
+    <t>Making wired Connections</t>
   </si>
   <si>
     <t xml:space="preserve">word Ladder </t>
   </si>
   <si>
-    <t xml:space="preserve">Dijkstra algo</t>
+    <t>Dijkstra algo</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Topological Sort </t>
   </si>
   <si>
-    <t xml:space="preserve">Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find whether it is possible to finish all tasks or not from given dependencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the no. of Isalnds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a sorted Dictionary of an Alien Language, find order of characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Kruksal’sAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Prim’s Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total no. of Spanning tree in a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Bellman Ford Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Floyd warshallAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Travelling Salesman Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph ColouringProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snake and Ladders Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find bridge in a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Strongly connected Components(Kosaraju Algo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check whether a graph is Bipartite or Not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detect Negative cycle in a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest path in a Directed Acyclic Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journey to the Moon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheapest Flights Within K Stops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oliver and the Game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Jug problem using BFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find if there is a path of more thank length from a source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M-ColouringProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum edges to reverse o make path from source to destination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paths to travel each nodes using each edge(Seven Bridges)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertex Cover Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinese Postman or Route Inspection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Triangles in a Directed and Undirected Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two Clique Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct a trie from scratch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find shortest unique prefix for every word in a given list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Break Problem | (Trie solution)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a Phone Directory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print unique rows in a given boolean matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamic Programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coin ChangeProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knapsack Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binomial CoefficientProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permutation CoefficientProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for nth Catalan Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matrix Chain Multiplication </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friends Pairing Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Mine Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assembly Line SchedulingProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Painting the Fenceproblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize The Cut Segments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Common Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Repeated Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Increasing Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Space Optimized Solution of LCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCS (Longest Common Subsequence) of three strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Sum Increasing Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count all subsequences having product less than K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest subsequence such that difference between adjacent is one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum subsequence sum such that no three are consecutive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egg Dropping Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Length Chain of Pairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum size square sub-matrix with all 1s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sum of pairs with specific difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min Cost PathProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum difference of zeros and ones in binary string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum number of jumps to reach end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum cost to fill given weight in a bag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum removals from array to make max –min &lt;= K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Common Substring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count number of ways to reacha given score in a game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Balanced Binary Trees of Height h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest sum contiguous subarray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unbounded Knapsack (Repetition of items allowed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Break Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest Independent Set Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partition problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Palindromic Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count All Palindromic Subsequence in a given String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Palindromic Substring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest alternating subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weighted Job Scheduling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coin game winner where every player has three choices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum profit by buying and selling a share at most twice [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimal Strategy for a Game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimal Binary Search Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palindrome PartitioningProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Wrap Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile Numeric Keypad Problem [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boolean Parenthesization Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest rectangular sub-matrix whose sum is 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sum rectangle in a 2D matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum profit by buying and selling a share at most k times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find if a string is interleaved of two other strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Length of Pair Chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit Manipulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count set bits in an integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the two non-repeating elements in an array of repeating elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count number of bits to be flipped to convert A to B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count total set bits in all numbers from 1 to n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program to find whether a no is power of two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find position of the only set bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copy set bits in a range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divide two integers without using multiplication, division and mod operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate square of a number without using *, / and pow()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Set</t>
+    <t>Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t>Find whether it is possible to finish all tasks or not from given dependencies</t>
+  </si>
+  <si>
+    <t>Find the no. of Isalnds</t>
+  </si>
+  <si>
+    <t>Given a sorted Dictionary of an Alien Language, find order of characters</t>
+  </si>
+  <si>
+    <t>Implement Kruksal’sAlgorithm</t>
+  </si>
+  <si>
+    <t>Implement Prim’s Algorithm</t>
+  </si>
+  <si>
+    <t>Total no. of Spanning tree in a graph</t>
+  </si>
+  <si>
+    <t>Implement Bellman Ford Algorithm</t>
+  </si>
+  <si>
+    <t>Implement Floyd warshallAlgorithm</t>
+  </si>
+  <si>
+    <t>Travelling Salesman Problem</t>
+  </si>
+  <si>
+    <t>Graph ColouringProblem</t>
+  </si>
+  <si>
+    <t>Snake and Ladders Problem</t>
+  </si>
+  <si>
+    <t>Find bridge in a graph</t>
+  </si>
+  <si>
+    <t>Count Strongly connected Components(Kosaraju Algo)</t>
+  </si>
+  <si>
+    <t>Check whether a graph is Bipartite or Not</t>
+  </si>
+  <si>
+    <t>Detect Negative cycle in a graph</t>
+  </si>
+  <si>
+    <t>Longest path in a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t>Journey to the Moon</t>
+  </si>
+  <si>
+    <t>Cheapest Flights Within K Stops</t>
+  </si>
+  <si>
+    <t>Oliver and the Game</t>
+  </si>
+  <si>
+    <t>Water Jug problem using BFS</t>
+  </si>
+  <si>
+    <t>Find if there is a path of more thank length from a source</t>
+  </si>
+  <si>
+    <t>M-ColouringProblem</t>
+  </si>
+  <si>
+    <t>Minimum edges to reverse o make path from source to destination</t>
+  </si>
+  <si>
+    <t>Paths to travel each nodes using each edge(Seven Bridges)</t>
+  </si>
+  <si>
+    <t>Vertex Cover Problem</t>
+  </si>
+  <si>
+    <t>Chinese Postman or Route Inspection</t>
+  </si>
+  <si>
+    <t>Number of Triangles in a Directed and Undirected Graph</t>
+  </si>
+  <si>
+    <t>Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t>Two Clique Problem</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>Construct a trie from scratch</t>
+  </si>
+  <si>
+    <t>Find shortest unique prefix for every word in a given list</t>
+  </si>
+  <si>
+    <t>Word Break Problem | (Trie solution)</t>
+  </si>
+  <si>
+    <t>Implement a Phone Directory</t>
+  </si>
+  <si>
+    <t>Print unique rows in a given boolean matrix</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Coin ChangeProblem</t>
+  </si>
+  <si>
+    <t>Knapsack Problem</t>
+  </si>
+  <si>
+    <t>Binomial CoefficientProblem</t>
+  </si>
+  <si>
+    <t>Permutation CoefficientProblem</t>
+  </si>
+  <si>
+    <t>Program for nth Catalan Number</t>
+  </si>
+  <si>
+    <t>Matrix Chain Multiplication </t>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+  </si>
+  <si>
+    <t>Friends Pairing Problem</t>
+  </si>
+  <si>
+    <t>Gold Mine Problem</t>
+  </si>
+  <si>
+    <t>Assembly Line SchedulingProblem</t>
+  </si>
+  <si>
+    <t>Painting the Fenceproblem</t>
+  </si>
+  <si>
+    <t>Maximize The Cut Segments</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>Longest Repeated Subsequence</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Space Optimized Solution of LCS</t>
+  </si>
+  <si>
+    <t>LCS (Longest Common Subsequence) of three strings</t>
+  </si>
+  <si>
+    <t>Maximum Sum Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Count all subsequences having product less than K</t>
+  </si>
+  <si>
+    <t>Longest subsequence such that difference between adjacent is one</t>
+  </si>
+  <si>
+    <t>Maximum subsequence sum such that no three are consecutive</t>
+  </si>
+  <si>
+    <t>Egg Dropping Problem</t>
+  </si>
+  <si>
+    <t>Maximum Length Chain of Pairs</t>
+  </si>
+  <si>
+    <t>Maximum size square sub-matrix with all 1s</t>
+  </si>
+  <si>
+    <t>Maximum sum of pairs with specific difference</t>
+  </si>
+  <si>
+    <t>Min Cost PathProblem</t>
+  </si>
+  <si>
+    <t>Maximum difference of zeros and ones in binary string</t>
+  </si>
+  <si>
+    <t>Minimum number of jumps to reach end</t>
+  </si>
+  <si>
+    <t>Minimum cost to fill given weight in a bag</t>
+  </si>
+  <si>
+    <t>Minimum removals from array to make max –min &lt;= K</t>
+  </si>
+  <si>
+    <t>Longest Common Substring</t>
+  </si>
+  <si>
+    <t>Count number of ways to reacha given score in a game</t>
+  </si>
+  <si>
+    <t>Count Balanced Binary Trees of Height h</t>
+  </si>
+  <si>
+    <t>LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
+  </si>
+  <si>
+    <t>Smallest sum contiguous subarray</t>
+  </si>
+  <si>
+    <t>Unbounded Knapsack (Repetition of items allowed)</t>
+  </si>
+  <si>
+    <t>Word Break Problem</t>
+  </si>
+  <si>
+    <t>Largest Independent Set Problem</t>
+  </si>
+  <si>
+    <t>Partition problem</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Subsequence</t>
+  </si>
+  <si>
+    <t>Count All Palindromic Subsequence in a given String</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>Longest alternating subsequence</t>
+  </si>
+  <si>
+    <t>Weighted Job Scheduling</t>
+  </si>
+  <si>
+    <t>Coin game winner where every player has three choices</t>
+  </si>
+  <si>
+    <t>Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share at most twice [ IMP ]</t>
+  </si>
+  <si>
+    <t>Optimal Strategy for a Game</t>
+  </si>
+  <si>
+    <t>Optimal Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Palindrome PartitioningProblem</t>
+  </si>
+  <si>
+    <t>Word Wrap Problem</t>
+  </si>
+  <si>
+    <t>Mobile Numeric Keypad Problem [ IMP ]</t>
+  </si>
+  <si>
+    <t>Boolean Parenthesization Problem</t>
+  </si>
+  <si>
+    <t>Largest rectangular sub-matrix whose sum is 0</t>
+  </si>
+  <si>
+    <t>Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
+  </si>
+  <si>
+    <t>Maximum sum rectangle in a 2D matrix</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share at most k times</t>
+  </si>
+  <si>
+    <t>Find if a string is interleaved of two other strings</t>
+  </si>
+  <si>
+    <t>Maximum Length of Pair Chain</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Count set bits in an integer</t>
+  </si>
+  <si>
+    <t>Find the two non-repeating elements in an array of repeating elements</t>
+  </si>
+  <si>
+    <t>Count number of bits to be flipped to convert A to B</t>
+  </si>
+  <si>
+    <t>Count total set bits in all numbers from 1 to n</t>
+  </si>
+  <si>
+    <t>Program to find whether a no is power of two</t>
+  </si>
+  <si>
+    <t>Find position of the only set bit</t>
+  </si>
+  <si>
+    <t>Copy set bits in a range</t>
+  </si>
+  <si>
+    <t>Divide two integers without using multiplication, division and mod operator</t>
+  </si>
+  <si>
+    <t>Calculate square of a number without using *, / and pow()</t>
+  </si>
+  <si>
+    <t>Power Set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1451,30 +1453,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -1482,8 +1468,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1491,7 +1477,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1499,7 +1485,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="16"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -1523,7 +1509,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1531,85 +1517,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1668,41 +1607,349 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B23" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="123"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.5"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="123" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4">
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" ht="21">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1714,16 +1961,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4">
       <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" ht="21">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1733,11 +1980,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" ht="21">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="6">
         <v>2</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1747,11 +1994,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" ht="21">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="6">
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1761,11 +2008,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" ht="21">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="6">
         <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1775,11 +2022,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" ht="21">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="n">
+      <c r="B10" s="6">
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1789,11 +2036,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" ht="21">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6" t="n">
+      <c r="B11" s="6">
         <v>6</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1803,11 +2050,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" ht="21">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="6" t="n">
+      <c r="B12" s="6">
         <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1817,11 +2064,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" ht="21">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="6" t="n">
+      <c r="B13" s="6">
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1831,11 +2078,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" ht="21">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="6" t="n">
+      <c r="B14" s="6">
         <v>9</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1845,11 +2092,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" ht="21">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="6" t="n">
+      <c r="B15" s="6">
         <v>10</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1859,11 +2106,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4" ht="21">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="6" t="n">
+      <c r="B16" s="6">
         <v>11</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1873,11 +2120,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" ht="21">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="6" t="n">
+      <c r="B17" s="6">
         <v>12</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1887,11 +2134,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" ht="21">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="6" t="n">
+      <c r="B18" s="6">
         <v>13</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1901,11 +2148,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" ht="21">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="6" t="n">
+      <c r="B19" s="6">
         <v>14</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1915,11 +2162,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" ht="21">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="6" t="n">
+      <c r="B20" s="6">
         <v>15</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -1929,11 +2176,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" ht="21">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="6" t="n">
+      <c r="B21" s="6">
         <v>16</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1943,11 +2190,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" ht="21">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="6" t="n">
+      <c r="B22" s="6">
         <v>17</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1957,11 +2204,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" ht="21">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="6" t="n">
+      <c r="B23" s="6">
         <v>18</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1971,11 +2218,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" ht="21">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="6" t="n">
+      <c r="B24" s="6">
         <v>19</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1985,11 +2232,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" ht="21">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="6" t="n">
+      <c r="B25" s="6">
         <v>20</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -1999,11 +2246,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4" ht="21">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="6" t="n">
+      <c r="B26" s="6">
         <v>21</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -2013,11 +2260,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:4" ht="21">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="6" t="n">
+      <c r="B27" s="6">
         <v>22</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -2027,11 +2274,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:4" ht="21">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="6" t="n">
+      <c r="B28" s="6">
         <v>23</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -2041,11 +2288,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4" ht="21">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="6" t="n">
+      <c r="B29" s="6">
         <v>24</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -2055,11 +2302,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:4" ht="21">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="6" t="n">
+      <c r="B30" s="6">
         <v>25</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -2069,11 +2316,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:4" ht="21">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="6" t="n">
+      <c r="B31" s="6">
         <v>26</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -2083,11 +2330,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:4" ht="21">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="6" t="n">
+      <c r="B32" s="6">
         <v>27</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -2097,11 +2344,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:4" ht="21">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="6" t="n">
+      <c r="B33" s="6">
         <v>28</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -2111,11 +2358,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:4" ht="21">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="6" t="n">
+      <c r="B34" s="6">
         <v>29</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -2125,11 +2372,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:4" ht="21">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="6" t="n">
+      <c r="B35" s="6">
         <v>30</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -2139,11 +2386,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:4" ht="21">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="6" t="n">
+      <c r="B36" s="6">
         <v>31</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -2153,39 +2400,39 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:4" ht="21">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="6" t="n">
+      <c r="B37" s="6">
         <v>32</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="21">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="6" t="n">
+      <c r="B38" s="6">
         <v>33</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="21">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="6" t="n">
+      <c r="B39" s="6">
         <v>34</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -2195,11 +2442,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:4" ht="21">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="6" t="n">
+      <c r="B40" s="6">
         <v>35</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -2209,11 +2456,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:4" ht="21">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="6" t="n">
+      <c r="B41" s="6">
         <v>36</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -2223,13 +2470,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:4" ht="21">
       <c r="C42" s="8"/>
       <c r="D42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:4" ht="21">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="8"/>
@@ -2237,7 +2484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:4" ht="21">
       <c r="A44" s="6" t="s">
         <v>48</v>
       </c>
@@ -2246,10 +2493,10 @@
         <v>49</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="21">
       <c r="A45" s="6" t="s">
         <v>48</v>
       </c>
@@ -2258,10 +2505,10 @@
         <v>50</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="21">
       <c r="A46" s="6" t="s">
         <v>48</v>
       </c>
@@ -2273,7 +2520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:4" ht="21">
       <c r="A47" s="6" t="s">
         <v>48</v>
       </c>
@@ -2285,7 +2532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:4" ht="21">
       <c r="A48" s="6" t="s">
         <v>48</v>
       </c>
@@ -2297,7 +2544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:4" ht="21">
       <c r="A49" s="6" t="s">
         <v>48</v>
       </c>
@@ -2309,7 +2556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:4" ht="21">
       <c r="A50" s="6" t="s">
         <v>48</v>
       </c>
@@ -2321,7 +2568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:4" ht="21">
       <c r="A51" s="6" t="s">
         <v>48</v>
       </c>
@@ -2333,7 +2580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:4" ht="21">
       <c r="A52" s="6" t="s">
         <v>48</v>
       </c>
@@ -2345,7 +2592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:4" ht="21">
       <c r="A53" s="6" t="s">
         <v>48</v>
       </c>
@@ -2357,13 +2604,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:4" ht="21">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="8"/>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:4" ht="21">
       <c r="A56" s="6" t="s">
         <v>59</v>
       </c>
@@ -2375,7 +2622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:4" ht="21">
       <c r="A57" s="6" t="s">
         <v>59</v>
       </c>
@@ -2387,7 +2634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:4" ht="21">
       <c r="A58" s="6" t="s">
         <v>59</v>
       </c>
@@ -2399,7 +2646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:4" ht="21">
       <c r="A59" s="6" t="s">
         <v>59</v>
       </c>
@@ -2411,7 +2658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:4" ht="21">
       <c r="A60" s="6" t="s">
         <v>59</v>
       </c>
@@ -2423,7 +2670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:4" ht="21">
       <c r="A61" s="6" t="s">
         <v>59</v>
       </c>
@@ -2435,7 +2682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:4" ht="21">
       <c r="A62" s="6" t="s">
         <v>59</v>
       </c>
@@ -2447,7 +2694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:4" ht="21">
       <c r="A63" s="6" t="s">
         <v>59</v>
       </c>
@@ -2459,7 +2706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:4" ht="21">
       <c r="A64" s="6" t="s">
         <v>59</v>
       </c>
@@ -2471,7 +2718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:4" ht="21">
       <c r="A65" s="6" t="s">
         <v>59</v>
       </c>
@@ -2483,7 +2730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:4" ht="21">
       <c r="A66" s="6" t="s">
         <v>59</v>
       </c>
@@ -2495,7 +2742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:4" ht="21">
       <c r="A67" s="6" t="s">
         <v>59</v>
       </c>
@@ -2507,7 +2754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:4" ht="21">
       <c r="A68" s="6" t="s">
         <v>59</v>
       </c>
@@ -2519,7 +2766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:4" ht="21">
       <c r="A69" s="6" t="s">
         <v>59</v>
       </c>
@@ -2531,7 +2778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:4" ht="21">
       <c r="A70" s="6" t="s">
         <v>59</v>
       </c>
@@ -2543,7 +2790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:4" ht="21">
       <c r="A71" s="6" t="s">
         <v>59</v>
       </c>
@@ -2555,7 +2802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:4" ht="21">
       <c r="A72" s="6" t="s">
         <v>59</v>
       </c>
@@ -2567,7 +2814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:4" ht="21">
       <c r="A73" s="6" t="s">
         <v>59</v>
       </c>
@@ -2579,7 +2826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:4" ht="21">
       <c r="A74" s="6" t="s">
         <v>59</v>
       </c>
@@ -2591,7 +2838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:4" ht="21">
       <c r="A75" s="6" t="s">
         <v>59</v>
       </c>
@@ -2603,7 +2850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:4" ht="21">
       <c r="A76" s="6" t="s">
         <v>59</v>
       </c>
@@ -2615,7 +2862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:4" ht="21">
       <c r="A77" s="6" t="s">
         <v>59</v>
       </c>
@@ -2627,7 +2874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:4" ht="21">
       <c r="A78" s="6" t="s">
         <v>59</v>
       </c>
@@ -2639,7 +2886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:4" ht="21">
       <c r="A79" s="6" t="s">
         <v>59</v>
       </c>
@@ -2651,7 +2898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:4" ht="21">
       <c r="A80" s="6" t="s">
         <v>59</v>
       </c>
@@ -2663,7 +2910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:4" ht="21">
       <c r="A81" s="6" t="s">
         <v>59</v>
       </c>
@@ -2675,7 +2922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:4" ht="21">
       <c r="A82" s="6" t="s">
         <v>59</v>
       </c>
@@ -2687,7 +2934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:4" ht="21">
       <c r="A83" s="6" t="s">
         <v>59</v>
       </c>
@@ -2699,7 +2946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:4" ht="21">
       <c r="A84" s="6" t="s">
         <v>59</v>
       </c>
@@ -2711,7 +2958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:4" ht="21">
       <c r="A85" s="6" t="s">
         <v>59</v>
       </c>
@@ -2723,7 +2970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:4" ht="21">
       <c r="A86" s="6" t="s">
         <v>59</v>
       </c>
@@ -2735,7 +2982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:4" ht="21">
       <c r="A87" s="6" t="s">
         <v>59</v>
       </c>
@@ -2747,7 +2994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:4" ht="21">
       <c r="A88" s="6" t="s">
         <v>59</v>
       </c>
@@ -2759,7 +3006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:4" ht="21">
       <c r="A89" s="6" t="s">
         <v>59</v>
       </c>
@@ -2771,7 +3018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:4" ht="21">
       <c r="A90" s="6" t="s">
         <v>59</v>
       </c>
@@ -2783,7 +3030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:4" ht="21">
       <c r="A91" s="6" t="s">
         <v>59</v>
       </c>
@@ -2795,7 +3042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:4" ht="21">
       <c r="A92" s="6" t="s">
         <v>59</v>
       </c>
@@ -2807,7 +3054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:4" ht="21">
       <c r="A93" s="6" t="s">
         <v>59</v>
       </c>
@@ -2819,7 +3066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:4" ht="21">
       <c r="A94" s="6" t="s">
         <v>59</v>
       </c>
@@ -2831,7 +3078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:4" ht="21">
       <c r="A95" s="6" t="s">
         <v>59</v>
       </c>
@@ -2843,7 +3090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:4" ht="21">
       <c r="A96" s="6" t="s">
         <v>59</v>
       </c>
@@ -2855,7 +3102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:4" ht="21">
       <c r="A97" s="6" t="s">
         <v>59</v>
       </c>
@@ -2867,7 +3114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:4" ht="21">
       <c r="A98" s="6" t="s">
         <v>59</v>
       </c>
@@ -2879,13 +3126,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:4" ht="21">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="8"/>
       <c r="D100" s="5"/>
     </row>
-    <row r="101" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:4" ht="21">
       <c r="A101" s="6" t="s">
         <v>103</v>
       </c>
@@ -2897,7 +3144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:4" ht="21">
       <c r="A102" s="6" t="s">
         <v>103</v>
       </c>
@@ -2909,7 +3156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:4" ht="21">
       <c r="A103" s="6" t="s">
         <v>103</v>
       </c>
@@ -2921,7 +3168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:4" ht="21">
       <c r="A104" s="6" t="s">
         <v>103</v>
       </c>
@@ -2933,7 +3180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:4" ht="21">
       <c r="A105" s="6" t="s">
         <v>103</v>
       </c>
@@ -2945,7 +3192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:4" ht="21">
       <c r="A106" s="6" t="s">
         <v>103</v>
       </c>
@@ -2957,7 +3204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:4" ht="21">
       <c r="A107" s="6" t="s">
         <v>103</v>
       </c>
@@ -2969,7 +3216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:4" ht="21">
       <c r="A108" s="6" t="s">
         <v>103</v>
       </c>
@@ -2981,7 +3228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:4" ht="21">
       <c r="A109" s="6" t="s">
         <v>103</v>
       </c>
@@ -2993,7 +3240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:4" ht="21">
       <c r="A110" s="6" t="s">
         <v>103</v>
       </c>
@@ -3005,7 +3252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:4" ht="21">
       <c r="A111" s="6" t="s">
         <v>103</v>
       </c>
@@ -3017,7 +3264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:4" ht="21">
       <c r="A112" s="6" t="s">
         <v>103</v>
       </c>
@@ -3029,7 +3276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:4" ht="21">
       <c r="A113" s="6" t="s">
         <v>103</v>
       </c>
@@ -3041,7 +3288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:4" ht="21">
       <c r="A114" s="6" t="s">
         <v>103</v>
       </c>
@@ -3053,7 +3300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:4" ht="21">
       <c r="A115" s="6" t="s">
         <v>103</v>
       </c>
@@ -3065,7 +3312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:4" ht="21">
       <c r="A116" s="6" t="s">
         <v>103</v>
       </c>
@@ -3077,7 +3324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:4" ht="21">
       <c r="A117" s="6" t="s">
         <v>103</v>
       </c>
@@ -3089,7 +3336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:4" ht="21">
       <c r="A118" s="6" t="s">
         <v>103</v>
       </c>
@@ -3101,7 +3348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:4" ht="21">
       <c r="A119" s="6" t="s">
         <v>103</v>
       </c>
@@ -3113,7 +3360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:4" ht="21">
       <c r="A120" s="6" t="s">
         <v>103</v>
       </c>
@@ -3125,7 +3372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:4" ht="21">
       <c r="A121" s="6" t="s">
         <v>103</v>
       </c>
@@ -3137,7 +3384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:4" ht="21">
       <c r="A122" s="6" t="s">
         <v>103</v>
       </c>
@@ -3149,7 +3396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:4" ht="21">
       <c r="A123" s="6" t="s">
         <v>103</v>
       </c>
@@ -3161,7 +3408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:4" ht="21">
       <c r="A124" s="6" t="s">
         <v>103</v>
       </c>
@@ -3173,7 +3420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:4" ht="21">
       <c r="A125" s="6" t="s">
         <v>103</v>
       </c>
@@ -3185,7 +3432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:4" ht="21">
       <c r="A126" s="6" t="s">
         <v>103</v>
       </c>
@@ -3197,7 +3444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:4" ht="21">
       <c r="A127" s="6" t="s">
         <v>103</v>
       </c>
@@ -3209,7 +3456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:4" ht="21">
       <c r="A128" s="6" t="s">
         <v>103</v>
       </c>
@@ -3221,7 +3468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:4" ht="21">
       <c r="A129" s="6" t="s">
         <v>103</v>
       </c>
@@ -3233,7 +3480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:4" ht="21">
       <c r="A130" s="6" t="s">
         <v>103</v>
       </c>
@@ -3245,7 +3492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:4" ht="21">
       <c r="A131" s="6" t="s">
         <v>103</v>
       </c>
@@ -3257,7 +3504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:4" ht="21">
       <c r="A132" s="6" t="s">
         <v>103</v>
       </c>
@@ -3269,7 +3516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:4" ht="21">
       <c r="A133" s="6" t="s">
         <v>103</v>
       </c>
@@ -3281,7 +3528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:4" ht="21">
       <c r="A134" s="6" t="s">
         <v>103</v>
       </c>
@@ -3293,7 +3540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:4" ht="21">
       <c r="A135" s="6" t="s">
         <v>103</v>
       </c>
@@ -3305,7 +3552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:4" ht="21">
       <c r="A136" s="6" t="s">
         <v>103</v>
       </c>
@@ -3317,11 +3564,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:4" ht="21">
       <c r="C138" s="8"/>
       <c r="D138" s="5"/>
     </row>
-    <row r="139" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:4" ht="21">
       <c r="A139" s="6" t="s">
         <v>140</v>
       </c>
@@ -3333,7 +3580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:4" ht="21">
       <c r="A140" s="6" t="s">
         <v>140</v>
       </c>
@@ -3345,7 +3592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:4" ht="21">
       <c r="A141" s="6" t="s">
         <v>140</v>
       </c>
@@ -3357,7 +3604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:4" ht="21">
       <c r="A142" s="6" t="s">
         <v>140</v>
       </c>
@@ -3369,7 +3616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:4" ht="21">
       <c r="A143" s="6" t="s">
         <v>140</v>
       </c>
@@ -3381,7 +3628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:4" ht="21">
       <c r="A144" s="6" t="s">
         <v>140</v>
       </c>
@@ -3393,7 +3640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:4" ht="21">
       <c r="A145" s="6" t="s">
         <v>140</v>
       </c>
@@ -3405,7 +3652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:4" ht="21">
       <c r="A146" s="6" t="s">
         <v>140</v>
       </c>
@@ -3417,7 +3664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:4" ht="21">
       <c r="A147" s="6" t="s">
         <v>140</v>
       </c>
@@ -3429,7 +3676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:4" ht="21">
       <c r="A148" s="6" t="s">
         <v>140</v>
       </c>
@@ -3441,7 +3688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:4" ht="21">
       <c r="A149" s="6" t="s">
         <v>140</v>
       </c>
@@ -3453,7 +3700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:4" ht="21">
       <c r="A150" s="6" t="s">
         <v>140</v>
       </c>
@@ -3465,7 +3712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:4" ht="21">
       <c r="A151" s="6" t="s">
         <v>140</v>
       </c>
@@ -3477,7 +3724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:4" ht="21">
       <c r="A152" s="6" t="s">
         <v>140</v>
       </c>
@@ -3489,7 +3736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:4" ht="21">
       <c r="A153" s="6" t="s">
         <v>140</v>
       </c>
@@ -3501,7 +3748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:4" ht="21">
       <c r="A154" s="6" t="s">
         <v>140</v>
       </c>
@@ -3513,7 +3760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:4" ht="21">
       <c r="A155" s="6" t="s">
         <v>140</v>
       </c>
@@ -3525,7 +3772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:4" ht="21">
       <c r="A156" s="6" t="s">
         <v>140</v>
       </c>
@@ -3537,7 +3784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:4" ht="21">
       <c r="A157" s="6" t="s">
         <v>140</v>
       </c>
@@ -3549,7 +3796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:4" ht="21">
       <c r="A158" s="6" t="s">
         <v>140</v>
       </c>
@@ -3561,7 +3808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:4" ht="21">
       <c r="A159" s="6" t="s">
         <v>140</v>
       </c>
@@ -3573,7 +3820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:4" ht="21">
       <c r="A160" s="6" t="s">
         <v>140</v>
       </c>
@@ -3585,7 +3832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:4" ht="21">
       <c r="A161" s="6" t="s">
         <v>140</v>
       </c>
@@ -3597,7 +3844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:4" ht="21">
       <c r="A162" s="6" t="s">
         <v>140</v>
       </c>
@@ -3609,7 +3856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:4" ht="21">
       <c r="A163" s="6" t="s">
         <v>140</v>
       </c>
@@ -3621,7 +3868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:4" ht="21">
       <c r="A164" s="6" t="s">
         <v>140</v>
       </c>
@@ -3633,7 +3880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:4" ht="21">
       <c r="A165" s="6" t="s">
         <v>140</v>
       </c>
@@ -3645,7 +3892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:4" ht="21">
       <c r="A166" s="6" t="s">
         <v>140</v>
       </c>
@@ -3657,7 +3904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:4" ht="21">
       <c r="A167" s="6" t="s">
         <v>140</v>
       </c>
@@ -3669,7 +3916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:4" ht="21">
       <c r="A168" s="6" t="s">
         <v>140</v>
       </c>
@@ -3681,7 +3928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:4" ht="21">
       <c r="A169" s="6" t="s">
         <v>140</v>
       </c>
@@ -3693,7 +3940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:4" ht="21">
       <c r="A170" s="6" t="s">
         <v>140</v>
       </c>
@@ -3705,7 +3952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:4" ht="21">
       <c r="A171" s="6" t="s">
         <v>140</v>
       </c>
@@ -3717,7 +3964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:4" ht="21">
       <c r="A172" s="6" t="s">
         <v>140</v>
       </c>
@@ -3729,7 +3976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:4" ht="21">
       <c r="A173" s="6" t="s">
         <v>140</v>
       </c>
@@ -3741,7 +3988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:4" ht="21">
       <c r="A174" s="6" t="s">
         <v>140</v>
       </c>
@@ -3753,11 +4000,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:4" ht="21">
       <c r="C176" s="8"/>
       <c r="D176" s="5"/>
     </row>
-    <row r="177" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:4" ht="21">
       <c r="A177" s="6" t="s">
         <v>177</v>
       </c>
@@ -3769,7 +4016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:4" ht="21">
       <c r="A178" s="6" t="s">
         <v>177</v>
       </c>
@@ -3781,7 +4028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:4" ht="21">
       <c r="A179" s="6" t="s">
         <v>177</v>
       </c>
@@ -3793,7 +4040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:4" ht="21">
       <c r="A180" s="6" t="s">
         <v>177</v>
       </c>
@@ -3805,7 +4052,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:4" ht="21">
       <c r="A181" s="6" t="s">
         <v>177</v>
       </c>
@@ -3817,7 +4064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:4" ht="21">
       <c r="A182" s="6" t="s">
         <v>177</v>
       </c>
@@ -3829,7 +4076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:4" ht="21">
       <c r="A183" s="6" t="s">
         <v>177</v>
       </c>
@@ -3841,7 +4088,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:4" ht="21">
       <c r="A184" s="6" t="s">
         <v>177</v>
       </c>
@@ -3853,7 +4100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:4" ht="21">
       <c r="A185" s="6" t="s">
         <v>177</v>
       </c>
@@ -3865,7 +4112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:4" ht="21">
       <c r="A186" s="6" t="s">
         <v>177</v>
       </c>
@@ -3877,7 +4124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:4" ht="21">
       <c r="A187" s="6" t="s">
         <v>177</v>
       </c>
@@ -3889,7 +4136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:4" ht="21">
       <c r="A188" s="6" t="s">
         <v>177</v>
       </c>
@@ -3901,7 +4148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:4" ht="21">
       <c r="A189" s="6" t="s">
         <v>177</v>
       </c>
@@ -3913,7 +4160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:4" ht="21">
       <c r="A190" s="6" t="s">
         <v>177</v>
       </c>
@@ -3925,7 +4172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:4" ht="21">
       <c r="A191" s="6" t="s">
         <v>177</v>
       </c>
@@ -3937,7 +4184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:4" ht="21">
       <c r="A192" s="6" t="s">
         <v>177</v>
       </c>
@@ -3949,7 +4196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:4" ht="21">
       <c r="A193" s="6" t="s">
         <v>177</v>
       </c>
@@ -3961,7 +4208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:4" ht="21">
       <c r="A194" s="6" t="s">
         <v>177</v>
       </c>
@@ -3973,7 +4220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:4" ht="21">
       <c r="A195" s="6" t="s">
         <v>177</v>
       </c>
@@ -3985,7 +4232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:4" ht="21">
       <c r="A196" s="6" t="s">
         <v>177</v>
       </c>
@@ -3997,7 +4244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:4" ht="21">
       <c r="A197" s="6" t="s">
         <v>177</v>
       </c>
@@ -4009,7 +4256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:4" ht="21">
       <c r="A198" s="6" t="s">
         <v>177</v>
       </c>
@@ -4021,7 +4268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:4" ht="21">
       <c r="A199" s="6" t="s">
         <v>177</v>
       </c>
@@ -4033,7 +4280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:4" ht="21">
       <c r="A200" s="6" t="s">
         <v>177</v>
       </c>
@@ -4045,7 +4292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:4" ht="21">
       <c r="A201" s="6" t="s">
         <v>177</v>
       </c>
@@ -4057,7 +4304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:4" ht="21">
       <c r="A202" s="6" t="s">
         <v>177</v>
       </c>
@@ -4069,7 +4316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:4" ht="21">
       <c r="A203" s="6" t="s">
         <v>177</v>
       </c>
@@ -4081,7 +4328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:4" ht="21">
       <c r="A204" s="6" t="s">
         <v>177</v>
       </c>
@@ -4093,7 +4340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:4" ht="21">
       <c r="A205" s="6" t="s">
         <v>177</v>
       </c>
@@ -4105,7 +4352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:4" ht="21">
       <c r="A206" s="6" t="s">
         <v>177</v>
       </c>
@@ -4117,7 +4364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:4" ht="21">
       <c r="A207" s="6" t="s">
         <v>177</v>
       </c>
@@ -4129,7 +4376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:4" ht="21">
       <c r="A208" s="6" t="s">
         <v>177</v>
       </c>
@@ -4141,7 +4388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:4" ht="21">
       <c r="A209" s="6" t="s">
         <v>177</v>
       </c>
@@ -4153,7 +4400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:4" ht="21">
       <c r="A210" s="6" t="s">
         <v>177</v>
       </c>
@@ -4165,7 +4412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:4" ht="21">
       <c r="A211" s="6" t="s">
         <v>177</v>
       </c>
@@ -4177,19 +4424,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:4" ht="21">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="8"/>
       <c r="D212" s="5"/>
     </row>
-    <row r="213" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:4" ht="21">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="8"/>
       <c r="D213" s="5"/>
     </row>
-    <row r="214" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:4" ht="21">
       <c r="A214" s="6" t="s">
         <v>214</v>
       </c>
@@ -4201,7 +4448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:4" ht="21">
       <c r="A215" s="6" t="s">
         <v>214</v>
       </c>
@@ -4213,7 +4460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:4" ht="21">
       <c r="A216" s="6" t="s">
         <v>214</v>
       </c>
@@ -4225,7 +4472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:4" ht="21">
       <c r="A217" s="6" t="s">
         <v>214</v>
       </c>
@@ -4237,7 +4484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:4" ht="21">
       <c r="A218" s="6" t="s">
         <v>214</v>
       </c>
@@ -4249,7 +4496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:4" ht="21">
       <c r="A219" s="6" t="s">
         <v>214</v>
       </c>
@@ -4261,7 +4508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:4" ht="21">
       <c r="A220" s="6" t="s">
         <v>214</v>
       </c>
@@ -4273,7 +4520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:4" ht="21">
       <c r="A221" s="6" t="s">
         <v>214</v>
       </c>
@@ -4285,7 +4532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:4" ht="21">
       <c r="A222" s="6" t="s">
         <v>214</v>
       </c>
@@ -4297,7 +4544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:4" ht="21">
       <c r="A223" s="6" t="s">
         <v>214</v>
       </c>
@@ -4309,7 +4556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:4" ht="21">
       <c r="A224" s="6" t="s">
         <v>214</v>
       </c>
@@ -4321,7 +4568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:4" ht="21">
       <c r="A225" s="6" t="s">
         <v>214</v>
       </c>
@@ -4333,7 +4580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:4" ht="21">
       <c r="A226" s="6" t="s">
         <v>214</v>
       </c>
@@ -4345,7 +4592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:4" ht="21">
       <c r="A227" s="6" t="s">
         <v>214</v>
       </c>
@@ -4357,7 +4604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:4" ht="21">
       <c r="A228" s="6" t="s">
         <v>214</v>
       </c>
@@ -4369,7 +4616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:4" ht="21">
       <c r="A229" s="6" t="s">
         <v>214</v>
       </c>
@@ -4381,7 +4628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:4" ht="21">
       <c r="A230" s="6" t="s">
         <v>214</v>
       </c>
@@ -4393,7 +4640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:4" ht="21">
       <c r="A231" s="6" t="s">
         <v>214</v>
       </c>
@@ -4405,7 +4652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:4" ht="21">
       <c r="A232" s="6" t="s">
         <v>214</v>
       </c>
@@ -4417,7 +4664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:4" ht="21">
       <c r="A233" s="6" t="s">
         <v>214</v>
       </c>
@@ -4429,7 +4676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:4" ht="21">
       <c r="A234" s="6" t="s">
         <v>214</v>
       </c>
@@ -4441,7 +4688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:4" ht="21">
       <c r="A235" s="6" t="s">
         <v>214</v>
       </c>
@@ -4453,15 +4700,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:4" ht="21">
       <c r="C236" s="8"/>
       <c r="D236" s="5"/>
     </row>
-    <row r="237" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:4" ht="21">
       <c r="C237" s="8"/>
       <c r="D237" s="5"/>
     </row>
-    <row r="238" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:4" ht="21">
       <c r="A238" s="6" t="s">
         <v>237</v>
       </c>
@@ -4473,7 +4720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:4" ht="21">
       <c r="A239" s="6" t="s">
         <v>237</v>
       </c>
@@ -4485,7 +4732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:4" ht="21">
       <c r="A240" s="6" t="s">
         <v>237</v>
       </c>
@@ -4497,7 +4744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:4" ht="21">
       <c r="A241" s="6" t="s">
         <v>237</v>
       </c>
@@ -4509,7 +4756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:4" ht="21">
       <c r="A242" s="6" t="s">
         <v>237</v>
       </c>
@@ -4521,7 +4768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:4" ht="21">
       <c r="A243" s="6" t="s">
         <v>237</v>
       </c>
@@ -4533,7 +4780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:4" ht="21">
       <c r="A244" s="6" t="s">
         <v>237</v>
       </c>
@@ -4545,7 +4792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:4" ht="21">
       <c r="A245" s="6" t="s">
         <v>237</v>
       </c>
@@ -4557,7 +4804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:4" ht="21">
       <c r="A246" s="6" t="s">
         <v>237</v>
       </c>
@@ -4569,7 +4816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:4" ht="21">
       <c r="A247" s="6" t="s">
         <v>237</v>
       </c>
@@ -4581,7 +4828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:4" ht="21">
       <c r="A248" s="6" t="s">
         <v>237</v>
       </c>
@@ -4593,7 +4840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:4" ht="21">
       <c r="A249" s="6" t="s">
         <v>237</v>
       </c>
@@ -4605,7 +4852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:4" ht="21">
       <c r="A250" s="6" t="s">
         <v>237</v>
       </c>
@@ -4617,7 +4864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:4" ht="21">
       <c r="A251" s="6" t="s">
         <v>237</v>
       </c>
@@ -4629,7 +4876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:4" ht="21">
       <c r="A252" s="6" t="s">
         <v>237</v>
       </c>
@@ -4641,7 +4888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:4" ht="21">
       <c r="A253" s="6" t="s">
         <v>237</v>
       </c>
@@ -4653,7 +4900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:4" ht="21">
       <c r="A254" s="6" t="s">
         <v>237</v>
       </c>
@@ -4665,7 +4912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:4" ht="21">
       <c r="A255" s="6" t="s">
         <v>237</v>
       </c>
@@ -4677,7 +4924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:4" ht="21">
       <c r="A256" s="6" t="s">
         <v>237</v>
       </c>
@@ -4689,7 +4936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:4" ht="21">
       <c r="A257" s="6" t="s">
         <v>237</v>
       </c>
@@ -4701,7 +4948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:4" ht="21">
       <c r="A258" s="6" t="s">
         <v>237</v>
       </c>
@@ -4713,7 +4960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:4" ht="21">
       <c r="A259" s="6" t="s">
         <v>237</v>
       </c>
@@ -4725,7 +4972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:4" ht="21">
       <c r="A260" s="6" t="s">
         <v>237</v>
       </c>
@@ -4737,7 +4984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:4" ht="21">
       <c r="A261" s="6" t="s">
         <v>237</v>
       </c>
@@ -4749,7 +4996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:4" ht="21">
       <c r="A262" s="6" t="s">
         <v>237</v>
       </c>
@@ -4761,7 +5008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:4" ht="21">
       <c r="A263" s="6" t="s">
         <v>237</v>
       </c>
@@ -4773,7 +5020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:4" ht="21">
       <c r="A264" s="6" t="s">
         <v>237</v>
       </c>
@@ -4785,7 +5032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:4" ht="21">
       <c r="A265" s="6" t="s">
         <v>237</v>
       </c>
@@ -4797,7 +5044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:4" ht="21">
       <c r="A266" s="6" t="s">
         <v>237</v>
       </c>
@@ -4809,7 +5056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:4" ht="21">
       <c r="A267" s="6" t="s">
         <v>237</v>
       </c>
@@ -4821,7 +5068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:4" ht="21">
       <c r="A268" s="6" t="s">
         <v>237</v>
       </c>
@@ -4833,7 +5080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:4" ht="21">
       <c r="A269" s="6" t="s">
         <v>237</v>
       </c>
@@ -4845,7 +5092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:4" ht="21">
       <c r="A270" s="6" t="s">
         <v>237</v>
       </c>
@@ -4857,7 +5104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:4" ht="21">
       <c r="A271" s="6" t="s">
         <v>237</v>
       </c>
@@ -4869,7 +5116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:4" ht="21">
       <c r="A272" s="6" t="s">
         <v>237</v>
       </c>
@@ -4881,15 +5128,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:4" ht="21">
       <c r="C273" s="8"/>
       <c r="D273" s="5"/>
     </row>
-    <row r="274" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:4" ht="21">
       <c r="C274" s="8"/>
       <c r="D274" s="5"/>
     </row>
-    <row r="275" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:4" ht="21">
       <c r="A275" s="6" t="s">
         <v>272</v>
       </c>
@@ -4901,7 +5148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:4" ht="21">
       <c r="A276" s="6" t="s">
         <v>272</v>
       </c>
@@ -4913,7 +5160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:4" ht="21">
       <c r="A277" s="6" t="s">
         <v>272</v>
       </c>
@@ -4925,7 +5172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:4" ht="21">
       <c r="A278" s="6" t="s">
         <v>272</v>
       </c>
@@ -4937,7 +5184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:4" ht="21">
       <c r="A279" s="6" t="s">
         <v>272</v>
       </c>
@@ -4949,7 +5196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:4" ht="21">
       <c r="A280" s="6" t="s">
         <v>272</v>
       </c>
@@ -4961,7 +5208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:4" ht="21">
       <c r="A281" s="6" t="s">
         <v>272</v>
       </c>
@@ -4973,7 +5220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:4" ht="21">
       <c r="A282" s="6" t="s">
         <v>272</v>
       </c>
@@ -4985,7 +5232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:4" ht="21">
       <c r="A283" s="6" t="s">
         <v>272</v>
       </c>
@@ -4997,7 +5244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:4" ht="21">
       <c r="A284" s="6" t="s">
         <v>272</v>
       </c>
@@ -5009,7 +5256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:4" ht="21">
       <c r="A285" s="6" t="s">
         <v>272</v>
       </c>
@@ -5021,7 +5268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:4" ht="21">
       <c r="A286" s="6" t="s">
         <v>272</v>
       </c>
@@ -5033,7 +5280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:4" ht="21">
       <c r="A287" s="6" t="s">
         <v>272</v>
       </c>
@@ -5045,7 +5292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:4" ht="21">
       <c r="A288" s="6" t="s">
         <v>272</v>
       </c>
@@ -5057,7 +5304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:4" ht="21">
       <c r="A289" s="6" t="s">
         <v>272</v>
       </c>
@@ -5069,7 +5316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:4" ht="21">
       <c r="A290" s="6" t="s">
         <v>272</v>
       </c>
@@ -5081,7 +5328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:4" ht="21">
       <c r="A291" s="6" t="s">
         <v>272</v>
       </c>
@@ -5093,7 +5340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:4" ht="21">
       <c r="A292" s="6" t="s">
         <v>272</v>
       </c>
@@ -5105,7 +5352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" spans="1:4" ht="21">
       <c r="A293" s="6" t="s">
         <v>272</v>
       </c>
@@ -5117,15 +5364,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:4" ht="21">
       <c r="C294" s="8"/>
       <c r="D294" s="5"/>
     </row>
-    <row r="295" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:4" ht="21">
       <c r="C295" s="8"/>
       <c r="D295" s="5"/>
     </row>
-    <row r="296" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" spans="1:4" ht="21">
       <c r="A296" s="6" t="s">
         <v>292</v>
       </c>
@@ -5137,7 +5384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" spans="1:4" ht="21">
       <c r="A297" s="6" t="s">
         <v>292</v>
       </c>
@@ -5149,7 +5396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" spans="1:4" ht="21">
       <c r="A298" s="6" t="s">
         <v>292</v>
       </c>
@@ -5161,7 +5408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" spans="1:4" ht="21">
       <c r="A299" s="6" t="s">
         <v>292</v>
       </c>
@@ -5173,7 +5420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" spans="1:4" ht="21">
       <c r="A300" s="6" t="s">
         <v>292</v>
       </c>
@@ -5185,7 +5432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" spans="1:4" ht="21">
       <c r="A301" s="6" t="s">
         <v>292</v>
       </c>
@@ -5197,7 +5444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" spans="1:4" ht="21">
       <c r="A302" s="6" t="s">
         <v>292</v>
       </c>
@@ -5209,7 +5456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" spans="1:4" ht="21">
       <c r="A303" s="6" t="s">
         <v>292</v>
       </c>
@@ -5221,7 +5468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" spans="1:4" ht="21">
       <c r="A304" s="6" t="s">
         <v>292</v>
       </c>
@@ -5233,7 +5480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" spans="1:4" ht="21">
       <c r="A305" s="6" t="s">
         <v>292</v>
       </c>
@@ -5245,7 +5492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" spans="1:4" ht="21">
       <c r="A306" s="6" t="s">
         <v>292</v>
       </c>
@@ -5257,7 +5504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" spans="1:4" ht="21">
       <c r="A307" s="6" t="s">
         <v>292</v>
       </c>
@@ -5269,7 +5516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" spans="1:4" ht="21">
       <c r="A308" s="6" t="s">
         <v>292</v>
       </c>
@@ -5281,7 +5528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" spans="1:4" ht="21">
       <c r="A309" s="6" t="s">
         <v>292</v>
       </c>
@@ -5293,7 +5540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" spans="1:4" ht="21">
       <c r="A310" s="6" t="s">
         <v>292</v>
       </c>
@@ -5305,7 +5552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" spans="1:4" ht="21">
       <c r="A311" s="6" t="s">
         <v>292</v>
       </c>
@@ -5317,7 +5564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" spans="1:4" ht="21">
       <c r="A312" s="6" t="s">
         <v>292</v>
       </c>
@@ -5329,7 +5576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" spans="1:4" ht="21">
       <c r="A313" s="6" t="s">
         <v>292</v>
       </c>
@@ -5341,7 +5588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" spans="1:4" ht="21">
       <c r="A314" s="6" t="s">
         <v>292</v>
       </c>
@@ -5353,7 +5600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" spans="1:4" ht="21">
       <c r="A315" s="6" t="s">
         <v>292</v>
       </c>
@@ -5365,7 +5612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" spans="1:4" ht="21">
       <c r="A316" s="6" t="s">
         <v>292</v>
       </c>
@@ -5377,7 +5624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" spans="1:4" ht="21">
       <c r="A317" s="6" t="s">
         <v>292</v>
       </c>
@@ -5389,7 +5636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" spans="1:4" ht="21">
       <c r="A318" s="6" t="s">
         <v>292</v>
       </c>
@@ -5401,7 +5648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" spans="1:4" ht="21">
       <c r="A319" s="6" t="s">
         <v>292</v>
       </c>
@@ -5413,7 +5660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" spans="1:4" ht="21">
       <c r="A320" s="6" t="s">
         <v>292</v>
       </c>
@@ -5425,7 +5672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" spans="1:4" ht="21">
       <c r="A321" s="6" t="s">
         <v>292</v>
       </c>
@@ -5437,7 +5684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" spans="1:4" ht="21">
       <c r="A322" s="6" t="s">
         <v>292</v>
       </c>
@@ -5449,7 +5696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" spans="1:4" ht="21">
       <c r="A323" s="6" t="s">
         <v>292</v>
       </c>
@@ -5461,7 +5708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" spans="1:4" ht="21">
       <c r="A324" s="6" t="s">
         <v>292</v>
       </c>
@@ -5473,7 +5720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" spans="1:4" ht="21">
       <c r="A325" s="6" t="s">
         <v>292</v>
       </c>
@@ -5485,7 +5732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" spans="1:4" ht="21">
       <c r="A326" s="6" t="s">
         <v>292</v>
       </c>
@@ -5497,7 +5744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" spans="1:4" ht="21">
       <c r="A327" s="6" t="s">
         <v>292</v>
       </c>
@@ -5509,7 +5756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" spans="1:4" ht="21">
       <c r="A328" s="6" t="s">
         <v>292</v>
       </c>
@@ -5521,7 +5768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" spans="1:4" ht="21">
       <c r="A329" s="6" t="s">
         <v>292</v>
       </c>
@@ -5533,7 +5780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" spans="1:4" ht="21">
       <c r="A330" s="6" t="s">
         <v>292</v>
       </c>
@@ -5545,7 +5792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" spans="1:4" ht="21">
       <c r="A331" s="6" t="s">
         <v>292</v>
       </c>
@@ -5557,7 +5804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" spans="1:4" ht="21">
       <c r="A332" s="6" t="s">
         <v>292</v>
       </c>
@@ -5569,7 +5816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" spans="1:4" ht="21">
       <c r="A333" s="6" t="s">
         <v>292</v>
       </c>
@@ -5581,15 +5828,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" spans="1:4" ht="21">
       <c r="C334" s="8"/>
       <c r="D334" s="5"/>
     </row>
-    <row r="335" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" spans="1:4" ht="21">
       <c r="C335" s="8"/>
       <c r="D335" s="5"/>
     </row>
-    <row r="336" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" spans="1:4" ht="21">
       <c r="A336" s="6" t="s">
         <v>331</v>
       </c>
@@ -5601,7 +5848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" spans="1:4" ht="21">
       <c r="A337" s="6" t="s">
         <v>331</v>
       </c>
@@ -5613,7 +5860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" spans="1:4" ht="21">
       <c r="A338" s="6" t="s">
         <v>331</v>
       </c>
@@ -5625,7 +5872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" spans="1:4" ht="21">
       <c r="A339" s="6" t="s">
         <v>331</v>
       </c>
@@ -5637,7 +5884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" spans="1:4" ht="21">
       <c r="A340" s="6" t="s">
         <v>331</v>
       </c>
@@ -5649,7 +5896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" spans="1:4" ht="21">
       <c r="A341" s="6" t="s">
         <v>331</v>
       </c>
@@ -5661,7 +5908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" spans="1:4" ht="21">
       <c r="A342" s="6" t="s">
         <v>331</v>
       </c>
@@ -5673,7 +5920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" spans="1:4" ht="21">
       <c r="A343" s="6" t="s">
         <v>331</v>
       </c>
@@ -5685,7 +5932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" spans="1:4" ht="21">
       <c r="A344" s="6" t="s">
         <v>331</v>
       </c>
@@ -5697,7 +5944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" spans="1:4" ht="21">
       <c r="A345" s="6" t="s">
         <v>331</v>
       </c>
@@ -5709,7 +5956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" spans="1:4" ht="21">
       <c r="A346" s="6" t="s">
         <v>331</v>
       </c>
@@ -5721,7 +5968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" spans="1:4" ht="21">
       <c r="A347" s="6" t="s">
         <v>331</v>
       </c>
@@ -5733,7 +5980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" spans="1:4" ht="21">
       <c r="A348" s="6" t="s">
         <v>331</v>
       </c>
@@ -5745,7 +5992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" spans="1:4" ht="21">
       <c r="A349" s="6" t="s">
         <v>331</v>
       </c>
@@ -5757,7 +6004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" spans="1:4" ht="21">
       <c r="A350" s="6" t="s">
         <v>331</v>
       </c>
@@ -5769,7 +6016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" spans="1:4" ht="21">
       <c r="A351" s="6" t="s">
         <v>331</v>
       </c>
@@ -5781,7 +6028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" spans="1:4" ht="21">
       <c r="A352" s="6" t="s">
         <v>331</v>
       </c>
@@ -5793,7 +6040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" spans="1:4" ht="21">
       <c r="A353" s="6" t="s">
         <v>331</v>
       </c>
@@ -5805,15 +6052,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" spans="1:4" ht="21">
       <c r="C354" s="8"/>
       <c r="D354" s="5"/>
     </row>
-    <row r="355" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" spans="1:4" ht="21">
       <c r="C355" s="8"/>
       <c r="D355" s="5"/>
     </row>
-    <row r="356" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" spans="1:4" ht="21">
       <c r="A356" s="6" t="s">
         <v>350</v>
       </c>
@@ -5825,7 +6072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" spans="1:4" ht="21">
       <c r="A357" s="6" t="s">
         <v>350</v>
       </c>
@@ -5837,7 +6084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" spans="1:4" ht="21">
       <c r="A358" s="6" t="s">
         <v>350</v>
       </c>
@@ -5849,7 +6096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" spans="1:4" ht="21">
       <c r="A359" s="6" t="s">
         <v>350</v>
       </c>
@@ -5861,7 +6108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" spans="1:4" ht="21">
       <c r="A360" s="6" t="s">
         <v>350</v>
       </c>
@@ -5873,7 +6120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" spans="1:4" ht="21">
       <c r="A361" s="6" t="s">
         <v>350</v>
       </c>
@@ -5885,7 +6132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" spans="1:4" ht="21">
       <c r="A362" s="6" t="s">
         <v>350</v>
       </c>
@@ -5897,7 +6144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" spans="1:4" ht="21">
       <c r="A363" s="6" t="s">
         <v>350</v>
       </c>
@@ -5909,7 +6156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" spans="1:4" ht="21">
       <c r="A364" s="6" t="s">
         <v>350</v>
       </c>
@@ -5921,7 +6168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" spans="1:4" ht="21">
       <c r="A365" s="6" t="s">
         <v>350</v>
       </c>
@@ -5933,7 +6180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" spans="1:4" ht="21">
       <c r="A366" s="6" t="s">
         <v>350</v>
       </c>
@@ -5945,7 +6192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" spans="1:4" ht="21">
       <c r="A367" s="6" t="s">
         <v>350</v>
       </c>
@@ -5957,7 +6204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" spans="1:4" ht="21">
       <c r="A368" s="6" t="s">
         <v>350</v>
       </c>
@@ -5969,7 +6216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" spans="1:4" ht="21">
       <c r="A369" s="6" t="s">
         <v>350</v>
       </c>
@@ -5981,7 +6228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" spans="1:4" ht="21">
       <c r="A370" s="6" t="s">
         <v>350</v>
       </c>
@@ -5993,7 +6240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" spans="1:4" ht="21">
       <c r="A371" s="6" t="s">
         <v>350</v>
       </c>
@@ -6005,7 +6252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" spans="1:4" ht="21">
       <c r="A372" s="6" t="s">
         <v>350</v>
       </c>
@@ -6017,7 +6264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" spans="1:4" ht="21">
       <c r="A373" s="6" t="s">
         <v>350</v>
       </c>
@@ -6029,7 +6276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" spans="1:4" ht="21">
       <c r="A374" s="6" t="s">
         <v>350</v>
       </c>
@@ -6041,7 +6288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" spans="1:4" ht="21">
       <c r="A375" s="6" t="s">
         <v>350</v>
       </c>
@@ -6053,7 +6300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" spans="1:4" ht="21">
       <c r="A376" s="6" t="s">
         <v>350</v>
       </c>
@@ -6065,7 +6312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" spans="1:4" ht="21">
       <c r="A377" s="6" t="s">
         <v>350</v>
       </c>
@@ -6077,7 +6324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" spans="1:4" ht="21">
       <c r="A378" s="6" t="s">
         <v>350</v>
       </c>
@@ -6089,7 +6336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" spans="1:4" ht="21">
       <c r="A379" s="6" t="s">
         <v>350</v>
       </c>
@@ -6101,7 +6348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" spans="1:4" ht="21">
       <c r="A380" s="6" t="s">
         <v>350</v>
       </c>
@@ -6113,7 +6360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" spans="1:4" ht="21">
       <c r="A381" s="6" t="s">
         <v>350</v>
       </c>
@@ -6125,7 +6372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" spans="1:4" ht="21">
       <c r="A382" s="6" t="s">
         <v>350</v>
       </c>
@@ -6137,7 +6384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" spans="1:4" ht="21">
       <c r="A383" s="6" t="s">
         <v>350</v>
       </c>
@@ -6149,7 +6396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" spans="1:4" ht="21">
       <c r="A384" s="6" t="s">
         <v>350</v>
       </c>
@@ -6161,7 +6408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" spans="1:4" ht="21">
       <c r="A385" s="6" t="s">
         <v>350</v>
       </c>
@@ -6173,7 +6420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" spans="1:4" ht="21">
       <c r="A386" s="6" t="s">
         <v>350</v>
       </c>
@@ -6185,7 +6432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" spans="1:4" ht="21">
       <c r="A387" s="6" t="s">
         <v>350</v>
       </c>
@@ -6197,7 +6444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" spans="1:4" ht="21">
       <c r="A388" s="6" t="s">
         <v>350</v>
       </c>
@@ -6209,7 +6456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" spans="1:4" ht="21">
       <c r="A389" s="6" t="s">
         <v>350</v>
       </c>
@@ -6221,7 +6468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" spans="1:4" ht="21">
       <c r="A390" s="6" t="s">
         <v>350</v>
       </c>
@@ -6233,7 +6480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" spans="1:4" ht="21">
       <c r="A391" s="6" t="s">
         <v>350</v>
       </c>
@@ -6245,7 +6492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" spans="1:4" ht="21">
       <c r="A392" s="6" t="s">
         <v>350</v>
       </c>
@@ -6257,7 +6504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" spans="1:4" ht="21">
       <c r="A393" s="6" t="s">
         <v>350</v>
       </c>
@@ -6269,7 +6516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" spans="1:4" ht="21">
       <c r="A394" s="6" t="s">
         <v>350</v>
       </c>
@@ -6281,7 +6528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" spans="1:4" ht="21">
       <c r="A395" s="6" t="s">
         <v>350</v>
       </c>
@@ -6293,7 +6540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" spans="1:4" ht="21">
       <c r="A396" s="6" t="s">
         <v>350</v>
       </c>
@@ -6305,7 +6552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" spans="1:4" ht="21">
       <c r="A397" s="6" t="s">
         <v>350</v>
       </c>
@@ -6317,7 +6564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" spans="1:4" ht="21">
       <c r="A398" s="6" t="s">
         <v>350</v>
       </c>
@@ -6329,7 +6576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" spans="1:4" ht="21">
       <c r="A399" s="6" t="s">
         <v>350</v>
       </c>
@@ -6341,15 +6588,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" spans="1:4" ht="21">
       <c r="C400" s="8"/>
       <c r="D400" s="5"/>
     </row>
-    <row r="401" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" spans="1:4" ht="21">
       <c r="C401" s="8"/>
       <c r="D401" s="5"/>
     </row>
-    <row r="402" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" spans="1:4" ht="21">
       <c r="A402" s="6" t="s">
         <v>394</v>
       </c>
@@ -6361,7 +6608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" spans="1:4" ht="21">
       <c r="A403" s="6" t="s">
         <v>394</v>
       </c>
@@ -6373,7 +6620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" spans="1:4" ht="21">
       <c r="A404" s="6" t="s">
         <v>394</v>
       </c>
@@ -6385,7 +6632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" spans="1:4" ht="21">
       <c r="A405" s="6" t="s">
         <v>394</v>
       </c>
@@ -6397,7 +6644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" spans="1:4" ht="21">
       <c r="A406" s="6" t="s">
         <v>394</v>
       </c>
@@ -6409,7 +6656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" spans="1:4" ht="21">
       <c r="A407" s="6" t="s">
         <v>394</v>
       </c>
@@ -6421,15 +6668,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" spans="1:4" ht="21">
       <c r="C408" s="8"/>
       <c r="D408" s="5"/>
     </row>
-    <row r="409" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" spans="1:4" ht="21">
       <c r="C409" s="8"/>
       <c r="D409" s="5"/>
     </row>
-    <row r="410" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" spans="1:4" ht="21">
       <c r="A410" s="6" t="s">
         <v>400</v>
       </c>
@@ -6441,7 +6688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" spans="1:4" ht="21">
       <c r="A411" s="6" t="s">
         <v>400</v>
       </c>
@@ -6453,7 +6700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" spans="1:4" ht="21">
       <c r="A412" s="6" t="s">
         <v>400</v>
       </c>
@@ -6465,7 +6712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" spans="1:4" ht="21">
       <c r="A413" s="6" t="s">
         <v>400</v>
       </c>
@@ -6477,7 +6724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" spans="1:4" ht="21">
       <c r="A414" s="6" t="s">
         <v>400</v>
       </c>
@@ -6489,7 +6736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" spans="1:4" ht="21">
       <c r="A415" s="6" t="s">
         <v>400</v>
       </c>
@@ -6501,7 +6748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" spans="1:4" ht="21">
       <c r="A416" s="6" t="s">
         <v>400</v>
       </c>
@@ -6513,7 +6760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" spans="1:4" ht="21">
       <c r="A417" s="6" t="s">
         <v>400</v>
       </c>
@@ -6525,7 +6772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" spans="1:4" ht="21">
       <c r="A418" s="6" t="s">
         <v>400</v>
       </c>
@@ -6537,7 +6784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" spans="1:4" ht="21">
       <c r="A419" s="6" t="s">
         <v>400</v>
       </c>
@@ -6549,7 +6796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" spans="1:4" ht="21">
       <c r="A420" s="6" t="s">
         <v>400</v>
       </c>
@@ -6561,7 +6808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" spans="1:4" ht="21">
       <c r="A421" s="6" t="s">
         <v>400</v>
       </c>
@@ -6573,7 +6820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" spans="1:4" ht="21">
       <c r="A422" s="6" t="s">
         <v>400</v>
       </c>
@@ -6585,7 +6832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" spans="1:4" ht="21">
       <c r="A423" s="6" t="s">
         <v>400</v>
       </c>
@@ -6597,7 +6844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" spans="1:4" ht="21">
       <c r="A424" s="6" t="s">
         <v>400</v>
       </c>
@@ -6609,7 +6856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" spans="1:4" ht="21">
       <c r="A425" s="6" t="s">
         <v>400</v>
       </c>
@@ -6621,7 +6868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" spans="1:4" ht="21">
       <c r="A426" s="6" t="s">
         <v>400</v>
       </c>
@@ -6633,7 +6880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" spans="1:4" ht="21">
       <c r="A427" s="6" t="s">
         <v>400</v>
       </c>
@@ -6645,7 +6892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" spans="1:4" ht="21">
       <c r="A428" s="6" t="s">
         <v>400</v>
       </c>
@@ -6657,7 +6904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" spans="1:4" ht="21">
       <c r="A429" s="6" t="s">
         <v>400</v>
       </c>
@@ -6669,7 +6916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" spans="1:4" ht="21">
       <c r="A430" s="6" t="s">
         <v>400</v>
       </c>
@@ -6681,7 +6928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" spans="1:4" ht="21">
       <c r="A431" s="6" t="s">
         <v>400</v>
       </c>
@@ -6693,7 +6940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" spans="1:4" ht="21">
       <c r="A432" s="6" t="s">
         <v>400</v>
       </c>
@@ -6705,7 +6952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" spans="1:4" ht="21">
       <c r="A433" s="6" t="s">
         <v>400</v>
       </c>
@@ -6717,7 +6964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" spans="1:4" ht="21">
       <c r="A434" s="6" t="s">
         <v>400</v>
       </c>
@@ -6729,7 +6976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" spans="1:4" ht="21">
       <c r="A435" s="6" t="s">
         <v>400</v>
       </c>
@@ -6741,7 +6988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" spans="1:4" ht="21">
       <c r="A436" s="6" t="s">
         <v>400</v>
       </c>
@@ -6753,7 +7000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" spans="1:4" ht="21">
       <c r="A437" s="6" t="s">
         <v>400</v>
       </c>
@@ -6765,7 +7012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" spans="1:4" ht="21">
       <c r="A438" s="6" t="s">
         <v>400</v>
       </c>
@@ -6777,7 +7024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" spans="1:4" ht="21">
       <c r="A439" s="6" t="s">
         <v>400</v>
       </c>
@@ -6789,7 +7036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" spans="1:4" ht="21">
       <c r="A440" s="6" t="s">
         <v>400</v>
       </c>
@@ -6801,7 +7048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" spans="1:4" ht="21">
       <c r="A441" s="6" t="s">
         <v>400</v>
       </c>
@@ -6813,7 +7060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" spans="1:4" ht="21">
       <c r="A442" s="6" t="s">
         <v>400</v>
       </c>
@@ -6825,7 +7072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" spans="1:4" ht="21">
       <c r="A443" s="6" t="s">
         <v>400</v>
       </c>
@@ -6837,7 +7084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" spans="1:4" ht="21">
       <c r="A444" s="6" t="s">
         <v>400</v>
       </c>
@@ -6849,7 +7096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" spans="1:4" ht="21">
       <c r="A445" s="6" t="s">
         <v>400</v>
       </c>
@@ -6861,7 +7108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" spans="1:4" ht="21">
       <c r="A446" s="6" t="s">
         <v>400</v>
       </c>
@@ -6873,7 +7120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" spans="1:4" ht="21">
       <c r="A447" s="6" t="s">
         <v>400</v>
       </c>
@@ -6885,7 +7132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" spans="1:4" ht="21">
       <c r="A448" s="6" t="s">
         <v>400</v>
       </c>
@@ -6897,7 +7144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" spans="1:4" ht="21">
       <c r="A449" s="6" t="s">
         <v>400</v>
       </c>
@@ -6909,7 +7156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" spans="1:4" ht="21">
       <c r="A450" s="6" t="s">
         <v>400</v>
       </c>
@@ -6921,7 +7168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" spans="1:4" ht="21">
       <c r="A451" s="6" t="s">
         <v>400</v>
       </c>
@@ -6933,7 +7180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" spans="1:4" ht="21">
       <c r="A452" s="6" t="s">
         <v>400</v>
       </c>
@@ -6945,7 +7192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" spans="1:4" ht="21">
       <c r="A453" s="6" t="s">
         <v>400</v>
       </c>
@@ -6957,7 +7204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" spans="1:4" ht="21">
       <c r="A454" s="6" t="s">
         <v>400</v>
       </c>
@@ -6969,7 +7216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" spans="1:4" ht="21">
       <c r="A455" s="6" t="s">
         <v>400</v>
       </c>
@@ -6981,7 +7228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" spans="1:4" ht="21">
       <c r="A456" s="6" t="s">
         <v>400</v>
       </c>
@@ -6993,7 +7240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" spans="1:4" ht="21">
       <c r="A457" s="6" t="s">
         <v>400</v>
       </c>
@@ -7005,7 +7252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" spans="1:4" ht="21">
       <c r="A458" s="6" t="s">
         <v>400</v>
       </c>
@@ -7017,7 +7264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" spans="1:4" ht="21">
       <c r="A459" s="6" t="s">
         <v>400</v>
       </c>
@@ -7029,7 +7276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" spans="1:4" ht="21">
       <c r="A460" s="6" t="s">
         <v>400</v>
       </c>
@@ -7041,7 +7288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" spans="1:4" ht="21">
       <c r="A461" s="6" t="s">
         <v>400</v>
       </c>
@@ -7053,7 +7300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" spans="1:4" ht="21">
       <c r="A462" s="6" t="s">
         <v>400</v>
       </c>
@@ -7065,7 +7312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" spans="1:4" ht="21">
       <c r="A463" s="6" t="s">
         <v>400</v>
       </c>
@@ -7077,7 +7324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" spans="1:4" ht="21">
       <c r="A464" s="6" t="s">
         <v>400</v>
       </c>
@@ -7089,7 +7336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" spans="1:4" ht="21">
       <c r="A465" s="6" t="s">
         <v>400</v>
       </c>
@@ -7101,7 +7348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" spans="1:4" ht="21">
       <c r="A466" s="6" t="s">
         <v>400</v>
       </c>
@@ -7113,7 +7360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" spans="1:4" ht="21">
       <c r="A467" s="6" t="s">
         <v>400</v>
       </c>
@@ -7125,7 +7372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" spans="1:4" ht="21">
       <c r="A468" s="6" t="s">
         <v>400</v>
       </c>
@@ -7137,7 +7384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" spans="1:4" ht="21">
       <c r="A469" s="6" t="s">
         <v>400</v>
       </c>
@@ -7149,17 +7396,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" spans="1:4" ht="21">
       <c r="C470" s="8"/>
       <c r="D470" s="5"/>
     </row>
-    <row r="471" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" spans="1:4" ht="21">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="C471" s="8"/>
       <c r="D471" s="5"/>
     </row>
-    <row r="472" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" spans="1:4" ht="21">
       <c r="A472" s="6" t="s">
         <v>460</v>
       </c>
@@ -7171,7 +7418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" spans="1:4" ht="21">
       <c r="A473" s="6" t="s">
         <v>460</v>
       </c>
@@ -7183,7 +7430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" spans="1:4" ht="21">
       <c r="A474" s="6" t="s">
         <v>460</v>
       </c>
@@ -7195,7 +7442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" spans="1:4" ht="21">
       <c r="A475" s="6" t="s">
         <v>460</v>
       </c>
@@ -7207,7 +7454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" spans="1:4" ht="21">
       <c r="A476" s="6" t="s">
         <v>460</v>
       </c>
@@ -7219,7 +7466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" spans="1:4" ht="21">
       <c r="A477" s="6" t="s">
         <v>460</v>
       </c>
@@ -7231,7 +7478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" spans="1:4" ht="21">
       <c r="A478" s="6" t="s">
         <v>460</v>
       </c>
@@ -7243,7 +7490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" spans="1:4" ht="21">
       <c r="A479" s="6" t="s">
         <v>460</v>
       </c>
@@ -7255,7 +7502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" spans="1:4" ht="21">
       <c r="A480" s="6" t="s">
         <v>460</v>
       </c>
@@ -7267,7 +7514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" spans="1:4" ht="21">
       <c r="A481" s="6" t="s">
         <v>460</v>
       </c>
@@ -7281,459 +7528,454 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
-    <hyperlink ref="C6" r:id="rId2" display="Reverse the array"/>
-    <hyperlink ref="C7" r:id="rId3" display="Find the maximum and minimum element in an array"/>
-    <hyperlink ref="C8" r:id="rId4" display="Find the &quot;Kth&quot; max and min element of an array "/>
-    <hyperlink ref="C9" r:id="rId5" display="Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo"/>
-    <hyperlink ref="C10" r:id="rId6" display="Move all the negative elements to one side of the array "/>
-    <hyperlink ref="C11" r:id="rId7" display="Find the Union and Intersection of the two sorted arrays."/>
-    <hyperlink ref="C12" r:id="rId8" display="Write a program to cyclically rotate an array by one."/>
-    <hyperlink ref="C13" r:id="rId9" display="find Largest sum contiguous Subarray [V. IMP]"/>
-    <hyperlink ref="C14" r:id="rId10" display="Minimise the maximum difference between heights [V.IMP]"/>
-    <hyperlink ref="C15" r:id="rId11" display="Minimum no. of Jumps to reach end of an array"/>
-    <hyperlink ref="C16" r:id="rId12" display="find duplicate in an array of N+1 Integers"/>
-    <hyperlink ref="C17" r:id="rId13" display="Merge 2 sorted arrays without using Extra space."/>
-    <hyperlink ref="C18" r:id="rId14" display="Kadane's Algo [V.V.V.V.V IMP]"/>
-    <hyperlink ref="C19" r:id="rId15" display="Merge Intervals"/>
-    <hyperlink ref="C20" r:id="rId16" display="Next Permutation"/>
-    <hyperlink ref="C21" r:id="rId17" display="Count Inversion"/>
-    <hyperlink ref="C22" r:id="rId18" display="Best time to buy and Sell stock"/>
-    <hyperlink ref="C23" r:id="rId19" display="find all pairs on integer array whose sum is equal to given number"/>
-    <hyperlink ref="C24" r:id="rId20" display="find common elements In 3 sorted arrays"/>
-    <hyperlink ref="C25" r:id="rId21" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
-    <hyperlink ref="C26" r:id="rId22" display="Find if there is any subarray with sum equal to 0"/>
-    <hyperlink ref="C27" r:id="rId23" display="Find factorial of a large number"/>
-    <hyperlink ref="C28" r:id="rId24" display="find maximum product subarray "/>
-    <hyperlink ref="C29" r:id="rId25" display="Find longest coinsecutive subsequence"/>
-    <hyperlink ref="C30" r:id="rId26" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
-    <hyperlink ref="C31" r:id="rId27" display="Maximum profit by buying and selling a share atmost twice"/>
-    <hyperlink ref="C32" r:id="rId28" display="Find whether an array is a subset of another array"/>
-    <hyperlink ref="C33" r:id="rId29" display="Find the triplet that sum to a given value"/>
-    <hyperlink ref="C34" r:id="rId30" display="Trapping Rain water problem"/>
-    <hyperlink ref="C35" r:id="rId31" display="Chocolate Distribution problem"/>
-    <hyperlink ref="C36" r:id="rId32" display="Smallest Subarray with sum greater than a given value"/>
-    <hyperlink ref="C37" r:id="rId33" display="Three way partitioning of an array around a given value"/>
-    <hyperlink ref="C38" r:id="rId34" display="Minimum swaps required bring elements less equal K together"/>
-    <hyperlink ref="C39" r:id="rId35" display="Minimum no. of operations required to make an array palindrome"/>
-    <hyperlink ref="C40" r:id="rId36" display="Median of 2 sorted arrays of equal size"/>
-    <hyperlink ref="C41" r:id="rId37" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="C44" r:id="rId38" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="C45" r:id="rId39" display="Search an element in a matriix"/>
-    <hyperlink ref="C46" r:id="rId40" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="C47" r:id="rId41" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="C48" r:id="rId42" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="C49" r:id="rId43" display="Maximum size rectangle"/>
-    <hyperlink ref="C50" r:id="rId44" display="Find a specific pair in matrix"/>
-    <hyperlink ref="C51" r:id="rId45" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="C52" r:id="rId46" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="C53" r:id="rId47" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="C56" r:id="rId48" display="Reverse a String"/>
-    <hyperlink ref="C57" r:id="rId49" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="C58" r:id="rId50" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="C60" r:id="rId51" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="C61" r:id="rId52" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="C62" r:id="rId53" display="Count and Say problem"/>
-    <hyperlink ref="C63" r:id="rId54" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
-    <hyperlink ref="C64" r:id="rId55" display="Find Longest Recurring Subsequence in String"/>
-    <hyperlink ref="C65" r:id="rId56" display="Print all Subsequences of a string."/>
-    <hyperlink ref="C66" r:id="rId57" display="Print all the permutations of the given string"/>
-    <hyperlink ref="C67" r:id="rId58" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="C68" r:id="rId59" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="C69" r:id="rId60" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="C70" r:id="rId61" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="C71" r:id="rId62" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="C72" r:id="rId63" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="C73" r:id="rId64" display="Rabin Karp Algo"/>
-    <hyperlink ref="C74" r:id="rId65" display="KMP Algo"/>
-    <hyperlink ref="C75" r:id="rId66" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="C76" r:id="rId67" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="C77" r:id="rId68" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="C78" r:id="rId69" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="C79" r:id="rId70" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="C80" r:id="rId71" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="C81" r:id="rId72" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="C82" r:id="rId73" display="Longest Common Prefix"/>
-    <hyperlink ref="C83" r:id="rId74" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="C84" r:id="rId75" display="Find the first repeated word in string."/>
-    <hyperlink ref="C85" r:id="rId76" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="C86" r:id="rId77" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="C87" r:id="rId78" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="C88" r:id="rId79" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="C89" r:id="rId80" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="C90" r:id="rId81" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="C91" r:id="rId82" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="C92" r:id="rId83" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="C93" r:id="rId84" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="C94" r:id="rId85" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="C95" r:id="rId86" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="C96" r:id="rId87" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="C97" r:id="rId88" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="C98" r:id="rId89" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="C101" r:id="rId90" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="C102" r:id="rId91" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="C103" r:id="rId92" display="Search in a rotated sorted array"/>
-    <hyperlink ref="C104" r:id="rId93" display="square root of an integer"/>
-    <hyperlink ref="C105" r:id="rId94" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="C106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="C107" r:id="rId96" display="Find the repeating and the missing"/>
-    <hyperlink ref="C108" r:id="rId97" display="find majority element"/>
-    <hyperlink ref="C109" r:id="rId98" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="C110" r:id="rId99" display="find a pair with a given difference"/>
-    <hyperlink ref="C111" r:id="rId100" display="find four elements that sum to a given value"/>
-    <hyperlink ref="C112" r:id="rId101" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="C113" r:id="rId102" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="C114" r:id="rId103" display="merge 2 sorted arrays"/>
-    <hyperlink ref="C115" r:id="rId104" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="C116" r:id="rId105" display="Product array Puzzle"/>
-    <hyperlink ref="C117" r:id="rId106" display="Sort array according to count of set bits"/>
-    <hyperlink ref="C118" r:id="rId107" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="C119" r:id="rId108" display="Bishu and Soldiers"/>
-    <hyperlink ref="C120" r:id="rId109" display="Rasta and Kheshtak"/>
-    <hyperlink ref="C121" r:id="rId110" display="Kth smallest number again"/>
-    <hyperlink ref="C122" r:id="rId111" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="C123" r:id="rId112" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="C124" r:id="rId113" display="Aggressive cows"/>
-    <hyperlink ref="C125" r:id="rId114" display="Book Allocation Problem"/>
-    <hyperlink ref="C126" r:id="rId115" display="EKOSPOJ:"/>
-    <hyperlink ref="C127" r:id="rId116" display="Job Scheduling Algo"/>
-    <hyperlink ref="C128" r:id="rId117" display="Missing Number in AP"/>
-    <hyperlink ref="C129" r:id="rId118" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="C130" r:id="rId119" display="Painters Partition Problem:"/>
-    <hyperlink ref="C131" r:id="rId120" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="C132" r:id="rId121" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="C133" r:id="rId122" display="Subset Sums"/>
-    <hyperlink ref="C134" r:id="rId123" display="Findthe inversion count"/>
-    <hyperlink ref="C135" r:id="rId124" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="C136" r:id="rId125" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="C139" r:id="rId126" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="C140" r:id="rId127" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="C141" r:id="rId128" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="C142" r:id="rId129" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="C143" r:id="rId130" display="Find the starting point of the loop. "/>
-    <hyperlink ref="C144" r:id="rId131" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="C145" r:id="rId132" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="C146" r:id="rId133" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="C147" r:id="rId134" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="C148" r:id="rId135" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="C149" r:id="rId136" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="C150" r:id="rId137" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="C151" r:id="rId138" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="C152" r:id="rId139" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="C153" r:id="rId140" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="C154" r:id="rId141" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="C155" r:id="rId142" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="C156" r:id="rId143" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="C157" r:id="rId144" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="C158" r:id="rId145" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="C159" r:id="rId146" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="C160" r:id="rId147" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="C161" r:id="rId148" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="C162" r:id="rId149" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="C163" r:id="rId150" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="C166" r:id="rId151" display="Flatten a Linked List"/>
-    <hyperlink ref="C167" r:id="rId152" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="C168" r:id="rId153" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="C169" r:id="rId154" display="Merge K sorted Linked list"/>
-    <hyperlink ref="C170" r:id="rId155" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="C171" r:id="rId156" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="C172" r:id="rId157" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="C173" r:id="rId158" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="C174" r:id="rId159" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="C177" r:id="rId160" display="level order traversal"/>
-    <hyperlink ref="C178" r:id="rId161" display="Reverse Level Order traversal"/>
-    <hyperlink ref="C179" r:id="rId162" display="Height of a tree"/>
-    <hyperlink ref="C180" r:id="rId163" display="Diameter of a tree"/>
-    <hyperlink ref="C181" r:id="rId164" display="Mirror of a tree"/>
-    <hyperlink ref="C182" r:id="rId165" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C183" r:id="rId166" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C184" r:id="rId167" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C185" r:id="rId168" display="Left View of a tree"/>
-    <hyperlink ref="C186" r:id="rId169" display="Right View of Tree"/>
-    <hyperlink ref="C187" r:id="rId170" display="Top View of a tree"/>
-    <hyperlink ref="C188" r:id="rId171" display="Bottom View of a tree"/>
-    <hyperlink ref="C189" r:id="rId172" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="C190" r:id="rId173" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="C191" r:id="rId174" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="C192" r:id="rId175" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="C193" r:id="rId176" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="C194" r:id="rId177" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="C195" r:id="rId178" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="C196" r:id="rId179" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="C197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="C198" r:id="rId181" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="C199" r:id="rId182" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="C200" r:id="rId183" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="C201" r:id="rId184" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="C202" r:id="rId185" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="C203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="C204" r:id="rId187" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="C205" r:id="rId188" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="C206" r:id="rId189" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="C207" r:id="rId190" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="C208" r:id="rId191" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="C209" r:id="rId192" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="C210" r:id="rId193" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="C211" r:id="rId194" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="C214" r:id="rId195" display="Fina a value in a BST"/>
-    <hyperlink ref="C215" r:id="rId196" display="Deletion of a node in a BST"/>
-    <hyperlink ref="C216" r:id="rId197" display="Find min and max value in a BST"/>
-    <hyperlink ref="C217" r:id="rId198" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="C218" r:id="rId199" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="C219" r:id="rId200" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="C220" r:id="rId201" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="C221" r:id="rId202" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="C222" r:id="rId203" display="Convert Binary tree into BST"/>
-    <hyperlink ref="C223" r:id="rId204" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="C224" r:id="rId205" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="C225" r:id="rId206" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="C226" r:id="rId207" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="C227" r:id="rId208" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="C228" r:id="rId209" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="C229" r:id="rId210" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="C230" r:id="rId211" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="C231" r:id="rId212" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="C232" r:id="rId213" display="Check preorder is valid or not"/>
-    <hyperlink ref="C233" r:id="rId214" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="C234" r:id="rId215" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="C235" r:id="rId216" display="Flatten BST to sorted list"/>
-    <hyperlink ref="C238" r:id="rId217" display="Activity Selection Problem"/>
-    <hyperlink ref="C239" r:id="rId218" display="Job SequencingProblem"/>
-    <hyperlink ref="C240" r:id="rId219" display="Huffman Coding"/>
-    <hyperlink ref="C241" r:id="rId220" display="Water Connection Problem"/>
-    <hyperlink ref="C242" r:id="rId221" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="C243" r:id="rId222" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="C244" r:id="rId223" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="C245" r:id="rId224" display="Minimum Platforms Problem"/>
-    <hyperlink ref="C246" r:id="rId225" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="C247" r:id="rId226" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="C248" r:id="rId227" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="C249" r:id="rId228" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="C250" r:id="rId229" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="C251" r:id="rId230" display="Find maximum meetings in one room"/>
-    <hyperlink ref="C252" r:id="rId231" display="Maximum product subset of an array"/>
-    <hyperlink ref="C253" r:id="rId232" display="Maximize array sum after K negations"/>
-    <hyperlink ref="C254" r:id="rId233" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="C255" r:id="rId234" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="C256" r:id="rId235" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="C257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="C258" r:id="rId237" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="C259" r:id="rId238" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="C260" r:id="rId239" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="C261" r:id="rId240" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="C262" r:id="rId241" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="C263" r:id="rId242" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="C264" r:id="rId243" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="C265" r:id="rId244" display="Picking Up Chicks"/>
-    <hyperlink ref="C266" r:id="rId245" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="C267" r:id="rId246" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="C268" r:id="rId247" display="K Centers Problem"/>
-    <hyperlink ref="C269" r:id="rId248" display="Minimum Cost of ropes"/>
-    <hyperlink ref="C270" r:id="rId249" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="C271" r:id="rId250" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="C272" r:id="rId251" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="C275" r:id="rId252" display="Rat in a maze Problem"/>
-    <hyperlink ref="C276" r:id="rId253" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="C277" r:id="rId254" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="C278" r:id="rId255" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="C279" r:id="rId256" display="Sudoku Solver"/>
-    <hyperlink ref="C280" r:id="rId257" display="m Coloring Problem"/>
-    <hyperlink ref="C281" r:id="rId258" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="C282" r:id="rId259" display="Subset Sum Problem"/>
-    <hyperlink ref="C283" r:id="rId260" display="The Knight’s tour problem"/>
-    <hyperlink ref="C284" r:id="rId261" display="Tug of War"/>
-    <hyperlink ref="C285" r:id="rId262" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="C286" r:id="rId263" display="Combinational Sum"/>
-    <hyperlink ref="C287" r:id="rId264" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="C288" r:id="rId265" display="Print all permutations of a string "/>
-    <hyperlink ref="C289" r:id="rId266" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="C290" r:id="rId267" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="C291" r:id="rId268" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="C292" r:id="rId269" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="C293" r:id="rId270" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="C296" r:id="rId271" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="C297" r:id="rId272" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="C298" r:id="rId273" display="Implement 2 stack in an array"/>
-    <hyperlink ref="C299" r:id="rId274" display="find the middle element of a stack"/>
-    <hyperlink ref="C300" r:id="rId275" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="C301" r:id="rId276" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="C302" r:id="rId277" display="Reverse a String using Stack"/>
-    <hyperlink ref="C303" r:id="rId278" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="C304" r:id="rId279" display="Find the next Greater element"/>
-    <hyperlink ref="C305" r:id="rId280" display="The celebrity Problem"/>
-    <hyperlink ref="C306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="C307" r:id="rId282" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="C308" r:id="rId283" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="C309" r:id="rId284" display="Reverse a stack using recursion"/>
-    <hyperlink ref="C310" r:id="rId285" display="Sort a Stack using recursion"/>
-    <hyperlink ref="C311" r:id="rId286" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="C312" r:id="rId287" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="C313" r:id="rId288" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="C314" r:id="rId289" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="C315" r:id="rId290" display="Implement Stack using Queue"/>
-    <hyperlink ref="C316" r:id="rId291" display="Implement Stack using Deque"/>
-    <hyperlink ref="C317" r:id="rId292" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="C318" r:id="rId293" display="Implement Queue using Stack  "/>
-    <hyperlink ref="C319" r:id="rId294" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="C320" r:id="rId295" display="Implement a Circular queue"/>
-    <hyperlink ref="C321" r:id="rId296" display="LRU Cache Implementationa"/>
-    <hyperlink ref="C322" r:id="rId297" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="C323" r:id="rId298" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="C324" r:id="rId299" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="C325" r:id="rId300" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="C326" r:id="rId301" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="C327" r:id="rId302" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="C328" r:id="rId303" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="C329" r:id="rId304" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="C330" r:id="rId305" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="C331" r:id="rId306" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="C332" r:id="rId307" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="C333" r:id="rId308" display="Next Smaller Element"/>
-    <hyperlink ref="C336" r:id="rId309" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="C337" r:id="rId310" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="C338" r:id="rId311" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="C339" r:id="rId312" display="“k” largest element in an array"/>
-    <hyperlink ref="C340" r:id="rId313" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="C341" r:id="rId314" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="C342" r:id="rId315" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="C343" r:id="rId316" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="C344" r:id="rId317" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="C345" r:id="rId318" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="C346" r:id="rId319" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="C347" r:id="rId320" display="Median in a stream of Integers"/>
-    <hyperlink ref="C348" r:id="rId321" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="C349" r:id="rId322" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="C350" r:id="rId323" display="Convert BST to Min Heap"/>
-    <hyperlink ref="C351" r:id="rId324" display="Convert min heap to max heap"/>
-    <hyperlink ref="C352" r:id="rId325" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="C353" r:id="rId326" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="C356" r:id="rId327" display="Create a Graph, print it"/>
-    <hyperlink ref="C357" r:id="rId328" display="Implement BFS algorithm "/>
-    <hyperlink ref="C358" r:id="rId329" display="Implement DFS Algo "/>
-    <hyperlink ref="C359" r:id="rId330" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="C360" r:id="rId331" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="C361" r:id="rId332" display="Search in a Maze"/>
-    <hyperlink ref="C362" r:id="rId333" display="Minimum Step by Knight"/>
-    <hyperlink ref="C363" r:id="rId334" display="flood fill algo"/>
-    <hyperlink ref="C364" r:id="rId335" display="Clone a graph"/>
-    <hyperlink ref="C365" r:id="rId336" display="Making wired Connections"/>
-    <hyperlink ref="C366" r:id="rId337" display="word Ladder "/>
-    <hyperlink ref="C367" r:id="rId338" display="Dijkstra algo"/>
-    <hyperlink ref="C368" r:id="rId339" display="Implement Topological Sort "/>
-    <hyperlink ref="C369" r:id="rId340" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="C370" r:id="rId341" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="C371" r:id="rId342" display="Find the no. of Isalnds"/>
-    <hyperlink ref="C372" r:id="rId343" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="C373" r:id="rId344" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="C374" r:id="rId345" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="C375" r:id="rId346" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="C376" r:id="rId347" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="C377" r:id="rId348" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="C378" r:id="rId349" display="Travelling Salesman Problem"/>
-    <hyperlink ref="C379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
-    <hyperlink ref="C380" r:id="rId351" display="Snake and Ladders Problem"/>
-    <hyperlink ref="C381" r:id="rId352" display="Find bridge in a graph"/>
-    <hyperlink ref="C382" r:id="rId353" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="C383" r:id="rId354" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="C384" r:id="rId355" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="C385" r:id="rId356" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="C386" r:id="rId357" display="Journey to the Moon"/>
-    <hyperlink ref="C387" r:id="rId358" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="C388" r:id="rId359" display="Oliver and the Game"/>
-    <hyperlink ref="C389" r:id="rId360" display="Water Jug problem using BFS"/>
-    <hyperlink ref="C390" r:id="rId361" display="Water Jug problem using BFS"/>
-    <hyperlink ref="C391" r:id="rId362" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="C392" r:id="rId363" display="M-ColouringProblem"/>
-    <hyperlink ref="C393" r:id="rId364" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="C394" r:id="rId365" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="C395" r:id="rId366" display="Vertex Cover Problem"/>
-    <hyperlink ref="C396" r:id="rId367" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="C397" r:id="rId368" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="C398" r:id="rId369" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="C399" r:id="rId370" display="Two Clique Problem"/>
-    <hyperlink ref="C402" r:id="rId371" display="Construct a trie from scratch"/>
-    <hyperlink ref="C403" r:id="rId372" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="C404" r:id="rId373" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="C405" r:id="rId374" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="C406" r:id="rId375" display="Implement a Phone Directory"/>
-    <hyperlink ref="C407" r:id="rId376" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="C410" r:id="rId377" display="Coin ChangeProblem"/>
-    <hyperlink ref="C411" r:id="rId378" display="Knapsack Problem"/>
-    <hyperlink ref="C412" r:id="rId379" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="C413" r:id="rId380" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="C414" r:id="rId381" display="Program for nth Catalan Number"/>
-    <hyperlink ref="C415" r:id="rId382" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="C416" r:id="rId383" display="Edit Distance"/>
-    <hyperlink ref="C417" r:id="rId384" display="Subset Sum Problem"/>
-    <hyperlink ref="C418" r:id="rId385" display="Friends Pairing Problem"/>
-    <hyperlink ref="C419" r:id="rId386" display="Gold Mine Problem"/>
-    <hyperlink ref="C420" r:id="rId387" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="C421" r:id="rId388" display="Painting the Fenceproblem"/>
-    <hyperlink ref="C422" r:id="rId389" display="Maximize The Cut Segments"/>
-    <hyperlink ref="C423" r:id="rId390" display="Longest Common Subsequence"/>
-    <hyperlink ref="C424" r:id="rId391" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="C425" r:id="rId392" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="C426" r:id="rId393" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="C427" r:id="rId394" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="C428" r:id="rId395" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="C429" r:id="rId396" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="C430" r:id="rId397" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="C431" r:id="rId398" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="C432" r:id="rId399" display="Egg Dropping Problem"/>
-    <hyperlink ref="C433" r:id="rId400" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="C434" r:id="rId401" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="C435" r:id="rId402" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="C436" r:id="rId403" display="Min Cost PathProblem"/>
-    <hyperlink ref="C437" r:id="rId404" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="C438" r:id="rId405" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="C439" r:id="rId406" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="C440" r:id="rId407" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="C441" r:id="rId408" display="Longest Common Substring"/>
-    <hyperlink ref="C442" r:id="rId409" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="C443" r:id="rId410" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="C444" r:id="rId411" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="C445" r:id="rId412" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="C446" r:id="rId413" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="C447" r:id="rId414" display="Word Break Problem"/>
-    <hyperlink ref="C448" r:id="rId415" display="Largest Independent Set Problem"/>
-    <hyperlink ref="C449" r:id="rId416" display="Partition problem"/>
-    <hyperlink ref="C450" r:id="rId417" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="C451" r:id="rId418" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="C452" r:id="rId419" display="Longest Palindromic Substring"/>
-    <hyperlink ref="C453" r:id="rId420" display="Longest alternating subsequence"/>
-    <hyperlink ref="C454" r:id="rId421" display="Weighted Job Scheduling"/>
-    <hyperlink ref="C455" r:id="rId422" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="C456" r:id="rId423" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="C457" r:id="rId424" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="C458" r:id="rId425" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="C459" r:id="rId426" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="C460" r:id="rId427" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="C461" r:id="rId428" display="Word Wrap Problem"/>
-    <hyperlink ref="C462" r:id="rId429" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="C463" r:id="rId430" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="C464" r:id="rId431" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="C465" r:id="rId432" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="C466" r:id="rId433" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="C467" r:id="rId434" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="C468" r:id="rId435" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="C469" r:id="rId436" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="C472" r:id="rId437" display="Count set bits in an integer"/>
-    <hyperlink ref="C473" r:id="rId438" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="C474" r:id="rId439" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="C475" r:id="rId440" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="C476" r:id="rId441" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="C477" r:id="rId442" display="Find position of the only set bit"/>
-    <hyperlink ref="C478" r:id="rId443" display="Copy set bits in a range"/>
-    <hyperlink ref="C479" r:id="rId444" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="C480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="C481" r:id="rId446" display="Power Set"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C27" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C28" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C29" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C31" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C32" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C35" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C36" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C37" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C39" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C40" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C41" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C44" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C47" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C48" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C52" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C53" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C56" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C57" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C58" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C60" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C61" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C62" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C63" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C64" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C65" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C66" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C67" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C68" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C69" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C70" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C71" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C72" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C73" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C74" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C75" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C76" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C77" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C78" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C79" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C80" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C81" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C82" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C83" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C84" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C85" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C86" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C87" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C88" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C89" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C90" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C91" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C92" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C93" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C94" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C95" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C96" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C97" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C98" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C101" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C102" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C103" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C104" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C105" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C107" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C108" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C109" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C110" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C111" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C112" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C113" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C114" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C115" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C116" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C117" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C118" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C119" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C120" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C121" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C122" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C123" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C124" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C125" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C126" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C127" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C128" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C129" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C130" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C131" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="C132" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="C133" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="C134" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="C135" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="C136" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="C139" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="C140" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="C141" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="C142" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="C143" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="C144" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="C145" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="C146" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="C147" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="C148" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="C149" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="C150" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="C151" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="C152" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="C153" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="C154" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="C155" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="C156" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C157" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="C158" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="C159" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="C160" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="C161" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="C162" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="C163" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="C166" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="C167" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="C168" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="C169" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="C170" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="C171" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="C172" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="C173" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="C174" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="C177" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="C178" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="C179" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="C180" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="C181" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="C182" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="C183" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="C184" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="C185" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="C186" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="C187" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="C188" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="C189" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="C190" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="C191" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="C192" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="C193" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="C194" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="C195" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="C196" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="C197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="C198" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="C199" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="C200" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="C201" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="C202" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="C204" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="C205" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="C206" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C207" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="C208" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C209" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="C210" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="C211" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="C214" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="C215" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="C216" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="C217" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="C218" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="C219" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="C220" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="C221" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="C222" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C223" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="C224" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="C225" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="C226" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="C227" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="C228" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="C229" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="C230" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="C231" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="C232" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="C233" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="C234" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="C235" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="C238" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="C239" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="C240" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="C241" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="C242" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="C243" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="C244" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="C245" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="C246" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="C247" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="C248" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="C249" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="C250" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="C251" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="C252" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="C253" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="C254" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="C255" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="C256" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="C257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="C258" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="C259" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="C260" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="C261" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C262" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="C263" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="C264" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C265" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="C266" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="C267" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="C268" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="C269" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="C270" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="C271" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="C272" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C275" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="C276" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="C277" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="C278" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="C279" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="C280" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="C281" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="C282" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="C283" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="C284" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="C285" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="C286" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="C287" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="C288" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="C289" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="C290" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="C291" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="C292" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="C293" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="C296" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="C297" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="C298" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="C299" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="C300" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="C301" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="C302" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="C303" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="C304" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="C305" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="C306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="C307" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="C308" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="C309" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="C310" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="C311" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="C312" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="C313" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="C314" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="C315" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="C316" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="C317" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="C318" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="C319" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="C320" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="C321" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="C322" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="C323" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="C324" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="C325" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="C326" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="C327" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="C328" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="C329" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="C330" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="C331" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="C332" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="C333" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="C336" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="C337" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="C338" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="C339" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="C340" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="C341" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="C342" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="C343" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="C344" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="C345" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="C346" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="C347" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="C348" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="C349" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="C350" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="C351" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="C352" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="C353" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="C356" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="C357" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="C358" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="C359" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="C360" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="C361" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="C362" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="C363" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="C364" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="C365" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="C366" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="C367" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="C368" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="C369" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="C370" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="C371" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="C372" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="C373" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="C374" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="C375" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="C376" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="C377" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="C378" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="C379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="C380" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="C381" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="C382" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="C383" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="C384" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="C385" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="C386" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="C387" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="C388" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="C389" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="C390" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="C391" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="C392" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="C393" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="C394" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="C395" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="C396" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="C397" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="C398" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="C399" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="C402" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="C403" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="C404" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="C405" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="C406" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="C407" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="C410" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="C411" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="C412" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="C413" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="C414" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="C415" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="C416" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="C417" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="C418" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="C419" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="C420" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="C421" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="C422" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="C423" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="C424" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="C425" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="C426" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="C427" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="C428" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="C429" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="C430" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="C431" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="C432" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="C433" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="C434" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="C435" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="C436" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="C437" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="C438" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="C439" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="C440" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="C441" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="C442" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="C443" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="C444" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="C445" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="C446" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="C447" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="C448" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="C449" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="C450" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="C451" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="C452" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="C453" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="C454" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="C455" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="C456" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="C457" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="C458" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="C459" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="C460" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="C461" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="C462" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="C463" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="C464" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="C465" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="C466" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="C467" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="C468" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="C469" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="C472" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="C473" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="C474" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="C475" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="C476" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="C477" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="C478" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="C479" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="C480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="C481" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\vineet\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812A1FA5-788D-4BBF-AF87-579D0EBEC875}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABD0994-0C83-4A76-A04A-CF528305353B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1927,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
@@ -2517,7 +2517,7 @@
         <v>51</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\vineet\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABD0994-0C83-4A76-A04A-CF528305353B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DB8E27-E07C-4482-A57C-B87B11E2C9D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1928,7 +1928,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
@@ -2529,7 +2529,7 @@
         <v>52</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\vineet\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DB8E27-E07C-4482-A57C-B87B11E2C9D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CFCBD6-0980-4C0D-B520-CFE2AFD35858}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1928,7 +1928,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
@@ -2541,7 +2541,7 @@
         <v>53</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\vineet\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CFCBD6-0980-4C0D-B520-CFE2AFD35858}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B8210E-E961-4279-90F9-A8F83298B217}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1927,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B472" sqref="B472:B481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
@@ -2488,7 +2488,9 @@
       <c r="A44" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="6"/>
+      <c r="B44" s="6">
+        <v>1</v>
+      </c>
       <c r="C44" s="7" t="s">
         <v>49</v>
       </c>
@@ -2500,7 +2502,9 @@
       <c r="A45" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="6"/>
+      <c r="B45" s="6">
+        <v>2</v>
+      </c>
       <c r="C45" s="7" t="s">
         <v>50</v>
       </c>
@@ -2512,7 +2516,9 @@
       <c r="A46" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="6"/>
+      <c r="B46" s="6">
+        <v>3</v>
+      </c>
       <c r="C46" s="7" t="s">
         <v>51</v>
       </c>
@@ -2524,7 +2530,9 @@
       <c r="A47" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="6"/>
+      <c r="B47" s="6">
+        <v>4</v>
+      </c>
       <c r="C47" s="7" t="s">
         <v>52</v>
       </c>
@@ -2536,7 +2544,9 @@
       <c r="A48" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="6"/>
+      <c r="B48" s="6">
+        <v>5</v>
+      </c>
       <c r="C48" s="7" t="s">
         <v>53</v>
       </c>
@@ -2548,7 +2558,9 @@
       <c r="A49" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="6"/>
+      <c r="B49" s="6">
+        <v>6</v>
+      </c>
       <c r="C49" s="7" t="s">
         <v>54</v>
       </c>
@@ -2560,7 +2572,9 @@
       <c r="A50" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="6"/>
+      <c r="B50" s="6">
+        <v>7</v>
+      </c>
       <c r="C50" s="7" t="s">
         <v>55</v>
       </c>
@@ -2572,7 +2586,9 @@
       <c r="A51" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="6"/>
+      <c r="B51" s="6">
+        <v>8</v>
+      </c>
       <c r="C51" s="7" t="s">
         <v>56</v>
       </c>
@@ -2584,7 +2600,9 @@
       <c r="A52" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="6"/>
+      <c r="B52" s="6">
+        <v>9</v>
+      </c>
       <c r="C52" s="7" t="s">
         <v>57</v>
       </c>
@@ -2592,11 +2610,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="21">
+    <row r="53" spans="1:4" ht="17.25" customHeight="1">
       <c r="A53" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="6"/>
+      <c r="B53" s="6">
+        <v>10</v>
+      </c>
       <c r="C53" s="7" t="s">
         <v>58</v>
       </c>
@@ -2614,7 +2634,9 @@
       <c r="A56" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="6"/>
+      <c r="B56" s="6">
+        <v>1</v>
+      </c>
       <c r="C56" s="7" t="s">
         <v>60</v>
       </c>
@@ -2626,7 +2648,9 @@
       <c r="A57" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="6"/>
+      <c r="B57" s="6">
+        <v>2</v>
+      </c>
       <c r="C57" s="7" t="s">
         <v>61</v>
       </c>
@@ -2638,7 +2662,9 @@
       <c r="A58" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="6"/>
+      <c r="B58" s="6">
+        <v>3</v>
+      </c>
       <c r="C58" s="7" t="s">
         <v>62</v>
       </c>
@@ -2650,7 +2676,9 @@
       <c r="A59" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="6"/>
+      <c r="B59" s="6">
+        <v>4</v>
+      </c>
       <c r="C59" s="8" t="s">
         <v>63</v>
       </c>
@@ -2662,7 +2690,9 @@
       <c r="A60" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="6"/>
+      <c r="B60" s="6">
+        <v>5</v>
+      </c>
       <c r="C60" s="7" t="s">
         <v>64</v>
       </c>
@@ -2674,7 +2704,9 @@
       <c r="A61" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="6"/>
+      <c r="B61" s="6">
+        <v>6</v>
+      </c>
       <c r="C61" s="7" t="s">
         <v>65</v>
       </c>
@@ -2686,7 +2718,9 @@
       <c r="A62" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="6"/>
+      <c r="B62" s="6">
+        <v>7</v>
+      </c>
       <c r="C62" s="7" t="s">
         <v>66</v>
       </c>
@@ -2698,7 +2732,9 @@
       <c r="A63" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="6"/>
+      <c r="B63" s="6">
+        <v>8</v>
+      </c>
       <c r="C63" s="7" t="s">
         <v>67</v>
       </c>
@@ -2710,7 +2746,9 @@
       <c r="A64" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="6"/>
+      <c r="B64" s="6">
+        <v>9</v>
+      </c>
       <c r="C64" s="7" t="s">
         <v>68</v>
       </c>
@@ -2722,7 +2760,9 @@
       <c r="A65" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B65" s="6"/>
+      <c r="B65" s="6">
+        <v>10</v>
+      </c>
       <c r="C65" s="7" t="s">
         <v>69</v>
       </c>
@@ -2734,7 +2774,9 @@
       <c r="A66" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B66" s="6"/>
+      <c r="B66" s="6">
+        <v>11</v>
+      </c>
       <c r="C66" s="7" t="s">
         <v>70</v>
       </c>
@@ -2746,7 +2788,9 @@
       <c r="A67" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="6"/>
+      <c r="B67" s="6">
+        <v>12</v>
+      </c>
       <c r="C67" s="7" t="s">
         <v>71</v>
       </c>
@@ -2758,7 +2802,9 @@
       <c r="A68" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B68" s="6"/>
+      <c r="B68" s="6">
+        <v>13</v>
+      </c>
       <c r="C68" s="7" t="s">
         <v>72</v>
       </c>
@@ -2770,7 +2816,9 @@
       <c r="A69" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="6"/>
+      <c r="B69" s="6">
+        <v>14</v>
+      </c>
       <c r="C69" s="7" t="s">
         <v>73</v>
       </c>
@@ -2782,7 +2830,9 @@
       <c r="A70" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B70" s="6"/>
+      <c r="B70" s="6">
+        <v>15</v>
+      </c>
       <c r="C70" s="7" t="s">
         <v>74</v>
       </c>
@@ -2794,7 +2844,9 @@
       <c r="A71" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B71" s="6"/>
+      <c r="B71" s="6">
+        <v>16</v>
+      </c>
       <c r="C71" s="7" t="s">
         <v>75</v>
       </c>
@@ -2806,7 +2858,9 @@
       <c r="A72" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B72" s="6"/>
+      <c r="B72" s="6">
+        <v>17</v>
+      </c>
       <c r="C72" s="7" t="s">
         <v>76</v>
       </c>
@@ -2818,7 +2872,9 @@
       <c r="A73" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="6"/>
+      <c r="B73" s="6">
+        <v>18</v>
+      </c>
       <c r="C73" s="7" t="s">
         <v>77</v>
       </c>
@@ -2830,7 +2886,9 @@
       <c r="A74" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B74" s="6"/>
+      <c r="B74" s="6">
+        <v>19</v>
+      </c>
       <c r="C74" s="7" t="s">
         <v>78</v>
       </c>
@@ -2842,7 +2900,9 @@
       <c r="A75" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B75" s="6"/>
+      <c r="B75" s="6">
+        <v>20</v>
+      </c>
       <c r="C75" s="7" t="s">
         <v>79</v>
       </c>
@@ -2854,7 +2914,9 @@
       <c r="A76" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B76" s="6"/>
+      <c r="B76" s="6">
+        <v>21</v>
+      </c>
       <c r="C76" s="7" t="s">
         <v>80</v>
       </c>
@@ -2866,7 +2928,9 @@
       <c r="A77" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B77" s="6"/>
+      <c r="B77" s="6">
+        <v>22</v>
+      </c>
       <c r="C77" s="7" t="s">
         <v>81</v>
       </c>
@@ -2878,7 +2942,9 @@
       <c r="A78" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B78" s="6"/>
+      <c r="B78" s="6">
+        <v>23</v>
+      </c>
       <c r="C78" s="7" t="s">
         <v>82</v>
       </c>
@@ -2890,7 +2956,9 @@
       <c r="A79" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B79" s="6"/>
+      <c r="B79" s="6">
+        <v>24</v>
+      </c>
       <c r="C79" s="7" t="s">
         <v>83</v>
       </c>
@@ -2902,7 +2970,9 @@
       <c r="A80" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B80" s="6"/>
+      <c r="B80" s="6">
+        <v>25</v>
+      </c>
       <c r="C80" s="7" t="s">
         <v>84</v>
       </c>
@@ -2914,7 +2984,9 @@
       <c r="A81" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B81" s="6"/>
+      <c r="B81" s="6">
+        <v>26</v>
+      </c>
       <c r="C81" s="7" t="s">
         <v>85</v>
       </c>
@@ -2926,7 +2998,9 @@
       <c r="A82" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B82" s="6"/>
+      <c r="B82" s="6">
+        <v>27</v>
+      </c>
       <c r="C82" s="7" t="s">
         <v>86</v>
       </c>
@@ -2938,7 +3012,9 @@
       <c r="A83" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B83" s="6"/>
+      <c r="B83" s="6">
+        <v>28</v>
+      </c>
       <c r="C83" s="7" t="s">
         <v>87</v>
       </c>
@@ -2950,7 +3026,9 @@
       <c r="A84" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B84" s="6"/>
+      <c r="B84" s="6">
+        <v>29</v>
+      </c>
       <c r="C84" s="7" t="s">
         <v>88</v>
       </c>
@@ -2962,7 +3040,9 @@
       <c r="A85" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B85" s="6"/>
+      <c r="B85" s="6">
+        <v>30</v>
+      </c>
       <c r="C85" s="7" t="s">
         <v>89</v>
       </c>
@@ -2974,7 +3054,9 @@
       <c r="A86" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B86" s="6"/>
+      <c r="B86" s="6">
+        <v>31</v>
+      </c>
       <c r="C86" s="7" t="s">
         <v>90</v>
       </c>
@@ -2986,7 +3068,9 @@
       <c r="A87" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B87" s="6"/>
+      <c r="B87" s="6">
+        <v>32</v>
+      </c>
       <c r="C87" s="7" t="s">
         <v>91</v>
       </c>
@@ -2998,7 +3082,9 @@
       <c r="A88" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B88" s="6"/>
+      <c r="B88" s="6">
+        <v>33</v>
+      </c>
       <c r="C88" s="7" t="s">
         <v>92</v>
       </c>
@@ -3010,7 +3096,9 @@
       <c r="A89" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B89" s="6"/>
+      <c r="B89" s="6">
+        <v>34</v>
+      </c>
       <c r="C89" s="7" t="s">
         <v>93</v>
       </c>
@@ -3022,7 +3110,9 @@
       <c r="A90" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B90" s="6"/>
+      <c r="B90" s="6">
+        <v>35</v>
+      </c>
       <c r="C90" s="7" t="s">
         <v>94</v>
       </c>
@@ -3034,7 +3124,9 @@
       <c r="A91" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B91" s="6"/>
+      <c r="B91" s="6">
+        <v>36</v>
+      </c>
       <c r="C91" s="7" t="s">
         <v>95</v>
       </c>
@@ -3046,7 +3138,9 @@
       <c r="A92" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B92" s="6"/>
+      <c r="B92" s="6">
+        <v>37</v>
+      </c>
       <c r="C92" s="7" t="s">
         <v>96</v>
       </c>
@@ -3058,7 +3152,9 @@
       <c r="A93" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B93" s="6"/>
+      <c r="B93" s="6">
+        <v>38</v>
+      </c>
       <c r="C93" s="7" t="s">
         <v>97</v>
       </c>
@@ -3070,7 +3166,9 @@
       <c r="A94" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B94" s="6"/>
+      <c r="B94" s="6">
+        <v>39</v>
+      </c>
       <c r="C94" s="7" t="s">
         <v>98</v>
       </c>
@@ -3082,7 +3180,9 @@
       <c r="A95" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B95" s="6"/>
+      <c r="B95" s="6">
+        <v>40</v>
+      </c>
       <c r="C95" s="7" t="s">
         <v>99</v>
       </c>
@@ -3094,7 +3194,9 @@
       <c r="A96" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B96" s="6"/>
+      <c r="B96" s="6">
+        <v>41</v>
+      </c>
       <c r="C96" s="7" t="s">
         <v>100</v>
       </c>
@@ -3106,7 +3208,9 @@
       <c r="A97" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B97" s="6"/>
+      <c r="B97" s="6">
+        <v>42</v>
+      </c>
       <c r="C97" s="7" t="s">
         <v>101</v>
       </c>
@@ -3118,7 +3222,9 @@
       <c r="A98" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B98" s="6"/>
+      <c r="B98" s="6">
+        <v>43</v>
+      </c>
       <c r="C98" s="7" t="s">
         <v>102</v>
       </c>
@@ -3136,7 +3242,9 @@
       <c r="A101" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B101" s="6"/>
+      <c r="B101" s="6">
+        <v>1</v>
+      </c>
       <c r="C101" s="7" t="s">
         <v>104</v>
       </c>
@@ -3148,7 +3256,9 @@
       <c r="A102" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="6"/>
+      <c r="B102" s="6">
+        <v>2</v>
+      </c>
       <c r="C102" s="7" t="s">
         <v>105</v>
       </c>
@@ -3160,7 +3270,9 @@
       <c r="A103" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B103" s="6"/>
+      <c r="B103" s="6">
+        <v>3</v>
+      </c>
       <c r="C103" s="7" t="s">
         <v>106</v>
       </c>
@@ -3172,7 +3284,9 @@
       <c r="A104" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B104" s="6"/>
+      <c r="B104" s="6">
+        <v>4</v>
+      </c>
       <c r="C104" s="7" t="s">
         <v>107</v>
       </c>
@@ -3184,7 +3298,9 @@
       <c r="A105" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B105" s="6"/>
+      <c r="B105" s="6">
+        <v>5</v>
+      </c>
       <c r="C105" s="7" t="s">
         <v>108</v>
       </c>
@@ -3196,7 +3312,9 @@
       <c r="A106" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B106" s="6"/>
+      <c r="B106" s="6">
+        <v>6</v>
+      </c>
       <c r="C106" s="7" t="s">
         <v>109</v>
       </c>
@@ -3208,7 +3326,9 @@
       <c r="A107" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B107" s="6"/>
+      <c r="B107" s="6">
+        <v>7</v>
+      </c>
       <c r="C107" s="7" t="s">
         <v>110</v>
       </c>
@@ -3220,7 +3340,9 @@
       <c r="A108" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B108" s="6"/>
+      <c r="B108" s="6">
+        <v>8</v>
+      </c>
       <c r="C108" s="7" t="s">
         <v>111</v>
       </c>
@@ -3232,7 +3354,9 @@
       <c r="A109" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B109" s="6"/>
+      <c r="B109" s="6">
+        <v>9</v>
+      </c>
       <c r="C109" s="7" t="s">
         <v>112</v>
       </c>
@@ -3244,7 +3368,9 @@
       <c r="A110" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B110" s="6"/>
+      <c r="B110" s="6">
+        <v>10</v>
+      </c>
       <c r="C110" s="7" t="s">
         <v>113</v>
       </c>
@@ -3256,7 +3382,9 @@
       <c r="A111" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B111" s="6"/>
+      <c r="B111" s="6">
+        <v>11</v>
+      </c>
       <c r="C111" s="7" t="s">
         <v>114</v>
       </c>
@@ -3268,7 +3396,9 @@
       <c r="A112" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B112" s="6"/>
+      <c r="B112" s="6">
+        <v>12</v>
+      </c>
       <c r="C112" s="7" t="s">
         <v>115</v>
       </c>
@@ -3280,7 +3410,9 @@
       <c r="A113" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B113" s="6"/>
+      <c r="B113" s="6">
+        <v>13</v>
+      </c>
       <c r="C113" s="7" t="s">
         <v>116</v>
       </c>
@@ -3292,7 +3424,9 @@
       <c r="A114" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B114" s="6"/>
+      <c r="B114" s="6">
+        <v>14</v>
+      </c>
       <c r="C114" s="7" t="s">
         <v>117</v>
       </c>
@@ -3304,7 +3438,9 @@
       <c r="A115" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B115" s="6"/>
+      <c r="B115" s="6">
+        <v>15</v>
+      </c>
       <c r="C115" s="7" t="s">
         <v>118</v>
       </c>
@@ -3316,7 +3452,9 @@
       <c r="A116" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B116" s="6"/>
+      <c r="B116" s="6">
+        <v>16</v>
+      </c>
       <c r="C116" s="7" t="s">
         <v>119</v>
       </c>
@@ -3328,7 +3466,9 @@
       <c r="A117" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B117" s="6"/>
+      <c r="B117" s="6">
+        <v>17</v>
+      </c>
       <c r="C117" s="7" t="s">
         <v>120</v>
       </c>
@@ -3340,7 +3480,9 @@
       <c r="A118" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B118" s="6"/>
+      <c r="B118" s="6">
+        <v>18</v>
+      </c>
       <c r="C118" s="7" t="s">
         <v>121</v>
       </c>
@@ -3352,7 +3494,9 @@
       <c r="A119" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B119" s="6"/>
+      <c r="B119" s="6">
+        <v>19</v>
+      </c>
       <c r="C119" s="7" t="s">
         <v>122</v>
       </c>
@@ -3364,7 +3508,9 @@
       <c r="A120" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B120" s="6"/>
+      <c r="B120" s="6">
+        <v>20</v>
+      </c>
       <c r="C120" s="7" t="s">
         <v>123</v>
       </c>
@@ -3376,7 +3522,9 @@
       <c r="A121" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B121" s="6"/>
+      <c r="B121" s="6">
+        <v>21</v>
+      </c>
       <c r="C121" s="7" t="s">
         <v>124</v>
       </c>
@@ -3388,7 +3536,9 @@
       <c r="A122" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B122" s="6"/>
+      <c r="B122" s="6">
+        <v>22</v>
+      </c>
       <c r="C122" s="7" t="s">
         <v>125</v>
       </c>
@@ -3400,7 +3550,9 @@
       <c r="A123" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B123" s="6"/>
+      <c r="B123" s="6">
+        <v>23</v>
+      </c>
       <c r="C123" s="7" t="s">
         <v>126</v>
       </c>
@@ -3412,7 +3564,9 @@
       <c r="A124" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B124" s="6"/>
+      <c r="B124" s="6">
+        <v>24</v>
+      </c>
       <c r="C124" s="7" t="s">
         <v>127</v>
       </c>
@@ -3424,7 +3578,9 @@
       <c r="A125" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B125" s="6"/>
+      <c r="B125" s="6">
+        <v>25</v>
+      </c>
       <c r="C125" s="7" t="s">
         <v>128</v>
       </c>
@@ -3436,7 +3592,9 @@
       <c r="A126" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B126" s="6"/>
+      <c r="B126" s="6">
+        <v>26</v>
+      </c>
       <c r="C126" s="7" t="s">
         <v>129</v>
       </c>
@@ -3448,7 +3606,9 @@
       <c r="A127" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B127" s="6"/>
+      <c r="B127" s="6">
+        <v>27</v>
+      </c>
       <c r="C127" s="7" t="s">
         <v>130</v>
       </c>
@@ -3460,7 +3620,9 @@
       <c r="A128" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B128" s="6"/>
+      <c r="B128" s="6">
+        <v>28</v>
+      </c>
       <c r="C128" s="7" t="s">
         <v>131</v>
       </c>
@@ -3472,7 +3634,9 @@
       <c r="A129" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B129" s="6"/>
+      <c r="B129" s="6">
+        <v>29</v>
+      </c>
       <c r="C129" s="7" t="s">
         <v>132</v>
       </c>
@@ -3484,7 +3648,9 @@
       <c r="A130" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B130" s="6"/>
+      <c r="B130" s="6">
+        <v>30</v>
+      </c>
       <c r="C130" s="7" t="s">
         <v>133</v>
       </c>
@@ -3496,7 +3662,9 @@
       <c r="A131" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B131" s="6"/>
+      <c r="B131" s="6">
+        <v>31</v>
+      </c>
       <c r="C131" s="7" t="s">
         <v>134</v>
       </c>
@@ -3508,7 +3676,9 @@
       <c r="A132" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B132" s="6"/>
+      <c r="B132" s="6">
+        <v>32</v>
+      </c>
       <c r="C132" s="7" t="s">
         <v>135</v>
       </c>
@@ -3520,7 +3690,9 @@
       <c r="A133" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B133" s="6"/>
+      <c r="B133" s="6">
+        <v>33</v>
+      </c>
       <c r="C133" s="7" t="s">
         <v>136</v>
       </c>
@@ -3532,7 +3704,9 @@
       <c r="A134" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B134" s="6"/>
+      <c r="B134" s="6">
+        <v>34</v>
+      </c>
       <c r="C134" s="7" t="s">
         <v>137</v>
       </c>
@@ -3544,7 +3718,9 @@
       <c r="A135" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B135" s="6"/>
+      <c r="B135" s="6">
+        <v>35</v>
+      </c>
       <c r="C135" s="7" t="s">
         <v>138</v>
       </c>
@@ -3556,7 +3732,9 @@
       <c r="A136" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B136" s="6"/>
+      <c r="B136" s="6">
+        <v>36</v>
+      </c>
       <c r="C136" s="7" t="s">
         <v>139</v>
       </c>
@@ -3572,7 +3750,9 @@
       <c r="A139" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B139" s="6"/>
+      <c r="B139" s="6">
+        <v>1</v>
+      </c>
       <c r="C139" s="7" t="s">
         <v>141</v>
       </c>
@@ -3584,7 +3764,9 @@
       <c r="A140" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B140" s="6"/>
+      <c r="B140" s="6">
+        <v>2</v>
+      </c>
       <c r="C140" s="7" t="s">
         <v>142</v>
       </c>
@@ -3596,7 +3778,9 @@
       <c r="A141" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B141" s="6"/>
+      <c r="B141" s="6">
+        <v>3</v>
+      </c>
       <c r="C141" s="7" t="s">
         <v>143</v>
       </c>
@@ -3608,7 +3792,9 @@
       <c r="A142" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B142" s="6"/>
+      <c r="B142" s="6">
+        <v>4</v>
+      </c>
       <c r="C142" s="7" t="s">
         <v>144</v>
       </c>
@@ -3620,7 +3806,9 @@
       <c r="A143" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B143" s="6"/>
+      <c r="B143" s="6">
+        <v>5</v>
+      </c>
       <c r="C143" s="7" t="s">
         <v>145</v>
       </c>
@@ -3632,7 +3820,9 @@
       <c r="A144" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B144" s="6"/>
+      <c r="B144" s="6">
+        <v>6</v>
+      </c>
       <c r="C144" s="7" t="s">
         <v>146</v>
       </c>
@@ -3644,7 +3834,9 @@
       <c r="A145" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B145" s="6"/>
+      <c r="B145" s="6">
+        <v>7</v>
+      </c>
       <c r="C145" s="7" t="s">
         <v>147</v>
       </c>
@@ -3656,7 +3848,9 @@
       <c r="A146" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B146" s="6"/>
+      <c r="B146" s="6">
+        <v>8</v>
+      </c>
       <c r="C146" s="7" t="s">
         <v>148</v>
       </c>
@@ -3668,7 +3862,9 @@
       <c r="A147" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B147" s="6"/>
+      <c r="B147" s="6">
+        <v>9</v>
+      </c>
       <c r="C147" s="7" t="s">
         <v>149</v>
       </c>
@@ -3680,7 +3876,9 @@
       <c r="A148" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B148" s="6"/>
+      <c r="B148" s="6">
+        <v>10</v>
+      </c>
       <c r="C148" s="7" t="s">
         <v>150</v>
       </c>
@@ -3692,7 +3890,9 @@
       <c r="A149" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B149" s="6"/>
+      <c r="B149" s="6">
+        <v>11</v>
+      </c>
       <c r="C149" s="7" t="s">
         <v>151</v>
       </c>
@@ -3704,7 +3904,9 @@
       <c r="A150" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B150" s="6"/>
+      <c r="B150" s="6">
+        <v>12</v>
+      </c>
       <c r="C150" s="7" t="s">
         <v>152</v>
       </c>
@@ -3716,7 +3918,9 @@
       <c r="A151" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B151" s="6"/>
+      <c r="B151" s="6">
+        <v>13</v>
+      </c>
       <c r="C151" s="7" t="s">
         <v>153</v>
       </c>
@@ -3728,7 +3932,9 @@
       <c r="A152" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B152" s="6"/>
+      <c r="B152" s="6">
+        <v>14</v>
+      </c>
       <c r="C152" s="7" t="s">
         <v>154</v>
       </c>
@@ -3740,7 +3946,9 @@
       <c r="A153" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B153" s="6"/>
+      <c r="B153" s="6">
+        <v>15</v>
+      </c>
       <c r="C153" s="7" t="s">
         <v>155</v>
       </c>
@@ -3752,7 +3960,9 @@
       <c r="A154" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B154" s="6"/>
+      <c r="B154" s="6">
+        <v>16</v>
+      </c>
       <c r="C154" s="7" t="s">
         <v>156</v>
       </c>
@@ -3764,7 +3974,9 @@
       <c r="A155" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B155" s="6"/>
+      <c r="B155" s="6">
+        <v>17</v>
+      </c>
       <c r="C155" s="7" t="s">
         <v>157</v>
       </c>
@@ -3776,7 +3988,9 @@
       <c r="A156" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B156" s="6"/>
+      <c r="B156" s="6">
+        <v>18</v>
+      </c>
       <c r="C156" s="7" t="s">
         <v>158</v>
       </c>
@@ -3788,7 +4002,9 @@
       <c r="A157" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B157" s="6"/>
+      <c r="B157" s="6">
+        <v>19</v>
+      </c>
       <c r="C157" s="7" t="s">
         <v>159</v>
       </c>
@@ -3800,7 +4016,9 @@
       <c r="A158" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B158" s="6"/>
+      <c r="B158" s="6">
+        <v>20</v>
+      </c>
       <c r="C158" s="7" t="s">
         <v>160</v>
       </c>
@@ -3812,7 +4030,9 @@
       <c r="A159" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B159" s="6"/>
+      <c r="B159" s="6">
+        <v>21</v>
+      </c>
       <c r="C159" s="7" t="s">
         <v>161</v>
       </c>
@@ -3824,7 +4044,9 @@
       <c r="A160" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B160" s="6"/>
+      <c r="B160" s="6">
+        <v>22</v>
+      </c>
       <c r="C160" s="7" t="s">
         <v>162</v>
       </c>
@@ -3836,7 +4058,9 @@
       <c r="A161" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B161" s="6"/>
+      <c r="B161" s="6">
+        <v>23</v>
+      </c>
       <c r="C161" s="7" t="s">
         <v>163</v>
       </c>
@@ -3848,7 +4072,9 @@
       <c r="A162" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B162" s="6"/>
+      <c r="B162" s="6">
+        <v>24</v>
+      </c>
       <c r="C162" s="7" t="s">
         <v>164</v>
       </c>
@@ -3860,7 +4086,9 @@
       <c r="A163" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B163" s="6"/>
+      <c r="B163" s="6">
+        <v>25</v>
+      </c>
       <c r="C163" s="7" t="s">
         <v>165</v>
       </c>
@@ -3872,7 +4100,9 @@
       <c r="A164" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B164" s="6"/>
+      <c r="B164" s="6">
+        <v>26</v>
+      </c>
       <c r="C164" s="8" t="s">
         <v>166</v>
       </c>
@@ -3884,7 +4114,9 @@
       <c r="A165" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B165" s="6"/>
+      <c r="B165" s="6">
+        <v>27</v>
+      </c>
       <c r="C165" s="8" t="s">
         <v>167</v>
       </c>
@@ -3896,7 +4128,9 @@
       <c r="A166" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B166" s="6"/>
+      <c r="B166" s="6">
+        <v>28</v>
+      </c>
       <c r="C166" s="7" t="s">
         <v>168</v>
       </c>
@@ -3908,7 +4142,9 @@
       <c r="A167" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B167" s="6"/>
+      <c r="B167" s="6">
+        <v>29</v>
+      </c>
       <c r="C167" s="7" t="s">
         <v>169</v>
       </c>
@@ -3920,7 +4156,9 @@
       <c r="A168" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B168" s="6"/>
+      <c r="B168" s="6">
+        <v>30</v>
+      </c>
       <c r="C168" s="7" t="s">
         <v>170</v>
       </c>
@@ -3932,7 +4170,9 @@
       <c r="A169" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B169" s="6"/>
+      <c r="B169" s="6">
+        <v>31</v>
+      </c>
       <c r="C169" s="7" t="s">
         <v>171</v>
       </c>
@@ -3944,7 +4184,9 @@
       <c r="A170" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B170" s="6"/>
+      <c r="B170" s="6">
+        <v>32</v>
+      </c>
       <c r="C170" s="7" t="s">
         <v>172</v>
       </c>
@@ -3956,7 +4198,9 @@
       <c r="A171" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B171" s="6"/>
+      <c r="B171" s="6">
+        <v>33</v>
+      </c>
       <c r="C171" s="7" t="s">
         <v>173</v>
       </c>
@@ -3968,7 +4212,9 @@
       <c r="A172" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B172" s="6"/>
+      <c r="B172" s="6">
+        <v>34</v>
+      </c>
       <c r="C172" s="7" t="s">
         <v>174</v>
       </c>
@@ -3980,7 +4226,9 @@
       <c r="A173" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B173" s="6"/>
+      <c r="B173" s="6">
+        <v>35</v>
+      </c>
       <c r="C173" s="7" t="s">
         <v>175</v>
       </c>
@@ -3992,7 +4240,9 @@
       <c r="A174" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B174" s="6"/>
+      <c r="B174" s="6">
+        <v>36</v>
+      </c>
       <c r="C174" s="7" t="s">
         <v>176</v>
       </c>
@@ -4008,7 +4258,9 @@
       <c r="A177" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B177" s="6"/>
+      <c r="B177" s="6">
+        <v>1</v>
+      </c>
       <c r="C177" s="7" t="s">
         <v>178</v>
       </c>
@@ -4020,7 +4272,9 @@
       <c r="A178" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B178" s="6"/>
+      <c r="B178" s="6">
+        <v>2</v>
+      </c>
       <c r="C178" s="7" t="s">
         <v>179</v>
       </c>
@@ -4032,7 +4286,9 @@
       <c r="A179" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B179" s="6"/>
+      <c r="B179" s="6">
+        <v>3</v>
+      </c>
       <c r="C179" s="7" t="s">
         <v>180</v>
       </c>
@@ -4044,7 +4300,9 @@
       <c r="A180" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B180" s="6"/>
+      <c r="B180" s="6">
+        <v>4</v>
+      </c>
       <c r="C180" s="7" t="s">
         <v>181</v>
       </c>
@@ -4056,7 +4314,9 @@
       <c r="A181" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B181" s="6"/>
+      <c r="B181" s="6">
+        <v>5</v>
+      </c>
       <c r="C181" s="7" t="s">
         <v>183</v>
       </c>
@@ -4068,7 +4328,9 @@
       <c r="A182" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B182" s="6"/>
+      <c r="B182" s="6">
+        <v>6</v>
+      </c>
       <c r="C182" s="7" t="s">
         <v>184</v>
       </c>
@@ -4080,7 +4342,9 @@
       <c r="A183" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B183" s="6"/>
+      <c r="B183" s="6">
+        <v>7</v>
+      </c>
       <c r="C183" s="7" t="s">
         <v>185</v>
       </c>
@@ -4092,7 +4356,9 @@
       <c r="A184" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B184" s="6"/>
+      <c r="B184" s="6">
+        <v>8</v>
+      </c>
       <c r="C184" s="7" t="s">
         <v>186</v>
       </c>
@@ -4104,7 +4370,9 @@
       <c r="A185" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B185" s="6"/>
+      <c r="B185" s="6">
+        <v>9</v>
+      </c>
       <c r="C185" s="7" t="s">
         <v>187</v>
       </c>
@@ -4116,7 +4384,9 @@
       <c r="A186" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B186" s="6"/>
+      <c r="B186" s="6">
+        <v>10</v>
+      </c>
       <c r="C186" s="7" t="s">
         <v>188</v>
       </c>
@@ -4128,7 +4398,9 @@
       <c r="A187" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B187" s="6"/>
+      <c r="B187" s="6">
+        <v>11</v>
+      </c>
       <c r="C187" s="7" t="s">
         <v>189</v>
       </c>
@@ -4140,7 +4412,9 @@
       <c r="A188" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B188" s="6"/>
+      <c r="B188" s="6">
+        <v>12</v>
+      </c>
       <c r="C188" s="7" t="s">
         <v>190</v>
       </c>
@@ -4152,7 +4426,9 @@
       <c r="A189" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B189" s="6"/>
+      <c r="B189" s="6">
+        <v>13</v>
+      </c>
       <c r="C189" s="7" t="s">
         <v>191</v>
       </c>
@@ -4164,7 +4440,9 @@
       <c r="A190" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B190" s="6"/>
+      <c r="B190" s="6">
+        <v>14</v>
+      </c>
       <c r="C190" s="7" t="s">
         <v>192</v>
       </c>
@@ -4176,7 +4454,9 @@
       <c r="A191" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B191" s="6"/>
+      <c r="B191" s="6">
+        <v>15</v>
+      </c>
       <c r="C191" s="7" t="s">
         <v>193</v>
       </c>
@@ -4188,7 +4468,9 @@
       <c r="A192" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B192" s="6"/>
+      <c r="B192" s="6">
+        <v>16</v>
+      </c>
       <c r="C192" s="7" t="s">
         <v>194</v>
       </c>
@@ -4200,7 +4482,9 @@
       <c r="A193" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B193" s="6"/>
+      <c r="B193" s="6">
+        <v>17</v>
+      </c>
       <c r="C193" s="7" t="s">
         <v>195</v>
       </c>
@@ -4212,7 +4496,9 @@
       <c r="A194" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B194" s="6"/>
+      <c r="B194" s="6">
+        <v>18</v>
+      </c>
       <c r="C194" s="7" t="s">
         <v>196</v>
       </c>
@@ -4224,7 +4510,9 @@
       <c r="A195" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B195" s="6"/>
+      <c r="B195" s="6">
+        <v>19</v>
+      </c>
       <c r="C195" s="7" t="s">
         <v>197</v>
       </c>
@@ -4236,7 +4524,9 @@
       <c r="A196" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B196" s="6"/>
+      <c r="B196" s="6">
+        <v>20</v>
+      </c>
       <c r="C196" s="7" t="s">
         <v>198</v>
       </c>
@@ -4248,7 +4538,9 @@
       <c r="A197" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B197" s="6"/>
+      <c r="B197" s="6">
+        <v>21</v>
+      </c>
       <c r="C197" s="7" t="s">
         <v>199</v>
       </c>
@@ -4260,7 +4552,9 @@
       <c r="A198" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B198" s="6"/>
+      <c r="B198" s="6">
+        <v>22</v>
+      </c>
       <c r="C198" s="7" t="s">
         <v>200</v>
       </c>
@@ -4272,7 +4566,9 @@
       <c r="A199" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B199" s="6"/>
+      <c r="B199" s="6">
+        <v>23</v>
+      </c>
       <c r="C199" s="7" t="s">
         <v>201</v>
       </c>
@@ -4284,7 +4580,9 @@
       <c r="A200" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B200" s="6"/>
+      <c r="B200" s="6">
+        <v>24</v>
+      </c>
       <c r="C200" s="7" t="s">
         <v>202</v>
       </c>
@@ -4296,7 +4594,9 @@
       <c r="A201" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B201" s="6"/>
+      <c r="B201" s="6">
+        <v>25</v>
+      </c>
       <c r="C201" s="7" t="s">
         <v>203</v>
       </c>
@@ -4308,7 +4608,9 @@
       <c r="A202" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B202" s="6"/>
+      <c r="B202" s="6">
+        <v>26</v>
+      </c>
       <c r="C202" s="7" t="s">
         <v>204</v>
       </c>
@@ -4320,7 +4622,9 @@
       <c r="A203" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B203" s="6"/>
+      <c r="B203" s="6">
+        <v>27</v>
+      </c>
       <c r="C203" s="7" t="s">
         <v>205</v>
       </c>
@@ -4332,7 +4636,9 @@
       <c r="A204" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B204" s="6"/>
+      <c r="B204" s="6">
+        <v>28</v>
+      </c>
       <c r="C204" s="7" t="s">
         <v>206</v>
       </c>
@@ -4344,7 +4650,9 @@
       <c r="A205" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B205" s="6"/>
+      <c r="B205" s="6">
+        <v>29</v>
+      </c>
       <c r="C205" s="7" t="s">
         <v>207</v>
       </c>
@@ -4356,7 +4664,9 @@
       <c r="A206" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B206" s="6"/>
+      <c r="B206" s="6">
+        <v>30</v>
+      </c>
       <c r="C206" s="7" t="s">
         <v>208</v>
       </c>
@@ -4368,7 +4678,9 @@
       <c r="A207" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B207" s="6"/>
+      <c r="B207" s="6">
+        <v>31</v>
+      </c>
       <c r="C207" s="7" t="s">
         <v>209</v>
       </c>
@@ -4380,7 +4692,9 @@
       <c r="A208" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B208" s="6"/>
+      <c r="B208" s="6">
+        <v>32</v>
+      </c>
       <c r="C208" s="7" t="s">
         <v>210</v>
       </c>
@@ -4392,7 +4706,9 @@
       <c r="A209" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B209" s="6"/>
+      <c r="B209" s="6">
+        <v>33</v>
+      </c>
       <c r="C209" s="7" t="s">
         <v>211</v>
       </c>
@@ -4404,7 +4720,9 @@
       <c r="A210" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B210" s="6"/>
+      <c r="B210" s="6">
+        <v>34</v>
+      </c>
       <c r="C210" s="7" t="s">
         <v>212</v>
       </c>
@@ -4416,7 +4734,9 @@
       <c r="A211" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B211" s="6"/>
+      <c r="B211" s="6">
+        <v>35</v>
+      </c>
       <c r="C211" s="7" t="s">
         <v>213</v>
       </c>
@@ -4440,7 +4760,9 @@
       <c r="A214" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B214" s="6"/>
+      <c r="B214" s="6">
+        <v>1</v>
+      </c>
       <c r="C214" s="7" t="s">
         <v>215</v>
       </c>
@@ -4452,7 +4774,9 @@
       <c r="A215" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B215" s="6"/>
+      <c r="B215" s="6">
+        <v>2</v>
+      </c>
       <c r="C215" s="7" t="s">
         <v>216</v>
       </c>
@@ -4464,7 +4788,9 @@
       <c r="A216" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B216" s="6"/>
+      <c r="B216" s="6">
+        <v>3</v>
+      </c>
       <c r="C216" s="7" t="s">
         <v>217</v>
       </c>
@@ -4476,7 +4802,9 @@
       <c r="A217" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B217" s="6"/>
+      <c r="B217" s="6">
+        <v>4</v>
+      </c>
       <c r="C217" s="7" t="s">
         <v>218</v>
       </c>
@@ -4488,7 +4816,9 @@
       <c r="A218" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B218" s="6"/>
+      <c r="B218" s="6">
+        <v>5</v>
+      </c>
       <c r="C218" s="7" t="s">
         <v>219</v>
       </c>
@@ -4500,7 +4830,9 @@
       <c r="A219" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B219" s="6"/>
+      <c r="B219" s="6">
+        <v>6</v>
+      </c>
       <c r="C219" s="7" t="s">
         <v>220</v>
       </c>
@@ -4512,7 +4844,9 @@
       <c r="A220" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B220" s="6"/>
+      <c r="B220" s="6">
+        <v>7</v>
+      </c>
       <c r="C220" s="9" t="s">
         <v>221</v>
       </c>
@@ -4524,7 +4858,9 @@
       <c r="A221" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B221" s="6"/>
+      <c r="B221" s="6">
+        <v>8</v>
+      </c>
       <c r="C221" s="7" t="s">
         <v>222</v>
       </c>
@@ -4536,7 +4872,9 @@
       <c r="A222" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B222" s="6"/>
+      <c r="B222" s="6">
+        <v>9</v>
+      </c>
       <c r="C222" s="7" t="s">
         <v>223</v>
       </c>
@@ -4548,7 +4886,9 @@
       <c r="A223" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B223" s="6"/>
+      <c r="B223" s="6">
+        <v>10</v>
+      </c>
       <c r="C223" s="7" t="s">
         <v>224</v>
       </c>
@@ -4560,7 +4900,9 @@
       <c r="A224" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B224" s="6"/>
+      <c r="B224" s="6">
+        <v>11</v>
+      </c>
       <c r="C224" s="7" t="s">
         <v>225</v>
       </c>
@@ -4572,7 +4914,9 @@
       <c r="A225" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B225" s="6"/>
+      <c r="B225" s="6">
+        <v>12</v>
+      </c>
       <c r="C225" s="7" t="s">
         <v>226</v>
       </c>
@@ -4584,7 +4928,9 @@
       <c r="A226" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B226" s="6"/>
+      <c r="B226" s="6">
+        <v>13</v>
+      </c>
       <c r="C226" s="7" t="s">
         <v>227</v>
       </c>
@@ -4596,7 +4942,9 @@
       <c r="A227" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B227" s="6"/>
+      <c r="B227" s="6">
+        <v>14</v>
+      </c>
       <c r="C227" s="7" t="s">
         <v>228</v>
       </c>
@@ -4608,7 +4956,9 @@
       <c r="A228" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B228" s="6"/>
+      <c r="B228" s="6">
+        <v>15</v>
+      </c>
       <c r="C228" s="7" t="s">
         <v>229</v>
       </c>
@@ -4620,7 +4970,9 @@
       <c r="A229" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B229" s="6"/>
+      <c r="B229" s="6">
+        <v>16</v>
+      </c>
       <c r="C229" s="7" t="s">
         <v>230</v>
       </c>
@@ -4632,7 +4984,9 @@
       <c r="A230" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B230" s="6"/>
+      <c r="B230" s="6">
+        <v>17</v>
+      </c>
       <c r="C230" s="7" t="s">
         <v>231</v>
       </c>
@@ -4644,7 +4998,9 @@
       <c r="A231" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B231" s="6"/>
+      <c r="B231" s="6">
+        <v>18</v>
+      </c>
       <c r="C231" s="7" t="s">
         <v>232</v>
       </c>
@@ -4656,7 +5012,9 @@
       <c r="A232" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B232" s="6"/>
+      <c r="B232" s="6">
+        <v>19</v>
+      </c>
       <c r="C232" s="7" t="s">
         <v>233</v>
       </c>
@@ -4668,7 +5026,9 @@
       <c r="A233" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B233" s="6"/>
+      <c r="B233" s="6">
+        <v>20</v>
+      </c>
       <c r="C233" s="7" t="s">
         <v>234</v>
       </c>
@@ -4680,7 +5040,9 @@
       <c r="A234" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B234" s="6"/>
+      <c r="B234" s="6">
+        <v>21</v>
+      </c>
       <c r="C234" s="7" t="s">
         <v>235</v>
       </c>
@@ -4692,7 +5054,9 @@
       <c r="A235" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B235" s="6"/>
+      <c r="B235" s="6">
+        <v>22</v>
+      </c>
       <c r="C235" s="7" t="s">
         <v>236</v>
       </c>
@@ -4712,7 +5076,9 @@
       <c r="A238" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B238" s="6"/>
+      <c r="B238" s="6">
+        <v>1</v>
+      </c>
       <c r="C238" s="7" t="s">
         <v>238</v>
       </c>
@@ -4724,7 +5090,9 @@
       <c r="A239" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B239" s="6"/>
+      <c r="B239" s="6">
+        <v>2</v>
+      </c>
       <c r="C239" s="7" t="s">
         <v>239</v>
       </c>
@@ -4736,7 +5104,9 @@
       <c r="A240" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B240" s="6"/>
+      <c r="B240" s="6">
+        <v>3</v>
+      </c>
       <c r="C240" s="7" t="s">
         <v>240</v>
       </c>
@@ -4748,7 +5118,9 @@
       <c r="A241" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B241" s="6"/>
+      <c r="B241" s="6">
+        <v>4</v>
+      </c>
       <c r="C241" s="7" t="s">
         <v>241</v>
       </c>
@@ -4760,7 +5132,9 @@
       <c r="A242" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B242" s="6"/>
+      <c r="B242" s="6">
+        <v>5</v>
+      </c>
       <c r="C242" s="7" t="s">
         <v>242</v>
       </c>
@@ -4772,7 +5146,9 @@
       <c r="A243" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B243" s="6"/>
+      <c r="B243" s="6">
+        <v>6</v>
+      </c>
       <c r="C243" s="7" t="s">
         <v>243</v>
       </c>
@@ -4784,7 +5160,9 @@
       <c r="A244" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B244" s="6"/>
+      <c r="B244" s="6">
+        <v>7</v>
+      </c>
       <c r="C244" s="7" t="s">
         <v>244</v>
       </c>
@@ -4796,7 +5174,9 @@
       <c r="A245" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B245" s="6"/>
+      <c r="B245" s="6">
+        <v>8</v>
+      </c>
       <c r="C245" s="7" t="s">
         <v>245</v>
       </c>
@@ -4808,7 +5188,9 @@
       <c r="A246" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B246" s="6"/>
+      <c r="B246" s="6">
+        <v>9</v>
+      </c>
       <c r="C246" s="7" t="s">
         <v>246</v>
       </c>
@@ -4820,7 +5202,9 @@
       <c r="A247" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B247" s="6"/>
+      <c r="B247" s="6">
+        <v>10</v>
+      </c>
       <c r="C247" s="7" t="s">
         <v>247</v>
       </c>
@@ -4832,7 +5216,9 @@
       <c r="A248" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B248" s="6"/>
+      <c r="B248" s="6">
+        <v>11</v>
+      </c>
       <c r="C248" s="7" t="s">
         <v>248</v>
       </c>
@@ -4844,7 +5230,9 @@
       <c r="A249" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B249" s="6"/>
+      <c r="B249" s="6">
+        <v>12</v>
+      </c>
       <c r="C249" s="7" t="s">
         <v>249</v>
       </c>
@@ -4856,7 +5244,9 @@
       <c r="A250" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B250" s="6"/>
+      <c r="B250" s="6">
+        <v>13</v>
+      </c>
       <c r="C250" s="7" t="s">
         <v>250</v>
       </c>
@@ -4868,7 +5258,9 @@
       <c r="A251" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B251" s="6"/>
+      <c r="B251" s="6">
+        <v>14</v>
+      </c>
       <c r="C251" s="7" t="s">
         <v>251</v>
       </c>
@@ -4880,7 +5272,9 @@
       <c r="A252" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B252" s="6"/>
+      <c r="B252" s="6">
+        <v>15</v>
+      </c>
       <c r="C252" s="7" t="s">
         <v>252</v>
       </c>
@@ -4892,7 +5286,9 @@
       <c r="A253" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B253" s="6"/>
+      <c r="B253" s="6">
+        <v>16</v>
+      </c>
       <c r="C253" s="7" t="s">
         <v>253</v>
       </c>
@@ -4904,7 +5300,9 @@
       <c r="A254" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B254" s="6"/>
+      <c r="B254" s="6">
+        <v>17</v>
+      </c>
       <c r="C254" s="7" t="s">
         <v>254</v>
       </c>
@@ -4916,7 +5314,9 @@
       <c r="A255" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B255" s="6"/>
+      <c r="B255" s="6">
+        <v>18</v>
+      </c>
       <c r="C255" s="7" t="s">
         <v>255</v>
       </c>
@@ -4928,7 +5328,9 @@
       <c r="A256" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B256" s="6"/>
+      <c r="B256" s="6">
+        <v>19</v>
+      </c>
       <c r="C256" s="7" t="s">
         <v>256</v>
       </c>
@@ -4940,7 +5342,9 @@
       <c r="A257" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B257" s="6"/>
+      <c r="B257" s="6">
+        <v>20</v>
+      </c>
       <c r="C257" s="7" t="s">
         <v>257</v>
       </c>
@@ -4952,7 +5356,9 @@
       <c r="A258" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B258" s="6"/>
+      <c r="B258" s="6">
+        <v>21</v>
+      </c>
       <c r="C258" s="7" t="s">
         <v>258</v>
       </c>
@@ -4964,7 +5370,9 @@
       <c r="A259" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B259" s="6"/>
+      <c r="B259" s="6">
+        <v>22</v>
+      </c>
       <c r="C259" s="7" t="s">
         <v>259</v>
       </c>
@@ -4976,7 +5384,9 @@
       <c r="A260" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B260" s="6"/>
+      <c r="B260" s="6">
+        <v>23</v>
+      </c>
       <c r="C260" s="7" t="s">
         <v>260</v>
       </c>
@@ -4988,7 +5398,9 @@
       <c r="A261" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B261" s="6"/>
+      <c r="B261" s="6">
+        <v>24</v>
+      </c>
       <c r="C261" s="7" t="s">
         <v>261</v>
       </c>
@@ -5000,7 +5412,9 @@
       <c r="A262" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B262" s="6"/>
+      <c r="B262" s="6">
+        <v>25</v>
+      </c>
       <c r="C262" s="7" t="s">
         <v>262</v>
       </c>
@@ -5012,7 +5426,9 @@
       <c r="A263" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B263" s="6"/>
+      <c r="B263" s="6">
+        <v>26</v>
+      </c>
       <c r="C263" s="7" t="s">
         <v>263</v>
       </c>
@@ -5024,7 +5440,9 @@
       <c r="A264" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B264" s="6"/>
+      <c r="B264" s="6">
+        <v>27</v>
+      </c>
       <c r="C264" s="7" t="s">
         <v>264</v>
       </c>
@@ -5036,7 +5454,9 @@
       <c r="A265" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B265" s="6"/>
+      <c r="B265" s="6">
+        <v>28</v>
+      </c>
       <c r="C265" s="7" t="s">
         <v>265</v>
       </c>
@@ -5048,7 +5468,9 @@
       <c r="A266" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B266" s="6"/>
+      <c r="B266" s="6">
+        <v>29</v>
+      </c>
       <c r="C266" s="7" t="s">
         <v>266</v>
       </c>
@@ -5060,7 +5482,9 @@
       <c r="A267" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B267" s="6"/>
+      <c r="B267" s="6">
+        <v>30</v>
+      </c>
       <c r="C267" s="7" t="s">
         <v>267</v>
       </c>
@@ -5072,7 +5496,9 @@
       <c r="A268" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B268" s="6"/>
+      <c r="B268" s="6">
+        <v>31</v>
+      </c>
       <c r="C268" s="7" t="s">
         <v>268</v>
       </c>
@@ -5084,7 +5510,9 @@
       <c r="A269" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B269" s="6"/>
+      <c r="B269" s="6">
+        <v>32</v>
+      </c>
       <c r="C269" s="7" t="s">
         <v>269</v>
       </c>
@@ -5096,7 +5524,9 @@
       <c r="A270" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B270" s="6"/>
+      <c r="B270" s="6">
+        <v>33</v>
+      </c>
       <c r="C270" s="7" t="s">
         <v>270</v>
       </c>
@@ -5108,7 +5538,9 @@
       <c r="A271" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B271" s="6"/>
+      <c r="B271" s="6">
+        <v>34</v>
+      </c>
       <c r="C271" s="7" t="s">
         <v>93</v>
       </c>
@@ -5120,7 +5552,9 @@
       <c r="A272" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B272" s="6"/>
+      <c r="B272" s="6">
+        <v>35</v>
+      </c>
       <c r="C272" s="7" t="s">
         <v>271</v>
       </c>
@@ -5140,7 +5574,9 @@
       <c r="A275" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B275" s="6"/>
+      <c r="B275" s="6">
+        <v>1</v>
+      </c>
       <c r="C275" s="7" t="s">
         <v>273</v>
       </c>
@@ -5152,7 +5588,9 @@
       <c r="A276" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B276" s="6"/>
+      <c r="B276" s="6">
+        <v>2</v>
+      </c>
       <c r="C276" s="7" t="s">
         <v>274</v>
       </c>
@@ -5164,7 +5602,9 @@
       <c r="A277" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B277" s="6"/>
+      <c r="B277" s="6">
+        <v>3</v>
+      </c>
       <c r="C277" s="7" t="s">
         <v>275</v>
       </c>
@@ -5176,7 +5616,9 @@
       <c r="A278" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B278" s="6"/>
+      <c r="B278" s="6">
+        <v>4</v>
+      </c>
       <c r="C278" s="7" t="s">
         <v>276</v>
       </c>
@@ -5188,7 +5630,9 @@
       <c r="A279" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B279" s="6"/>
+      <c r="B279" s="6">
+        <v>5</v>
+      </c>
       <c r="C279" s="7" t="s">
         <v>277</v>
       </c>
@@ -5200,7 +5644,9 @@
       <c r="A280" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B280" s="6"/>
+      <c r="B280" s="6">
+        <v>6</v>
+      </c>
       <c r="C280" s="7" t="s">
         <v>278</v>
       </c>
@@ -5212,7 +5658,9 @@
       <c r="A281" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B281" s="6"/>
+      <c r="B281" s="6">
+        <v>7</v>
+      </c>
       <c r="C281" s="7" t="s">
         <v>279</v>
       </c>
@@ -5224,7 +5672,9 @@
       <c r="A282" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B282" s="6"/>
+      <c r="B282" s="6">
+        <v>8</v>
+      </c>
       <c r="C282" s="7" t="s">
         <v>280</v>
       </c>
@@ -5236,7 +5686,9 @@
       <c r="A283" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B283" s="6"/>
+      <c r="B283" s="6">
+        <v>9</v>
+      </c>
       <c r="C283" s="7" t="s">
         <v>281</v>
       </c>
@@ -5248,7 +5700,9 @@
       <c r="A284" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B284" s="6"/>
+      <c r="B284" s="6">
+        <v>10</v>
+      </c>
       <c r="C284" s="7" t="s">
         <v>282</v>
       </c>
@@ -5260,7 +5714,9 @@
       <c r="A285" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B285" s="6"/>
+      <c r="B285" s="6">
+        <v>11</v>
+      </c>
       <c r="C285" s="7" t="s">
         <v>283</v>
       </c>
@@ -5272,7 +5728,9 @@
       <c r="A286" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B286" s="6"/>
+      <c r="B286" s="6">
+        <v>12</v>
+      </c>
       <c r="C286" s="7" t="s">
         <v>284</v>
       </c>
@@ -5284,7 +5742,9 @@
       <c r="A287" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B287" s="6"/>
+      <c r="B287" s="6">
+        <v>13</v>
+      </c>
       <c r="C287" s="7" t="s">
         <v>285</v>
       </c>
@@ -5296,7 +5756,9 @@
       <c r="A288" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B288" s="6"/>
+      <c r="B288" s="6">
+        <v>14</v>
+      </c>
       <c r="C288" s="7" t="s">
         <v>286</v>
       </c>
@@ -5308,7 +5770,9 @@
       <c r="A289" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B289" s="6"/>
+      <c r="B289" s="6">
+        <v>15</v>
+      </c>
       <c r="C289" s="7" t="s">
         <v>287</v>
       </c>
@@ -5320,7 +5784,9 @@
       <c r="A290" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B290" s="6"/>
+      <c r="B290" s="6">
+        <v>16</v>
+      </c>
       <c r="C290" s="7" t="s">
         <v>288</v>
       </c>
@@ -5332,7 +5798,9 @@
       <c r="A291" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B291" s="6"/>
+      <c r="B291" s="6">
+        <v>17</v>
+      </c>
       <c r="C291" s="7" t="s">
         <v>289</v>
       </c>
@@ -5344,7 +5812,9 @@
       <c r="A292" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B292" s="6"/>
+      <c r="B292" s="6">
+        <v>18</v>
+      </c>
       <c r="C292" s="7" t="s">
         <v>290</v>
       </c>
@@ -5356,7 +5826,9 @@
       <c r="A293" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B293" s="6"/>
+      <c r="B293" s="6">
+        <v>19</v>
+      </c>
       <c r="C293" s="7" t="s">
         <v>291</v>
       </c>
@@ -5376,7 +5848,9 @@
       <c r="A296" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B296" s="6"/>
+      <c r="B296" s="6">
+        <v>1</v>
+      </c>
       <c r="C296" s="7" t="s">
         <v>293</v>
       </c>
@@ -5388,7 +5862,9 @@
       <c r="A297" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B297" s="6"/>
+      <c r="B297" s="6">
+        <v>2</v>
+      </c>
       <c r="C297" s="7" t="s">
         <v>294</v>
       </c>
@@ -5400,7 +5876,9 @@
       <c r="A298" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B298" s="6"/>
+      <c r="B298" s="6">
+        <v>3</v>
+      </c>
       <c r="C298" s="7" t="s">
         <v>295</v>
       </c>
@@ -5412,7 +5890,9 @@
       <c r="A299" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B299" s="6"/>
+      <c r="B299" s="6">
+        <v>4</v>
+      </c>
       <c r="C299" s="7" t="s">
         <v>296</v>
       </c>
@@ -5424,7 +5904,9 @@
       <c r="A300" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B300" s="6"/>
+      <c r="B300" s="6">
+        <v>5</v>
+      </c>
       <c r="C300" s="7" t="s">
         <v>297</v>
       </c>
@@ -5436,7 +5918,9 @@
       <c r="A301" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B301" s="6"/>
+      <c r="B301" s="6">
+        <v>6</v>
+      </c>
       <c r="C301" s="7" t="s">
         <v>298</v>
       </c>
@@ -5448,7 +5932,9 @@
       <c r="A302" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B302" s="6"/>
+      <c r="B302" s="6">
+        <v>7</v>
+      </c>
       <c r="C302" s="7" t="s">
         <v>299</v>
       </c>
@@ -5460,7 +5946,9 @@
       <c r="A303" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B303" s="6"/>
+      <c r="B303" s="6">
+        <v>8</v>
+      </c>
       <c r="C303" s="7" t="s">
         <v>300</v>
       </c>
@@ -5472,7 +5960,9 @@
       <c r="A304" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B304" s="6"/>
+      <c r="B304" s="6">
+        <v>9</v>
+      </c>
       <c r="C304" s="7" t="s">
         <v>301</v>
       </c>
@@ -5484,7 +5974,9 @@
       <c r="A305" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B305" s="6"/>
+      <c r="B305" s="6">
+        <v>10</v>
+      </c>
       <c r="C305" s="7" t="s">
         <v>302</v>
       </c>
@@ -5496,7 +5988,9 @@
       <c r="A306" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B306" s="6"/>
+      <c r="B306" s="6">
+        <v>11</v>
+      </c>
       <c r="C306" s="7" t="s">
         <v>303</v>
       </c>
@@ -5508,7 +6002,9 @@
       <c r="A307" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B307" s="6"/>
+      <c r="B307" s="6">
+        <v>12</v>
+      </c>
       <c r="C307" s="7" t="s">
         <v>304</v>
       </c>
@@ -5520,7 +6016,9 @@
       <c r="A308" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B308" s="6"/>
+      <c r="B308" s="6">
+        <v>13</v>
+      </c>
       <c r="C308" s="7" t="s">
         <v>305</v>
       </c>
@@ -5532,7 +6030,9 @@
       <c r="A309" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B309" s="6"/>
+      <c r="B309" s="6">
+        <v>14</v>
+      </c>
       <c r="C309" s="9" t="s">
         <v>306</v>
       </c>
@@ -5544,7 +6044,9 @@
       <c r="A310" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B310" s="6"/>
+      <c r="B310" s="6">
+        <v>15</v>
+      </c>
       <c r="C310" s="7" t="s">
         <v>307</v>
       </c>
@@ -5556,7 +6058,9 @@
       <c r="A311" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B311" s="6"/>
+      <c r="B311" s="6">
+        <v>16</v>
+      </c>
       <c r="C311" s="7" t="s">
         <v>308</v>
       </c>
@@ -5568,7 +6072,9 @@
       <c r="A312" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B312" s="6"/>
+      <c r="B312" s="6">
+        <v>17</v>
+      </c>
       <c r="C312" s="7" t="s">
         <v>309</v>
       </c>
@@ -5580,7 +6086,9 @@
       <c r="A313" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B313" s="6"/>
+      <c r="B313" s="6">
+        <v>18</v>
+      </c>
       <c r="C313" s="7" t="s">
         <v>310</v>
       </c>
@@ -5592,7 +6100,9 @@
       <c r="A314" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B314" s="6"/>
+      <c r="B314" s="6">
+        <v>19</v>
+      </c>
       <c r="C314" s="7" t="s">
         <v>311</v>
       </c>
@@ -5604,7 +6114,9 @@
       <c r="A315" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B315" s="6"/>
+      <c r="B315" s="6">
+        <v>20</v>
+      </c>
       <c r="C315" s="7" t="s">
         <v>312</v>
       </c>
@@ -5616,7 +6128,9 @@
       <c r="A316" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B316" s="6"/>
+      <c r="B316" s="6">
+        <v>21</v>
+      </c>
       <c r="C316" s="7" t="s">
         <v>313</v>
       </c>
@@ -5628,7 +6142,9 @@
       <c r="A317" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B317" s="6"/>
+      <c r="B317" s="6">
+        <v>22</v>
+      </c>
       <c r="C317" s="7" t="s">
         <v>314</v>
       </c>
@@ -5640,7 +6156,9 @@
       <c r="A318" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B318" s="6"/>
+      <c r="B318" s="6">
+        <v>23</v>
+      </c>
       <c r="C318" s="7" t="s">
         <v>315</v>
       </c>
@@ -5652,7 +6170,9 @@
       <c r="A319" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B319" s="6"/>
+      <c r="B319" s="6">
+        <v>24</v>
+      </c>
       <c r="C319" s="7" t="s">
         <v>316</v>
       </c>
@@ -5664,7 +6184,9 @@
       <c r="A320" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B320" s="6"/>
+      <c r="B320" s="6">
+        <v>25</v>
+      </c>
       <c r="C320" s="7" t="s">
         <v>317</v>
       </c>
@@ -5676,7 +6198,9 @@
       <c r="A321" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B321" s="6"/>
+      <c r="B321" s="6">
+        <v>26</v>
+      </c>
       <c r="C321" s="7" t="s">
         <v>318</v>
       </c>
@@ -5688,7 +6212,9 @@
       <c r="A322" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B322" s="6"/>
+      <c r="B322" s="6">
+        <v>27</v>
+      </c>
       <c r="C322" s="7" t="s">
         <v>319</v>
       </c>
@@ -5700,7 +6226,9 @@
       <c r="A323" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B323" s="6"/>
+      <c r="B323" s="6">
+        <v>28</v>
+      </c>
       <c r="C323" s="7" t="s">
         <v>320</v>
       </c>
@@ -5712,7 +6240,9 @@
       <c r="A324" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B324" s="6"/>
+      <c r="B324" s="6">
+        <v>29</v>
+      </c>
       <c r="C324" s="7" t="s">
         <v>321</v>
       </c>
@@ -5724,7 +6254,9 @@
       <c r="A325" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B325" s="6"/>
+      <c r="B325" s="6">
+        <v>30</v>
+      </c>
       <c r="C325" s="7" t="s">
         <v>322</v>
       </c>
@@ -5736,7 +6268,9 @@
       <c r="A326" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B326" s="6"/>
+      <c r="B326" s="6">
+        <v>31</v>
+      </c>
       <c r="C326" s="7" t="s">
         <v>323</v>
       </c>
@@ -5748,7 +6282,9 @@
       <c r="A327" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B327" s="6"/>
+      <c r="B327" s="6">
+        <v>32</v>
+      </c>
       <c r="C327" s="7" t="s">
         <v>324</v>
       </c>
@@ -5760,7 +6296,9 @@
       <c r="A328" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B328" s="6"/>
+      <c r="B328" s="6">
+        <v>33</v>
+      </c>
       <c r="C328" s="7" t="s">
         <v>325</v>
       </c>
@@ -5772,7 +6310,9 @@
       <c r="A329" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B329" s="6"/>
+      <c r="B329" s="6">
+        <v>34</v>
+      </c>
       <c r="C329" s="7" t="s">
         <v>326</v>
       </c>
@@ -5784,7 +6324,9 @@
       <c r="A330" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B330" s="6"/>
+      <c r="B330" s="6">
+        <v>35</v>
+      </c>
       <c r="C330" s="7" t="s">
         <v>327</v>
       </c>
@@ -5796,7 +6338,9 @@
       <c r="A331" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B331" s="6"/>
+      <c r="B331" s="6">
+        <v>36</v>
+      </c>
       <c r="C331" s="7" t="s">
         <v>328</v>
       </c>
@@ -5808,7 +6352,9 @@
       <c r="A332" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B332" s="6"/>
+      <c r="B332" s="6">
+        <v>37</v>
+      </c>
       <c r="C332" s="7" t="s">
         <v>329</v>
       </c>
@@ -5820,7 +6366,9 @@
       <c r="A333" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B333" s="6"/>
+      <c r="B333" s="6">
+        <v>38</v>
+      </c>
       <c r="C333" s="7" t="s">
         <v>330</v>
       </c>
@@ -5840,7 +6388,9 @@
       <c r="A336" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B336" s="6"/>
+      <c r="B336" s="6">
+        <v>1</v>
+      </c>
       <c r="C336" s="7" t="s">
         <v>332</v>
       </c>
@@ -5852,7 +6402,9 @@
       <c r="A337" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B337" s="6"/>
+      <c r="B337" s="6">
+        <v>2</v>
+      </c>
       <c r="C337" s="7" t="s">
         <v>333</v>
       </c>
@@ -5864,7 +6416,9 @@
       <c r="A338" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B338" s="6"/>
+      <c r="B338" s="6">
+        <v>3</v>
+      </c>
       <c r="C338" s="7" t="s">
         <v>334</v>
       </c>
@@ -5876,7 +6430,9 @@
       <c r="A339" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B339" s="6"/>
+      <c r="B339" s="6">
+        <v>4</v>
+      </c>
       <c r="C339" s="7" t="s">
         <v>335</v>
       </c>
@@ -5888,7 +6444,9 @@
       <c r="A340" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B340" s="6"/>
+      <c r="B340" s="6">
+        <v>5</v>
+      </c>
       <c r="C340" s="7" t="s">
         <v>336</v>
       </c>
@@ -5900,7 +6458,9 @@
       <c r="A341" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B341" s="6"/>
+      <c r="B341" s="6">
+        <v>6</v>
+      </c>
       <c r="C341" s="7" t="s">
         <v>337</v>
       </c>
@@ -5912,7 +6472,9 @@
       <c r="A342" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B342" s="6"/>
+      <c r="B342" s="6">
+        <v>7</v>
+      </c>
       <c r="C342" s="7" t="s">
         <v>338</v>
       </c>
@@ -5924,7 +6486,9 @@
       <c r="A343" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B343" s="6"/>
+      <c r="B343" s="6">
+        <v>8</v>
+      </c>
       <c r="C343" s="7" t="s">
         <v>339</v>
       </c>
@@ -5936,7 +6500,9 @@
       <c r="A344" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B344" s="6"/>
+      <c r="B344" s="6">
+        <v>9</v>
+      </c>
       <c r="C344" s="9" t="s">
         <v>340</v>
       </c>
@@ -5948,7 +6514,9 @@
       <c r="A345" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B345" s="6"/>
+      <c r="B345" s="6">
+        <v>10</v>
+      </c>
       <c r="C345" s="7" t="s">
         <v>341</v>
       </c>
@@ -5960,7 +6528,9 @@
       <c r="A346" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B346" s="6"/>
+      <c r="B346" s="6">
+        <v>11</v>
+      </c>
       <c r="C346" s="7" t="s">
         <v>342</v>
       </c>
@@ -5972,7 +6542,9 @@
       <c r="A347" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B347" s="6"/>
+      <c r="B347" s="6">
+        <v>12</v>
+      </c>
       <c r="C347" s="7" t="s">
         <v>343</v>
       </c>
@@ -5984,7 +6556,9 @@
       <c r="A348" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B348" s="6"/>
+      <c r="B348" s="6">
+        <v>13</v>
+      </c>
       <c r="C348" s="7" t="s">
         <v>344</v>
       </c>
@@ -5996,7 +6570,9 @@
       <c r="A349" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B349" s="6"/>
+      <c r="B349" s="6">
+        <v>14</v>
+      </c>
       <c r="C349" s="7" t="s">
         <v>345</v>
       </c>
@@ -6008,7 +6584,9 @@
       <c r="A350" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B350" s="6"/>
+      <c r="B350" s="6">
+        <v>15</v>
+      </c>
       <c r="C350" s="7" t="s">
         <v>346</v>
       </c>
@@ -6020,7 +6598,9 @@
       <c r="A351" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B351" s="6"/>
+      <c r="B351" s="6">
+        <v>16</v>
+      </c>
       <c r="C351" s="7" t="s">
         <v>347</v>
       </c>
@@ -6032,7 +6612,9 @@
       <c r="A352" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B352" s="6"/>
+      <c r="B352" s="6">
+        <v>17</v>
+      </c>
       <c r="C352" s="7" t="s">
         <v>348</v>
       </c>
@@ -6044,7 +6626,9 @@
       <c r="A353" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B353" s="6"/>
+      <c r="B353" s="6">
+        <v>18</v>
+      </c>
       <c r="C353" s="7" t="s">
         <v>349</v>
       </c>
@@ -6064,7 +6648,9 @@
       <c r="A356" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B356" s="6"/>
+      <c r="B356" s="6">
+        <v>1</v>
+      </c>
       <c r="C356" s="7" t="s">
         <v>351</v>
       </c>
@@ -6076,7 +6662,9 @@
       <c r="A357" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B357" s="6"/>
+      <c r="B357" s="6">
+        <v>2</v>
+      </c>
       <c r="C357" s="7" t="s">
         <v>352</v>
       </c>
@@ -6088,7 +6676,9 @@
       <c r="A358" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B358" s="6"/>
+      <c r="B358" s="6">
+        <v>3</v>
+      </c>
       <c r="C358" s="7" t="s">
         <v>353</v>
       </c>
@@ -6100,7 +6690,9 @@
       <c r="A359" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B359" s="6"/>
+      <c r="B359" s="6">
+        <v>4</v>
+      </c>
       <c r="C359" s="7" t="s">
         <v>354</v>
       </c>
@@ -6112,7 +6704,9 @@
       <c r="A360" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B360" s="6"/>
+      <c r="B360" s="6">
+        <v>5</v>
+      </c>
       <c r="C360" s="7" t="s">
         <v>355</v>
       </c>
@@ -6124,7 +6718,9 @@
       <c r="A361" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B361" s="6"/>
+      <c r="B361" s="6">
+        <v>6</v>
+      </c>
       <c r="C361" s="7" t="s">
         <v>356</v>
       </c>
@@ -6136,7 +6732,9 @@
       <c r="A362" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B362" s="6"/>
+      <c r="B362" s="6">
+        <v>7</v>
+      </c>
       <c r="C362" s="7" t="s">
         <v>357</v>
       </c>
@@ -6148,7 +6746,9 @@
       <c r="A363" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B363" s="6"/>
+      <c r="B363" s="6">
+        <v>8</v>
+      </c>
       <c r="C363" s="7" t="s">
         <v>358</v>
       </c>
@@ -6160,7 +6760,9 @@
       <c r="A364" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B364" s="6"/>
+      <c r="B364" s="6">
+        <v>9</v>
+      </c>
       <c r="C364" s="7" t="s">
         <v>359</v>
       </c>
@@ -6172,7 +6774,9 @@
       <c r="A365" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B365" s="6"/>
+      <c r="B365" s="6">
+        <v>10</v>
+      </c>
       <c r="C365" s="7" t="s">
         <v>360</v>
       </c>
@@ -6184,7 +6788,9 @@
       <c r="A366" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B366" s="6"/>
+      <c r="B366" s="6">
+        <v>11</v>
+      </c>
       <c r="C366" s="7" t="s">
         <v>361</v>
       </c>
@@ -6196,7 +6802,9 @@
       <c r="A367" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B367" s="6"/>
+      <c r="B367" s="6">
+        <v>12</v>
+      </c>
       <c r="C367" s="7" t="s">
         <v>362</v>
       </c>
@@ -6208,7 +6816,9 @@
       <c r="A368" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B368" s="6"/>
+      <c r="B368" s="6">
+        <v>13</v>
+      </c>
       <c r="C368" s="7" t="s">
         <v>363</v>
       </c>
@@ -6220,7 +6830,9 @@
       <c r="A369" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B369" s="6"/>
+      <c r="B369" s="6">
+        <v>14</v>
+      </c>
       <c r="C369" s="7" t="s">
         <v>364</v>
       </c>
@@ -6232,7 +6844,9 @@
       <c r="A370" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B370" s="6"/>
+      <c r="B370" s="6">
+        <v>15</v>
+      </c>
       <c r="C370" s="7" t="s">
         <v>365</v>
       </c>
@@ -6244,7 +6858,9 @@
       <c r="A371" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B371" s="6"/>
+      <c r="B371" s="6">
+        <v>16</v>
+      </c>
       <c r="C371" s="7" t="s">
         <v>366</v>
       </c>
@@ -6256,7 +6872,9 @@
       <c r="A372" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B372" s="6"/>
+      <c r="B372" s="6">
+        <v>17</v>
+      </c>
       <c r="C372" s="7" t="s">
         <v>367</v>
       </c>
@@ -6268,7 +6886,9 @@
       <c r="A373" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B373" s="6"/>
+      <c r="B373" s="6">
+        <v>18</v>
+      </c>
       <c r="C373" s="7" t="s">
         <v>368</v>
       </c>
@@ -6280,7 +6900,9 @@
       <c r="A374" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B374" s="6"/>
+      <c r="B374" s="6">
+        <v>19</v>
+      </c>
       <c r="C374" s="7" t="s">
         <v>369</v>
       </c>
@@ -6292,7 +6914,9 @@
       <c r="A375" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B375" s="6"/>
+      <c r="B375" s="6">
+        <v>20</v>
+      </c>
       <c r="C375" s="7" t="s">
         <v>370</v>
       </c>
@@ -6304,7 +6928,9 @@
       <c r="A376" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B376" s="6"/>
+      <c r="B376" s="6">
+        <v>21</v>
+      </c>
       <c r="C376" s="7" t="s">
         <v>371</v>
       </c>
@@ -6316,7 +6942,9 @@
       <c r="A377" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B377" s="6"/>
+      <c r="B377" s="6">
+        <v>22</v>
+      </c>
       <c r="C377" s="7" t="s">
         <v>372</v>
       </c>
@@ -6328,7 +6956,9 @@
       <c r="A378" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B378" s="6"/>
+      <c r="B378" s="6">
+        <v>23</v>
+      </c>
       <c r="C378" s="7" t="s">
         <v>373</v>
       </c>
@@ -6340,7 +6970,9 @@
       <c r="A379" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B379" s="6"/>
+      <c r="B379" s="6">
+        <v>24</v>
+      </c>
       <c r="C379" s="7" t="s">
         <v>374</v>
       </c>
@@ -6352,7 +6984,9 @@
       <c r="A380" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B380" s="6"/>
+      <c r="B380" s="6">
+        <v>25</v>
+      </c>
       <c r="C380" s="7" t="s">
         <v>375</v>
       </c>
@@ -6364,7 +6998,9 @@
       <c r="A381" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B381" s="6"/>
+      <c r="B381" s="6">
+        <v>26</v>
+      </c>
       <c r="C381" s="7" t="s">
         <v>376</v>
       </c>
@@ -6376,7 +7012,9 @@
       <c r="A382" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B382" s="6"/>
+      <c r="B382" s="6">
+        <v>27</v>
+      </c>
       <c r="C382" s="7" t="s">
         <v>377</v>
       </c>
@@ -6388,7 +7026,9 @@
       <c r="A383" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B383" s="6"/>
+      <c r="B383" s="6">
+        <v>28</v>
+      </c>
       <c r="C383" s="7" t="s">
         <v>378</v>
       </c>
@@ -6400,7 +7040,9 @@
       <c r="A384" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B384" s="6"/>
+      <c r="B384" s="6">
+        <v>29</v>
+      </c>
       <c r="C384" s="7" t="s">
         <v>379</v>
       </c>
@@ -6412,7 +7054,9 @@
       <c r="A385" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B385" s="6"/>
+      <c r="B385" s="6">
+        <v>30</v>
+      </c>
       <c r="C385" s="7" t="s">
         <v>380</v>
       </c>
@@ -6424,7 +7068,9 @@
       <c r="A386" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B386" s="6"/>
+      <c r="B386" s="6">
+        <v>31</v>
+      </c>
       <c r="C386" s="7" t="s">
         <v>381</v>
       </c>
@@ -6436,7 +7082,9 @@
       <c r="A387" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B387" s="6"/>
+      <c r="B387" s="6">
+        <v>32</v>
+      </c>
       <c r="C387" s="7" t="s">
         <v>382</v>
       </c>
@@ -6448,7 +7096,9 @@
       <c r="A388" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B388" s="6"/>
+      <c r="B388" s="6">
+        <v>33</v>
+      </c>
       <c r="C388" s="7" t="s">
         <v>383</v>
       </c>
@@ -6460,7 +7110,9 @@
       <c r="A389" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B389" s="6"/>
+      <c r="B389" s="6">
+        <v>34</v>
+      </c>
       <c r="C389" s="7" t="s">
         <v>384</v>
       </c>
@@ -6472,7 +7124,9 @@
       <c r="A390" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B390" s="6"/>
+      <c r="B390" s="6">
+        <v>35</v>
+      </c>
       <c r="C390" s="7" t="s">
         <v>384</v>
       </c>
@@ -6484,7 +7138,9 @@
       <c r="A391" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B391" s="6"/>
+      <c r="B391" s="6">
+        <v>36</v>
+      </c>
       <c r="C391" s="7" t="s">
         <v>385</v>
       </c>
@@ -6496,7 +7152,9 @@
       <c r="A392" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B392" s="6"/>
+      <c r="B392" s="6">
+        <v>37</v>
+      </c>
       <c r="C392" s="7" t="s">
         <v>386</v>
       </c>
@@ -6508,7 +7166,9 @@
       <c r="A393" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B393" s="6"/>
+      <c r="B393" s="6">
+        <v>38</v>
+      </c>
       <c r="C393" s="7" t="s">
         <v>387</v>
       </c>
@@ -6520,7 +7180,9 @@
       <c r="A394" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B394" s="6"/>
+      <c r="B394" s="6">
+        <v>39</v>
+      </c>
       <c r="C394" s="7" t="s">
         <v>388</v>
       </c>
@@ -6532,7 +7194,9 @@
       <c r="A395" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B395" s="6"/>
+      <c r="B395" s="6">
+        <v>40</v>
+      </c>
       <c r="C395" s="7" t="s">
         <v>389</v>
       </c>
@@ -6544,7 +7208,9 @@
       <c r="A396" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B396" s="6"/>
+      <c r="B396" s="6">
+        <v>41</v>
+      </c>
       <c r="C396" s="7" t="s">
         <v>390</v>
       </c>
@@ -6556,7 +7222,9 @@
       <c r="A397" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B397" s="6"/>
+      <c r="B397" s="6">
+        <v>42</v>
+      </c>
       <c r="C397" s="7" t="s">
         <v>391</v>
       </c>
@@ -6568,7 +7236,9 @@
       <c r="A398" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B398" s="6"/>
+      <c r="B398" s="6">
+        <v>43</v>
+      </c>
       <c r="C398" s="7" t="s">
         <v>392</v>
       </c>
@@ -6580,7 +7250,9 @@
       <c r="A399" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B399" s="6"/>
+      <c r="B399" s="6">
+        <v>44</v>
+      </c>
       <c r="C399" s="7" t="s">
         <v>393</v>
       </c>
@@ -6600,7 +7272,9 @@
       <c r="A402" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="B402" s="6"/>
+      <c r="B402" s="6">
+        <v>1</v>
+      </c>
       <c r="C402" s="7" t="s">
         <v>395</v>
       </c>
@@ -6612,7 +7286,9 @@
       <c r="A403" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="B403" s="6"/>
+      <c r="B403" s="6">
+        <v>2</v>
+      </c>
       <c r="C403" s="7" t="s">
         <v>396</v>
       </c>
@@ -6624,7 +7300,9 @@
       <c r="A404" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="B404" s="6"/>
+      <c r="B404" s="6">
+        <v>3</v>
+      </c>
       <c r="C404" s="7" t="s">
         <v>397</v>
       </c>
@@ -6636,7 +7314,9 @@
       <c r="A405" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="B405" s="6"/>
+      <c r="B405" s="6">
+        <v>4</v>
+      </c>
       <c r="C405" s="7" t="s">
         <v>95</v>
       </c>
@@ -6648,7 +7328,9 @@
       <c r="A406" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="B406" s="6"/>
+      <c r="B406" s="6">
+        <v>5</v>
+      </c>
       <c r="C406" s="7" t="s">
         <v>398</v>
       </c>
@@ -6660,7 +7342,9 @@
       <c r="A407" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="B407" s="6"/>
+      <c r="B407" s="6">
+        <v>6</v>
+      </c>
       <c r="C407" s="7" t="s">
         <v>399</v>
       </c>
@@ -6680,7 +7364,9 @@
       <c r="A410" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B410" s="6"/>
+      <c r="B410" s="6">
+        <v>1</v>
+      </c>
       <c r="C410" s="7" t="s">
         <v>401</v>
       </c>
@@ -6692,7 +7378,9 @@
       <c r="A411" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B411" s="6"/>
+      <c r="B411" s="6">
+        <v>2</v>
+      </c>
       <c r="C411" s="7" t="s">
         <v>402</v>
       </c>
@@ -6704,7 +7392,9 @@
       <c r="A412" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B412" s="6"/>
+      <c r="B412" s="6">
+        <v>3</v>
+      </c>
       <c r="C412" s="7" t="s">
         <v>403</v>
       </c>
@@ -6716,7 +7406,9 @@
       <c r="A413" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B413" s="6"/>
+      <c r="B413" s="6">
+        <v>4</v>
+      </c>
       <c r="C413" s="7" t="s">
         <v>404</v>
       </c>
@@ -6728,7 +7420,9 @@
       <c r="A414" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B414" s="6"/>
+      <c r="B414" s="6">
+        <v>5</v>
+      </c>
       <c r="C414" s="7" t="s">
         <v>405</v>
       </c>
@@ -6740,7 +7434,9 @@
       <c r="A415" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B415" s="6"/>
+      <c r="B415" s="6">
+        <v>6</v>
+      </c>
       <c r="C415" s="7" t="s">
         <v>406</v>
       </c>
@@ -6752,7 +7448,9 @@
       <c r="A416" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B416" s="6"/>
+      <c r="B416" s="6">
+        <v>7</v>
+      </c>
       <c r="C416" s="7" t="s">
         <v>407</v>
       </c>
@@ -6764,7 +7462,9 @@
       <c r="A417" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B417" s="6"/>
+      <c r="B417" s="6">
+        <v>8</v>
+      </c>
       <c r="C417" s="7" t="s">
         <v>280</v>
       </c>
@@ -6776,7 +7476,9 @@
       <c r="A418" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B418" s="6"/>
+      <c r="B418" s="6">
+        <v>9</v>
+      </c>
       <c r="C418" s="7" t="s">
         <v>408</v>
       </c>
@@ -6788,7 +7490,9 @@
       <c r="A419" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B419" s="6"/>
+      <c r="B419" s="6">
+        <v>10</v>
+      </c>
       <c r="C419" s="7" t="s">
         <v>409</v>
       </c>
@@ -6800,7 +7504,9 @@
       <c r="A420" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B420" s="6"/>
+      <c r="B420" s="6">
+        <v>11</v>
+      </c>
       <c r="C420" s="7" t="s">
         <v>410</v>
       </c>
@@ -6812,7 +7518,9 @@
       <c r="A421" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B421" s="6"/>
+      <c r="B421" s="6">
+        <v>12</v>
+      </c>
       <c r="C421" s="7" t="s">
         <v>411</v>
       </c>
@@ -6824,7 +7532,9 @@
       <c r="A422" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B422" s="6"/>
+      <c r="B422" s="6">
+        <v>13</v>
+      </c>
       <c r="C422" s="7" t="s">
         <v>412</v>
       </c>
@@ -6836,7 +7546,9 @@
       <c r="A423" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B423" s="6"/>
+      <c r="B423" s="6">
+        <v>14</v>
+      </c>
       <c r="C423" s="7" t="s">
         <v>413</v>
       </c>
@@ -6848,7 +7560,9 @@
       <c r="A424" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B424" s="6"/>
+      <c r="B424" s="6">
+        <v>15</v>
+      </c>
       <c r="C424" s="7" t="s">
         <v>414</v>
       </c>
@@ -6860,7 +7574,9 @@
       <c r="A425" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B425" s="6"/>
+      <c r="B425" s="6">
+        <v>16</v>
+      </c>
       <c r="C425" s="7" t="s">
         <v>415</v>
       </c>
@@ -6872,7 +7588,9 @@
       <c r="A426" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B426" s="6"/>
+      <c r="B426" s="6">
+        <v>17</v>
+      </c>
       <c r="C426" s="7" t="s">
         <v>416</v>
       </c>
@@ -6884,7 +7602,9 @@
       <c r="A427" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B427" s="6"/>
+      <c r="B427" s="6">
+        <v>18</v>
+      </c>
       <c r="C427" s="7" t="s">
         <v>417</v>
       </c>
@@ -6896,7 +7616,9 @@
       <c r="A428" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B428" s="6"/>
+      <c r="B428" s="6">
+        <v>19</v>
+      </c>
       <c r="C428" s="7" t="s">
         <v>418</v>
       </c>
@@ -6908,7 +7630,9 @@
       <c r="A429" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B429" s="6"/>
+      <c r="B429" s="6">
+        <v>20</v>
+      </c>
       <c r="C429" s="7" t="s">
         <v>419</v>
       </c>
@@ -6920,7 +7644,9 @@
       <c r="A430" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B430" s="6"/>
+      <c r="B430" s="6">
+        <v>21</v>
+      </c>
       <c r="C430" s="7" t="s">
         <v>420</v>
       </c>
@@ -6932,7 +7658,9 @@
       <c r="A431" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B431" s="6"/>
+      <c r="B431" s="6">
+        <v>22</v>
+      </c>
       <c r="C431" s="7" t="s">
         <v>421</v>
       </c>
@@ -6944,7 +7672,9 @@
       <c r="A432" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B432" s="6"/>
+      <c r="B432" s="6">
+        <v>23</v>
+      </c>
       <c r="C432" s="7" t="s">
         <v>422</v>
       </c>
@@ -6956,7 +7686,9 @@
       <c r="A433" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B433" s="6"/>
+      <c r="B433" s="6">
+        <v>24</v>
+      </c>
       <c r="C433" s="7" t="s">
         <v>423</v>
       </c>
@@ -6968,7 +7700,9 @@
       <c r="A434" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B434" s="6"/>
+      <c r="B434" s="6">
+        <v>25</v>
+      </c>
       <c r="C434" s="7" t="s">
         <v>424</v>
       </c>
@@ -6980,7 +7714,9 @@
       <c r="A435" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B435" s="6"/>
+      <c r="B435" s="6">
+        <v>26</v>
+      </c>
       <c r="C435" s="7" t="s">
         <v>425</v>
       </c>
@@ -6992,7 +7728,9 @@
       <c r="A436" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B436" s="6"/>
+      <c r="B436" s="6">
+        <v>27</v>
+      </c>
       <c r="C436" s="7" t="s">
         <v>426</v>
       </c>
@@ -7004,7 +7742,9 @@
       <c r="A437" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B437" s="6"/>
+      <c r="B437" s="6">
+        <v>28</v>
+      </c>
       <c r="C437" s="7" t="s">
         <v>427</v>
       </c>
@@ -7016,7 +7756,9 @@
       <c r="A438" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B438" s="6"/>
+      <c r="B438" s="6">
+        <v>29</v>
+      </c>
       <c r="C438" s="7" t="s">
         <v>428</v>
       </c>
@@ -7028,7 +7770,9 @@
       <c r="A439" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B439" s="6"/>
+      <c r="B439" s="6">
+        <v>30</v>
+      </c>
       <c r="C439" s="7" t="s">
         <v>429</v>
       </c>
@@ -7040,7 +7784,9 @@
       <c r="A440" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B440" s="6"/>
+      <c r="B440" s="6">
+        <v>31</v>
+      </c>
       <c r="C440" s="7" t="s">
         <v>430</v>
       </c>
@@ -7052,7 +7798,9 @@
       <c r="A441" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B441" s="6"/>
+      <c r="B441" s="6">
+        <v>32</v>
+      </c>
       <c r="C441" s="7" t="s">
         <v>431</v>
       </c>
@@ -7064,7 +7812,9 @@
       <c r="A442" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B442" s="6"/>
+      <c r="B442" s="6">
+        <v>33</v>
+      </c>
       <c r="C442" s="7" t="s">
         <v>432</v>
       </c>
@@ -7076,7 +7826,9 @@
       <c r="A443" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B443" s="6"/>
+      <c r="B443" s="6">
+        <v>34</v>
+      </c>
       <c r="C443" s="7" t="s">
         <v>433</v>
       </c>
@@ -7088,7 +7840,9 @@
       <c r="A444" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B444" s="6"/>
+      <c r="B444" s="6">
+        <v>35</v>
+      </c>
       <c r="C444" s="7" t="s">
         <v>434</v>
       </c>
@@ -7100,7 +7854,9 @@
       <c r="A445" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B445" s="6"/>
+      <c r="B445" s="6">
+        <v>36</v>
+      </c>
       <c r="C445" s="7" t="s">
         <v>435</v>
       </c>
@@ -7112,7 +7868,9 @@
       <c r="A446" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B446" s="6"/>
+      <c r="B446" s="6">
+        <v>37</v>
+      </c>
       <c r="C446" s="7" t="s">
         <v>436</v>
       </c>
@@ -7124,7 +7882,9 @@
       <c r="A447" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B447" s="6"/>
+      <c r="B447" s="6">
+        <v>38</v>
+      </c>
       <c r="C447" s="7" t="s">
         <v>437</v>
       </c>
@@ -7136,7 +7896,9 @@
       <c r="A448" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B448" s="6"/>
+      <c r="B448" s="6">
+        <v>39</v>
+      </c>
       <c r="C448" s="7" t="s">
         <v>438</v>
       </c>
@@ -7148,7 +7910,9 @@
       <c r="A449" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B449" s="6"/>
+      <c r="B449" s="6">
+        <v>40</v>
+      </c>
       <c r="C449" s="7" t="s">
         <v>439</v>
       </c>
@@ -7160,7 +7924,9 @@
       <c r="A450" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B450" s="6"/>
+      <c r="B450" s="6">
+        <v>41</v>
+      </c>
       <c r="C450" s="7" t="s">
         <v>440</v>
       </c>
@@ -7172,7 +7938,9 @@
       <c r="A451" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B451" s="6"/>
+      <c r="B451" s="6">
+        <v>42</v>
+      </c>
       <c r="C451" s="7" t="s">
         <v>441</v>
       </c>
@@ -7184,7 +7952,9 @@
       <c r="A452" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B452" s="6"/>
+      <c r="B452" s="6">
+        <v>43</v>
+      </c>
       <c r="C452" s="7" t="s">
         <v>442</v>
       </c>
@@ -7196,7 +7966,9 @@
       <c r="A453" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B453" s="6"/>
+      <c r="B453" s="6">
+        <v>44</v>
+      </c>
       <c r="C453" s="7" t="s">
         <v>443</v>
       </c>
@@ -7208,7 +7980,9 @@
       <c r="A454" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B454" s="6"/>
+      <c r="B454" s="6">
+        <v>45</v>
+      </c>
       <c r="C454" s="7" t="s">
         <v>444</v>
       </c>
@@ -7220,7 +7994,9 @@
       <c r="A455" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B455" s="6"/>
+      <c r="B455" s="6">
+        <v>46</v>
+      </c>
       <c r="C455" s="7" t="s">
         <v>445</v>
       </c>
@@ -7232,7 +8008,9 @@
       <c r="A456" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B456" s="6"/>
+      <c r="B456" s="6">
+        <v>47</v>
+      </c>
       <c r="C456" s="7" t="s">
         <v>446</v>
       </c>
@@ -7244,7 +8022,9 @@
       <c r="A457" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B457" s="6"/>
+      <c r="B457" s="6">
+        <v>48</v>
+      </c>
       <c r="C457" s="7" t="s">
         <v>447</v>
       </c>
@@ -7256,7 +8036,9 @@
       <c r="A458" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B458" s="6"/>
+      <c r="B458" s="6">
+        <v>49</v>
+      </c>
       <c r="C458" s="7" t="s">
         <v>448</v>
       </c>
@@ -7268,7 +8050,9 @@
       <c r="A459" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B459" s="6"/>
+      <c r="B459" s="6">
+        <v>50</v>
+      </c>
       <c r="C459" s="7" t="s">
         <v>449</v>
       </c>
@@ -7280,7 +8064,9 @@
       <c r="A460" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B460" s="6"/>
+      <c r="B460" s="6">
+        <v>51</v>
+      </c>
       <c r="C460" s="7" t="s">
         <v>450</v>
       </c>
@@ -7292,7 +8078,9 @@
       <c r="A461" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B461" s="6"/>
+      <c r="B461" s="6">
+        <v>52</v>
+      </c>
       <c r="C461" s="7" t="s">
         <v>451</v>
       </c>
@@ -7304,7 +8092,9 @@
       <c r="A462" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B462" s="6"/>
+      <c r="B462" s="6">
+        <v>53</v>
+      </c>
       <c r="C462" s="7" t="s">
         <v>452</v>
       </c>
@@ -7316,7 +8106,9 @@
       <c r="A463" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B463" s="6"/>
+      <c r="B463" s="6">
+        <v>54</v>
+      </c>
       <c r="C463" s="7" t="s">
         <v>453</v>
       </c>
@@ -7328,7 +8120,9 @@
       <c r="A464" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B464" s="6"/>
+      <c r="B464" s="6">
+        <v>55</v>
+      </c>
       <c r="C464" s="7" t="s">
         <v>454</v>
       </c>
@@ -7340,7 +8134,9 @@
       <c r="A465" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B465" s="6"/>
+      <c r="B465" s="6">
+        <v>56</v>
+      </c>
       <c r="C465" s="7" t="s">
         <v>455</v>
       </c>
@@ -7352,7 +8148,9 @@
       <c r="A466" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B466" s="6"/>
+      <c r="B466" s="6">
+        <v>57</v>
+      </c>
       <c r="C466" s="7" t="s">
         <v>456</v>
       </c>
@@ -7364,7 +8162,9 @@
       <c r="A467" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B467" s="6"/>
+      <c r="B467" s="6">
+        <v>58</v>
+      </c>
       <c r="C467" s="7" t="s">
         <v>457</v>
       </c>
@@ -7376,7 +8176,9 @@
       <c r="A468" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B468" s="6"/>
+      <c r="B468" s="6">
+        <v>59</v>
+      </c>
       <c r="C468" s="7" t="s">
         <v>458</v>
       </c>
@@ -7388,7 +8190,9 @@
       <c r="A469" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B469" s="6"/>
+      <c r="B469" s="6">
+        <v>60</v>
+      </c>
       <c r="C469" s="7" t="s">
         <v>459</v>
       </c>
@@ -7410,7 +8214,9 @@
       <c r="A472" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="B472" s="6"/>
+      <c r="B472" s="6">
+        <v>1</v>
+      </c>
       <c r="C472" s="7" t="s">
         <v>461</v>
       </c>
@@ -7422,7 +8228,9 @@
       <c r="A473" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="B473" s="6"/>
+      <c r="B473" s="6">
+        <v>2</v>
+      </c>
       <c r="C473" s="7" t="s">
         <v>462</v>
       </c>
@@ -7434,7 +8242,9 @@
       <c r="A474" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="B474" s="6"/>
+      <c r="B474" s="6">
+        <v>3</v>
+      </c>
       <c r="C474" s="7" t="s">
         <v>463</v>
       </c>
@@ -7446,7 +8256,9 @@
       <c r="A475" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="B475" s="6"/>
+      <c r="B475" s="6">
+        <v>4</v>
+      </c>
       <c r="C475" s="7" t="s">
         <v>464</v>
       </c>
@@ -7458,7 +8270,9 @@
       <c r="A476" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="B476" s="6"/>
+      <c r="B476" s="6">
+        <v>5</v>
+      </c>
       <c r="C476" s="7" t="s">
         <v>465</v>
       </c>
@@ -7470,7 +8284,9 @@
       <c r="A477" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="B477" s="6"/>
+      <c r="B477" s="6">
+        <v>6</v>
+      </c>
       <c r="C477" s="7" t="s">
         <v>466</v>
       </c>
@@ -7482,7 +8298,9 @@
       <c r="A478" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="B478" s="6"/>
+      <c r="B478" s="6">
+        <v>7</v>
+      </c>
       <c r="C478" s="7" t="s">
         <v>467</v>
       </c>
@@ -7494,7 +8312,9 @@
       <c r="A479" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="B479" s="6"/>
+      <c r="B479" s="6">
+        <v>8</v>
+      </c>
       <c r="C479" s="7" t="s">
         <v>468</v>
       </c>
@@ -7506,7 +8326,9 @@
       <c r="A480" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="B480" s="6"/>
+      <c r="B480" s="6">
+        <v>9</v>
+      </c>
       <c r="C480" s="7" t="s">
         <v>469</v>
       </c>
@@ -7518,7 +8340,9 @@
       <c r="A481" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="B481" s="6"/>
+      <c r="B481" s="6">
+        <v>10</v>
+      </c>
       <c r="C481" s="7" t="s">
         <v>470</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\vineet\DSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\vineet\Coding\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B8210E-E961-4279-90F9-A8F83298B217}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86C1EAA-0268-4614-9681-1D9737BB78A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1927,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B472" sqref="B472:B481"/>
+    <sheetView tabSelected="1" topLeftCell="A466" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D475" sqref="D475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
@@ -8221,7 +8221,7 @@
         <v>461</v>
       </c>
       <c r="D472" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="473" spans="1:4" ht="21">
@@ -8235,7 +8235,7 @@
         <v>462</v>
       </c>
       <c r="D473" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="474" spans="1:4" ht="21">
@@ -8249,7 +8249,7 @@
         <v>463</v>
       </c>
       <c r="D474" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="475" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\vineet\Coding\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86C1EAA-0268-4614-9681-1D9737BB78A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A668CAF-3652-47B0-AA24-3E03A95FDD3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8263,7 +8263,7 @@
         <v>464</v>
       </c>
       <c r="D475" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="476" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\vineet\Coding\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A668CAF-3652-47B0-AA24-3E03A95FDD3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210942A1-B5D7-441A-9B35-E60F7BDCEAD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1927,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A466" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D475" sqref="D475"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
@@ -2565,7 +2565,7 @@
         <v>54</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\vineet\Coding\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210942A1-B5D7-441A-9B35-E60F7BDCEAD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17DB695-07CA-4CE6-885F-97DA457A90B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1927,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
@@ -2579,7 +2579,7 @@
         <v>55</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="21">
@@ -2621,7 +2621,7 @@
         <v>58</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="21">
